--- a/document/goods_Info.xlsx
+++ b/document/goods_Info.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aodrl\Desktop\Project\CMW_V2\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aodrl\Desktop\project\CMW_V2\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319FF950-6ACA-4468-A289-4BAE2BB1201B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D721ED82-C466-4207-96CA-0508CA88FFA0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="870" yWindow="1200" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{2202C1BA-8378-4109-9FCC-5C7E0CDB8A0F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{2202C1BA-8378-4109-9FCC-5C7E0CDB8A0F}"/>
   </bookViews>
   <sheets>
     <sheet name="정보" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="189">
   <si>
     <t>마진</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -784,6 +784,18 @@
       <t>롤</t>
     </r>
     <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>10롤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>30롤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2개</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1836,7 +1848,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="229">
+  <cellXfs count="232">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2284,6 +2296,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2521,7 +2534,15 @@
     <xf numFmtId="41" fontId="18" fillId="18" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="백분율" xfId="2" builtinId="5"/>
@@ -2873,53 +2894,53 @@
       <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.625" customWidth="1"/>
-    <col min="2" max="2" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.625" customWidth="1"/>
-    <col min="5" max="5" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.59765625" customWidth="1"/>
+    <col min="2" max="2" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.59765625" customWidth="1"/>
+    <col min="5" max="5" width="8.59765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.375" customWidth="1"/>
+    <col min="8" max="8" width="4.3984375" customWidth="1"/>
     <col min="9" max="9" width="11.5" customWidth="1"/>
-    <col min="10" max="10" width="8.75" customWidth="1"/>
-    <col min="11" max="11" width="5.625" customWidth="1"/>
-    <col min="12" max="12" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.625" customWidth="1"/>
-    <col min="16" max="16" width="4.875" customWidth="1"/>
-    <col min="17" max="17" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.875" customWidth="1"/>
-    <col min="20" max="20" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.69921875" customWidth="1"/>
+    <col min="11" max="11" width="5.59765625" customWidth="1"/>
+    <col min="12" max="12" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.59765625" customWidth="1"/>
+    <col min="16" max="16" width="4.8984375" customWidth="1"/>
+    <col min="17" max="17" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.8984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.8984375" customWidth="1"/>
+    <col min="20" max="20" width="6.8984375" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="6.5" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="7.5" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="9" style="122"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:29" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="149" t="s">
+    <row r="2" spans="2:29" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="150" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="149"/>
-      <c r="E2" s="149" t="s">
+      <c r="C2" s="150"/>
+      <c r="E2" s="150" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-      <c r="I2" s="150" t="s">
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="I2" s="151" t="s">
         <v>66</v>
       </c>
-      <c r="J2" s="151"/>
+      <c r="J2" s="152"/>
       <c r="L2" s="40" t="s">
         <v>67</v>
       </c>
       <c r="M2" s="41"/>
-      <c r="N2" s="149" t="s">
+      <c r="N2" s="150" t="s">
         <v>68</v>
       </c>
-      <c r="O2" s="149"/>
+      <c r="O2" s="150"/>
       <c r="Q2" s="126" t="s">
         <v>162</v>
       </c>
@@ -2948,7 +2969,7 @@
         <v>1862.85</v>
       </c>
     </row>
-    <row r="3" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B3" s="42" t="s">
         <v>69</v>
       </c>
@@ -3007,7 +3028,7 @@
         <v>1877.85</v>
       </c>
     </row>
-    <row r="4" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B4" s="50" t="s">
         <v>75</v>
       </c>
@@ -3066,7 +3087,7 @@
         <v>4060.125</v>
       </c>
     </row>
-    <row r="5" spans="2:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="50" t="s">
         <v>145</v>
       </c>
@@ -3131,7 +3152,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="6" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B6" s="50" t="s">
         <v>78</v>
       </c>
@@ -3195,7 +3216,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="7" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B7" s="50" t="s">
         <v>62</v>
       </c>
@@ -3259,7 +3280,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="8" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B8" s="119" t="s">
         <v>146</v>
       </c>
@@ -3322,7 +3343,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="9" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B9" s="50" t="s">
         <v>82</v>
       </c>
@@ -3386,7 +3407,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="10" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B10" s="50" t="s">
         <v>84</v>
       </c>
@@ -3450,7 +3471,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="11" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B11" s="50" t="s">
         <v>32</v>
       </c>
@@ -3514,7 +3535,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="12" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B12" s="50" t="s">
         <v>87</v>
       </c>
@@ -3577,7 +3598,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="13" spans="2:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B13" s="50" t="s">
         <v>89</v>
       </c>
@@ -3636,7 +3657,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="14" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B14" s="50" t="s">
         <v>91</v>
       </c>
@@ -3689,7 +3710,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="15" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B15" s="50" t="s">
         <v>93</v>
       </c>
@@ -3739,7 +3760,7 @@
         <v>12114</v>
       </c>
     </row>
-    <row r="16" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B16" s="50" t="s">
         <v>94</v>
       </c>
@@ -3789,7 +3810,7 @@
         <v>13938.5</v>
       </c>
     </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B17" s="50" t="s">
         <v>144</v>
       </c>
@@ -3839,7 +3860,7 @@
         <v>15710</v>
       </c>
     </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B18" s="50" t="s">
         <v>95</v>
       </c>
@@ -3889,7 +3910,7 @@
         <v>21993</v>
       </c>
     </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B19" s="50" t="s">
         <v>96</v>
       </c>
@@ -3912,7 +3933,7 @@
         <v>17500</v>
       </c>
     </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B20" s="50" t="s">
         <v>97</v>
       </c>
@@ -3935,7 +3956,7 @@
         <v>19800</v>
       </c>
     </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B21" s="50" t="s">
         <v>98</v>
       </c>
@@ -3958,7 +3979,7 @@
         <v>27700</v>
       </c>
     </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B22" s="50" t="s">
         <v>99</v>
       </c>
@@ -3981,7 +4002,7 @@
         <v>11500</v>
       </c>
     </row>
-    <row r="23" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="62" t="s">
         <v>100</v>
       </c>
@@ -4004,7 +4025,7 @@
         <v>19500</v>
       </c>
     </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:24" x14ac:dyDescent="0.4">
       <c r="E24" s="52" t="s">
         <v>82</v>
       </c>
@@ -4015,7 +4036,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:24" x14ac:dyDescent="0.4">
       <c r="E25" s="52" t="s">
         <v>84</v>
       </c>
@@ -4030,7 +4051,7 @@
         <v>0.21739130434782608</v>
       </c>
     </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:24" x14ac:dyDescent="0.4">
       <c r="E26" s="52" t="s">
         <v>84</v>
       </c>
@@ -4045,7 +4066,7 @@
         <v>0.21182266009852216</v>
       </c>
     </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:24" x14ac:dyDescent="0.4">
       <c r="E27" s="52" t="s">
         <v>84</v>
       </c>
@@ -4056,7 +4077,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:24" x14ac:dyDescent="0.4">
       <c r="E28" s="52" t="s">
         <v>32</v>
       </c>
@@ -4067,7 +4088,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:24" x14ac:dyDescent="0.4">
       <c r="E29" s="52" t="s">
         <v>32</v>
       </c>
@@ -4078,7 +4099,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:24" x14ac:dyDescent="0.4">
       <c r="E30" s="52" t="s">
         <v>32</v>
       </c>
@@ -4089,7 +4110,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:24" x14ac:dyDescent="0.4">
       <c r="E31" s="52" t="s">
         <v>87</v>
       </c>
@@ -4100,7 +4121,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:24" x14ac:dyDescent="0.4">
       <c r="E32" s="52" t="s">
         <v>87</v>
       </c>
@@ -4111,7 +4132,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="33" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E33" s="52" t="s">
         <v>87</v>
       </c>
@@ -4122,7 +4143,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="34" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E34" s="50" t="s">
         <v>89</v>
       </c>
@@ -4133,7 +4154,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="35" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E35" s="50" t="s">
         <v>91</v>
       </c>
@@ -4144,7 +4165,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="36" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E36" s="50" t="s">
         <v>93</v>
       </c>
@@ -4155,7 +4176,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="37" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E37" s="50" t="s">
         <v>94</v>
       </c>
@@ -4166,7 +4187,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="38" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E38" s="50" t="s">
         <v>95</v>
       </c>
@@ -4177,7 +4198,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="39" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E39" s="50" t="s">
         <v>96</v>
       </c>
@@ -4188,7 +4209,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="40" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E40" s="50" t="s">
         <v>97</v>
       </c>
@@ -4199,7 +4220,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="41" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E41" s="50" t="s">
         <v>98</v>
       </c>
@@ -4210,7 +4231,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="42" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E42" s="50" t="s">
         <v>99</v>
       </c>
@@ -4221,7 +4242,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="43" spans="5:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="5:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E43" s="62" t="s">
         <v>100</v>
       </c>
@@ -4232,232 +4253,232 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="44" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E44" s="65"/>
       <c r="F44" s="65"/>
       <c r="G44" s="65"/>
     </row>
-    <row r="45" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E45" s="65"/>
       <c r="F45" s="65"/>
       <c r="G45" s="65"/>
     </row>
-    <row r="46" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E46" s="65"/>
       <c r="F46" s="65"/>
       <c r="G46" s="65"/>
     </row>
-    <row r="47" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E47" s="65"/>
       <c r="F47" s="65"/>
       <c r="G47" s="65"/>
     </row>
-    <row r="48" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E48" s="65"/>
       <c r="F48" s="65"/>
       <c r="G48" s="65"/>
     </row>
-    <row r="49" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E49" s="65"/>
       <c r="F49" s="65"/>
       <c r="G49" s="65"/>
     </row>
-    <row r="50" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E50" s="65"/>
       <c r="F50" s="65"/>
       <c r="G50" s="65"/>
     </row>
-    <row r="51" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E51" s="65"/>
       <c r="F51" s="65"/>
       <c r="G51" s="65"/>
     </row>
-    <row r="52" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E52" s="65"/>
       <c r="F52" s="65"/>
       <c r="G52" s="65"/>
     </row>
-    <row r="53" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E53" s="65"/>
       <c r="F53" s="65"/>
       <c r="G53" s="65"/>
     </row>
-    <row r="54" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E54" s="65"/>
       <c r="F54" s="65"/>
       <c r="G54" s="65"/>
     </row>
-    <row r="55" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E55" s="65"/>
       <c r="F55" s="65"/>
       <c r="G55" s="65"/>
     </row>
-    <row r="56" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E56" s="65"/>
       <c r="F56" s="65"/>
       <c r="G56" s="65"/>
     </row>
-    <row r="57" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E57" s="65"/>
       <c r="F57" s="65"/>
       <c r="G57" s="65"/>
     </row>
-    <row r="58" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E58" s="65"/>
       <c r="F58" s="65"/>
       <c r="G58" s="65"/>
     </row>
-    <row r="59" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E59" s="65"/>
       <c r="F59" s="65"/>
       <c r="G59" s="65"/>
     </row>
-    <row r="60" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E60" s="65"/>
       <c r="F60" s="65"/>
       <c r="G60" s="65"/>
     </row>
-    <row r="61" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E61" s="65"/>
       <c r="F61" s="65"/>
       <c r="G61" s="65"/>
     </row>
-    <row r="62" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E62" s="65"/>
       <c r="F62" s="65"/>
       <c r="G62" s="65"/>
     </row>
-    <row r="63" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E63" s="65"/>
       <c r="F63" s="65"/>
       <c r="G63" s="65"/>
     </row>
-    <row r="64" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E64" s="65"/>
       <c r="F64" s="65"/>
       <c r="G64" s="65"/>
     </row>
-    <row r="65" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E65" s="65"/>
       <c r="F65" s="65"/>
       <c r="G65" s="65"/>
     </row>
-    <row r="66" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E66" s="65"/>
       <c r="F66" s="65"/>
       <c r="G66" s="65"/>
     </row>
-    <row r="67" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E67" s="65"/>
       <c r="F67" s="65"/>
       <c r="G67" s="65"/>
     </row>
-    <row r="68" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E68" s="65"/>
       <c r="F68" s="65"/>
       <c r="G68" s="65"/>
     </row>
-    <row r="69" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E69" s="65"/>
       <c r="F69" s="65"/>
       <c r="G69" s="65"/>
     </row>
-    <row r="70" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E70" s="65"/>
       <c r="F70" s="65"/>
       <c r="G70" s="65"/>
     </row>
-    <row r="71" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E71" s="65"/>
       <c r="F71" s="65"/>
       <c r="G71" s="65"/>
     </row>
-    <row r="72" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E72" s="65"/>
       <c r="F72" s="65"/>
       <c r="G72" s="65"/>
     </row>
-    <row r="73" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E73" s="65"/>
       <c r="F73" s="65"/>
       <c r="G73" s="65"/>
     </row>
-    <row r="74" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E74" s="65"/>
       <c r="F74" s="65"/>
       <c r="G74" s="65"/>
     </row>
-    <row r="75" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E75" s="65"/>
       <c r="F75" s="65"/>
       <c r="G75" s="65"/>
     </row>
-    <row r="76" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E76" s="65"/>
       <c r="F76" s="65"/>
       <c r="G76" s="65"/>
     </row>
-    <row r="77" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E77" s="65"/>
       <c r="F77" s="65"/>
       <c r="G77" s="65"/>
     </row>
-    <row r="78" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E78" s="65"/>
       <c r="F78" s="65"/>
       <c r="G78" s="65"/>
     </row>
-    <row r="79" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E79" s="65"/>
       <c r="F79" s="65"/>
       <c r="G79" s="65"/>
     </row>
-    <row r="80" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E80" s="65"/>
       <c r="F80" s="65"/>
       <c r="G80" s="65"/>
     </row>
-    <row r="81" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E81" s="65"/>
       <c r="F81" s="65"/>
       <c r="G81" s="65"/>
     </row>
-    <row r="82" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E82" s="65"/>
       <c r="F82" s="65"/>
       <c r="G82" s="65"/>
     </row>
-    <row r="83" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E83" s="65"/>
       <c r="F83" s="65"/>
       <c r="G83" s="65"/>
     </row>
-    <row r="84" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E84" s="65"/>
       <c r="F84" s="65"/>
       <c r="G84" s="65"/>
     </row>
-    <row r="85" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E85" s="65"/>
       <c r="F85" s="65"/>
       <c r="G85" s="65"/>
     </row>
-    <row r="86" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E86" s="65"/>
       <c r="F86" s="65"/>
       <c r="G86" s="65"/>
     </row>
-    <row r="87" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E87" s="65"/>
       <c r="F87" s="65"/>
       <c r="G87" s="65"/>
     </row>
-    <row r="88" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E88" s="65"/>
       <c r="F88" s="65"/>
       <c r="G88" s="65"/>
     </row>
-    <row r="89" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E89" s="65"/>
       <c r="F89" s="65"/>
       <c r="G89" s="65"/>
@@ -4477,49 +4498,49 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3104B28F-70C4-4516-B7D6-2295FDC1E0E7}">
-  <dimension ref="B2:AE32"/>
+  <dimension ref="B2:AD35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.75" customWidth="1"/>
-    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5" customWidth="1"/>
-    <col min="7" max="7" width="4.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.69921875" customWidth="1"/>
+    <col min="2" max="2" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.8984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.59765625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="3.125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.69921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.8984375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.8984375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.69921875" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:31" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="159" t="s">
+    <row r="2" spans="2:30" ht="20.399999999999999" x14ac:dyDescent="0.4">
+      <c r="B2" s="160" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="159"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
       <c r="G2" s="129" t="s">
         <v>171</v>
       </c>
@@ -4542,23 +4563,20 @@
         <v>172</v>
       </c>
       <c r="O2" s="129" t="s">
-        <v>7</v>
-      </c>
-      <c r="P2" s="129" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="141" t="s">
+      <c r="P2" s="141" t="s">
         <v>182</v>
       </c>
-      <c r="R2" s="140" t="s">
+      <c r="Q2" s="140" t="s">
         <v>180</v>
       </c>
-      <c r="S2" s="142" t="s">
+      <c r="R2" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="AB2" s="1"/>
-    </row>
-    <row r="3" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="AA2" s="1"/>
+    </row>
+    <row r="3" spans="2:30" x14ac:dyDescent="0.4">
       <c r="B3" s="130" t="s">
         <v>60</v>
       </c>
@@ -4592,32 +4610,29 @@
         <v>86.614173228346459</v>
       </c>
       <c r="N3" s="3">
-        <f>$E$20</f>
+        <f>$E$23</f>
         <v>104.50000000000001</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <f>$E$22*H3</f>
+        <v>20</v>
       </c>
       <c r="P3">
-        <f>$E$19*H3</f>
-        <v>15</v>
+        <f>-$E$26*H3*$E$4/1000</f>
+        <v>-99.230769230769226</v>
       </c>
       <c r="Q3">
-        <f>-$E$23*H3*$E$4/1000</f>
-        <v>-99.230769230769226</v>
-      </c>
-      <c r="R3">
-        <f>0.1*H3*$E$18</f>
+        <f>0.1*H3*$E$21</f>
         <v>49.500000000000007</v>
       </c>
-      <c r="S3" s="1">
-        <f>SUM(L3:R3)</f>
-        <v>1768.8834039975773</v>
-      </c>
-      <c r="AB3" s="1"/>
-    </row>
-    <row r="4" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B4" s="153" t="s">
+      <c r="R3" s="1">
+        <f>SUM(L3:Q3)</f>
+        <v>1773.8834039975773</v>
+      </c>
+      <c r="AA3" s="1"/>
+    </row>
+    <row r="4" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B4" s="154" t="s">
         <v>56</v>
       </c>
       <c r="C4" s="132" t="s">
@@ -4650,32 +4665,29 @@
         <v>86.614173228346459</v>
       </c>
       <c r="N4" s="3">
-        <f>$E$20+30</f>
-        <v>134.5</v>
+        <f>$E$23</f>
+        <v>104.50000000000001</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <f>$E$22*H4</f>
+        <v>20</v>
       </c>
       <c r="P4">
-        <f t="shared" ref="P4:P10" si="2">$E$19*H4</f>
-        <v>15</v>
+        <f>-$E$26*H4*$E$4/1000</f>
+        <v>-99.230769230769226</v>
       </c>
       <c r="Q4">
-        <f t="shared" ref="Q4:Q10" si="3">-$E$23*H4*$E$4/1000</f>
-        <v>-99.230769230769226</v>
-      </c>
-      <c r="R4">
-        <f>0.1*H4*$E$18</f>
+        <f>0.1*H4*$E$21</f>
         <v>49.500000000000007</v>
       </c>
-      <c r="S4" s="1">
-        <f>SUM(L4:R4)</f>
-        <v>1798.8834039975773</v>
-      </c>
-      <c r="AB4" s="1"/>
-    </row>
-    <row r="5" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B5" s="153"/>
+      <c r="R4" s="1">
+        <f>SUM(L4:Q4)</f>
+        <v>1773.8834039975773</v>
+      </c>
+      <c r="AA4" s="1"/>
+    </row>
+    <row r="5" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B5" s="154"/>
       <c r="C5" s="132" t="s">
         <v>38</v>
       </c>
@@ -4706,34 +4718,31 @@
         <v>207.87401574803152</v>
       </c>
       <c r="N5" s="3">
-        <f>$E$21</f>
+        <f>$E$24</f>
         <v>220.00000000000003</v>
       </c>
       <c r="O5">
+        <f>$E$22*H5</f>
+        <v>48</v>
+      </c>
+      <c r="P5">
+        <f>-$E$26*H5*$E$4/1000</f>
+        <v>-238.15384615384616</v>
+      </c>
+      <c r="Q5">
         <v>0</v>
       </c>
-      <c r="P5">
-        <f t="shared" si="2"/>
-        <v>36</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" si="3"/>
-        <v>-238.15384615384616</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5" s="1">
-        <f t="shared" ref="S5:S10" si="4">SUM(L5:R5)</f>
-        <v>3579.7201695941853</v>
-      </c>
-      <c r="AB5" s="1"/>
-    </row>
-    <row r="6" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B6" s="153" t="s">
+      <c r="R5" s="1">
+        <f>SUM(L5:Q5)</f>
+        <v>3591.7201695941853</v>
+      </c>
+      <c r="AA5" s="1"/>
+    </row>
+    <row r="6" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B6" s="154" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="154" t="s">
+      <c r="C6" s="155" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="133" t="s">
@@ -4768,28 +4777,25 @@
         <v>247.50000000000003</v>
       </c>
       <c r="O6">
+        <f>$E$22*H6</f>
+        <v>60</v>
+      </c>
+      <c r="P6">
+        <f>-$E$26*H6*$E$4/1000</f>
+        <v>-297.69230769230768</v>
+      </c>
+      <c r="Q6">
         <v>0</v>
       </c>
-      <c r="P6">
-        <f t="shared" si="2"/>
-        <v>45</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="3"/>
-        <v>-297.69230769230768</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6" s="1">
-        <f t="shared" si="4"/>
-        <v>3350.6502119927318</v>
-      </c>
-      <c r="AB6" s="1"/>
-    </row>
-    <row r="7" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B7" s="153"/>
-      <c r="C7" s="156"/>
+      <c r="R6" s="1">
+        <f>SUM(L6:Q6)</f>
+        <v>3365.6502119927318</v>
+      </c>
+      <c r="AA6" s="1"/>
+    </row>
+    <row r="7" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B7" s="154"/>
+      <c r="C7" s="157"/>
       <c r="D7" s="133" t="s">
         <v>50</v>
       </c>
@@ -4797,6 +4803,9 @@
         <f>E6/12.7</f>
         <v>8.6614173228346463</v>
       </c>
+      <c r="F7">
+        <v>8.5</v>
+      </c>
       <c r="G7" s="128">
         <v>5</v>
       </c>
@@ -4822,27 +4831,24 @@
         <v>247.50000000000003</v>
       </c>
       <c r="O7">
+        <f>$E$22*H7</f>
+        <v>60</v>
+      </c>
+      <c r="P7">
+        <f>-$E$26*H7*$E$4/1000</f>
+        <v>-297.69230769230768</v>
+      </c>
+      <c r="Q7">
         <v>0</v>
       </c>
-      <c r="P7">
-        <f t="shared" si="2"/>
-        <v>45</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="3"/>
-        <v>-297.69230769230768</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7" s="1">
-        <f t="shared" si="4"/>
-        <v>3608.6502119927318</v>
-      </c>
-      <c r="AB7" s="1"/>
-    </row>
-    <row r="8" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B8" s="153"/>
+      <c r="R7" s="1">
+        <f>SUM(L7:Q7)</f>
+        <v>3623.6502119927318</v>
+      </c>
+      <c r="AA7" s="1"/>
+    </row>
+    <row r="8" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B8" s="154"/>
       <c r="C8" s="132" t="s">
         <v>49</v>
       </c>
@@ -4877,27 +4883,24 @@
         <v>249.70000000000002</v>
       </c>
       <c r="O8">
+        <f>$E$22*H8</f>
+        <v>60</v>
+      </c>
+      <c r="P8">
+        <f>-$E$26*H8*$E$4/1000</f>
+        <v>-297.69230769230768</v>
+      </c>
+      <c r="Q8">
         <v>0</v>
       </c>
-      <c r="P8">
-        <f t="shared" si="2"/>
-        <v>45</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="3"/>
-        <v>-297.69230769230768</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8" s="1">
-        <f t="shared" si="4"/>
-        <v>4384.8502119927316</v>
-      </c>
-      <c r="AB8" s="1"/>
-    </row>
-    <row r="9" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B9" s="153" t="s">
+      <c r="R8" s="1">
+        <f>SUM(L8:Q8)</f>
+        <v>4399.8502119927316</v>
+      </c>
+      <c r="AA8" s="1"/>
+    </row>
+    <row r="9" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B9" s="154" t="s">
         <v>48</v>
       </c>
       <c r="C9" s="132" t="s">
@@ -4935,27 +4938,24 @@
         <v>255.20000000000002</v>
       </c>
       <c r="O9">
+        <f>$E$22*H9</f>
+        <v>60</v>
+      </c>
+      <c r="P9">
+        <f>-$E$26*H9*$E$4/1000</f>
+        <v>-297.69230769230768</v>
+      </c>
+      <c r="Q9">
         <v>0</v>
       </c>
-      <c r="P9">
-        <f t="shared" si="2"/>
-        <v>45</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="3"/>
-        <v>-297.69230769230768</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9" s="1">
-        <f t="shared" si="4"/>
-        <v>5035.3502119927316</v>
-      </c>
-      <c r="AB9" s="1"/>
-    </row>
-    <row r="10" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B10" s="153"/>
+      <c r="R9" s="1">
+        <f>SUM(L9:Q9)</f>
+        <v>5050.3502119927316</v>
+      </c>
+      <c r="AA9" s="1"/>
+    </row>
+    <row r="10" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B10" s="154"/>
       <c r="C10" s="132" t="s">
         <v>44</v>
       </c>
@@ -4991,27 +4991,24 @@
         <v>255.20000000000002</v>
       </c>
       <c r="O10">
+        <f>$E$22*H10</f>
+        <v>60</v>
+      </c>
+      <c r="P10">
+        <f>-$E$26*H10*$E$4/1000</f>
+        <v>-297.69230769230768</v>
+      </c>
+      <c r="Q10">
         <v>0</v>
       </c>
-      <c r="P10">
-        <f t="shared" si="2"/>
-        <v>45</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" si="3"/>
-        <v>-297.69230769230768</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10" s="1">
-        <f t="shared" si="4"/>
-        <v>5228.8502119927316</v>
-      </c>
-      <c r="AB10" s="1"/>
-    </row>
-    <row r="11" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B11" s="153"/>
+      <c r="R10" s="1">
+        <f>SUM(L10:Q10)</f>
+        <v>5243.8502119927316</v>
+      </c>
+      <c r="AA10" s="1"/>
+    </row>
+    <row r="11" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B11" s="154"/>
       <c r="C11" s="132" t="s">
         <v>176</v>
       </c>
@@ -5022,6 +5019,7 @@
         <f>232*1.1</f>
         <v>255.20000000000002</v>
       </c>
+      <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
@@ -5032,509 +5030,655 @@
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
-      <c r="AE11" s="1"/>
-    </row>
-    <row r="12" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B12" s="153" t="s">
+    </row>
+    <row r="12" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B12" s="229" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="133" t="s">
+      <c r="C12" s="132" t="s">
+        <v>186</v>
+      </c>
+      <c r="D12" s="133" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="26">
+        <f>30*1.1</f>
+        <v>33</v>
+      </c>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+    </row>
+    <row r="13" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B13" s="230"/>
+      <c r="C13" s="132" t="s">
+        <v>187</v>
+      </c>
+      <c r="D13" s="133" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="26">
+        <f>135*1.1</f>
+        <v>148.5</v>
+      </c>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+    </row>
+    <row r="14" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B14" s="230"/>
+      <c r="C14" s="132" t="s">
+        <v>187</v>
+      </c>
+      <c r="D14" s="133" t="s">
+        <v>188</v>
+      </c>
+      <c r="E14" s="26">
+        <f>176*1.1</f>
+        <v>193.60000000000002</v>
+      </c>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+    </row>
+    <row r="15" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B15" s="230"/>
+      <c r="C15" s="133" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="133" t="s">
+      <c r="D15" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E15" s="26">
         <f>228*1.1</f>
         <v>250.8</v>
       </c>
-      <c r="J12" s="147">
+      <c r="J15" s="147">
         <v>1</v>
       </c>
-      <c r="K12" s="147">
+      <c r="K15" s="147">
+        <v>5</v>
+      </c>
+      <c r="L15" s="147">
         <v>10</v>
       </c>
-      <c r="S12"/>
-      <c r="Z12" s="1"/>
-      <c r="AB12" s="1"/>
-    </row>
-    <row r="13" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B13" s="153"/>
-      <c r="C13" s="133" t="s">
+      <c r="R15"/>
+      <c r="Y15" s="1"/>
+      <c r="AA15" s="1"/>
+    </row>
+    <row r="16" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B16" s="230"/>
+      <c r="C16" s="133" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="133" t="s">
+      <c r="D16" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E16" s="26">
         <f>230*1.1</f>
         <v>253.00000000000003</v>
-      </c>
-      <c r="G13" s="145"/>
-      <c r="H13" s="144"/>
-      <c r="I13" s="148" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" s="143">
-        <f>$S3*J$12</f>
-        <v>1768.8834039975773</v>
-      </c>
-      <c r="K13" s="143">
-        <f t="shared" ref="K13" si="5">$S$3*K12</f>
-        <v>17688.834039975773</v>
-      </c>
-      <c r="L13" s="144"/>
-      <c r="M13" s="144"/>
-      <c r="N13" s="144"/>
-      <c r="O13" s="144"/>
-      <c r="P13" s="144"/>
-      <c r="Q13" s="144"/>
-      <c r="R13" s="144"/>
-      <c r="S13" s="144"/>
-      <c r="Z13" s="1"/>
-      <c r="AB13" s="1"/>
-    </row>
-    <row r="14" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B14" s="153"/>
-      <c r="C14" s="133" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="133" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="26">
-        <f>232*1.1</f>
-        <v>255.20000000000002</v>
-      </c>
-      <c r="G14" s="145"/>
-      <c r="H14" s="144"/>
-      <c r="I14" s="148" t="s">
-        <v>16</v>
-      </c>
-      <c r="J14" s="143">
-        <f>$S4*J$12</f>
-        <v>1798.8834039975773</v>
-      </c>
-      <c r="K14" s="143">
-        <f t="shared" ref="K14" si="6">$S4*K$12</f>
-        <v>17988.834039975773</v>
-      </c>
-      <c r="L14" s="144"/>
-      <c r="M14" s="144"/>
-      <c r="N14" s="144"/>
-      <c r="O14" s="144"/>
-      <c r="P14" s="144"/>
-      <c r="Q14" s="144"/>
-      <c r="R14" s="144"/>
-      <c r="S14" s="144"/>
-      <c r="Z14" s="1"/>
-      <c r="AB14" s="1"/>
-    </row>
-    <row r="15" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B15" s="152" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="132" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="133" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="26">
-        <f>1015*1.1</f>
-        <v>1116.5</v>
-      </c>
-      <c r="G15" s="145"/>
-      <c r="H15" s="144"/>
-      <c r="I15" s="148"/>
-      <c r="J15" s="147">
-        <v>1</v>
-      </c>
-      <c r="K15" s="147">
-        <v>2</v>
-      </c>
-      <c r="L15" s="147">
-        <v>3</v>
-      </c>
-      <c r="N15" s="144"/>
-      <c r="O15" s="144"/>
-      <c r="Z15" s="1"/>
-      <c r="AB15" s="1"/>
-    </row>
-    <row r="16" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B16" s="153"/>
-      <c r="C16" s="132" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="133" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="26">
-        <f>1060*1.1</f>
-        <v>1166</v>
       </c>
       <c r="G16" s="145"/>
       <c r="H16" s="144"/>
       <c r="I16" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="144">
-        <f>$S5*J$15</f>
-        <v>3579.7201695941853</v>
-      </c>
-      <c r="K16" s="144">
-        <f t="shared" ref="K16:L16" si="7">$S5*K$15</f>
-        <v>7159.4403391883707</v>
+      <c r="J16" s="143">
+        <f>$R3*J$15</f>
+        <v>1773.8834039975773</v>
+      </c>
+      <c r="K16" s="143">
+        <f t="shared" ref="K16:L16" si="2">$R3*K$15</f>
+        <v>8869.4170199878863</v>
       </c>
       <c r="L16" s="143">
-        <f t="shared" si="7"/>
-        <v>10739.160508782556</v>
+        <f t="shared" si="2"/>
+        <v>17738.834039975773</v>
       </c>
       <c r="M16" s="144"/>
       <c r="N16" s="144"/>
       <c r="O16" s="144"/>
-      <c r="Z16" s="1"/>
-      <c r="AB16" s="1"/>
-    </row>
-    <row r="17" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B17" s="132" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="132" t="s">
-        <v>36</v>
+      <c r="P16" s="144"/>
+      <c r="Q16" s="144"/>
+      <c r="R16" s="144"/>
+      <c r="Y16" s="1"/>
+      <c r="AA16" s="1"/>
+    </row>
+    <row r="17" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B17" s="231"/>
+      <c r="C17" s="133" t="s">
+        <v>43</v>
       </c>
       <c r="D17" s="133" t="s">
         <v>21</v>
       </c>
       <c r="E17" s="26">
-        <f>45*1.1</f>
-        <v>49.500000000000007</v>
+        <f>232*1.1</f>
+        <v>255.20000000000002</v>
       </c>
       <c r="G17" s="145"/>
       <c r="H17" s="144"/>
-      <c r="J17" s="147">
-        <v>1</v>
-      </c>
-      <c r="K17" s="147">
-        <v>2</v>
-      </c>
-      <c r="L17" s="144"/>
-      <c r="M17" s="144"/>
+      <c r="I17" s="148" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="143">
+        <f>$R4*J$15</f>
+        <v>1773.8834039975773</v>
+      </c>
+      <c r="K17" s="143">
+        <f>$R4*K$15</f>
+        <v>8869.4170199878863</v>
+      </c>
+      <c r="L17" s="143">
+        <f>$R4*L$15</f>
+        <v>17738.834039975773</v>
+      </c>
+      <c r="M17" s="144">
+        <v>18070</v>
+      </c>
       <c r="N17" s="144"/>
       <c r="O17" s="144"/>
-      <c r="Z17" s="1"/>
-      <c r="AB17" s="1"/>
-    </row>
-    <row r="18" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B18" s="132" t="s">
-        <v>35</v>
+      <c r="P17" s="144"/>
+      <c r="Q17" s="144"/>
+      <c r="R17" s="144"/>
+      <c r="Y17" s="1"/>
+      <c r="AA17" s="1"/>
+    </row>
+    <row r="18" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B18" s="153" t="s">
+        <v>42</v>
       </c>
       <c r="C18" s="132" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D18" s="133" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E18" s="26">
-        <f>45*1.1</f>
-        <v>49.500000000000007</v>
-      </c>
-      <c r="G18" s="144"/>
+        <f>1015*1.1</f>
+        <v>1116.5</v>
+      </c>
+      <c r="G18" s="145"/>
       <c r="H18" s="144"/>
-      <c r="I18" s="148" t="s">
-        <v>16</v>
-      </c>
-      <c r="J18" s="144">
-        <f>$S6*J$17</f>
-        <v>3350.6502119927318</v>
-      </c>
-      <c r="K18" s="143">
-        <f>$S6*K$17</f>
-        <v>6701.3004239854636</v>
-      </c>
-      <c r="L18" s="144">
-        <f>K18+200</f>
-        <v>6901.3004239854636</v>
-      </c>
-      <c r="M18" s="144"/>
+      <c r="I18" s="148"/>
+      <c r="J18" s="147">
+        <v>1</v>
+      </c>
+      <c r="K18" s="147">
+        <v>2</v>
+      </c>
+      <c r="L18" s="147">
+        <v>3</v>
+      </c>
+      <c r="M18" s="147">
+        <v>4</v>
+      </c>
       <c r="N18" s="144"/>
-      <c r="O18" s="144"/>
-      <c r="Z18" s="1"/>
-      <c r="AB18" s="1"/>
-    </row>
-    <row r="19" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B19" s="132" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="134" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="134">
-        <v>70000</v>
+      <c r="Y18" s="1"/>
+      <c r="AA18" s="1"/>
+    </row>
+    <row r="19" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B19" s="154"/>
+      <c r="C19" s="132" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="133" t="s">
+        <v>21</v>
       </c>
       <c r="E19" s="26">
-        <v>1.5</v>
+        <f>1060*1.1</f>
+        <v>1166</v>
       </c>
       <c r="G19" s="145"/>
       <c r="H19" s="144"/>
       <c r="I19" s="148" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="J19" s="144">
-        <f t="shared" ref="J19:K22" si="8">$S7*J$17</f>
-        <v>3608.6502119927318</v>
-      </c>
-      <c r="K19" s="143">
-        <f t="shared" si="8"/>
-        <v>7217.3004239854636</v>
-      </c>
-      <c r="L19" s="144">
-        <f>K19+200</f>
-        <v>7417.3004239854636</v>
-      </c>
-      <c r="M19" s="144"/>
+        <f>$R5*J$18</f>
+        <v>3591.7201695941853</v>
+      </c>
+      <c r="K19" s="144">
+        <f>$R5*K$18</f>
+        <v>7183.4403391883707</v>
+      </c>
+      <c r="L19" s="143">
+        <f>$R5*L$18</f>
+        <v>10775.160508782556</v>
+      </c>
+      <c r="M19" s="143">
+        <f>$R5*M$18</f>
+        <v>14366.880678376741</v>
+      </c>
       <c r="N19" s="144"/>
-      <c r="O19" s="144"/>
-      <c r="Z19" s="1"/>
-      <c r="AB19" s="1"/>
-    </row>
-    <row r="20" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="O19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="AA19" s="1"/>
+    </row>
+    <row r="20" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B20" s="132" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="134" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="134" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="132" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="133" t="s">
         <v>21</v>
       </c>
       <c r="E20" s="26">
-        <f>95*1.1</f>
-        <v>104.50000000000001</v>
+        <f>45*1.1</f>
+        <v>49.500000000000007</v>
       </c>
       <c r="G20" s="145"/>
       <c r="H20" s="144"/>
-      <c r="I20" s="148" t="s">
-        <v>82</v>
-      </c>
-      <c r="J20" s="144">
-        <f t="shared" si="8"/>
-        <v>4384.8502119927316</v>
-      </c>
-      <c r="K20" s="143">
-        <f t="shared" si="8"/>
-        <v>8769.7004239854632</v>
-      </c>
-      <c r="L20" s="144">
-        <f>K20+250</f>
-        <v>9019.7004239854632</v>
-      </c>
-      <c r="M20" s="144"/>
+      <c r="J20" s="1">
+        <f>J$19+$E13</f>
+        <v>3740.2201695941853</v>
+      </c>
+      <c r="K20" s="1">
+        <f>K$19+$E14</f>
+        <v>7377.040339188371</v>
+      </c>
+      <c r="L20" s="1">
+        <f>L$19+$E15</f>
+        <v>11025.960508782555</v>
+      </c>
+      <c r="M20" s="1">
+        <f>M$19+$E17</f>
+        <v>14622.080678376742</v>
+      </c>
       <c r="N20" s="144"/>
-      <c r="O20" s="144"/>
-    </row>
-    <row r="21" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="Y20" s="1"/>
+      <c r="AA20" s="1"/>
+    </row>
+    <row r="21" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B21" s="132" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="134" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="134" t="s">
-        <v>21</v>
+        <v>35</v>
+      </c>
+      <c r="C21" s="132" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="133" t="s">
+        <v>26</v>
       </c>
       <c r="E21" s="26">
-        <f>200*1.1</f>
-        <v>220.00000000000003</v>
-      </c>
-      <c r="G21" s="145"/>
+        <f>45*1.1</f>
+        <v>49.500000000000007</v>
+      </c>
+      <c r="G21" s="144"/>
       <c r="H21" s="144"/>
-      <c r="I21" s="148" t="s">
-        <v>32</v>
-      </c>
-      <c r="J21" s="144">
-        <f t="shared" si="8"/>
-        <v>5035.3502119927316</v>
-      </c>
-      <c r="K21" s="143">
-        <f t="shared" si="8"/>
-        <v>10070.700423985463</v>
+      <c r="J21" s="147">
+        <v>1</v>
+      </c>
+      <c r="K21" s="147">
+        <v>2</v>
       </c>
       <c r="L21" s="144">
-        <f>K21+300</f>
-        <v>10370.700423985463</v>
+        <v>3</v>
       </c>
       <c r="M21" s="144"/>
       <c r="N21" s="144"/>
-      <c r="O21" s="144"/>
-    </row>
-    <row r="22" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="Y21" s="1"/>
+      <c r="AA21" s="1"/>
+    </row>
+    <row r="22" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B22" s="132" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C22" s="134" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="134" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="D22" s="134">
+        <v>70000</v>
       </c>
       <c r="E22" s="26">
-        <f>2550/120</f>
-        <v>21.25</v>
+        <v>2</v>
       </c>
       <c r="G22" s="145"/>
       <c r="H22" s="144"/>
       <c r="I22" s="148" t="s">
-        <v>149</v>
+        <v>16</v>
       </c>
       <c r="J22" s="144">
-        <f t="shared" si="8"/>
-        <v>5228.8502119927316</v>
+        <f>$R6*J$21</f>
+        <v>3365.6502119927318</v>
       </c>
       <c r="K22" s="143">
-        <f t="shared" si="8"/>
-        <v>10457.700423985463</v>
-      </c>
-      <c r="L22" s="144">
-        <f>K22+300</f>
-        <v>10757.700423985463</v>
-      </c>
-      <c r="M22" s="144"/>
-      <c r="N22" s="144"/>
-      <c r="O22" s="144"/>
-    </row>
-    <row r="23" spans="2:28" x14ac:dyDescent="0.3">
+        <f>$R6*K$21</f>
+        <v>6731.3004239854636</v>
+      </c>
+      <c r="L22" s="143">
+        <f>$R6*L$21</f>
+        <v>10096.950635978195</v>
+      </c>
+      <c r="M22" s="144">
+        <f>$J22+$E13</f>
+        <v>3514.1502119927318</v>
+      </c>
+      <c r="N22" s="144">
+        <f>$K22+$E$14</f>
+        <v>6924.9004239854639</v>
+      </c>
+      <c r="O22" s="144">
+        <f>$L22+$E15</f>
+        <v>10347.750635978195</v>
+      </c>
+      <c r="Y22" s="1"/>
+      <c r="AA22" s="1"/>
+    </row>
+    <row r="23" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B23" s="132" t="s">
-        <v>163</v>
+        <v>30</v>
       </c>
       <c r="C23" s="134" t="s">
         <v>25</v>
       </c>
       <c r="D23" s="134" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="26">
+        <f>95*1.1</f>
+        <v>104.50000000000001</v>
+      </c>
+      <c r="G23" s="145"/>
+      <c r="H23" s="144"/>
+      <c r="I23" s="148" t="s">
+        <v>62</v>
+      </c>
+      <c r="J23" s="144">
+        <f>$R7*J$21</f>
+        <v>3623.6502119927318</v>
+      </c>
+      <c r="K23" s="143">
+        <f>$R7*K$21</f>
+        <v>7247.3004239854636</v>
+      </c>
+      <c r="L23" s="143">
+        <f>$R7*L$21</f>
+        <v>10870.950635978195</v>
+      </c>
+      <c r="M23" s="144">
+        <f>$J23+$E13</f>
+        <v>3772.1502119927318</v>
+      </c>
+      <c r="N23" s="144">
+        <f t="shared" ref="N23:N26" si="3">$K23+$E$14</f>
+        <v>7440.9004239854639</v>
+      </c>
+      <c r="O23" s="144">
+        <f>$L23+$E15</f>
+        <v>11121.750635978195</v>
+      </c>
+    </row>
+    <row r="24" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B24" s="132" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="134" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="134" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="26">
+        <f>200*1.1</f>
+        <v>220.00000000000003</v>
+      </c>
+      <c r="G24" s="145"/>
+      <c r="H24" s="144"/>
+      <c r="I24" s="148" t="s">
+        <v>82</v>
+      </c>
+      <c r="J24" s="144">
+        <f>$R8*J$21</f>
+        <v>4399.8502119927316</v>
+      </c>
+      <c r="K24" s="143">
+        <f>$R8*K$21</f>
+        <v>8799.7004239854632</v>
+      </c>
+      <c r="L24" s="143">
+        <f>$R8*L$21</f>
+        <v>13199.550635978194</v>
+      </c>
+      <c r="M24" s="144">
+        <f>$J24+$E13</f>
+        <v>4548.3502119927316</v>
+      </c>
+      <c r="N24" s="144">
+        <f t="shared" si="3"/>
+        <v>8993.3004239854636</v>
+      </c>
+      <c r="O24" s="144">
+        <f>$L24+$E16</f>
+        <v>13452.550635978194</v>
+      </c>
+    </row>
+    <row r="25" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B25" s="132" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="134" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="134" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="26">
+        <f>2550/120</f>
+        <v>21.25</v>
+      </c>
+      <c r="G25" s="145"/>
+      <c r="H25" s="144"/>
+      <c r="I25" s="148" t="s">
+        <v>32</v>
+      </c>
+      <c r="J25" s="144">
+        <f>$R9*J$21</f>
+        <v>5050.3502119927316</v>
+      </c>
+      <c r="K25" s="143">
+        <f>$R9*K$21</f>
+        <v>10100.700423985463</v>
+      </c>
+      <c r="L25" s="143">
+        <f>$R9*L$21</f>
+        <v>15151.050635978194</v>
+      </c>
+      <c r="M25" s="144">
+        <f>$J25+$E13</f>
+        <v>5198.8502119927316</v>
+      </c>
+      <c r="N25" s="144">
+        <f t="shared" si="3"/>
+        <v>10294.300423985464</v>
+      </c>
+      <c r="O25" s="144">
+        <f>$L25+$E17</f>
+        <v>15406.250635978195</v>
+      </c>
+    </row>
+    <row r="26" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B26" s="132" t="s">
+        <v>163</v>
+      </c>
+      <c r="C26" s="134" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="134" t="s">
         <v>181</v>
       </c>
-      <c r="E23" s="26">
+      <c r="E26" s="26">
         <f>100/13</f>
         <v>7.6923076923076925</v>
       </c>
-      <c r="G23" s="146"/>
-      <c r="H23" s="146"/>
-      <c r="I23" s="146"/>
-      <c r="J23" s="146"/>
-      <c r="K23" s="146"/>
-      <c r="L23" s="146"/>
-      <c r="M23" s="146"/>
-      <c r="N23" s="146"/>
-      <c r="O23" s="146"/>
-    </row>
-    <row r="24" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B24" s="128"/>
-      <c r="C24" s="128"/>
-      <c r="D24" s="135"/>
-      <c r="E24" s="138"/>
-      <c r="G24" s="146"/>
-      <c r="H24" s="146"/>
-      <c r="I24" s="146"/>
-      <c r="J24" s="146"/>
-      <c r="K24" s="146"/>
-      <c r="L24" s="146"/>
-      <c r="M24" s="146"/>
-      <c r="N24" s="146"/>
-      <c r="O24" s="146"/>
-    </row>
-    <row r="25" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B25" s="154" t="s">
+      <c r="G26" s="146"/>
+      <c r="H26" s="146"/>
+      <c r="I26" s="148" t="s">
+        <v>149</v>
+      </c>
+      <c r="J26" s="144">
+        <f>$R10*J$21</f>
+        <v>5243.8502119927316</v>
+      </c>
+      <c r="K26" s="143">
+        <f>$R10*K$21</f>
+        <v>10487.700423985463</v>
+      </c>
+      <c r="L26" s="143">
+        <f>$R10*L$21</f>
+        <v>15731.550635978194</v>
+      </c>
+      <c r="M26" s="144">
+        <f>$J26+$E13</f>
+        <v>5392.3502119927316</v>
+      </c>
+      <c r="N26" s="144">
+        <f t="shared" si="3"/>
+        <v>10681.300423985464</v>
+      </c>
+      <c r="O26" s="144">
+        <f>$L26+$E17</f>
+        <v>15986.750635978195</v>
+      </c>
+    </row>
+    <row r="27" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B27" s="128"/>
+      <c r="C27" s="128"/>
+      <c r="D27" s="135"/>
+      <c r="E27" s="138"/>
+      <c r="G27" s="146"/>
+      <c r="H27" s="146"/>
+      <c r="I27" s="146"/>
+      <c r="J27" s="146"/>
+      <c r="K27" s="146"/>
+      <c r="L27" s="146"/>
+      <c r="M27" s="146"/>
+      <c r="N27" s="146"/>
+    </row>
+    <row r="28" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B28" s="155" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="132" t="s">
+      <c r="C28" s="132" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="157" t="s">
+      <c r="D28" s="158" t="s">
         <v>173</v>
       </c>
-      <c r="E25" s="158"/>
-    </row>
-    <row r="26" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B26" s="155"/>
-      <c r="C26" s="132" t="s">
+      <c r="E28" s="159"/>
+    </row>
+    <row r="29" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B29" s="156"/>
+      <c r="C29" s="132" t="s">
         <v>174</v>
       </c>
-      <c r="D26" s="157" t="s">
+      <c r="D29" s="158" t="s">
         <v>175</v>
       </c>
-      <c r="E26" s="158"/>
-    </row>
-    <row r="27" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B27" s="156"/>
-      <c r="C27" s="132" t="s">
+      <c r="E29" s="159"/>
+    </row>
+    <row r="30" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B30" s="157"/>
+      <c r="C30" s="132" t="s">
         <v>176</v>
       </c>
-      <c r="D27" s="157" t="s">
+      <c r="D30" s="158" t="s">
         <v>177</v>
       </c>
-      <c r="E27" s="158"/>
-    </row>
-    <row r="28" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B28" s="136" t="s">
+      <c r="E30" s="159"/>
+    </row>
+    <row r="31" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B31" s="136" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="136" t="s">
+      <c r="C31" s="136" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="137" t="s">
+      <c r="D31" s="137" t="s">
         <v>178</v>
       </c>
-      <c r="E28" s="139">
+      <c r="E31" s="139">
         <v>0.18</v>
       </c>
     </row>
-    <row r="30" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B30" s="228" t="s">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B33" s="149" t="s">
         <v>185</v>
       </c>
-      <c r="C30" s="228">
+      <c r="C33" s="149">
         <v>30</v>
       </c>
-      <c r="D30" s="228">
-        <f>C30*1.1</f>
+      <c r="D33" s="149">
+        <f>C33*1.1</f>
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B31" s="228" t="s">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B34" s="149" t="s">
         <v>184</v>
       </c>
-      <c r="C31" s="228"/>
-      <c r="D31" s="228"/>
-    </row>
-    <row r="32" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B32" s="228" t="s">
+      <c r="C34" s="149">
+        <v>135</v>
+      </c>
+      <c r="D34" s="149">
+        <f>C34*1.1</f>
+        <v>148.5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B35" s="149" t="s">
         <v>183</v>
       </c>
-      <c r="C32" s="228">
+      <c r="C35" s="149">
         <v>176</v>
       </c>
-      <c r="D32" s="228">
-        <f>C32*1.1</f>
+      <c r="D35" s="149">
+        <f>C35*1.1</f>
         <v>193.60000000000002</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B12:B14"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5549,48 +5693,48 @@
       <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.09765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.69921875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="8.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="1.5" style="1" customWidth="1"/>
-    <col min="17" max="17" width="6.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.69921875" style="2" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="4.5" style="1" customWidth="1"/>
-    <col min="21" max="21" width="7.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="8.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="2.75" style="1" customWidth="1"/>
-    <col min="31" max="31" width="6.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="6.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="2.69921875" style="1" customWidth="1"/>
+    <col min="31" max="31" width="6.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.09765625" style="2" bestFit="1" customWidth="1"/>
     <col min="34" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:51" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:51" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="188" t="s">
+    <row r="1" spans="2:51" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:51" ht="20.399999999999999" x14ac:dyDescent="0.4">
+      <c r="B2" s="189" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="188"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="188"/>
-      <c r="G2" s="181" t="s">
+      <c r="C2" s="189"/>
+      <c r="D2" s="189"/>
+      <c r="E2" s="189"/>
+      <c r="G2" s="182" t="s">
         <v>62</v>
       </c>
       <c r="H2" s="39">
@@ -5619,12 +5763,12 @@
         <v>107</v>
       </c>
       <c r="P2" s="12"/>
-      <c r="Q2" s="168" t="s">
+      <c r="Q2" s="169" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="168"/>
-      <c r="S2" s="169"/>
-      <c r="U2" s="163" t="s">
+      <c r="R2" s="169"/>
+      <c r="S2" s="170"/>
+      <c r="U2" s="164" t="s">
         <v>61</v>
       </c>
       <c r="V2" s="31">
@@ -5653,11 +5797,11 @@
         <v>176</v>
       </c>
       <c r="AD2" s="12"/>
-      <c r="AE2" s="160" t="s">
+      <c r="AE2" s="161" t="s">
         <v>17</v>
       </c>
-      <c r="AF2" s="161"/>
-      <c r="AG2" s="162"/>
+      <c r="AF2" s="162"/>
+      <c r="AG2" s="163"/>
       <c r="AU2" t="s">
         <v>163</v>
       </c>
@@ -5676,7 +5820,7 @@
         <v>750.00000000000011</v>
       </c>
     </row>
-    <row r="3" spans="2:51" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:51" x14ac:dyDescent="0.4">
       <c r="B3" s="37" t="s">
         <v>60</v>
       </c>
@@ -5689,7 +5833,7 @@
       <c r="E3" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="182"/>
+      <c r="G3" s="183"/>
       <c r="H3" s="11" t="s">
         <v>10</v>
       </c>
@@ -5724,7 +5868,7 @@
       <c r="S3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="U3" s="164"/>
+      <c r="U3" s="165"/>
       <c r="V3" s="11" t="s">
         <v>10</v>
       </c>
@@ -5777,8 +5921,8 @@
         <v>-967.50000000000011</v>
       </c>
     </row>
-    <row r="4" spans="2:51" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="180" t="s">
+    <row r="4" spans="2:51" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="181" t="s">
         <v>56</v>
       </c>
       <c r="C4" s="28" t="s">
@@ -5790,7 +5934,7 @@
       <c r="E4" s="26">
         <v>1290</v>
       </c>
-      <c r="G4" s="182"/>
+      <c r="G4" s="183"/>
       <c r="H4" s="7">
         <f>$M2*$E$4</f>
         <v>325080</v>
@@ -5836,7 +5980,7 @@
         <f>R4/$K2</f>
         <v>0.1900233986522713</v>
       </c>
-      <c r="U4" s="164"/>
+      <c r="U4" s="165"/>
       <c r="V4" s="7">
         <f>$AA2*$E$4</f>
         <v>392160</v>
@@ -5899,8 +6043,8 @@
         <v>9094.5</v>
       </c>
     </row>
-    <row r="5" spans="2:51" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="180"/>
+    <row r="5" spans="2:51" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="181"/>
       <c r="C5" s="28" t="s">
         <v>38</v>
       </c>
@@ -5929,11 +6073,11 @@
         <v>779.40000000000009</v>
       </c>
     </row>
-    <row r="6" spans="2:51" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B6" s="180" t="s">
+    <row r="6" spans="2:51" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="B6" s="181" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="189" t="s">
+      <c r="C6" s="190" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="28" t="s">
@@ -5943,7 +6087,7 @@
         <f>110</f>
         <v>110</v>
       </c>
-      <c r="G6" s="183" t="s">
+      <c r="G6" s="184" t="s">
         <v>52</v>
       </c>
       <c r="H6" s="35">
@@ -5972,12 +6116,12 @@
         <v>89</v>
       </c>
       <c r="P6" s="12"/>
-      <c r="Q6" s="168" t="s">
+      <c r="Q6" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="R6" s="168"/>
-      <c r="S6" s="169"/>
-      <c r="U6" s="163" t="s">
+      <c r="R6" s="169"/>
+      <c r="S6" s="170"/>
+      <c r="U6" s="164" t="s">
         <v>51</v>
       </c>
       <c r="V6" s="31">
@@ -6006,11 +6150,11 @@
         <v>119</v>
       </c>
       <c r="AD6" s="12"/>
-      <c r="AE6" s="160" t="s">
+      <c r="AE6" s="161" t="s">
         <v>17</v>
       </c>
-      <c r="AF6" s="161"/>
-      <c r="AG6" s="162"/>
+      <c r="AF6" s="162"/>
+      <c r="AG6" s="163"/>
       <c r="AU6" t="s">
         <v>48</v>
       </c>
@@ -6029,9 +6173,9 @@
         <v>742.50000000000011</v>
       </c>
     </row>
-    <row r="7" spans="2:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="180"/>
-      <c r="C7" s="190"/>
+    <row r="7" spans="2:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="181"/>
+      <c r="C7" s="191"/>
       <c r="D7" s="28" t="s">
         <v>50</v>
       </c>
@@ -6039,7 +6183,7 @@
         <f>E6/12.7</f>
         <v>8.6614173228346463</v>
       </c>
-      <c r="G7" s="184"/>
+      <c r="G7" s="185"/>
       <c r="H7" s="11" t="s">
         <v>10</v>
       </c>
@@ -6074,7 +6218,7 @@
       <c r="S7" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="U7" s="164"/>
+      <c r="U7" s="165"/>
       <c r="V7" s="11" t="s">
         <v>10</v>
       </c>
@@ -6127,8 +6271,8 @@
         <v>247.50000000000003</v>
       </c>
     </row>
-    <row r="8" spans="2:51" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="180"/>
+    <row r="8" spans="2:51" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="181"/>
       <c r="C8" s="28" t="s">
         <v>49</v>
       </c>
@@ -6138,7 +6282,7 @@
       <c r="E8" s="26">
         <v>50</v>
       </c>
-      <c r="G8" s="184"/>
+      <c r="G8" s="185"/>
       <c r="H8" s="7">
         <f>$M6*$E$4</f>
         <v>330240</v>
@@ -6184,7 +6328,7 @@
         <f>R8/$K6</f>
         <v>0.19905280045752707</v>
       </c>
-      <c r="U8" s="164"/>
+      <c r="U8" s="165"/>
       <c r="V8" s="7">
         <f>$AA6*$E$4</f>
         <v>314760</v>
@@ -6247,8 +6391,8 @@
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="2:51" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="180" t="s">
+    <row r="9" spans="2:51" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="181" t="s">
         <v>48</v>
       </c>
       <c r="C9" s="28" t="s">
@@ -6268,12 +6412,12 @@
         <v>10756.4</v>
       </c>
     </row>
-    <row r="10" spans="2:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="180"/>
+    <row r="10" spans="2:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="181"/>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
       <c r="E10" s="26"/>
-      <c r="G10" s="174" t="s">
+      <c r="G10" s="175" t="s">
         <v>47</v>
       </c>
       <c r="H10" s="23">
@@ -6302,12 +6446,12 @@
         <v>89</v>
       </c>
       <c r="P10" s="12"/>
-      <c r="Q10" s="168" t="s">
+      <c r="Q10" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="R10" s="168"/>
-      <c r="S10" s="169"/>
-      <c r="U10" s="163" t="s">
+      <c r="R10" s="169"/>
+      <c r="S10" s="170"/>
+      <c r="U10" s="164" t="s">
         <v>46</v>
       </c>
       <c r="V10" s="31">
@@ -6336,14 +6480,14 @@
         <v>148</v>
       </c>
       <c r="AD10" s="12"/>
-      <c r="AE10" s="160" t="s">
+      <c r="AE10" s="161" t="s">
         <v>17</v>
       </c>
-      <c r="AF10" s="161"/>
-      <c r="AG10" s="162"/>
-    </row>
-    <row r="11" spans="2:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="180" t="s">
+      <c r="AF10" s="162"/>
+      <c r="AG10" s="163"/>
+    </row>
+    <row r="11" spans="2:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="181" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="28" t="s">
@@ -6356,7 +6500,7 @@
         <f>225*1.1</f>
         <v>247.50000000000003</v>
       </c>
-      <c r="G11" s="175"/>
+      <c r="G11" s="176"/>
       <c r="H11" s="11" t="s">
         <v>10</v>
       </c>
@@ -6391,7 +6535,7 @@
       <c r="S11" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="U11" s="164"/>
+      <c r="U11" s="165"/>
       <c r="V11" s="11" t="s">
         <v>10</v>
       </c>
@@ -6427,8 +6571,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:51" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="180"/>
+    <row r="12" spans="2:51" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="181"/>
       <c r="C12" s="28" t="s">
         <v>44</v>
       </c>
@@ -6439,7 +6583,7 @@
         <f>227*1.1</f>
         <v>249.70000000000002</v>
       </c>
-      <c r="G12" s="175"/>
+      <c r="G12" s="176"/>
       <c r="H12" s="7">
         <f>$M10*$E$4</f>
         <v>330240</v>
@@ -6485,7 +6629,7 @@
         <f>R12/$K10</f>
         <v>0.19905280045752707</v>
       </c>
-      <c r="U12" s="164"/>
+      <c r="U12" s="165"/>
       <c r="V12" s="7">
         <f>$AA10*$E$4</f>
         <v>314760</v>
@@ -6532,8 +6676,8 @@
         <v>0.41570910384068283</v>
       </c>
     </row>
-    <row r="13" spans="2:51" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="180"/>
+    <row r="13" spans="2:51" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="181"/>
       <c r="C13" s="28" t="s">
         <v>43</v>
       </c>
@@ -6547,8 +6691,8 @@
       <c r="H13" s="29"/>
       <c r="I13" s="29"/>
     </row>
-    <row r="14" spans="2:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="187" t="s">
+    <row r="14" spans="2:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="188" t="s">
         <v>42</v>
       </c>
       <c r="C14" s="28" t="s">
@@ -6561,7 +6705,7 @@
         <f>1015*1.1</f>
         <v>1116.5</v>
       </c>
-      <c r="G14" s="185" t="s">
+      <c r="G14" s="186" t="s">
         <v>40</v>
       </c>
       <c r="H14" s="33">
@@ -6590,12 +6734,12 @@
         <v>82</v>
       </c>
       <c r="P14" s="12"/>
-      <c r="Q14" s="168" t="s">
+      <c r="Q14" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="R14" s="168"/>
-      <c r="S14" s="169"/>
-      <c r="U14" s="163" t="s">
+      <c r="R14" s="169"/>
+      <c r="S14" s="170"/>
+      <c r="U14" s="164" t="s">
         <v>39</v>
       </c>
       <c r="V14" s="31">
@@ -6624,14 +6768,14 @@
         <v>89</v>
       </c>
       <c r="AD14" s="12"/>
-      <c r="AE14" s="160" t="s">
+      <c r="AE14" s="161" t="s">
         <v>17</v>
       </c>
-      <c r="AF14" s="161"/>
-      <c r="AG14" s="162"/>
-    </row>
-    <row r="15" spans="2:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="180"/>
+      <c r="AF14" s="162"/>
+      <c r="AG14" s="163"/>
+    </row>
+    <row r="15" spans="2:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="181"/>
       <c r="C15" s="28" t="s">
         <v>38</v>
       </c>
@@ -6642,7 +6786,7 @@
         <f>1060*1.1</f>
         <v>1166</v>
       </c>
-      <c r="G15" s="186"/>
+      <c r="G15" s="187"/>
       <c r="H15" s="11" t="s">
         <v>10</v>
       </c>
@@ -6677,7 +6821,7 @@
       <c r="S15" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="U15" s="164"/>
+      <c r="U15" s="165"/>
       <c r="V15" s="11" t="s">
         <v>10</v>
       </c>
@@ -6713,7 +6857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:51" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:51" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="28" t="s">
         <v>37</v>
       </c>
@@ -6727,7 +6871,7 @@
         <f>45*1.1</f>
         <v>49.500000000000007</v>
       </c>
-      <c r="G16" s="186"/>
+      <c r="G16" s="187"/>
       <c r="H16" s="7">
         <f>$M14*$E$5</f>
         <v>357680</v>
@@ -6773,7 +6917,7 @@
         <f>R16/$K14</f>
         <v>0.19895952240457485</v>
       </c>
-      <c r="U16" s="164"/>
+      <c r="U16" s="165"/>
       <c r="V16" s="7">
         <f>$AA14*$E$4</f>
         <v>412800</v>
@@ -6820,7 +6964,7 @@
         <v>0.16951729455827272</v>
       </c>
     </row>
-    <row r="17" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="28" t="s">
         <v>35</v>
       </c>
@@ -6837,7 +6981,7 @@
       <c r="H17" s="29"/>
       <c r="I17" s="29"/>
     </row>
-    <row r="18" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="28" t="s">
         <v>33</v>
       </c>
@@ -6850,7 +6994,7 @@
       <c r="E18" s="26">
         <v>70000</v>
       </c>
-      <c r="G18" s="170" t="s">
+      <c r="G18" s="171" t="s">
         <v>32</v>
       </c>
       <c r="H18" s="108">
@@ -6879,12 +7023,12 @@
         <v>74</v>
       </c>
       <c r="P18" s="12"/>
-      <c r="Q18" s="168" t="s">
+      <c r="Q18" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="R18" s="168"/>
-      <c r="S18" s="169"/>
-      <c r="U18" s="165" t="s">
+      <c r="R18" s="169"/>
+      <c r="S18" s="170"/>
+      <c r="U18" s="166" t="s">
         <v>31</v>
       </c>
       <c r="V18" s="19">
@@ -6913,13 +7057,13 @@
         <v>176</v>
       </c>
       <c r="AD18" s="12"/>
-      <c r="AE18" s="160" t="s">
+      <c r="AE18" s="161" t="s">
         <v>17</v>
       </c>
-      <c r="AF18" s="161"/>
-      <c r="AG18" s="162"/>
-    </row>
-    <row r="19" spans="2:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AF18" s="162"/>
+      <c r="AG18" s="163"/>
+    </row>
+    <row r="19" spans="2:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="28" t="s">
         <v>30</v>
       </c>
@@ -6933,7 +7077,7 @@
         <f>95*1.1</f>
         <v>104.50000000000001</v>
       </c>
-      <c r="G19" s="171"/>
+      <c r="G19" s="172"/>
       <c r="H19" s="11" t="s">
         <v>10</v>
       </c>
@@ -6968,7 +7112,7 @@
       <c r="S19" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="U19" s="166"/>
+      <c r="U19" s="167"/>
       <c r="V19" s="11" t="s">
         <v>10</v>
       </c>
@@ -7004,7 +7148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:33" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:33" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="28" t="s">
         <v>29</v>
       </c>
@@ -7018,7 +7162,7 @@
         <f>200*1.1</f>
         <v>220.00000000000003</v>
       </c>
-      <c r="G20" s="171"/>
+      <c r="G20" s="172"/>
       <c r="H20" s="7">
         <f>$M18*$E$4</f>
         <v>330240</v>
@@ -7064,7 +7208,7 @@
         <f>R20/$K18</f>
         <v>0.20840821664183859</v>
       </c>
-      <c r="U20" s="166"/>
+      <c r="U20" s="167"/>
       <c r="V20" s="7">
         <f>$AA18*$E$5</f>
         <v>413440</v>
@@ -7111,7 +7255,7 @@
         <v>0.21287081339712921</v>
       </c>
     </row>
-    <row r="21" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" s="28" t="s">
         <v>28</v>
       </c>
@@ -7128,7 +7272,7 @@
       <c r="H21" s="29"/>
       <c r="I21" s="29"/>
     </row>
-    <row r="22" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="28" t="s">
         <v>6</v>
       </c>
@@ -7141,7 +7285,7 @@
       <c r="E22" s="26">
         <v>200</v>
       </c>
-      <c r="G22" s="172" t="s">
+      <c r="G22" s="173" t="s">
         <v>24</v>
       </c>
       <c r="H22" s="25">
@@ -7170,12 +7314,12 @@
         <v>71</v>
       </c>
       <c r="P22" s="12"/>
-      <c r="Q22" s="168" t="s">
+      <c r="Q22" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="R22" s="168"/>
-      <c r="S22" s="169"/>
-      <c r="U22" s="165" t="s">
+      <c r="R22" s="169"/>
+      <c r="S22" s="170"/>
+      <c r="U22" s="166" t="s">
         <v>23</v>
       </c>
       <c r="V22" s="19">
@@ -7204,13 +7348,13 @@
         <v>119</v>
       </c>
       <c r="AD22" s="12"/>
-      <c r="AE22" s="160" t="s">
+      <c r="AE22" s="161" t="s">
         <v>17</v>
       </c>
-      <c r="AF22" s="161"/>
-      <c r="AG22" s="162"/>
-    </row>
-    <row r="23" spans="2:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AF22" s="162"/>
+      <c r="AG22" s="163"/>
+    </row>
+    <row r="23" spans="2:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="1" t="s">
         <v>22</v>
       </c>
@@ -7224,7 +7368,7 @@
         <f>240*1.1</f>
         <v>264</v>
       </c>
-      <c r="G23" s="173"/>
+      <c r="G23" s="174"/>
       <c r="H23" s="11" t="s">
         <v>10</v>
       </c>
@@ -7259,7 +7403,7 @@
       <c r="S23" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="U23" s="166"/>
+      <c r="U23" s="167"/>
       <c r="V23" s="11" t="s">
         <v>10</v>
       </c>
@@ -7295,8 +7439,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:33" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G24" s="173"/>
+    <row r="24" spans="2:33" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G24" s="174"/>
       <c r="H24" s="7">
         <f>$M22*$E$4</f>
         <v>334110</v>
@@ -7342,7 +7486,7 @@
         <f>R24/$K22</f>
         <v>0.19791012122732585</v>
       </c>
-      <c r="U24" s="166"/>
+      <c r="U24" s="167"/>
       <c r="V24" s="7">
         <f>$AA22*$E$5</f>
         <v>331840</v>
@@ -7389,9 +7533,9 @@
         <v>0.21324081632653064</v>
       </c>
     </row>
-    <row r="25" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G26" s="174" t="s">
+    <row r="25" spans="2:33" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="26" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G26" s="175" t="s">
         <v>19</v>
       </c>
       <c r="H26" s="23">
@@ -7420,12 +7564,12 @@
         <v>222</v>
       </c>
       <c r="P26" s="12"/>
-      <c r="Q26" s="168" t="s">
+      <c r="Q26" s="169" t="s">
         <v>17</v>
       </c>
-      <c r="R26" s="168"/>
-      <c r="S26" s="169"/>
-      <c r="U26" s="165" t="s">
+      <c r="R26" s="169"/>
+      <c r="S26" s="170"/>
+      <c r="U26" s="166" t="s">
         <v>20</v>
       </c>
       <c r="V26" s="19">
@@ -7454,14 +7598,14 @@
         <v>148</v>
       </c>
       <c r="AD26" s="12"/>
-      <c r="AE26" s="168" t="s">
+      <c r="AE26" s="169" t="s">
         <v>17</v>
       </c>
-      <c r="AF26" s="168"/>
-      <c r="AG26" s="169"/>
-    </row>
-    <row r="27" spans="2:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="175"/>
+      <c r="AF26" s="169"/>
+      <c r="AG26" s="170"/>
+    </row>
+    <row r="27" spans="2:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G27" s="176"/>
       <c r="H27" s="11" t="s">
         <v>10</v>
       </c>
@@ -7496,7 +7640,7 @@
       <c r="S27" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="U27" s="167"/>
+      <c r="U27" s="168"/>
       <c r="V27" s="11" t="s">
         <v>10</v>
       </c>
@@ -7532,8 +7676,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:33" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G28" s="175"/>
+    <row r="28" spans="2:33" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G28" s="176"/>
       <c r="H28" s="7">
         <f>$M26*$E$4</f>
         <v>328950</v>
@@ -7579,7 +7723,7 @@
         <f>$R28/$K26</f>
         <v>0.21579524783256387</v>
       </c>
-      <c r="U28" s="167"/>
+      <c r="U28" s="168"/>
       <c r="V28" s="7">
         <f>$AA26*$E$4</f>
         <v>314760</v>
@@ -7626,9 +7770,9 @@
         <v>0.44392364864864869</v>
       </c>
     </row>
-    <row r="29" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G30" s="176" t="s">
+    <row r="29" spans="2:33" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="30" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G30" s="177" t="s">
         <v>19</v>
       </c>
       <c r="H30" s="21">
@@ -7657,12 +7801,12 @@
         <v>105</v>
       </c>
       <c r="P30" s="12"/>
-      <c r="Q30" s="168" t="s">
+      <c r="Q30" s="169" t="s">
         <v>17</v>
       </c>
-      <c r="R30" s="168"/>
-      <c r="S30" s="169"/>
-      <c r="U30" s="165" t="s">
+      <c r="R30" s="169"/>
+      <c r="S30" s="170"/>
+      <c r="U30" s="166" t="s">
         <v>18</v>
       </c>
       <c r="V30" s="19">
@@ -7691,14 +7835,14 @@
         <v>148</v>
       </c>
       <c r="AD30" s="12"/>
-      <c r="AE30" s="168" t="s">
+      <c r="AE30" s="169" t="s">
         <v>17</v>
       </c>
-      <c r="AF30" s="168"/>
-      <c r="AG30" s="169"/>
-    </row>
-    <row r="31" spans="2:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G31" s="177"/>
+      <c r="AF30" s="169"/>
+      <c r="AG30" s="170"/>
+    </row>
+    <row r="31" spans="2:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G31" s="178"/>
       <c r="H31" s="11" t="s">
         <v>10</v>
       </c>
@@ -7733,7 +7877,7 @@
       <c r="S31" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="U31" s="167"/>
+      <c r="U31" s="168"/>
       <c r="V31" s="11" t="s">
         <v>10</v>
       </c>
@@ -7769,8 +7913,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:33" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G32" s="177"/>
+    <row r="32" spans="2:33" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G32" s="178"/>
       <c r="H32" s="7">
         <f>$M30*$E$4</f>
         <v>348300</v>
@@ -7816,7 +7960,7 @@
         <f>$R32/$K30</f>
         <v>0.20044103577961847</v>
       </c>
-      <c r="U32" s="167"/>
+      <c r="U32" s="168"/>
       <c r="V32" s="7">
         <f>$AA30*$E$4</f>
         <v>314760</v>
@@ -7863,9 +8007,9 @@
         <v>0.5970883204633205</v>
       </c>
     </row>
-    <row r="33" spans="7:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="34" spans="7:19" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="G34" s="178" t="s">
+    <row r="33" spans="7:19" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="34" spans="7:19" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="G34" s="179" t="s">
         <v>16</v>
       </c>
       <c r="H34" s="17">
@@ -7894,14 +8038,14 @@
         <v>117</v>
       </c>
       <c r="P34" s="12"/>
-      <c r="Q34" s="168" t="s">
+      <c r="Q34" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="R34" s="168"/>
-      <c r="S34" s="169"/>
-    </row>
-    <row r="35" spans="7:19" x14ac:dyDescent="0.3">
-      <c r="G35" s="179"/>
+      <c r="R34" s="169"/>
+      <c r="S34" s="170"/>
+    </row>
+    <row r="35" spans="7:19" x14ac:dyDescent="0.4">
+      <c r="G35" s="180"/>
       <c r="H35" s="11" t="s">
         <v>10</v>
       </c>
@@ -7937,8 +8081,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="7:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G36" s="179"/>
+    <row r="36" spans="7:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G36" s="180"/>
       <c r="H36" s="7">
         <f>$M34*$E$4</f>
         <v>335400</v>
@@ -7985,9 +8129,9 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="37" spans="7:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="38" spans="7:19" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="G38" s="181" t="s">
+    <row r="37" spans="7:19" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="38" spans="7:19" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="G38" s="182" t="s">
         <v>62</v>
       </c>
       <c r="H38" s="39">
@@ -8016,14 +8160,14 @@
         <v>112</v>
       </c>
       <c r="P38" s="12"/>
-      <c r="Q38" s="168" t="s">
+      <c r="Q38" s="169" t="s">
         <v>17</v>
       </c>
-      <c r="R38" s="168"/>
-      <c r="S38" s="169"/>
-    </row>
-    <row r="39" spans="7:19" x14ac:dyDescent="0.3">
-      <c r="G39" s="182"/>
+      <c r="R38" s="169"/>
+      <c r="S38" s="170"/>
+    </row>
+    <row r="39" spans="7:19" x14ac:dyDescent="0.4">
+      <c r="G39" s="183"/>
       <c r="H39" s="11" t="s">
         <v>10</v>
       </c>
@@ -8059,8 +8203,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="7:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G40" s="182"/>
+    <row r="40" spans="7:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G40" s="183"/>
       <c r="H40" s="7">
         <f>$M38*$E$4</f>
         <v>335400</v>
@@ -8107,9 +8251,9 @@
         <v>0.20016097792463447</v>
       </c>
     </row>
-    <row r="41" spans="7:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="42" spans="7:19" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="G42" s="170" t="s">
+    <row r="41" spans="7:19" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="42" spans="7:19" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="G42" s="171" t="s">
         <v>32</v>
       </c>
       <c r="H42" s="108">
@@ -8138,14 +8282,14 @@
         <v>74</v>
       </c>
       <c r="P42" s="12"/>
-      <c r="Q42" s="168" t="s">
+      <c r="Q42" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="R42" s="168"/>
-      <c r="S42" s="169"/>
-    </row>
-    <row r="43" spans="7:19" x14ac:dyDescent="0.3">
-      <c r="G43" s="171"/>
+      <c r="R42" s="169"/>
+      <c r="S42" s="170"/>
+    </row>
+    <row r="43" spans="7:19" x14ac:dyDescent="0.4">
+      <c r="G43" s="172"/>
       <c r="H43" s="11" t="s">
         <v>10</v>
       </c>
@@ -8181,8 +8325,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="7:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G44" s="171"/>
+    <row r="44" spans="7:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G44" s="172"/>
       <c r="H44" s="7">
         <f>$M42*$E$4</f>
         <v>334110</v>
@@ -8287,276 +8431,276 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAEBEB9E-2C50-4AA9-BC7C-3D13D5CE3266}">
   <dimension ref="B1:AF62"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.69921875" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
     <col min="8" max="8" width="10" style="66" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" style="67" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.625" style="67" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.59765625" style="67" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" style="67" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.625" style="67" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.59765625" style="67" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.5" style="67" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8" style="67" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.75" style="68" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.69921875" style="68" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7" style="68" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.375" style="68" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.375" style="68" customWidth="1"/>
+    <col min="17" max="17" width="6.3984375" style="68" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.3984375" style="68" customWidth="1"/>
     <col min="19" max="19" width="8.5" style="68" customWidth="1"/>
-    <col min="20" max="20" width="6.625" style="68" customWidth="1"/>
-    <col min="21" max="21" width="12.125" style="68" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="12.375" style="69" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="11.25" style="69" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="12.375" style="69" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.59765625" style="68" customWidth="1"/>
+    <col min="21" max="21" width="12.09765625" style="68" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="12.3984375" style="69" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="11.19921875" style="69" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="12.3984375" style="69" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="13.5" style="69" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="16" style="69" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:32" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:32" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B3" s="213" t="s">
+    <row r="1" spans="2:32" ht="6" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:32" ht="6" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="2:32" x14ac:dyDescent="0.4">
+      <c r="B3" s="214" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="213"/>
-      <c r="D3" s="213"/>
-      <c r="E3" s="213"/>
-      <c r="F3" s="213"/>
-      <c r="G3" s="213"/>
-      <c r="H3" s="213"/>
-      <c r="I3" s="213"/>
-      <c r="J3" s="213"/>
-      <c r="K3" s="213"/>
-      <c r="L3" s="213"/>
-      <c r="M3" s="213"/>
-      <c r="N3" s="213"/>
-      <c r="O3" s="213"/>
-      <c r="P3" s="213"/>
-      <c r="Q3" s="213"/>
-      <c r="R3" s="213"/>
-      <c r="S3" s="213"/>
-      <c r="T3" s="213"/>
-      <c r="U3" s="213"/>
-      <c r="V3" s="213"/>
-      <c r="W3" s="213"/>
-      <c r="X3" s="213"/>
-      <c r="Y3" s="213"/>
-      <c r="Z3" s="213"/>
-      <c r="AA3" s="213"/>
-      <c r="AB3" s="213"/>
-      <c r="AC3" s="213"/>
-    </row>
-    <row r="4" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B4" s="213"/>
-      <c r="C4" s="213"/>
-      <c r="D4" s="213"/>
-      <c r="E4" s="213"/>
-      <c r="F4" s="213"/>
-      <c r="G4" s="213"/>
-      <c r="H4" s="213"/>
-      <c r="I4" s="213"/>
-      <c r="J4" s="213"/>
-      <c r="K4" s="213"/>
-      <c r="L4" s="213"/>
-      <c r="M4" s="213"/>
-      <c r="N4" s="213"/>
-      <c r="O4" s="213"/>
-      <c r="P4" s="213"/>
-      <c r="Q4" s="213"/>
-      <c r="R4" s="213"/>
-      <c r="S4" s="213"/>
-      <c r="T4" s="213"/>
-      <c r="U4" s="213"/>
-      <c r="V4" s="213"/>
-      <c r="W4" s="213"/>
-      <c r="X4" s="213"/>
-      <c r="Y4" s="213"/>
-      <c r="Z4" s="213"/>
-      <c r="AA4" s="213"/>
-      <c r="AB4" s="213"/>
-      <c r="AC4" s="213"/>
-    </row>
-    <row r="5" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B5" s="213"/>
-      <c r="C5" s="213"/>
-      <c r="D5" s="213"/>
-      <c r="E5" s="213"/>
-      <c r="F5" s="213"/>
-      <c r="G5" s="213"/>
-      <c r="H5" s="213"/>
-      <c r="I5" s="213"/>
-      <c r="J5" s="213"/>
-      <c r="K5" s="213"/>
-      <c r="L5" s="213"/>
-      <c r="M5" s="213"/>
-      <c r="N5" s="213"/>
-      <c r="O5" s="213"/>
-      <c r="P5" s="213"/>
-      <c r="Q5" s="213"/>
-      <c r="R5" s="213"/>
-      <c r="S5" s="213"/>
-      <c r="T5" s="213"/>
-      <c r="U5" s="213"/>
-      <c r="V5" s="213"/>
-      <c r="W5" s="213"/>
-      <c r="X5" s="213"/>
-      <c r="Y5" s="213"/>
-      <c r="Z5" s="213"/>
-      <c r="AA5" s="213"/>
-      <c r="AB5" s="213"/>
-      <c r="AC5" s="213"/>
-    </row>
-    <row r="6" spans="2:32" ht="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="2:32" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="214"/>
+      <c r="D3" s="214"/>
+      <c r="E3" s="214"/>
+      <c r="F3" s="214"/>
+      <c r="G3" s="214"/>
+      <c r="H3" s="214"/>
+      <c r="I3" s="214"/>
+      <c r="J3" s="214"/>
+      <c r="K3" s="214"/>
+      <c r="L3" s="214"/>
+      <c r="M3" s="214"/>
+      <c r="N3" s="214"/>
+      <c r="O3" s="214"/>
+      <c r="P3" s="214"/>
+      <c r="Q3" s="214"/>
+      <c r="R3" s="214"/>
+      <c r="S3" s="214"/>
+      <c r="T3" s="214"/>
+      <c r="U3" s="214"/>
+      <c r="V3" s="214"/>
+      <c r="W3" s="214"/>
+      <c r="X3" s="214"/>
+      <c r="Y3" s="214"/>
+      <c r="Z3" s="214"/>
+      <c r="AA3" s="214"/>
+      <c r="AB3" s="214"/>
+      <c r="AC3" s="214"/>
+    </row>
+    <row r="4" spans="2:32" x14ac:dyDescent="0.4">
+      <c r="B4" s="214"/>
+      <c r="C4" s="214"/>
+      <c r="D4" s="214"/>
+      <c r="E4" s="214"/>
+      <c r="F4" s="214"/>
+      <c r="G4" s="214"/>
+      <c r="H4" s="214"/>
+      <c r="I4" s="214"/>
+      <c r="J4" s="214"/>
+      <c r="K4" s="214"/>
+      <c r="L4" s="214"/>
+      <c r="M4" s="214"/>
+      <c r="N4" s="214"/>
+      <c r="O4" s="214"/>
+      <c r="P4" s="214"/>
+      <c r="Q4" s="214"/>
+      <c r="R4" s="214"/>
+      <c r="S4" s="214"/>
+      <c r="T4" s="214"/>
+      <c r="U4" s="214"/>
+      <c r="V4" s="214"/>
+      <c r="W4" s="214"/>
+      <c r="X4" s="214"/>
+      <c r="Y4" s="214"/>
+      <c r="Z4" s="214"/>
+      <c r="AA4" s="214"/>
+      <c r="AB4" s="214"/>
+      <c r="AC4" s="214"/>
+    </row>
+    <row r="5" spans="2:32" x14ac:dyDescent="0.4">
+      <c r="B5" s="214"/>
+      <c r="C5" s="214"/>
+      <c r="D5" s="214"/>
+      <c r="E5" s="214"/>
+      <c r="F5" s="214"/>
+      <c r="G5" s="214"/>
+      <c r="H5" s="214"/>
+      <c r="I5" s="214"/>
+      <c r="J5" s="214"/>
+      <c r="K5" s="214"/>
+      <c r="L5" s="214"/>
+      <c r="M5" s="214"/>
+      <c r="N5" s="214"/>
+      <c r="O5" s="214"/>
+      <c r="P5" s="214"/>
+      <c r="Q5" s="214"/>
+      <c r="R5" s="214"/>
+      <c r="S5" s="214"/>
+      <c r="T5" s="214"/>
+      <c r="U5" s="214"/>
+      <c r="V5" s="214"/>
+      <c r="W5" s="214"/>
+      <c r="X5" s="214"/>
+      <c r="Y5" s="214"/>
+      <c r="Z5" s="214"/>
+      <c r="AA5" s="214"/>
+      <c r="AB5" s="214"/>
+      <c r="AC5" s="214"/>
+    </row>
+    <row r="6" spans="2:32" ht="6.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="2:32" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="AF7">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="2:32" ht="27" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="214" t="s">
+    <row r="8" spans="2:32" ht="25.8" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="215" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="215"/>
-      <c r="D8" s="215"/>
-      <c r="E8" s="215"/>
-      <c r="F8" s="215"/>
-      <c r="G8" s="215"/>
-      <c r="H8" s="215"/>
-      <c r="I8" s="215"/>
-      <c r="J8" s="215"/>
-      <c r="K8" s="216"/>
-      <c r="L8" s="217"/>
-      <c r="M8" s="218"/>
-      <c r="N8" s="219" t="s">
+      <c r="C8" s="216"/>
+      <c r="D8" s="216"/>
+      <c r="E8" s="216"/>
+      <c r="F8" s="216"/>
+      <c r="G8" s="216"/>
+      <c r="H8" s="216"/>
+      <c r="I8" s="216"/>
+      <c r="J8" s="216"/>
+      <c r="K8" s="217"/>
+      <c r="L8" s="218"/>
+      <c r="M8" s="219"/>
+      <c r="N8" s="220" t="s">
         <v>73</v>
       </c>
-      <c r="O8" s="220"/>
-      <c r="P8" s="220"/>
-      <c r="Q8" s="221"/>
-      <c r="R8" s="222" t="s">
+      <c r="O8" s="221"/>
+      <c r="P8" s="221"/>
+      <c r="Q8" s="222"/>
+      <c r="R8" s="223" t="s">
         <v>103</v>
       </c>
-      <c r="S8" s="223"/>
-      <c r="T8" s="224"/>
+      <c r="S8" s="224"/>
+      <c r="T8" s="225"/>
       <c r="U8" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="V8" s="225" t="s">
+      <c r="V8" s="226" t="s">
         <v>0</v>
       </c>
-      <c r="W8" s="226"/>
-      <c r="X8" s="226"/>
-      <c r="Y8" s="226"/>
-      <c r="Z8" s="226"/>
-      <c r="AA8" s="226"/>
-      <c r="AB8" s="226"/>
-      <c r="AC8" s="227"/>
-    </row>
-    <row r="9" spans="2:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="202" t="s">
+      <c r="W8" s="227"/>
+      <c r="X8" s="227"/>
+      <c r="Y8" s="227"/>
+      <c r="Z8" s="227"/>
+      <c r="AA8" s="227"/>
+      <c r="AB8" s="227"/>
+      <c r="AC8" s="228"/>
+    </row>
+    <row r="9" spans="2:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="203" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="203" t="s">
+      <c r="C9" s="204" t="s">
         <v>105</v>
       </c>
-      <c r="D9" s="203" t="s">
+      <c r="D9" s="204" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="205" t="s">
+      <c r="E9" s="206" t="s">
         <v>70</v>
       </c>
-      <c r="F9" s="206"/>
-      <c r="G9" s="203" t="s">
+      <c r="F9" s="207"/>
+      <c r="G9" s="204" t="s">
         <v>106</v>
       </c>
-      <c r="H9" s="207" t="s">
+      <c r="H9" s="208" t="s">
         <v>102</v>
       </c>
-      <c r="I9" s="208" t="s">
+      <c r="I9" s="209" t="s">
         <v>71</v>
       </c>
-      <c r="J9" s="209" t="s">
+      <c r="J9" s="210" t="s">
         <v>107</v>
       </c>
-      <c r="K9" s="208" t="s">
+      <c r="K9" s="209" t="s">
         <v>108</v>
       </c>
-      <c r="L9" s="211" t="s">
+      <c r="L9" s="212" t="s">
         <v>109</v>
       </c>
-      <c r="M9" s="200" t="s">
+      <c r="M9" s="201" t="s">
         <v>110</v>
       </c>
-      <c r="N9" s="196" t="s">
+      <c r="N9" s="197" t="s">
         <v>111</v>
       </c>
-      <c r="O9" s="197" t="s">
+      <c r="O9" s="198" t="s">
         <v>73</v>
       </c>
-      <c r="P9" s="196" t="s">
+      <c r="P9" s="197" t="s">
         <v>112</v>
       </c>
-      <c r="Q9" s="198" t="s">
+      <c r="Q9" s="199" t="s">
         <v>113</v>
       </c>
-      <c r="R9" s="191" t="s">
+      <c r="R9" s="192" t="s">
         <v>114</v>
       </c>
-      <c r="S9" s="191" t="s">
+      <c r="S9" s="192" t="s">
         <v>115</v>
       </c>
-      <c r="T9" s="191" t="s">
+      <c r="T9" s="192" t="s">
         <v>116</v>
       </c>
-      <c r="U9" s="193" t="s">
+      <c r="U9" s="194" t="s">
         <v>117</v>
       </c>
-      <c r="V9" s="194" t="s">
+      <c r="V9" s="195" t="s">
         <v>118</v>
       </c>
-      <c r="W9" s="194"/>
-      <c r="X9" s="194"/>
-      <c r="Y9" s="194"/>
-      <c r="Z9" s="194" t="s">
+      <c r="W9" s="195"/>
+      <c r="X9" s="195"/>
+      <c r="Y9" s="195"/>
+      <c r="Z9" s="195" t="s">
         <v>119</v>
       </c>
-      <c r="AA9" s="194"/>
-      <c r="AB9" s="194"/>
-      <c r="AC9" s="195"/>
-    </row>
-    <row r="10" spans="2:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="202"/>
-      <c r="C10" s="204"/>
-      <c r="D10" s="204"/>
+      <c r="AA9" s="195"/>
+      <c r="AB9" s="195"/>
+      <c r="AC9" s="196"/>
+    </row>
+    <row r="10" spans="2:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="203"/>
+      <c r="C10" s="205"/>
+      <c r="D10" s="205"/>
       <c r="E10" s="71" t="s">
         <v>120</v>
       </c>
       <c r="F10" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="G10" s="204"/>
-      <c r="H10" s="207"/>
-      <c r="I10" s="208"/>
-      <c r="J10" s="210"/>
-      <c r="K10" s="208"/>
-      <c r="L10" s="212"/>
-      <c r="M10" s="201"/>
-      <c r="N10" s="197"/>
-      <c r="O10" s="197"/>
-      <c r="P10" s="197"/>
-      <c r="Q10" s="199"/>
-      <c r="R10" s="192"/>
-      <c r="S10" s="192"/>
-      <c r="T10" s="192"/>
-      <c r="U10" s="193"/>
+      <c r="G10" s="205"/>
+      <c r="H10" s="208"/>
+      <c r="I10" s="209"/>
+      <c r="J10" s="211"/>
+      <c r="K10" s="209"/>
+      <c r="L10" s="213"/>
+      <c r="M10" s="202"/>
+      <c r="N10" s="198"/>
+      <c r="O10" s="198"/>
+      <c r="P10" s="198"/>
+      <c r="Q10" s="200"/>
+      <c r="R10" s="193"/>
+      <c r="S10" s="193"/>
+      <c r="T10" s="193"/>
+      <c r="U10" s="194"/>
       <c r="V10" s="72" t="s">
         <v>122</v>
       </c>
@@ -8582,7 +8726,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="2:32" ht="21.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:32" ht="22.2" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="75" t="s">
         <v>129</v>
       </c>
@@ -8693,7 +8837,7 @@
       <c r="AE11" s="94"/>
       <c r="AF11" s="93"/>
     </row>
-    <row r="12" spans="2:32" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:32" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="75" t="s">
         <v>129</v>
       </c>
@@ -8802,7 +8946,7 @@
       </c>
       <c r="AF12" s="95"/>
     </row>
-    <row r="13" spans="2:32" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:32" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B13" s="96"/>
       <c r="C13" s="97"/>
       <c r="D13" s="98"/>
@@ -8833,7 +8977,7 @@
       <c r="AC13" s="107"/>
       <c r="AD13" s="115"/>
     </row>
-    <row r="14" spans="2:32" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:32" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B14" s="75" t="s">
         <v>129</v>
       </c>
@@ -8942,7 +9086,7 @@
         <v>2.9067641681901263E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:32" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:32" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B15" s="96"/>
       <c r="C15" s="97"/>
       <c r="D15" s="98"/>
@@ -8973,7 +9117,7 @@
       <c r="AC15" s="107"/>
       <c r="AD15" s="115"/>
     </row>
-    <row r="16" spans="2:32" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:32" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="75" t="s">
         <v>129</v>
       </c>
@@ -9082,7 +9226,7 @@
         <v>2.8728414442700134E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="75" t="s">
         <v>129</v>
       </c>
@@ -9191,7 +9335,7 @@
         <v>2.897727272727274E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B18" s="75" t="s">
         <v>129</v>
       </c>
@@ -9300,7 +9444,7 @@
         <v>2.8929986789960366E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="75" t="s">
         <v>129</v>
       </c>
@@ -9409,7 +9553,7 @@
         <v>2.8968466060929982E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="75" t="s">
         <v>129</v>
       </c>
@@ -9518,7 +9662,7 @@
         <v>2.8967768257853937E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" s="75" t="s">
         <v>129</v>
       </c>
@@ -9627,7 +9771,7 @@
         <v>2.8976266383280214E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B22" s="75" t="s">
         <v>129</v>
       </c>
@@ -9736,7 +9880,7 @@
         <v>2.8974434322656478E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:30" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:30" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="96"/>
       <c r="C23" s="97"/>
       <c r="D23" s="98"/>
@@ -9767,7 +9911,7 @@
       <c r="AC23" s="107"/>
       <c r="AD23" s="115"/>
     </row>
-    <row r="24" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B24" s="75" t="s">
         <v>129</v>
       </c>
@@ -9876,7 +10020,7 @@
         <v>2.7333333333333343</v>
       </c>
     </row>
-    <row r="25" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B25" s="75" t="s">
         <v>129</v>
       </c>
@@ -9985,7 +10129,7 @@
         <v>2.964444444444446</v>
       </c>
     </row>
-    <row r="26" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B26" s="75" t="s">
         <v>129</v>
       </c>
@@ -10094,7 +10238,7 @@
         <v>3.1433333333333309</v>
       </c>
     </row>
-    <row r="27" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B27" s="75" t="s">
         <v>129</v>
       </c>
@@ -10203,7 +10347,7 @@
         <v>3.2839999999999989</v>
       </c>
     </row>
-    <row r="28" spans="2:30" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:30" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B28" s="96"/>
       <c r="C28" s="97"/>
       <c r="D28" s="98"/>
@@ -10234,7 +10378,7 @@
       <c r="AC28" s="107"/>
       <c r="AD28" s="115"/>
     </row>
-    <row r="29" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B29" s="75" t="s">
         <v>129</v>
       </c>
@@ -10343,7 +10487,7 @@
         <v>3.1544359255202631E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B30" s="75" t="s">
         <v>129</v>
       </c>
@@ -10452,7 +10596,7 @@
         <v>3.0700549450549453E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B31" s="75" t="s">
         <v>129</v>
       </c>
@@ -10561,7 +10705,7 @@
         <v>2.7689243027888444E-2</v>
       </c>
     </row>
-    <row r="32" spans="2:30" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:30" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B32" s="96"/>
       <c r="C32" s="97"/>
       <c r="D32" s="98"/>
@@ -10592,7 +10736,7 @@
       <c r="AC32" s="107"/>
       <c r="AD32" s="115"/>
     </row>
-    <row r="33" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B33" s="75" t="s">
         <v>129</v>
       </c>
@@ -10701,7 +10845,7 @@
         <v>3.1822660098522165E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B34" s="75" t="s">
         <v>129</v>
       </c>
@@ -10808,7 +10952,7 @@
         <v>3.1381466742467307E-2</v>
       </c>
     </row>
-    <row r="35" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B35" s="75" t="s">
         <v>129</v>
       </c>
@@ -10917,7 +11061,7 @@
         <v>2.8737060041407858E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:30" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:30" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B36" s="96"/>
       <c r="C36" s="97"/>
       <c r="D36" s="98"/>
@@ -10948,7 +11092,7 @@
       <c r="AC36" s="107"/>
       <c r="AD36" s="115"/>
     </row>
-    <row r="37" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B37" s="75" t="s">
         <v>129</v>
       </c>
@@ -11057,7 +11201,7 @@
         <v>3.0645161290322576E-2</v>
       </c>
     </row>
-    <row r="38" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B38" s="75" t="s">
         <v>129</v>
       </c>
@@ -11166,7 +11310,7 @@
         <v>2.9451697127937354E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B39" s="75" t="s">
         <v>129</v>
       </c>
@@ -11275,7 +11419,7 @@
         <v>2.7912169705991807E-2</v>
       </c>
     </row>
-    <row r="40" spans="2:30" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:30" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B40" s="96"/>
       <c r="C40" s="97"/>
       <c r="D40" s="98"/>
@@ -11306,7 +11450,7 @@
       <c r="AC40" s="107"/>
       <c r="AD40" s="115"/>
     </row>
-    <row r="41" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B41" s="75" t="s">
         <v>129</v>
       </c>
@@ -11415,7 +11559,7 @@
         <v>3.212435233160621E-2</v>
       </c>
     </row>
-    <row r="42" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B42" s="75" t="s">
         <v>129</v>
       </c>
@@ -11524,7 +11668,7 @@
         <v>3.0485338725985855E-2</v>
       </c>
     </row>
-    <row r="43" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B43" s="75" t="s">
         <v>129</v>
       </c>
@@ -11633,7 +11777,7 @@
         <v>2.9142857142857137E-2</v>
       </c>
     </row>
-    <row r="44" spans="2:30" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:30" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B44" s="96"/>
       <c r="C44" s="97"/>
       <c r="D44" s="98"/>
@@ -11664,7 +11808,7 @@
       <c r="AC44" s="107"/>
       <c r="AD44" s="115"/>
     </row>
-    <row r="45" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B45" s="75" t="s">
         <v>129</v>
       </c>
@@ -11773,7 +11917,7 @@
         <v>3.1956155143338966E-2</v>
       </c>
     </row>
-    <row r="46" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B46" s="75" t="s">
         <v>129</v>
       </c>
@@ -11882,7 +12026,7 @@
         <v>3.0344827586206907E-2</v>
       </c>
     </row>
-    <row r="47" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B47" s="75" t="s">
         <v>129</v>
       </c>
@@ -11991,7 +12135,7 @@
         <v>2.9159460394327208E-2</v>
       </c>
     </row>
-    <row r="48" spans="2:30" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:30" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="96"/>
       <c r="C48" s="97"/>
       <c r="D48" s="98"/>
@@ -12022,7 +12166,7 @@
       <c r="AC48" s="107"/>
       <c r="AD48" s="115"/>
     </row>
-    <row r="49" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B49" s="75" t="s">
         <v>129</v>
       </c>
@@ -12131,7 +12275,7 @@
         <v>2.3072177668106125E-2</v>
       </c>
     </row>
-    <row r="50" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B50" s="75" t="s">
         <v>129</v>
       </c>
@@ -12240,7 +12384,7 @@
         <v>2.0939766635130863E-2</v>
       </c>
     </row>
-    <row r="51" spans="2:30" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:30" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B51" s="96"/>
       <c r="C51" s="97"/>
       <c r="D51" s="98"/>
@@ -12271,7 +12415,7 @@
       <c r="AC51" s="107"/>
       <c r="AD51" s="115"/>
     </row>
-    <row r="52" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B52" s="75" t="s">
         <v>129</v>
       </c>
@@ -12380,7 +12524,7 @@
         <v>2.1364221364221364E-2</v>
       </c>
     </row>
-    <row r="53" spans="2:30" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:30" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B53" s="75" t="s">
         <v>129</v>
       </c>
@@ -12489,7 +12633,7 @@
         <v>1.9891067538126361E-2</v>
       </c>
     </row>
-    <row r="62" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:30" x14ac:dyDescent="0.4">
       <c r="U62" s="69"/>
     </row>
   </sheetData>
@@ -12547,253 +12691,253 @@
       <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.69921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
     <col min="6" max="6" width="10" style="66" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="67" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.625" style="67" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.59765625" style="67" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" style="67" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.625" style="67" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.59765625" style="67" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.5" style="67" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" style="67" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.75" style="68" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.69921875" style="68" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7" style="68" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.375" style="68" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.375" style="68" customWidth="1"/>
+    <col min="15" max="15" width="6.3984375" style="68" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.3984375" style="68" customWidth="1"/>
     <col min="17" max="17" width="8.5" style="68" customWidth="1"/>
-    <col min="18" max="18" width="6.625" style="68" customWidth="1"/>
-    <col min="19" max="19" width="12.125" style="68" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="12.375" style="69" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="11.25" style="69" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="12.375" style="69" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.59765625" style="68" customWidth="1"/>
+    <col min="19" max="19" width="12.09765625" style="68" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="12.3984375" style="69" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="11.19921875" style="69" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="12.3984375" style="69" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="13.5" style="69" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="16" style="69" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:30" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:30" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B3" s="213" t="s">
+    <row r="1" spans="2:30" ht="6" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:30" ht="6" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B3" s="214" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="213"/>
-      <c r="D3" s="213"/>
-      <c r="E3" s="213"/>
-      <c r="F3" s="213"/>
-      <c r="G3" s="213"/>
-      <c r="H3" s="213"/>
-      <c r="I3" s="213"/>
-      <c r="J3" s="213"/>
-      <c r="K3" s="213"/>
-      <c r="L3" s="213"/>
-      <c r="M3" s="213"/>
-      <c r="N3" s="213"/>
-      <c r="O3" s="213"/>
-      <c r="P3" s="213"/>
-      <c r="Q3" s="213"/>
-      <c r="R3" s="213"/>
-      <c r="S3" s="213"/>
-      <c r="T3" s="213"/>
-      <c r="U3" s="213"/>
-      <c r="V3" s="213"/>
-      <c r="W3" s="213"/>
-      <c r="X3" s="213"/>
-      <c r="Y3" s="213"/>
-      <c r="Z3" s="213"/>
-      <c r="AA3" s="213"/>
-    </row>
-    <row r="4" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B4" s="213"/>
-      <c r="C4" s="213"/>
-      <c r="D4" s="213"/>
-      <c r="E4" s="213"/>
-      <c r="F4" s="213"/>
-      <c r="G4" s="213"/>
-      <c r="H4" s="213"/>
-      <c r="I4" s="213"/>
-      <c r="J4" s="213"/>
-      <c r="K4" s="213"/>
-      <c r="L4" s="213"/>
-      <c r="M4" s="213"/>
-      <c r="N4" s="213"/>
-      <c r="O4" s="213"/>
-      <c r="P4" s="213"/>
-      <c r="Q4" s="213"/>
-      <c r="R4" s="213"/>
-      <c r="S4" s="213"/>
-      <c r="T4" s="213"/>
-      <c r="U4" s="213"/>
-      <c r="V4" s="213"/>
-      <c r="W4" s="213"/>
-      <c r="X4" s="213"/>
-      <c r="Y4" s="213"/>
-      <c r="Z4" s="213"/>
-      <c r="AA4" s="213"/>
-    </row>
-    <row r="5" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B5" s="213"/>
-      <c r="C5" s="213"/>
-      <c r="D5" s="213"/>
-      <c r="E5" s="213"/>
-      <c r="F5" s="213"/>
-      <c r="G5" s="213"/>
-      <c r="H5" s="213"/>
-      <c r="I5" s="213"/>
-      <c r="J5" s="213"/>
-      <c r="K5" s="213"/>
-      <c r="L5" s="213"/>
-      <c r="M5" s="213"/>
-      <c r="N5" s="213"/>
-      <c r="O5" s="213"/>
-      <c r="P5" s="213"/>
-      <c r="Q5" s="213"/>
-      <c r="R5" s="213"/>
-      <c r="S5" s="213"/>
-      <c r="T5" s="213"/>
-      <c r="U5" s="213"/>
-      <c r="V5" s="213"/>
-      <c r="W5" s="213"/>
-      <c r="X5" s="213"/>
-      <c r="Y5" s="213"/>
-      <c r="Z5" s="213"/>
-      <c r="AA5" s="213"/>
-    </row>
-    <row r="6" spans="2:30" ht="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="2:30" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="214"/>
+      <c r="D3" s="214"/>
+      <c r="E3" s="214"/>
+      <c r="F3" s="214"/>
+      <c r="G3" s="214"/>
+      <c r="H3" s="214"/>
+      <c r="I3" s="214"/>
+      <c r="J3" s="214"/>
+      <c r="K3" s="214"/>
+      <c r="L3" s="214"/>
+      <c r="M3" s="214"/>
+      <c r="N3" s="214"/>
+      <c r="O3" s="214"/>
+      <c r="P3" s="214"/>
+      <c r="Q3" s="214"/>
+      <c r="R3" s="214"/>
+      <c r="S3" s="214"/>
+      <c r="T3" s="214"/>
+      <c r="U3" s="214"/>
+      <c r="V3" s="214"/>
+      <c r="W3" s="214"/>
+      <c r="X3" s="214"/>
+      <c r="Y3" s="214"/>
+      <c r="Z3" s="214"/>
+      <c r="AA3" s="214"/>
+    </row>
+    <row r="4" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B4" s="214"/>
+      <c r="C4" s="214"/>
+      <c r="D4" s="214"/>
+      <c r="E4" s="214"/>
+      <c r="F4" s="214"/>
+      <c r="G4" s="214"/>
+      <c r="H4" s="214"/>
+      <c r="I4" s="214"/>
+      <c r="J4" s="214"/>
+      <c r="K4" s="214"/>
+      <c r="L4" s="214"/>
+      <c r="M4" s="214"/>
+      <c r="N4" s="214"/>
+      <c r="O4" s="214"/>
+      <c r="P4" s="214"/>
+      <c r="Q4" s="214"/>
+      <c r="R4" s="214"/>
+      <c r="S4" s="214"/>
+      <c r="T4" s="214"/>
+      <c r="U4" s="214"/>
+      <c r="V4" s="214"/>
+      <c r="W4" s="214"/>
+      <c r="X4" s="214"/>
+      <c r="Y4" s="214"/>
+      <c r="Z4" s="214"/>
+      <c r="AA4" s="214"/>
+    </row>
+    <row r="5" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B5" s="214"/>
+      <c r="C5" s="214"/>
+      <c r="D5" s="214"/>
+      <c r="E5" s="214"/>
+      <c r="F5" s="214"/>
+      <c r="G5" s="214"/>
+      <c r="H5" s="214"/>
+      <c r="I5" s="214"/>
+      <c r="J5" s="214"/>
+      <c r="K5" s="214"/>
+      <c r="L5" s="214"/>
+      <c r="M5" s="214"/>
+      <c r="N5" s="214"/>
+      <c r="O5" s="214"/>
+      <c r="P5" s="214"/>
+      <c r="Q5" s="214"/>
+      <c r="R5" s="214"/>
+      <c r="S5" s="214"/>
+      <c r="T5" s="214"/>
+      <c r="U5" s="214"/>
+      <c r="V5" s="214"/>
+      <c r="W5" s="214"/>
+      <c r="X5" s="214"/>
+      <c r="Y5" s="214"/>
+      <c r="Z5" s="214"/>
+      <c r="AA5" s="214"/>
+    </row>
+    <row r="6" spans="2:30" ht="6.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="2:30" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="AD7">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="2:30" ht="27" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="214" t="s">
+    <row r="8" spans="2:30" ht="25.8" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="215" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="215"/>
-      <c r="D8" s="215"/>
-      <c r="E8" s="215"/>
-      <c r="F8" s="215"/>
-      <c r="G8" s="215"/>
-      <c r="H8" s="215"/>
-      <c r="I8" s="216"/>
-      <c r="J8" s="217"/>
-      <c r="K8" s="218"/>
-      <c r="L8" s="219" t="s">
+      <c r="C8" s="216"/>
+      <c r="D8" s="216"/>
+      <c r="E8" s="216"/>
+      <c r="F8" s="216"/>
+      <c r="G8" s="216"/>
+      <c r="H8" s="216"/>
+      <c r="I8" s="217"/>
+      <c r="J8" s="218"/>
+      <c r="K8" s="219"/>
+      <c r="L8" s="220" t="s">
         <v>73</v>
       </c>
-      <c r="M8" s="220"/>
-      <c r="N8" s="220"/>
-      <c r="O8" s="221"/>
-      <c r="P8" s="222" t="s">
+      <c r="M8" s="221"/>
+      <c r="N8" s="221"/>
+      <c r="O8" s="222"/>
+      <c r="P8" s="223" t="s">
         <v>103</v>
       </c>
-      <c r="Q8" s="223"/>
-      <c r="R8" s="224"/>
+      <c r="Q8" s="224"/>
+      <c r="R8" s="225"/>
       <c r="S8" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="T8" s="225" t="s">
+      <c r="T8" s="226" t="s">
         <v>0</v>
       </c>
-      <c r="U8" s="226"/>
-      <c r="V8" s="226"/>
-      <c r="W8" s="226"/>
-      <c r="X8" s="226"/>
-      <c r="Y8" s="226"/>
-      <c r="Z8" s="226"/>
-      <c r="AA8" s="227"/>
-    </row>
-    <row r="9" spans="2:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="202" t="s">
+      <c r="U8" s="227"/>
+      <c r="V8" s="227"/>
+      <c r="W8" s="227"/>
+      <c r="X8" s="227"/>
+      <c r="Y8" s="227"/>
+      <c r="Z8" s="227"/>
+      <c r="AA8" s="228"/>
+    </row>
+    <row r="9" spans="2:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="203" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="203" t="s">
+      <c r="C9" s="204" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="203" t="s">
+      <c r="D9" s="204" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="203" t="s">
+      <c r="E9" s="204" t="s">
         <v>106</v>
       </c>
-      <c r="F9" s="207" t="s">
+      <c r="F9" s="208" t="s">
         <v>102</v>
       </c>
-      <c r="G9" s="208" t="s">
+      <c r="G9" s="209" t="s">
         <v>71</v>
       </c>
-      <c r="H9" s="209" t="s">
+      <c r="H9" s="210" t="s">
         <v>107</v>
       </c>
-      <c r="I9" s="208" t="s">
+      <c r="I9" s="209" t="s">
         <v>108</v>
       </c>
-      <c r="J9" s="211" t="s">
+      <c r="J9" s="212" t="s">
         <v>109</v>
       </c>
-      <c r="K9" s="200" t="s">
+      <c r="K9" s="201" t="s">
         <v>110</v>
       </c>
-      <c r="L9" s="196" t="s">
+      <c r="L9" s="197" t="s">
         <v>111</v>
       </c>
-      <c r="M9" s="197" t="s">
+      <c r="M9" s="198" t="s">
         <v>73</v>
       </c>
-      <c r="N9" s="196" t="s">
+      <c r="N9" s="197" t="s">
         <v>112</v>
       </c>
-      <c r="O9" s="198" t="s">
+      <c r="O9" s="199" t="s">
         <v>113</v>
       </c>
-      <c r="P9" s="191" t="s">
+      <c r="P9" s="192" t="s">
         <v>114</v>
       </c>
-      <c r="Q9" s="191" t="s">
+      <c r="Q9" s="192" t="s">
         <v>115</v>
       </c>
-      <c r="R9" s="191" t="s">
+      <c r="R9" s="192" t="s">
         <v>116</v>
       </c>
-      <c r="S9" s="193" t="s">
+      <c r="S9" s="194" t="s">
         <v>117</v>
       </c>
-      <c r="T9" s="194" t="s">
+      <c r="T9" s="195" t="s">
         <v>118</v>
       </c>
-      <c r="U9" s="194"/>
-      <c r="V9" s="194"/>
-      <c r="W9" s="194"/>
-      <c r="X9" s="194" t="s">
+      <c r="U9" s="195"/>
+      <c r="V9" s="195"/>
+      <c r="W9" s="195"/>
+      <c r="X9" s="195" t="s">
         <v>119</v>
       </c>
-      <c r="Y9" s="194"/>
-      <c r="Z9" s="194"/>
-      <c r="AA9" s="195"/>
-    </row>
-    <row r="10" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="202"/>
-      <c r="C10" s="204"/>
-      <c r="D10" s="204"/>
-      <c r="E10" s="204"/>
-      <c r="F10" s="207"/>
-      <c r="G10" s="208"/>
-      <c r="H10" s="210"/>
-      <c r="I10" s="208"/>
-      <c r="J10" s="212"/>
-      <c r="K10" s="201"/>
-      <c r="L10" s="197"/>
-      <c r="M10" s="197"/>
-      <c r="N10" s="197"/>
-      <c r="O10" s="199"/>
-      <c r="P10" s="192"/>
-      <c r="Q10" s="192"/>
-      <c r="R10" s="192"/>
-      <c r="S10" s="193"/>
+      <c r="Y9" s="195"/>
+      <c r="Z9" s="195"/>
+      <c r="AA9" s="196"/>
+    </row>
+    <row r="10" spans="2:30" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="203"/>
+      <c r="C10" s="205"/>
+      <c r="D10" s="205"/>
+      <c r="E10" s="205"/>
+      <c r="F10" s="208"/>
+      <c r="G10" s="209"/>
+      <c r="H10" s="211"/>
+      <c r="I10" s="209"/>
+      <c r="J10" s="213"/>
+      <c r="K10" s="202"/>
+      <c r="L10" s="198"/>
+      <c r="M10" s="198"/>
+      <c r="N10" s="198"/>
+      <c r="O10" s="200"/>
+      <c r="P10" s="193"/>
+      <c r="Q10" s="193"/>
+      <c r="R10" s="193"/>
+      <c r="S10" s="194"/>
       <c r="T10" s="118" t="s">
         <v>122</v>
       </c>
@@ -12819,7 +12963,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="2:30" ht="21.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:30" ht="22.2" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="75" t="s">
         <v>129</v>
       </c>
@@ -12924,7 +13068,7 @@
       <c r="AC11" s="94"/>
       <c r="AD11" s="93"/>
     </row>
-    <row r="12" spans="2:30" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:30" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="75" t="s">
         <v>147</v>
       </c>
@@ -13028,7 +13172,7 @@
       </c>
       <c r="AD12" s="95"/>
     </row>
-    <row r="13" spans="2:30" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:30" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B13" s="75" t="s">
         <v>147</v>
       </c>
@@ -13070,7 +13214,7 @@
       <c r="AB13" s="93"/>
       <c r="AD13" s="95"/>
     </row>
-    <row r="14" spans="2:30" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:30" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B14" s="75" t="s">
         <v>147</v>
       </c>
@@ -13112,7 +13256,7 @@
       <c r="AB14" s="93"/>
       <c r="AD14" s="95"/>
     </row>
-    <row r="15" spans="2:30" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:30" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B15" s="75" t="s">
         <v>147</v>
       </c>
@@ -13154,7 +13298,7 @@
       <c r="AB15" s="93"/>
       <c r="AD15" s="95"/>
     </row>
-    <row r="16" spans="2:30" s="112" customFormat="1" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:30" s="112" customFormat="1" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="96"/>
       <c r="C16" s="98"/>
       <c r="D16" s="99"/>
@@ -13183,7 +13327,7 @@
       <c r="AA16" s="107"/>
       <c r="AB16" s="115"/>
     </row>
-    <row r="17" spans="2:28" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:28" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="75" t="s">
         <v>147</v>
       </c>
@@ -13286,7 +13430,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="2:28" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:28" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B18" s="75" t="s">
         <v>147</v>
       </c>
@@ -13324,7 +13468,7 @@
       <c r="AA18" s="92"/>
       <c r="AB18" s="93"/>
     </row>
-    <row r="19" spans="2:28" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:28" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="75" t="s">
         <v>147</v>
       </c>
@@ -13362,7 +13506,7 @@
       <c r="AA19" s="92"/>
       <c r="AB19" s="93"/>
     </row>
-    <row r="20" spans="2:28" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:28" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="75" t="s">
         <v>147</v>
       </c>
@@ -13400,7 +13544,7 @@
       <c r="AA20" s="92"/>
       <c r="AB20" s="93"/>
     </row>
-    <row r="21" spans="2:28" s="112" customFormat="1" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:28" s="112" customFormat="1" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" s="96"/>
       <c r="C21" s="98"/>
       <c r="D21" s="99"/>
@@ -13429,7 +13573,7 @@
       <c r="AA21" s="107"/>
       <c r="AB21" s="115"/>
     </row>
-    <row r="22" spans="2:28" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:28" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B22" s="75" t="s">
         <v>147</v>
       </c>
@@ -13532,7 +13676,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="2:28" s="112" customFormat="1" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:28" s="112" customFormat="1" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="96"/>
       <c r="C23" s="98"/>
       <c r="D23" s="99"/>
@@ -13561,7 +13705,7 @@
       <c r="AA23" s="107"/>
       <c r="AB23" s="115"/>
     </row>
-    <row r="24" spans="2:28" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:28" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B24" s="75" t="s">
         <v>147</v>
       </c>
@@ -13596,7 +13740,7 @@
       <c r="AA24" s="92"/>
       <c r="AB24" s="93"/>
     </row>
-    <row r="25" spans="2:28" s="112" customFormat="1" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:28" s="112" customFormat="1" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B25" s="96"/>
       <c r="C25" s="98"/>
       <c r="D25" s="99"/>
@@ -13625,7 +13769,7 @@
       <c r="AA25" s="107"/>
       <c r="AB25" s="115"/>
     </row>
-    <row r="26" spans="2:28" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:28" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B26" s="75" t="s">
         <v>147</v>
       </c>
@@ -13728,7 +13872,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="2:28" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:28" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B27" s="96"/>
       <c r="C27" s="98"/>
       <c r="D27" s="99"/>
@@ -13757,7 +13901,7 @@
       <c r="AA27" s="107"/>
       <c r="AB27" s="115"/>
     </row>
-    <row r="28" spans="2:28" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:28" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B28" s="75" t="s">
         <v>147</v>
       </c>
@@ -13860,7 +14004,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="2:28" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:28" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B29" s="96"/>
       <c r="C29" s="98"/>
       <c r="D29" s="99"/>
@@ -13889,7 +14033,7 @@
       <c r="AA29" s="107"/>
       <c r="AB29" s="115"/>
     </row>
-    <row r="30" spans="2:28" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:28" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B30" s="75" t="s">
         <v>147</v>
       </c>
@@ -13924,7 +14068,7 @@
       <c r="AA30" s="92"/>
       <c r="AB30" s="93"/>
     </row>
-    <row r="31" spans="2:28" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:28" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B31" s="96"/>
       <c r="C31" s="98"/>
       <c r="D31" s="99"/>
@@ -13953,7 +14097,7 @@
       <c r="AA31" s="107"/>
       <c r="AB31" s="115"/>
     </row>
-    <row r="32" spans="2:28" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:28" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B32" s="75" t="s">
         <v>147</v>
       </c>
@@ -14056,7 +14200,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="33" spans="2:28" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:28" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B33" s="96"/>
       <c r="C33" s="98"/>
       <c r="D33" s="99"/>
@@ -14085,7 +14229,7 @@
       <c r="AA33" s="107"/>
       <c r="AB33" s="115"/>
     </row>
-    <row r="34" spans="2:28" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:28" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B34" s="75" t="s">
         <v>147</v>
       </c>
@@ -14188,7 +14332,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="35" spans="2:28" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:28" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B35" s="96"/>
       <c r="C35" s="98"/>
       <c r="D35" s="99"/>
@@ -14217,7 +14361,7 @@
       <c r="AA35" s="107"/>
       <c r="AB35" s="115"/>
     </row>
-    <row r="36" spans="2:28" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:28" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B36" s="75" t="s">
         <v>147</v>
       </c>
@@ -14320,7 +14464,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="37" spans="2:28" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:28" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B37" s="96"/>
       <c r="C37" s="98"/>
       <c r="D37" s="99"/>
@@ -14349,7 +14493,7 @@
       <c r="AA37" s="107"/>
       <c r="AB37" s="115"/>
     </row>
-    <row r="38" spans="2:28" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:28" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B38" s="75" t="s">
         <v>147</v>
       </c>
@@ -14452,7 +14596,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="2:28" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:28" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B39" s="96"/>
       <c r="C39" s="98"/>
       <c r="D39" s="99"/>
@@ -14481,7 +14625,7 @@
       <c r="AA39" s="107"/>
       <c r="AB39" s="115"/>
     </row>
-    <row r="40" spans="2:28" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:28" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B40" s="75" t="s">
         <v>147</v>
       </c>
@@ -14584,7 +14728,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="49" spans="19:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="19:19" x14ac:dyDescent="0.4">
       <c r="S49" s="69"/>
     </row>
   </sheetData>

--- a/document/goods_Info.xlsx
+++ b/document/goods_Info.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aodrl\Desktop\project\CMW_V2\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aodrl\Desktop\Project\CMW_V2\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D721ED82-C466-4207-96CA-0508CA88FFA0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A10B7FA-4DA7-4830-B41A-9F7E7AB42057}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{2202C1BA-8378-4109-9FCC-5C7E0CDB8A0F}"/>
+    <workbookView xWindow="3480" yWindow="1170" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{2202C1BA-8378-4109-9FCC-5C7E0CDB8A0F}"/>
   </bookViews>
   <sheets>
     <sheet name="정보" sheetId="3" r:id="rId1"/>
@@ -2306,29 +2306,116 @@
     <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="30" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="30" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2345,82 +2432,88 @@
     <xf numFmtId="176" fontId="5" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="17" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="18" fillId="5" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="18" fillId="5" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="18" fillId="5" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="18" fillId="14" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="18" fillId="14" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="18" fillId="15" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="18" fillId="15" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="18" fillId="15" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="18" fillId="16" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="18" fillId="16" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="18" fillId="16" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="18" fillId="18" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="18" fillId="18" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="18" fillId="18" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="20" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="20" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="19" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="19" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="19" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="19" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="19" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="19" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="19" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="19" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="19" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="20" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="30" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="30" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="4" fillId="20" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="16" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2449,99 +2542,6 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="21" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="20" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="20" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="19" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="19" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="19" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="19" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="19" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="19" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="19" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="19" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="19" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="20" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="20" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="17" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="18" fillId="5" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="18" fillId="5" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="18" fillId="5" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="18" fillId="14" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="18" fillId="14" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="18" fillId="15" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="18" fillId="15" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="18" fillId="15" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="18" fillId="16" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="18" fillId="16" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="18" fillId="16" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="18" fillId="18" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="18" fillId="18" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="18" fillId="18" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2894,32 +2894,32 @@
       <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.59765625" customWidth="1"/>
-    <col min="2" max="2" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.59765625" customWidth="1"/>
-    <col min="5" max="5" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.625" customWidth="1"/>
+    <col min="2" max="2" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.625" customWidth="1"/>
+    <col min="5" max="5" width="8.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.3984375" customWidth="1"/>
+    <col min="8" max="8" width="4.375" customWidth="1"/>
     <col min="9" max="9" width="11.5" customWidth="1"/>
-    <col min="10" max="10" width="8.69921875" customWidth="1"/>
-    <col min="11" max="11" width="5.59765625" customWidth="1"/>
-    <col min="12" max="12" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.59765625" customWidth="1"/>
-    <col min="16" max="16" width="4.8984375" customWidth="1"/>
-    <col min="17" max="17" width="12.69921875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.8984375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.8984375" customWidth="1"/>
-    <col min="20" max="20" width="6.8984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.75" customWidth="1"/>
+    <col min="11" max="11" width="5.625" customWidth="1"/>
+    <col min="12" max="12" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.625" customWidth="1"/>
+    <col min="16" max="16" width="4.875" customWidth="1"/>
+    <col min="17" max="17" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.875" customWidth="1"/>
+    <col min="20" max="20" width="6.875" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="6.5" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="7.5" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="9" style="122"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:29" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:29" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="150" t="s">
         <v>64</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>1862.85</v>
       </c>
     </row>
-    <row r="3" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B3" s="42" t="s">
         <v>69</v>
       </c>
@@ -3028,7 +3028,7 @@
         <v>1877.85</v>
       </c>
     </row>
-    <row r="4" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B4" s="50" t="s">
         <v>75</v>
       </c>
@@ -3087,7 +3087,7 @@
         <v>4060.125</v>
       </c>
     </row>
-    <row r="5" spans="2:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="50" t="s">
         <v>145</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="6" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B6" s="50" t="s">
         <v>78</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="7" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B7" s="50" t="s">
         <v>62</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="8" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B8" s="119" t="s">
         <v>146</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="9" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B9" s="50" t="s">
         <v>82</v>
       </c>
@@ -3407,7 +3407,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="10" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B10" s="50" t="s">
         <v>84</v>
       </c>
@@ -3471,7 +3471,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="11" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B11" s="50" t="s">
         <v>32</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="12" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B12" s="50" t="s">
         <v>87</v>
       </c>
@@ -3598,7 +3598,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="13" spans="2:29" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="50" t="s">
         <v>89</v>
       </c>
@@ -3657,7 +3657,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="14" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B14" s="50" t="s">
         <v>91</v>
       </c>
@@ -3710,7 +3710,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="15" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B15" s="50" t="s">
         <v>93</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>12114</v>
       </c>
     </row>
-    <row r="16" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B16" s="50" t="s">
         <v>94</v>
       </c>
@@ -3810,7 +3810,7 @@
         <v>13938.5</v>
       </c>
     </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B17" s="50" t="s">
         <v>144</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>15710</v>
       </c>
     </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B18" s="50" t="s">
         <v>95</v>
       </c>
@@ -3910,7 +3910,7 @@
         <v>21993</v>
       </c>
     </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B19" s="50" t="s">
         <v>96</v>
       </c>
@@ -3933,7 +3933,7 @@
         <v>17500</v>
       </c>
     </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B20" s="50" t="s">
         <v>97</v>
       </c>
@@ -3956,7 +3956,7 @@
         <v>19800</v>
       </c>
     </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B21" s="50" t="s">
         <v>98</v>
       </c>
@@ -3979,7 +3979,7 @@
         <v>27700</v>
       </c>
     </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B22" s="50" t="s">
         <v>99</v>
       </c>
@@ -4002,7 +4002,7 @@
         <v>11500</v>
       </c>
     </row>
-    <row r="23" spans="2:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="62" t="s">
         <v>100</v>
       </c>
@@ -4025,7 +4025,7 @@
         <v>19500</v>
       </c>
     </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:24" x14ac:dyDescent="0.3">
       <c r="E24" s="52" t="s">
         <v>82</v>
       </c>
@@ -4036,7 +4036,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:24" x14ac:dyDescent="0.3">
       <c r="E25" s="52" t="s">
         <v>84</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>0.21739130434782608</v>
       </c>
     </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:24" x14ac:dyDescent="0.3">
       <c r="E26" s="52" t="s">
         <v>84</v>
       </c>
@@ -4066,7 +4066,7 @@
         <v>0.21182266009852216</v>
       </c>
     </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:24" x14ac:dyDescent="0.3">
       <c r="E27" s="52" t="s">
         <v>84</v>
       </c>
@@ -4077,7 +4077,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:24" x14ac:dyDescent="0.3">
       <c r="E28" s="52" t="s">
         <v>32</v>
       </c>
@@ -4088,7 +4088,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:24" x14ac:dyDescent="0.3">
       <c r="E29" s="52" t="s">
         <v>32</v>
       </c>
@@ -4099,7 +4099,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:24" x14ac:dyDescent="0.3">
       <c r="E30" s="52" t="s">
         <v>32</v>
       </c>
@@ -4110,7 +4110,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:24" x14ac:dyDescent="0.3">
       <c r="E31" s="52" t="s">
         <v>87</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:24" x14ac:dyDescent="0.3">
       <c r="E32" s="52" t="s">
         <v>87</v>
       </c>
@@ -4132,7 +4132,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="33" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E33" s="52" t="s">
         <v>87</v>
       </c>
@@ -4143,7 +4143,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="34" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E34" s="50" t="s">
         <v>89</v>
       </c>
@@ -4154,7 +4154,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="35" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E35" s="50" t="s">
         <v>91</v>
       </c>
@@ -4165,7 +4165,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="36" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E36" s="50" t="s">
         <v>93</v>
       </c>
@@ -4176,7 +4176,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="37" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E37" s="50" t="s">
         <v>94</v>
       </c>
@@ -4187,7 +4187,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="38" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E38" s="50" t="s">
         <v>95</v>
       </c>
@@ -4198,7 +4198,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="39" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E39" s="50" t="s">
         <v>96</v>
       </c>
@@ -4209,7 +4209,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="40" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E40" s="50" t="s">
         <v>97</v>
       </c>
@@ -4220,7 +4220,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="41" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E41" s="50" t="s">
         <v>98</v>
       </c>
@@ -4231,7 +4231,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="42" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E42" s="50" t="s">
         <v>99</v>
       </c>
@@ -4242,7 +4242,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="43" spans="5:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="5:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E43" s="62" t="s">
         <v>100</v>
       </c>
@@ -4253,232 +4253,232 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="44" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E44" s="65"/>
       <c r="F44" s="65"/>
       <c r="G44" s="65"/>
     </row>
-    <row r="45" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="45" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E45" s="65"/>
       <c r="F45" s="65"/>
       <c r="G45" s="65"/>
     </row>
-    <row r="46" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E46" s="65"/>
       <c r="F46" s="65"/>
       <c r="G46" s="65"/>
     </row>
-    <row r="47" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="47" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E47" s="65"/>
       <c r="F47" s="65"/>
       <c r="G47" s="65"/>
     </row>
-    <row r="48" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E48" s="65"/>
       <c r="F48" s="65"/>
       <c r="G48" s="65"/>
     </row>
-    <row r="49" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="49" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E49" s="65"/>
       <c r="F49" s="65"/>
       <c r="G49" s="65"/>
     </row>
-    <row r="50" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="50" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E50" s="65"/>
       <c r="F50" s="65"/>
       <c r="G50" s="65"/>
     </row>
-    <row r="51" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="51" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E51" s="65"/>
       <c r="F51" s="65"/>
       <c r="G51" s="65"/>
     </row>
-    <row r="52" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="52" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E52" s="65"/>
       <c r="F52" s="65"/>
       <c r="G52" s="65"/>
     </row>
-    <row r="53" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="53" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E53" s="65"/>
       <c r="F53" s="65"/>
       <c r="G53" s="65"/>
     </row>
-    <row r="54" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="54" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E54" s="65"/>
       <c r="F54" s="65"/>
       <c r="G54" s="65"/>
     </row>
-    <row r="55" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="55" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E55" s="65"/>
       <c r="F55" s="65"/>
       <c r="G55" s="65"/>
     </row>
-    <row r="56" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="56" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E56" s="65"/>
       <c r="F56" s="65"/>
       <c r="G56" s="65"/>
     </row>
-    <row r="57" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="57" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E57" s="65"/>
       <c r="F57" s="65"/>
       <c r="G57" s="65"/>
     </row>
-    <row r="58" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="58" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E58" s="65"/>
       <c r="F58" s="65"/>
       <c r="G58" s="65"/>
     </row>
-    <row r="59" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="59" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E59" s="65"/>
       <c r="F59" s="65"/>
       <c r="G59" s="65"/>
     </row>
-    <row r="60" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="60" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E60" s="65"/>
       <c r="F60" s="65"/>
       <c r="G60" s="65"/>
     </row>
-    <row r="61" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="61" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E61" s="65"/>
       <c r="F61" s="65"/>
       <c r="G61" s="65"/>
     </row>
-    <row r="62" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="62" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E62" s="65"/>
       <c r="F62" s="65"/>
       <c r="G62" s="65"/>
     </row>
-    <row r="63" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="63" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E63" s="65"/>
       <c r="F63" s="65"/>
       <c r="G63" s="65"/>
     </row>
-    <row r="64" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="64" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E64" s="65"/>
       <c r="F64" s="65"/>
       <c r="G64" s="65"/>
     </row>
-    <row r="65" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="65" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E65" s="65"/>
       <c r="F65" s="65"/>
       <c r="G65" s="65"/>
     </row>
-    <row r="66" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="66" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E66" s="65"/>
       <c r="F66" s="65"/>
       <c r="G66" s="65"/>
     </row>
-    <row r="67" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="67" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E67" s="65"/>
       <c r="F67" s="65"/>
       <c r="G67" s="65"/>
     </row>
-    <row r="68" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="68" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E68" s="65"/>
       <c r="F68" s="65"/>
       <c r="G68" s="65"/>
     </row>
-    <row r="69" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="69" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E69" s="65"/>
       <c r="F69" s="65"/>
       <c r="G69" s="65"/>
     </row>
-    <row r="70" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="70" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E70" s="65"/>
       <c r="F70" s="65"/>
       <c r="G70" s="65"/>
     </row>
-    <row r="71" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="71" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E71" s="65"/>
       <c r="F71" s="65"/>
       <c r="G71" s="65"/>
     </row>
-    <row r="72" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="72" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E72" s="65"/>
       <c r="F72" s="65"/>
       <c r="G72" s="65"/>
     </row>
-    <row r="73" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="73" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E73" s="65"/>
       <c r="F73" s="65"/>
       <c r="G73" s="65"/>
     </row>
-    <row r="74" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="74" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E74" s="65"/>
       <c r="F74" s="65"/>
       <c r="G74" s="65"/>
     </row>
-    <row r="75" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="75" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E75" s="65"/>
       <c r="F75" s="65"/>
       <c r="G75" s="65"/>
     </row>
-    <row r="76" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="76" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E76" s="65"/>
       <c r="F76" s="65"/>
       <c r="G76" s="65"/>
     </row>
-    <row r="77" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="77" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E77" s="65"/>
       <c r="F77" s="65"/>
       <c r="G77" s="65"/>
     </row>
-    <row r="78" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="78" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E78" s="65"/>
       <c r="F78" s="65"/>
       <c r="G78" s="65"/>
     </row>
-    <row r="79" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="79" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E79" s="65"/>
       <c r="F79" s="65"/>
       <c r="G79" s="65"/>
     </row>
-    <row r="80" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="80" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E80" s="65"/>
       <c r="F80" s="65"/>
       <c r="G80" s="65"/>
     </row>
-    <row r="81" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="81" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E81" s="65"/>
       <c r="F81" s="65"/>
       <c r="G81" s="65"/>
     </row>
-    <row r="82" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="82" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E82" s="65"/>
       <c r="F82" s="65"/>
       <c r="G82" s="65"/>
     </row>
-    <row r="83" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="83" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E83" s="65"/>
       <c r="F83" s="65"/>
       <c r="G83" s="65"/>
     </row>
-    <row r="84" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="84" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E84" s="65"/>
       <c r="F84" s="65"/>
       <c r="G84" s="65"/>
     </row>
-    <row r="85" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="85" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E85" s="65"/>
       <c r="F85" s="65"/>
       <c r="G85" s="65"/>
     </row>
-    <row r="86" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="86" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E86" s="65"/>
       <c r="F86" s="65"/>
       <c r="G86" s="65"/>
     </row>
-    <row r="87" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="87" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E87" s="65"/>
       <c r="F87" s="65"/>
       <c r="G87" s="65"/>
     </row>
-    <row r="88" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="88" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E88" s="65"/>
       <c r="F88" s="65"/>
       <c r="G88" s="65"/>
     </row>
-    <row r="89" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="89" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E89" s="65"/>
       <c r="F89" s="65"/>
       <c r="G89" s="65"/>
@@ -4500,47 +4500,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3104B28F-70C4-4516-B7D6-2295FDC1E0E7}">
   <dimension ref="B2:AD35"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.69921875" customWidth="1"/>
-    <col min="2" max="2" width="9.8984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.75" customWidth="1"/>
+    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.8984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.69921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.75" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="8" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.8984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.875" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.19921875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.8984375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.19921875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.69921875" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="6.3984375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:30" ht="20.399999999999999" x14ac:dyDescent="0.4">
-      <c r="B2" s="160" t="s">
+    <row r="2" spans="2:30" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="B2" s="153" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
       <c r="G2" s="129" t="s">
         <v>171</v>
       </c>
@@ -4576,7 +4576,7 @@
       </c>
       <c r="AA2" s="1"/>
     </row>
-    <row r="3" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B3" s="130" t="s">
         <v>60</v>
       </c>
@@ -4614,11 +4614,11 @@
         <v>104.50000000000001</v>
       </c>
       <c r="O3">
-        <f>$E$22*H3</f>
+        <f t="shared" ref="O3:O10" si="0">$E$22*H3</f>
         <v>20</v>
       </c>
       <c r="P3">
-        <f>-$E$26*H3*$E$4/1000</f>
+        <f t="shared" ref="P3:P10" si="1">-$E$26*H3*$E$4/1000</f>
         <v>-99.230769230769226</v>
       </c>
       <c r="Q3">
@@ -4626,12 +4626,12 @@
         <v>49.500000000000007</v>
       </c>
       <c r="R3" s="1">
-        <f>SUM(L3:Q3)</f>
+        <f t="shared" ref="R3:R10" si="2">SUM(L3:Q3)</f>
         <v>1773.8834039975773</v>
       </c>
       <c r="AA3" s="1"/>
     </row>
-    <row r="4" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B4" s="154" t="s">
         <v>56</v>
       </c>
@@ -4657,11 +4657,11 @@
         <v>1.25</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4:L10" si="0">$E$4*J4</f>
+        <f t="shared" ref="L4:L10" si="3">$E$4*J4</f>
         <v>1612.5</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M10" si="1">$E$7*H4</f>
+        <f t="shared" ref="M4:M10" si="4">$E$7*H4</f>
         <v>86.614173228346459</v>
       </c>
       <c r="N4" s="3">
@@ -4669,11 +4669,11 @@
         <v>104.50000000000001</v>
       </c>
       <c r="O4">
-        <f>$E$22*H4</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="P4">
-        <f>-$E$26*H4*$E$4/1000</f>
+        <f t="shared" si="1"/>
         <v>-99.230769230769226</v>
       </c>
       <c r="Q4">
@@ -4681,12 +4681,12 @@
         <v>49.500000000000007</v>
       </c>
       <c r="R4" s="1">
-        <f>SUM(L4:Q4)</f>
+        <f t="shared" si="2"/>
         <v>1773.8834039975773</v>
       </c>
       <c r="AA4" s="1"/>
     </row>
-    <row r="5" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B5" s="154"/>
       <c r="C5" s="132" t="s">
         <v>38</v>
@@ -4710,11 +4710,11 @@
         <v>2.6</v>
       </c>
       <c r="L5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3354</v>
       </c>
       <c r="M5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>207.87401574803152</v>
       </c>
       <c r="N5" s="3">
@@ -4722,23 +4722,23 @@
         <v>220.00000000000003</v>
       </c>
       <c r="O5">
-        <f>$E$22*H5</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="P5">
-        <f>-$E$26*H5*$E$4/1000</f>
+        <f t="shared" si="1"/>
         <v>-238.15384615384616</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5" s="1">
-        <f>SUM(L5:Q5)</f>
+        <f t="shared" si="2"/>
         <v>3591.7201695941853</v>
       </c>
       <c r="AA5" s="1"/>
     </row>
-    <row r="6" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B6" s="154" t="s">
         <v>54</v>
       </c>
@@ -4765,11 +4765,11 @@
         <v>2.4</v>
       </c>
       <c r="L6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3096</v>
       </c>
       <c r="M6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>259.84251968503941</v>
       </c>
       <c r="N6" s="3">
@@ -4777,25 +4777,25 @@
         <v>247.50000000000003</v>
       </c>
       <c r="O6">
-        <f>$E$22*H6</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="P6">
-        <f>-$E$26*H6*$E$4/1000</f>
+        <f t="shared" si="1"/>
         <v>-297.69230769230768</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6" s="1">
-        <f>SUM(L6:Q6)</f>
+        <f t="shared" si="2"/>
         <v>3365.6502119927318</v>
       </c>
       <c r="AA6" s="1"/>
     </row>
-    <row r="7" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B7" s="154"/>
-      <c r="C7" s="157"/>
+      <c r="C7" s="156"/>
       <c r="D7" s="133" t="s">
         <v>50</v>
       </c>
@@ -4819,11 +4819,11 @@
         <v>2.6</v>
       </c>
       <c r="L7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3354</v>
       </c>
       <c r="M7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>259.84251968503941</v>
       </c>
       <c r="N7" s="3">
@@ -4831,23 +4831,23 @@
         <v>247.50000000000003</v>
       </c>
       <c r="O7">
-        <f>$E$22*H7</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="P7">
-        <f>-$E$26*H7*$E$4/1000</f>
+        <f t="shared" si="1"/>
         <v>-297.69230769230768</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
       <c r="R7" s="1">
-        <f>SUM(L7:Q7)</f>
+        <f t="shared" si="2"/>
         <v>3623.6502119927318</v>
       </c>
       <c r="AA7" s="1"/>
     </row>
-    <row r="8" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B8" s="154"/>
       <c r="C8" s="132" t="s">
         <v>49</v>
@@ -4871,11 +4871,11 @@
         <v>3.2</v>
       </c>
       <c r="L8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4128</v>
       </c>
       <c r="M8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>259.84251968503941</v>
       </c>
       <c r="N8" s="3">
@@ -4883,23 +4883,23 @@
         <v>249.70000000000002</v>
       </c>
       <c r="O8">
-        <f>$E$22*H8</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="P8">
-        <f>-$E$26*H8*$E$4/1000</f>
+        <f t="shared" si="1"/>
         <v>-297.69230769230768</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8" s="1">
-        <f>SUM(L8:Q8)</f>
+        <f t="shared" si="2"/>
         <v>4399.8502119927316</v>
       </c>
       <c r="AA8" s="1"/>
     </row>
-    <row r="9" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B9" s="154" t="s">
         <v>48</v>
       </c>
@@ -4926,11 +4926,11 @@
         <v>3.7</v>
       </c>
       <c r="L9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4773</v>
       </c>
       <c r="M9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>259.84251968503941</v>
       </c>
       <c r="N9" s="3">
@@ -4938,23 +4938,23 @@
         <v>255.20000000000002</v>
       </c>
       <c r="O9">
-        <f>$E$22*H9</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="P9">
-        <f>-$E$26*H9*$E$4/1000</f>
+        <f t="shared" si="1"/>
         <v>-297.69230769230768</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9" s="1">
-        <f>SUM(L9:Q9)</f>
+        <f t="shared" si="2"/>
         <v>5050.3502119927316</v>
       </c>
       <c r="AA9" s="1"/>
     </row>
-    <row r="10" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B10" s="154"/>
       <c r="C10" s="132" t="s">
         <v>44</v>
@@ -4979,11 +4979,11 @@
         <v>3.85</v>
       </c>
       <c r="L10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4966.5</v>
       </c>
       <c r="M10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>259.84251968503941</v>
       </c>
       <c r="N10" s="3">
@@ -4991,23 +4991,23 @@
         <v>255.20000000000002</v>
       </c>
       <c r="O10">
-        <f>$E$22*H10</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="P10">
-        <f>-$E$26*H10*$E$4/1000</f>
+        <f t="shared" si="1"/>
         <v>-297.69230769230768</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10" s="1">
-        <f>SUM(L10:Q10)</f>
+        <f t="shared" si="2"/>
         <v>5243.8502119927316</v>
       </c>
       <c r="AA10" s="1"/>
     </row>
-    <row r="11" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B11" s="154"/>
       <c r="C11" s="132" t="s">
         <v>176</v>
@@ -5031,8 +5031,8 @@
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
     </row>
-    <row r="12" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="B12" s="229" t="s">
+    <row r="12" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B12" s="157" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="132" t="s">
@@ -5057,8 +5057,8 @@
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
     </row>
-    <row r="13" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="B13" s="230"/>
+    <row r="13" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B13" s="158"/>
       <c r="C13" s="132" t="s">
         <v>187</v>
       </c>
@@ -5081,8 +5081,8 @@
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
     </row>
-    <row r="14" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="B14" s="230"/>
+    <row r="14" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B14" s="158"/>
       <c r="C14" s="132" t="s">
         <v>187</v>
       </c>
@@ -5105,8 +5105,8 @@
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
     </row>
-    <row r="15" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="B15" s="230"/>
+    <row r="15" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B15" s="158"/>
       <c r="C15" s="133" t="s">
         <v>45</v>
       </c>
@@ -5130,8 +5130,8 @@
       <c r="Y15" s="1"/>
       <c r="AA15" s="1"/>
     </row>
-    <row r="16" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="B16" s="230"/>
+    <row r="16" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B16" s="158"/>
       <c r="C16" s="133" t="s">
         <v>44</v>
       </c>
@@ -5152,11 +5152,11 @@
         <v>1773.8834039975773</v>
       </c>
       <c r="K16" s="143">
-        <f t="shared" ref="K16:L16" si="2">$R3*K$15</f>
+        <f t="shared" ref="K16:L16" si="5">$R3*K$15</f>
         <v>8869.4170199878863</v>
       </c>
       <c r="L16" s="143">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>17738.834039975773</v>
       </c>
       <c r="M16" s="144"/>
@@ -5168,8 +5168,8 @@
       <c r="Y16" s="1"/>
       <c r="AA16" s="1"/>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B17" s="231"/>
+    <row r="17" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B17" s="159"/>
       <c r="C17" s="133" t="s">
         <v>43</v>
       </c>
@@ -5208,8 +5208,8 @@
       <c r="Y17" s="1"/>
       <c r="AA17" s="1"/>
     </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B18" s="153" t="s">
+    <row r="18" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B18" s="160" t="s">
         <v>42</v>
       </c>
       <c r="C18" s="132" t="s">
@@ -5241,7 +5241,7 @@
       <c r="Y18" s="1"/>
       <c r="AA18" s="1"/>
     </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B19" s="154"/>
       <c r="C19" s="132" t="s">
         <v>38</v>
@@ -5279,7 +5279,7 @@
       <c r="Y19" s="1"/>
       <c r="AA19" s="1"/>
     </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B20" s="132" t="s">
         <v>37</v>
       </c>
@@ -5315,7 +5315,7 @@
       <c r="Y20" s="1"/>
       <c r="AA20" s="1"/>
     </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B21" s="132" t="s">
         <v>35</v>
       </c>
@@ -5345,7 +5345,7 @@
       <c r="Y21" s="1"/>
       <c r="AA21" s="1"/>
     </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B22" s="132" t="s">
         <v>33</v>
       </c>
@@ -5364,15 +5364,15 @@
         <v>16</v>
       </c>
       <c r="J22" s="144">
-        <f>$R6*J$21</f>
+        <f t="shared" ref="J22:L26" si="6">$R6*J$21</f>
         <v>3365.6502119927318</v>
       </c>
       <c r="K22" s="143">
-        <f>$R6*K$21</f>
+        <f t="shared" si="6"/>
         <v>6731.3004239854636</v>
       </c>
       <c r="L22" s="143">
-        <f>$R6*L$21</f>
+        <f t="shared" si="6"/>
         <v>10096.950635978195</v>
       </c>
       <c r="M22" s="144">
@@ -5390,7 +5390,7 @@
       <c r="Y22" s="1"/>
       <c r="AA22" s="1"/>
     </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B23" s="132" t="s">
         <v>30</v>
       </c>
@@ -5410,15 +5410,15 @@
         <v>62</v>
       </c>
       <c r="J23" s="144">
-        <f>$R7*J$21</f>
+        <f t="shared" si="6"/>
         <v>3623.6502119927318</v>
       </c>
       <c r="K23" s="143">
-        <f>$R7*K$21</f>
+        <f t="shared" si="6"/>
         <v>7247.3004239854636</v>
       </c>
       <c r="L23" s="143">
-        <f>$R7*L$21</f>
+        <f t="shared" si="6"/>
         <v>10870.950635978195</v>
       </c>
       <c r="M23" s="144">
@@ -5426,7 +5426,7 @@
         <v>3772.1502119927318</v>
       </c>
       <c r="N23" s="144">
-        <f t="shared" ref="N23:N26" si="3">$K23+$E$14</f>
+        <f t="shared" ref="N23:N26" si="7">$K23+$E$14</f>
         <v>7440.9004239854639</v>
       </c>
       <c r="O23" s="144">
@@ -5434,7 +5434,7 @@
         <v>11121.750635978195</v>
       </c>
     </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B24" s="132" t="s">
         <v>29</v>
       </c>
@@ -5454,15 +5454,15 @@
         <v>82</v>
       </c>
       <c r="J24" s="144">
-        <f>$R8*J$21</f>
+        <f t="shared" si="6"/>
         <v>4399.8502119927316</v>
       </c>
       <c r="K24" s="143">
-        <f>$R8*K$21</f>
+        <f t="shared" si="6"/>
         <v>8799.7004239854632</v>
       </c>
       <c r="L24" s="143">
-        <f>$R8*L$21</f>
+        <f t="shared" si="6"/>
         <v>13199.550635978194</v>
       </c>
       <c r="M24" s="144">
@@ -5470,7 +5470,7 @@
         <v>4548.3502119927316</v>
       </c>
       <c r="N24" s="144">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>8993.3004239854636</v>
       </c>
       <c r="O24" s="144">
@@ -5478,7 +5478,7 @@
         <v>13452.550635978194</v>
       </c>
     </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B25" s="132" t="s">
         <v>28</v>
       </c>
@@ -5498,15 +5498,15 @@
         <v>32</v>
       </c>
       <c r="J25" s="144">
-        <f>$R9*J$21</f>
+        <f t="shared" si="6"/>
         <v>5050.3502119927316</v>
       </c>
       <c r="K25" s="143">
-        <f>$R9*K$21</f>
+        <f t="shared" si="6"/>
         <v>10100.700423985463</v>
       </c>
       <c r="L25" s="143">
-        <f>$R9*L$21</f>
+        <f t="shared" si="6"/>
         <v>15151.050635978194</v>
       </c>
       <c r="M25" s="144">
@@ -5514,7 +5514,7 @@
         <v>5198.8502119927316</v>
       </c>
       <c r="N25" s="144">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>10294.300423985464</v>
       </c>
       <c r="O25" s="144">
@@ -5522,7 +5522,7 @@
         <v>15406.250635978195</v>
       </c>
     </row>
-    <row r="26" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B26" s="132" t="s">
         <v>163</v>
       </c>
@@ -5542,15 +5542,15 @@
         <v>149</v>
       </c>
       <c r="J26" s="144">
-        <f>$R10*J$21</f>
+        <f t="shared" si="6"/>
         <v>5243.8502119927316</v>
       </c>
       <c r="K26" s="143">
-        <f>$R10*K$21</f>
+        <f t="shared" si="6"/>
         <v>10487.700423985463</v>
       </c>
       <c r="L26" s="143">
-        <f>$R10*L$21</f>
+        <f t="shared" si="6"/>
         <v>15731.550635978194</v>
       </c>
       <c r="M26" s="144">
@@ -5558,7 +5558,7 @@
         <v>5392.3502119927316</v>
       </c>
       <c r="N26" s="144">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>10681.300423985464</v>
       </c>
       <c r="O26" s="144">
@@ -5566,7 +5566,7 @@
         <v>15986.750635978195</v>
       </c>
     </row>
-    <row r="27" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B27" s="128"/>
       <c r="C27" s="128"/>
       <c r="D27" s="135"/>
@@ -5580,39 +5580,39 @@
       <c r="M27" s="146"/>
       <c r="N27" s="146"/>
     </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B28" s="155" t="s">
         <v>22</v>
       </c>
       <c r="C28" s="132" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="158" t="s">
+      <c r="D28" s="162" t="s">
         <v>173</v>
       </c>
-      <c r="E28" s="159"/>
-    </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B29" s="156"/>
+      <c r="E28" s="163"/>
+    </row>
+    <row r="29" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B29" s="161"/>
       <c r="C29" s="132" t="s">
         <v>174</v>
       </c>
-      <c r="D29" s="158" t="s">
+      <c r="D29" s="162" t="s">
         <v>175</v>
       </c>
-      <c r="E29" s="159"/>
-    </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B30" s="157"/>
+      <c r="E29" s="163"/>
+    </row>
+    <row r="30" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B30" s="156"/>
       <c r="C30" s="132" t="s">
         <v>176</v>
       </c>
-      <c r="D30" s="158" t="s">
+      <c r="D30" s="162" t="s">
         <v>177</v>
       </c>
-      <c r="E30" s="159"/>
-    </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="E30" s="163"/>
+    </row>
+    <row r="31" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B31" s="136" t="s">
         <v>54</v>
       </c>
@@ -5626,7 +5626,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" s="149" t="s">
         <v>185</v>
       </c>
@@ -5638,7 +5638,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34" s="149" t="s">
         <v>184</v>
       </c>
@@ -5650,7 +5650,7 @@
         <v>148.5</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B35" s="149" t="s">
         <v>183</v>
       </c>
@@ -5664,17 +5664,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="B9:B11"/>
     <mergeCell ref="B12:B17"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B9:B11"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5693,48 +5693,48 @@
       <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.09765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.69921875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="5.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.75" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.875" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="1.5" style="1" customWidth="1"/>
-    <col min="17" max="17" width="6.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.875" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.75" style="2" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="4.5" style="1" customWidth="1"/>
-    <col min="21" max="21" width="7.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="8.125" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="2.69921875" style="1" customWidth="1"/>
-    <col min="31" max="31" width="6.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="6.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="2.75" style="1" customWidth="1"/>
+    <col min="31" max="31" width="6.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.125" style="2" bestFit="1" customWidth="1"/>
     <col min="34" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:51" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:51" ht="20.399999999999999" x14ac:dyDescent="0.4">
-      <c r="B2" s="189" t="s">
+    <row r="1" spans="2:51" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:51" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="B2" s="178" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="189"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="189"/>
-      <c r="G2" s="182" t="s">
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="G2" s="168" t="s">
         <v>62</v>
       </c>
       <c r="H2" s="39">
@@ -5763,12 +5763,12 @@
         <v>107</v>
       </c>
       <c r="P2" s="12"/>
-      <c r="Q2" s="169" t="s">
+      <c r="Q2" s="166" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="169"/>
-      <c r="S2" s="170"/>
-      <c r="U2" s="164" t="s">
+      <c r="R2" s="166"/>
+      <c r="S2" s="167"/>
+      <c r="U2" s="193" t="s">
         <v>61</v>
       </c>
       <c r="V2" s="31">
@@ -5797,11 +5797,11 @@
         <v>176</v>
       </c>
       <c r="AD2" s="12"/>
-      <c r="AE2" s="161" t="s">
+      <c r="AE2" s="190" t="s">
         <v>17</v>
       </c>
-      <c r="AF2" s="162"/>
-      <c r="AG2" s="163"/>
+      <c r="AF2" s="191"/>
+      <c r="AG2" s="192"/>
       <c r="AU2" t="s">
         <v>163</v>
       </c>
@@ -5820,7 +5820,7 @@
         <v>750.00000000000011</v>
       </c>
     </row>
-    <row r="3" spans="2:51" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:51" x14ac:dyDescent="0.3">
       <c r="B3" s="37" t="s">
         <v>60</v>
       </c>
@@ -5833,7 +5833,7 @@
       <c r="E3" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="183"/>
+      <c r="G3" s="169"/>
       <c r="H3" s="11" t="s">
         <v>10</v>
       </c>
@@ -5868,7 +5868,7 @@
       <c r="S3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="U3" s="165"/>
+      <c r="U3" s="194"/>
       <c r="V3" s="11" t="s">
         <v>10</v>
       </c>
@@ -5921,8 +5921,8 @@
         <v>-967.50000000000011</v>
       </c>
     </row>
-    <row r="4" spans="2:51" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="181" t="s">
+    <row r="4" spans="2:51" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="170" t="s">
         <v>56</v>
       </c>
       <c r="C4" s="28" t="s">
@@ -5934,7 +5934,7 @@
       <c r="E4" s="26">
         <v>1290</v>
       </c>
-      <c r="G4" s="183"/>
+      <c r="G4" s="169"/>
       <c r="H4" s="7">
         <f>$M2*$E$4</f>
         <v>325080</v>
@@ -5980,7 +5980,7 @@
         <f>R4/$K2</f>
         <v>0.1900233986522713</v>
       </c>
-      <c r="U4" s="165"/>
+      <c r="U4" s="194"/>
       <c r="V4" s="7">
         <f>$AA2*$E$4</f>
         <v>392160</v>
@@ -6043,8 +6043,8 @@
         <v>9094.5</v>
       </c>
     </row>
-    <row r="5" spans="2:51" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="181"/>
+    <row r="5" spans="2:51" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="170"/>
       <c r="C5" s="28" t="s">
         <v>38</v>
       </c>
@@ -6073,11 +6073,11 @@
         <v>779.40000000000009</v>
       </c>
     </row>
-    <row r="6" spans="2:51" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="B6" s="181" t="s">
+    <row r="6" spans="2:51" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B6" s="170" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="190" t="s">
+      <c r="C6" s="179" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="28" t="s">
@@ -6087,7 +6087,7 @@
         <f>110</f>
         <v>110</v>
       </c>
-      <c r="G6" s="184" t="s">
+      <c r="G6" s="171" t="s">
         <v>52</v>
       </c>
       <c r="H6" s="35">
@@ -6116,12 +6116,12 @@
         <v>89</v>
       </c>
       <c r="P6" s="12"/>
-      <c r="Q6" s="169" t="s">
+      <c r="Q6" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="R6" s="169"/>
-      <c r="S6" s="170"/>
-      <c r="U6" s="164" t="s">
+      <c r="R6" s="166"/>
+      <c r="S6" s="167"/>
+      <c r="U6" s="193" t="s">
         <v>51</v>
       </c>
       <c r="V6" s="31">
@@ -6150,11 +6150,11 @@
         <v>119</v>
       </c>
       <c r="AD6" s="12"/>
-      <c r="AE6" s="161" t="s">
+      <c r="AE6" s="190" t="s">
         <v>17</v>
       </c>
-      <c r="AF6" s="162"/>
-      <c r="AG6" s="163"/>
+      <c r="AF6" s="191"/>
+      <c r="AG6" s="192"/>
       <c r="AU6" t="s">
         <v>48</v>
       </c>
@@ -6173,9 +6173,9 @@
         <v>742.50000000000011</v>
       </c>
     </row>
-    <row r="7" spans="2:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="181"/>
-      <c r="C7" s="191"/>
+    <row r="7" spans="2:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="170"/>
+      <c r="C7" s="180"/>
       <c r="D7" s="28" t="s">
         <v>50</v>
       </c>
@@ -6183,7 +6183,7 @@
         <f>E6/12.7</f>
         <v>8.6614173228346463</v>
       </c>
-      <c r="G7" s="185"/>
+      <c r="G7" s="172"/>
       <c r="H7" s="11" t="s">
         <v>10</v>
       </c>
@@ -6218,7 +6218,7 @@
       <c r="S7" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="U7" s="165"/>
+      <c r="U7" s="194"/>
       <c r="V7" s="11" t="s">
         <v>10</v>
       </c>
@@ -6271,8 +6271,8 @@
         <v>247.50000000000003</v>
       </c>
     </row>
-    <row r="8" spans="2:51" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="181"/>
+    <row r="8" spans="2:51" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="170"/>
       <c r="C8" s="28" t="s">
         <v>49</v>
       </c>
@@ -6282,7 +6282,7 @@
       <c r="E8" s="26">
         <v>50</v>
       </c>
-      <c r="G8" s="185"/>
+      <c r="G8" s="172"/>
       <c r="H8" s="7">
         <f>$M6*$E$4</f>
         <v>330240</v>
@@ -6328,7 +6328,7 @@
         <f>R8/$K6</f>
         <v>0.19905280045752707</v>
       </c>
-      <c r="U8" s="165"/>
+      <c r="U8" s="194"/>
       <c r="V8" s="7">
         <f>$AA6*$E$4</f>
         <v>314760</v>
@@ -6391,8 +6391,8 @@
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="2:51" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="181" t="s">
+    <row r="9" spans="2:51" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="170" t="s">
         <v>48</v>
       </c>
       <c r="C9" s="28" t="s">
@@ -6412,12 +6412,12 @@
         <v>10756.4</v>
       </c>
     </row>
-    <row r="10" spans="2:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="181"/>
+    <row r="10" spans="2:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="170"/>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
       <c r="E10" s="26"/>
-      <c r="G10" s="175" t="s">
+      <c r="G10" s="173" t="s">
         <v>47</v>
       </c>
       <c r="H10" s="23">
@@ -6446,12 +6446,12 @@
         <v>89</v>
       </c>
       <c r="P10" s="12"/>
-      <c r="Q10" s="169" t="s">
+      <c r="Q10" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="R10" s="169"/>
-      <c r="S10" s="170"/>
-      <c r="U10" s="164" t="s">
+      <c r="R10" s="166"/>
+      <c r="S10" s="167"/>
+      <c r="U10" s="193" t="s">
         <v>46</v>
       </c>
       <c r="V10" s="31">
@@ -6480,14 +6480,14 @@
         <v>148</v>
       </c>
       <c r="AD10" s="12"/>
-      <c r="AE10" s="161" t="s">
+      <c r="AE10" s="190" t="s">
         <v>17</v>
       </c>
-      <c r="AF10" s="162"/>
-      <c r="AG10" s="163"/>
-    </row>
-    <row r="11" spans="2:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="181" t="s">
+      <c r="AF10" s="191"/>
+      <c r="AG10" s="192"/>
+    </row>
+    <row r="11" spans="2:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="170" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="28" t="s">
@@ -6500,7 +6500,7 @@
         <f>225*1.1</f>
         <v>247.50000000000003</v>
       </c>
-      <c r="G11" s="176"/>
+      <c r="G11" s="174"/>
       <c r="H11" s="11" t="s">
         <v>10</v>
       </c>
@@ -6535,7 +6535,7 @@
       <c r="S11" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="U11" s="165"/>
+      <c r="U11" s="194"/>
       <c r="V11" s="11" t="s">
         <v>10</v>
       </c>
@@ -6571,8 +6571,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:51" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="181"/>
+    <row r="12" spans="2:51" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="170"/>
       <c r="C12" s="28" t="s">
         <v>44</v>
       </c>
@@ -6583,7 +6583,7 @@
         <f>227*1.1</f>
         <v>249.70000000000002</v>
       </c>
-      <c r="G12" s="176"/>
+      <c r="G12" s="174"/>
       <c r="H12" s="7">
         <f>$M10*$E$4</f>
         <v>330240</v>
@@ -6629,7 +6629,7 @@
         <f>R12/$K10</f>
         <v>0.19905280045752707</v>
       </c>
-      <c r="U12" s="165"/>
+      <c r="U12" s="194"/>
       <c r="V12" s="7">
         <f>$AA10*$E$4</f>
         <v>314760</v>
@@ -6676,8 +6676,8 @@
         <v>0.41570910384068283</v>
       </c>
     </row>
-    <row r="13" spans="2:51" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="181"/>
+    <row r="13" spans="2:51" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="170"/>
       <c r="C13" s="28" t="s">
         <v>43</v>
       </c>
@@ -6691,8 +6691,8 @@
       <c r="H13" s="29"/>
       <c r="I13" s="29"/>
     </row>
-    <row r="14" spans="2:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="188" t="s">
+    <row r="14" spans="2:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="177" t="s">
         <v>42</v>
       </c>
       <c r="C14" s="28" t="s">
@@ -6705,7 +6705,7 @@
         <f>1015*1.1</f>
         <v>1116.5</v>
       </c>
-      <c r="G14" s="186" t="s">
+      <c r="G14" s="175" t="s">
         <v>40</v>
       </c>
       <c r="H14" s="33">
@@ -6734,12 +6734,12 @@
         <v>82</v>
       </c>
       <c r="P14" s="12"/>
-      <c r="Q14" s="169" t="s">
+      <c r="Q14" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="R14" s="169"/>
-      <c r="S14" s="170"/>
-      <c r="U14" s="164" t="s">
+      <c r="R14" s="166"/>
+      <c r="S14" s="167"/>
+      <c r="U14" s="193" t="s">
         <v>39</v>
       </c>
       <c r="V14" s="31">
@@ -6768,14 +6768,14 @@
         <v>89</v>
       </c>
       <c r="AD14" s="12"/>
-      <c r="AE14" s="161" t="s">
+      <c r="AE14" s="190" t="s">
         <v>17</v>
       </c>
-      <c r="AF14" s="162"/>
-      <c r="AG14" s="163"/>
-    </row>
-    <row r="15" spans="2:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="181"/>
+      <c r="AF14" s="191"/>
+      <c r="AG14" s="192"/>
+    </row>
+    <row r="15" spans="2:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="170"/>
       <c r="C15" s="28" t="s">
         <v>38</v>
       </c>
@@ -6786,7 +6786,7 @@
         <f>1060*1.1</f>
         <v>1166</v>
       </c>
-      <c r="G15" s="187"/>
+      <c r="G15" s="176"/>
       <c r="H15" s="11" t="s">
         <v>10</v>
       </c>
@@ -6821,7 +6821,7 @@
       <c r="S15" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="U15" s="165"/>
+      <c r="U15" s="194"/>
       <c r="V15" s="11" t="s">
         <v>10</v>
       </c>
@@ -6857,7 +6857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:51" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:51" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="28" t="s">
         <v>37</v>
       </c>
@@ -6871,7 +6871,7 @@
         <f>45*1.1</f>
         <v>49.500000000000007</v>
       </c>
-      <c r="G16" s="187"/>
+      <c r="G16" s="176"/>
       <c r="H16" s="7">
         <f>$M14*$E$5</f>
         <v>357680</v>
@@ -6917,7 +6917,7 @@
         <f>R16/$K14</f>
         <v>0.19895952240457485</v>
       </c>
-      <c r="U16" s="165"/>
+      <c r="U16" s="194"/>
       <c r="V16" s="7">
         <f>$AA14*$E$4</f>
         <v>412800</v>
@@ -6964,7 +6964,7 @@
         <v>0.16951729455827272</v>
       </c>
     </row>
-    <row r="17" spans="2:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="28" t="s">
         <v>35</v>
       </c>
@@ -6981,7 +6981,7 @@
       <c r="H17" s="29"/>
       <c r="I17" s="29"/>
     </row>
-    <row r="18" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="28" t="s">
         <v>33</v>
       </c>
@@ -6994,7 +6994,7 @@
       <c r="E18" s="26">
         <v>70000</v>
       </c>
-      <c r="G18" s="171" t="s">
+      <c r="G18" s="164" t="s">
         <v>32</v>
       </c>
       <c r="H18" s="108">
@@ -7023,12 +7023,12 @@
         <v>74</v>
       </c>
       <c r="P18" s="12"/>
-      <c r="Q18" s="169" t="s">
+      <c r="Q18" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="R18" s="169"/>
-      <c r="S18" s="170"/>
-      <c r="U18" s="166" t="s">
+      <c r="R18" s="166"/>
+      <c r="S18" s="167"/>
+      <c r="U18" s="181" t="s">
         <v>31</v>
       </c>
       <c r="V18" s="19">
@@ -7057,13 +7057,13 @@
         <v>176</v>
       </c>
       <c r="AD18" s="12"/>
-      <c r="AE18" s="161" t="s">
+      <c r="AE18" s="190" t="s">
         <v>17</v>
       </c>
-      <c r="AF18" s="162"/>
-      <c r="AG18" s="163"/>
-    </row>
-    <row r="19" spans="2:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AF18" s="191"/>
+      <c r="AG18" s="192"/>
+    </row>
+    <row r="19" spans="2:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="28" t="s">
         <v>30</v>
       </c>
@@ -7077,7 +7077,7 @@
         <f>95*1.1</f>
         <v>104.50000000000001</v>
       </c>
-      <c r="G19" s="172"/>
+      <c r="G19" s="165"/>
       <c r="H19" s="11" t="s">
         <v>10</v>
       </c>
@@ -7112,7 +7112,7 @@
       <c r="S19" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="U19" s="167"/>
+      <c r="U19" s="189"/>
       <c r="V19" s="11" t="s">
         <v>10</v>
       </c>
@@ -7148,7 +7148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:33" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:33" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="28" t="s">
         <v>29</v>
       </c>
@@ -7162,7 +7162,7 @@
         <f>200*1.1</f>
         <v>220.00000000000003</v>
       </c>
-      <c r="G20" s="172"/>
+      <c r="G20" s="165"/>
       <c r="H20" s="7">
         <f>$M18*$E$4</f>
         <v>330240</v>
@@ -7208,7 +7208,7 @@
         <f>R20/$K18</f>
         <v>0.20840821664183859</v>
       </c>
-      <c r="U20" s="167"/>
+      <c r="U20" s="189"/>
       <c r="V20" s="7">
         <f>$AA18*$E$5</f>
         <v>413440</v>
@@ -7255,7 +7255,7 @@
         <v>0.21287081339712921</v>
       </c>
     </row>
-    <row r="21" spans="2:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="28" t="s">
         <v>28</v>
       </c>
@@ -7272,7 +7272,7 @@
       <c r="H21" s="29"/>
       <c r="I21" s="29"/>
     </row>
-    <row r="22" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="28" t="s">
         <v>6</v>
       </c>
@@ -7285,7 +7285,7 @@
       <c r="E22" s="26">
         <v>200</v>
       </c>
-      <c r="G22" s="173" t="s">
+      <c r="G22" s="183" t="s">
         <v>24</v>
       </c>
       <c r="H22" s="25">
@@ -7314,12 +7314,12 @@
         <v>71</v>
       </c>
       <c r="P22" s="12"/>
-      <c r="Q22" s="169" t="s">
+      <c r="Q22" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="R22" s="169"/>
-      <c r="S22" s="170"/>
-      <c r="U22" s="166" t="s">
+      <c r="R22" s="166"/>
+      <c r="S22" s="167"/>
+      <c r="U22" s="181" t="s">
         <v>23</v>
       </c>
       <c r="V22" s="19">
@@ -7348,13 +7348,13 @@
         <v>119</v>
       </c>
       <c r="AD22" s="12"/>
-      <c r="AE22" s="161" t="s">
+      <c r="AE22" s="190" t="s">
         <v>17</v>
       </c>
-      <c r="AF22" s="162"/>
-      <c r="AG22" s="163"/>
-    </row>
-    <row r="23" spans="2:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AF22" s="191"/>
+      <c r="AG22" s="192"/>
+    </row>
+    <row r="23" spans="2:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>22</v>
       </c>
@@ -7368,7 +7368,7 @@
         <f>240*1.1</f>
         <v>264</v>
       </c>
-      <c r="G23" s="174"/>
+      <c r="G23" s="184"/>
       <c r="H23" s="11" t="s">
         <v>10</v>
       </c>
@@ -7403,7 +7403,7 @@
       <c r="S23" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="U23" s="167"/>
+      <c r="U23" s="189"/>
       <c r="V23" s="11" t="s">
         <v>10</v>
       </c>
@@ -7439,8 +7439,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:33" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G24" s="174"/>
+    <row r="24" spans="2:33" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G24" s="184"/>
       <c r="H24" s="7">
         <f>$M22*$E$4</f>
         <v>334110</v>
@@ -7486,7 +7486,7 @@
         <f>R24/$K22</f>
         <v>0.19791012122732585</v>
       </c>
-      <c r="U24" s="167"/>
+      <c r="U24" s="189"/>
       <c r="V24" s="7">
         <f>$AA22*$E$5</f>
         <v>331840</v>
@@ -7533,9 +7533,9 @@
         <v>0.21324081632653064</v>
       </c>
     </row>
-    <row r="25" spans="2:33" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="26" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G26" s="175" t="s">
+    <row r="25" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G26" s="173" t="s">
         <v>19</v>
       </c>
       <c r="H26" s="23">
@@ -7564,12 +7564,12 @@
         <v>222</v>
       </c>
       <c r="P26" s="12"/>
-      <c r="Q26" s="169" t="s">
+      <c r="Q26" s="166" t="s">
         <v>17</v>
       </c>
-      <c r="R26" s="169"/>
-      <c r="S26" s="170"/>
-      <c r="U26" s="166" t="s">
+      <c r="R26" s="166"/>
+      <c r="S26" s="167"/>
+      <c r="U26" s="181" t="s">
         <v>20</v>
       </c>
       <c r="V26" s="19">
@@ -7598,14 +7598,14 @@
         <v>148</v>
       </c>
       <c r="AD26" s="12"/>
-      <c r="AE26" s="169" t="s">
+      <c r="AE26" s="166" t="s">
         <v>17</v>
       </c>
-      <c r="AF26" s="169"/>
-      <c r="AG26" s="170"/>
-    </row>
-    <row r="27" spans="2:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G27" s="176"/>
+      <c r="AF26" s="166"/>
+      <c r="AG26" s="167"/>
+    </row>
+    <row r="27" spans="2:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G27" s="174"/>
       <c r="H27" s="11" t="s">
         <v>10</v>
       </c>
@@ -7640,7 +7640,7 @@
       <c r="S27" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="U27" s="168"/>
+      <c r="U27" s="182"/>
       <c r="V27" s="11" t="s">
         <v>10</v>
       </c>
@@ -7676,8 +7676,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:33" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G28" s="176"/>
+    <row r="28" spans="2:33" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G28" s="174"/>
       <c r="H28" s="7">
         <f>$M26*$E$4</f>
         <v>328950</v>
@@ -7723,7 +7723,7 @@
         <f>$R28/$K26</f>
         <v>0.21579524783256387</v>
       </c>
-      <c r="U28" s="168"/>
+      <c r="U28" s="182"/>
       <c r="V28" s="7">
         <f>$AA26*$E$4</f>
         <v>314760</v>
@@ -7770,9 +7770,9 @@
         <v>0.44392364864864869</v>
       </c>
     </row>
-    <row r="29" spans="2:33" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="30" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G30" s="177" t="s">
+    <row r="29" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G30" s="185" t="s">
         <v>19</v>
       </c>
       <c r="H30" s="21">
@@ -7801,12 +7801,12 @@
         <v>105</v>
       </c>
       <c r="P30" s="12"/>
-      <c r="Q30" s="169" t="s">
+      <c r="Q30" s="166" t="s">
         <v>17</v>
       </c>
-      <c r="R30" s="169"/>
-      <c r="S30" s="170"/>
-      <c r="U30" s="166" t="s">
+      <c r="R30" s="166"/>
+      <c r="S30" s="167"/>
+      <c r="U30" s="181" t="s">
         <v>18</v>
       </c>
       <c r="V30" s="19">
@@ -7835,14 +7835,14 @@
         <v>148</v>
       </c>
       <c r="AD30" s="12"/>
-      <c r="AE30" s="169" t="s">
+      <c r="AE30" s="166" t="s">
         <v>17</v>
       </c>
-      <c r="AF30" s="169"/>
-      <c r="AG30" s="170"/>
-    </row>
-    <row r="31" spans="2:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G31" s="178"/>
+      <c r="AF30" s="166"/>
+      <c r="AG30" s="167"/>
+    </row>
+    <row r="31" spans="2:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G31" s="186"/>
       <c r="H31" s="11" t="s">
         <v>10</v>
       </c>
@@ -7877,7 +7877,7 @@
       <c r="S31" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="U31" s="168"/>
+      <c r="U31" s="182"/>
       <c r="V31" s="11" t="s">
         <v>10</v>
       </c>
@@ -7913,8 +7913,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:33" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G32" s="178"/>
+    <row r="32" spans="2:33" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G32" s="186"/>
       <c r="H32" s="7">
         <f>$M30*$E$4</f>
         <v>348300</v>
@@ -7960,7 +7960,7 @@
         <f>$R32/$K30</f>
         <v>0.20044103577961847</v>
       </c>
-      <c r="U32" s="168"/>
+      <c r="U32" s="182"/>
       <c r="V32" s="7">
         <f>$AA30*$E$4</f>
         <v>314760</v>
@@ -8007,9 +8007,9 @@
         <v>0.5970883204633205</v>
       </c>
     </row>
-    <row r="33" spans="7:19" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="34" spans="7:19" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="G34" s="179" t="s">
+    <row r="33" spans="7:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="34" spans="7:19" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G34" s="187" t="s">
         <v>16</v>
       </c>
       <c r="H34" s="17">
@@ -8038,14 +8038,14 @@
         <v>117</v>
       </c>
       <c r="P34" s="12"/>
-      <c r="Q34" s="169" t="s">
+      <c r="Q34" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="R34" s="169"/>
-      <c r="S34" s="170"/>
-    </row>
-    <row r="35" spans="7:19" x14ac:dyDescent="0.4">
-      <c r="G35" s="180"/>
+      <c r="R34" s="166"/>
+      <c r="S34" s="167"/>
+    </row>
+    <row r="35" spans="7:19" x14ac:dyDescent="0.3">
+      <c r="G35" s="188"/>
       <c r="H35" s="11" t="s">
         <v>10</v>
       </c>
@@ -8081,8 +8081,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="7:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G36" s="180"/>
+    <row r="36" spans="7:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G36" s="188"/>
       <c r="H36" s="7">
         <f>$M34*$E$4</f>
         <v>335400</v>
@@ -8129,9 +8129,9 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="37" spans="7:19" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="38" spans="7:19" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="G38" s="182" t="s">
+    <row r="37" spans="7:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="38" spans="7:19" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G38" s="168" t="s">
         <v>62</v>
       </c>
       <c r="H38" s="39">
@@ -8160,14 +8160,14 @@
         <v>112</v>
       </c>
       <c r="P38" s="12"/>
-      <c r="Q38" s="169" t="s">
+      <c r="Q38" s="166" t="s">
         <v>17</v>
       </c>
-      <c r="R38" s="169"/>
-      <c r="S38" s="170"/>
-    </row>
-    <row r="39" spans="7:19" x14ac:dyDescent="0.4">
-      <c r="G39" s="183"/>
+      <c r="R38" s="166"/>
+      <c r="S38" s="167"/>
+    </row>
+    <row r="39" spans="7:19" x14ac:dyDescent="0.3">
+      <c r="G39" s="169"/>
       <c r="H39" s="11" t="s">
         <v>10</v>
       </c>
@@ -8203,8 +8203,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="7:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G40" s="183"/>
+    <row r="40" spans="7:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G40" s="169"/>
       <c r="H40" s="7">
         <f>$M38*$E$4</f>
         <v>335400</v>
@@ -8251,9 +8251,9 @@
         <v>0.20016097792463447</v>
       </c>
     </row>
-    <row r="41" spans="7:19" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="42" spans="7:19" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="G42" s="171" t="s">
+    <row r="41" spans="7:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="7:19" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G42" s="164" t="s">
         <v>32</v>
       </c>
       <c r="H42" s="108">
@@ -8282,14 +8282,14 @@
         <v>74</v>
       </c>
       <c r="P42" s="12"/>
-      <c r="Q42" s="169" t="s">
+      <c r="Q42" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="R42" s="169"/>
-      <c r="S42" s="170"/>
-    </row>
-    <row r="43" spans="7:19" x14ac:dyDescent="0.4">
-      <c r="G43" s="172"/>
+      <c r="R42" s="166"/>
+      <c r="S42" s="167"/>
+    </row>
+    <row r="43" spans="7:19" x14ac:dyDescent="0.3">
+      <c r="G43" s="165"/>
       <c r="H43" s="11" t="s">
         <v>10</v>
       </c>
@@ -8325,8 +8325,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="7:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G44" s="172"/>
+    <row r="44" spans="7:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G44" s="165"/>
       <c r="H44" s="7">
         <f>$M42*$E$4</f>
         <v>334110</v>
@@ -8375,25 +8375,16 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="Q42:S42"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="Q38:S38"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="AE2:AG2"/>
+    <mergeCell ref="U2:U4"/>
+    <mergeCell ref="AE18:AG18"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="AE14:AG14"/>
+    <mergeCell ref="U14:U16"/>
+    <mergeCell ref="AE10:AG10"/>
+    <mergeCell ref="U10:U12"/>
+    <mergeCell ref="AE6:AG6"/>
+    <mergeCell ref="U6:U8"/>
     <mergeCell ref="U30:U32"/>
     <mergeCell ref="AE30:AG30"/>
     <mergeCell ref="Q34:S34"/>
@@ -8410,16 +8401,25 @@
     <mergeCell ref="AE22:AG22"/>
     <mergeCell ref="U26:U28"/>
     <mergeCell ref="AE26:AG26"/>
-    <mergeCell ref="AE2:AG2"/>
-    <mergeCell ref="U2:U4"/>
-    <mergeCell ref="AE18:AG18"/>
-    <mergeCell ref="U18:U20"/>
-    <mergeCell ref="AE14:AG14"/>
-    <mergeCell ref="U14:U16"/>
-    <mergeCell ref="AE10:AG10"/>
-    <mergeCell ref="U10:U12"/>
-    <mergeCell ref="AE6:AG6"/>
-    <mergeCell ref="U6:U8"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="Q42:S42"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="Q38:S38"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8431,276 +8431,276 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAEBEB9E-2C50-4AA9-BC7C-3D13D5CE3266}">
   <dimension ref="B1:AF62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="13.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
     <col min="8" max="8" width="10" style="66" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" style="67" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.59765625" style="67" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.625" style="67" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" style="67" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.59765625" style="67" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.625" style="67" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.5" style="67" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8" style="67" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.69921875" style="68" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.75" style="68" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7" style="68" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.3984375" style="68" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.3984375" style="68" customWidth="1"/>
+    <col min="17" max="17" width="6.375" style="68" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.375" style="68" customWidth="1"/>
     <col min="19" max="19" width="8.5" style="68" customWidth="1"/>
-    <col min="20" max="20" width="6.59765625" style="68" customWidth="1"/>
-    <col min="21" max="21" width="12.09765625" style="68" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="12.3984375" style="69" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="11.19921875" style="69" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="12.3984375" style="69" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.625" style="68" customWidth="1"/>
+    <col min="21" max="21" width="12.125" style="68" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="12.375" style="69" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="11.25" style="69" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="12.375" style="69" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="13.5" style="69" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="16" style="69" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:32" ht="6" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:32" ht="6" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="2:32" x14ac:dyDescent="0.4">
-      <c r="B3" s="214" t="s">
+    <row r="1" spans="2:32" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:32" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B3" s="195" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="214"/>
-      <c r="D3" s="214"/>
-      <c r="E3" s="214"/>
-      <c r="F3" s="214"/>
-      <c r="G3" s="214"/>
-      <c r="H3" s="214"/>
-      <c r="I3" s="214"/>
-      <c r="J3" s="214"/>
-      <c r="K3" s="214"/>
-      <c r="L3" s="214"/>
-      <c r="M3" s="214"/>
-      <c r="N3" s="214"/>
-      <c r="O3" s="214"/>
-      <c r="P3" s="214"/>
-      <c r="Q3" s="214"/>
-      <c r="R3" s="214"/>
-      <c r="S3" s="214"/>
-      <c r="T3" s="214"/>
-      <c r="U3" s="214"/>
-      <c r="V3" s="214"/>
-      <c r="W3" s="214"/>
-      <c r="X3" s="214"/>
-      <c r="Y3" s="214"/>
-      <c r="Z3" s="214"/>
-      <c r="AA3" s="214"/>
-      <c r="AB3" s="214"/>
-      <c r="AC3" s="214"/>
-    </row>
-    <row r="4" spans="2:32" x14ac:dyDescent="0.4">
-      <c r="B4" s="214"/>
-      <c r="C4" s="214"/>
-      <c r="D4" s="214"/>
-      <c r="E4" s="214"/>
-      <c r="F4" s="214"/>
-      <c r="G4" s="214"/>
-      <c r="H4" s="214"/>
-      <c r="I4" s="214"/>
-      <c r="J4" s="214"/>
-      <c r="K4" s="214"/>
-      <c r="L4" s="214"/>
-      <c r="M4" s="214"/>
-      <c r="N4" s="214"/>
-      <c r="O4" s="214"/>
-      <c r="P4" s="214"/>
-      <c r="Q4" s="214"/>
-      <c r="R4" s="214"/>
-      <c r="S4" s="214"/>
-      <c r="T4" s="214"/>
-      <c r="U4" s="214"/>
-      <c r="V4" s="214"/>
-      <c r="W4" s="214"/>
-      <c r="X4" s="214"/>
-      <c r="Y4" s="214"/>
-      <c r="Z4" s="214"/>
-      <c r="AA4" s="214"/>
-      <c r="AB4" s="214"/>
-      <c r="AC4" s="214"/>
-    </row>
-    <row r="5" spans="2:32" x14ac:dyDescent="0.4">
-      <c r="B5" s="214"/>
-      <c r="C5" s="214"/>
-      <c r="D5" s="214"/>
-      <c r="E5" s="214"/>
-      <c r="F5" s="214"/>
-      <c r="G5" s="214"/>
-      <c r="H5" s="214"/>
-      <c r="I5" s="214"/>
-      <c r="J5" s="214"/>
-      <c r="K5" s="214"/>
-      <c r="L5" s="214"/>
-      <c r="M5" s="214"/>
-      <c r="N5" s="214"/>
-      <c r="O5" s="214"/>
-      <c r="P5" s="214"/>
-      <c r="Q5" s="214"/>
-      <c r="R5" s="214"/>
-      <c r="S5" s="214"/>
-      <c r="T5" s="214"/>
-      <c r="U5" s="214"/>
-      <c r="V5" s="214"/>
-      <c r="W5" s="214"/>
-      <c r="X5" s="214"/>
-      <c r="Y5" s="214"/>
-      <c r="Z5" s="214"/>
-      <c r="AA5" s="214"/>
-      <c r="AB5" s="214"/>
-      <c r="AC5" s="214"/>
-    </row>
-    <row r="6" spans="2:32" ht="6.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="2:32" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C3" s="195"/>
+      <c r="D3" s="195"/>
+      <c r="E3" s="195"/>
+      <c r="F3" s="195"/>
+      <c r="G3" s="195"/>
+      <c r="H3" s="195"/>
+      <c r="I3" s="195"/>
+      <c r="J3" s="195"/>
+      <c r="K3" s="195"/>
+      <c r="L3" s="195"/>
+      <c r="M3" s="195"/>
+      <c r="N3" s="195"/>
+      <c r="O3" s="195"/>
+      <c r="P3" s="195"/>
+      <c r="Q3" s="195"/>
+      <c r="R3" s="195"/>
+      <c r="S3" s="195"/>
+      <c r="T3" s="195"/>
+      <c r="U3" s="195"/>
+      <c r="V3" s="195"/>
+      <c r="W3" s="195"/>
+      <c r="X3" s="195"/>
+      <c r="Y3" s="195"/>
+      <c r="Z3" s="195"/>
+      <c r="AA3" s="195"/>
+      <c r="AB3" s="195"/>
+      <c r="AC3" s="195"/>
+    </row>
+    <row r="4" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B4" s="195"/>
+      <c r="C4" s="195"/>
+      <c r="D4" s="195"/>
+      <c r="E4" s="195"/>
+      <c r="F4" s="195"/>
+      <c r="G4" s="195"/>
+      <c r="H4" s="195"/>
+      <c r="I4" s="195"/>
+      <c r="J4" s="195"/>
+      <c r="K4" s="195"/>
+      <c r="L4" s="195"/>
+      <c r="M4" s="195"/>
+      <c r="N4" s="195"/>
+      <c r="O4" s="195"/>
+      <c r="P4" s="195"/>
+      <c r="Q4" s="195"/>
+      <c r="R4" s="195"/>
+      <c r="S4" s="195"/>
+      <c r="T4" s="195"/>
+      <c r="U4" s="195"/>
+      <c r="V4" s="195"/>
+      <c r="W4" s="195"/>
+      <c r="X4" s="195"/>
+      <c r="Y4" s="195"/>
+      <c r="Z4" s="195"/>
+      <c r="AA4" s="195"/>
+      <c r="AB4" s="195"/>
+      <c r="AC4" s="195"/>
+    </row>
+    <row r="5" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B5" s="195"/>
+      <c r="C5" s="195"/>
+      <c r="D5" s="195"/>
+      <c r="E5" s="195"/>
+      <c r="F5" s="195"/>
+      <c r="G5" s="195"/>
+      <c r="H5" s="195"/>
+      <c r="I5" s="195"/>
+      <c r="J5" s="195"/>
+      <c r="K5" s="195"/>
+      <c r="L5" s="195"/>
+      <c r="M5" s="195"/>
+      <c r="N5" s="195"/>
+      <c r="O5" s="195"/>
+      <c r="P5" s="195"/>
+      <c r="Q5" s="195"/>
+      <c r="R5" s="195"/>
+      <c r="S5" s="195"/>
+      <c r="T5" s="195"/>
+      <c r="U5" s="195"/>
+      <c r="V5" s="195"/>
+      <c r="W5" s="195"/>
+      <c r="X5" s="195"/>
+      <c r="Y5" s="195"/>
+      <c r="Z5" s="195"/>
+      <c r="AA5" s="195"/>
+      <c r="AB5" s="195"/>
+      <c r="AC5" s="195"/>
+    </row>
+    <row r="6" spans="2:32" ht="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="2:32" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AF7">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="2:32" ht="25.8" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="215" t="s">
+    <row r="8" spans="2:32" ht="27" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="196" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="216"/>
-      <c r="D8" s="216"/>
-      <c r="E8" s="216"/>
-      <c r="F8" s="216"/>
-      <c r="G8" s="216"/>
-      <c r="H8" s="216"/>
-      <c r="I8" s="216"/>
-      <c r="J8" s="216"/>
-      <c r="K8" s="217"/>
-      <c r="L8" s="218"/>
-      <c r="M8" s="219"/>
-      <c r="N8" s="220" t="s">
+      <c r="C8" s="197"/>
+      <c r="D8" s="197"/>
+      <c r="E8" s="197"/>
+      <c r="F8" s="197"/>
+      <c r="G8" s="197"/>
+      <c r="H8" s="197"/>
+      <c r="I8" s="197"/>
+      <c r="J8" s="197"/>
+      <c r="K8" s="198"/>
+      <c r="L8" s="199"/>
+      <c r="M8" s="200"/>
+      <c r="N8" s="201" t="s">
         <v>73</v>
       </c>
-      <c r="O8" s="221"/>
-      <c r="P8" s="221"/>
-      <c r="Q8" s="222"/>
-      <c r="R8" s="223" t="s">
+      <c r="O8" s="202"/>
+      <c r="P8" s="202"/>
+      <c r="Q8" s="203"/>
+      <c r="R8" s="204" t="s">
         <v>103</v>
       </c>
-      <c r="S8" s="224"/>
-      <c r="T8" s="225"/>
+      <c r="S8" s="205"/>
+      <c r="T8" s="206"/>
       <c r="U8" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="V8" s="226" t="s">
+      <c r="V8" s="207" t="s">
         <v>0</v>
       </c>
-      <c r="W8" s="227"/>
-      <c r="X8" s="227"/>
-      <c r="Y8" s="227"/>
-      <c r="Z8" s="227"/>
-      <c r="AA8" s="227"/>
-      <c r="AB8" s="227"/>
-      <c r="AC8" s="228"/>
-    </row>
-    <row r="9" spans="2:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="203" t="s">
+      <c r="W8" s="208"/>
+      <c r="X8" s="208"/>
+      <c r="Y8" s="208"/>
+      <c r="Z8" s="208"/>
+      <c r="AA8" s="208"/>
+      <c r="AB8" s="208"/>
+      <c r="AC8" s="209"/>
+    </row>
+    <row r="9" spans="2:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="212" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="204" t="s">
+      <c r="C9" s="213" t="s">
         <v>105</v>
       </c>
-      <c r="D9" s="204" t="s">
+      <c r="D9" s="213" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="206" t="s">
+      <c r="E9" s="215" t="s">
         <v>70</v>
       </c>
-      <c r="F9" s="207"/>
-      <c r="G9" s="204" t="s">
+      <c r="F9" s="216"/>
+      <c r="G9" s="213" t="s">
         <v>106</v>
       </c>
-      <c r="H9" s="208" t="s">
+      <c r="H9" s="217" t="s">
         <v>102</v>
       </c>
-      <c r="I9" s="209" t="s">
+      <c r="I9" s="218" t="s">
         <v>71</v>
       </c>
-      <c r="J9" s="210" t="s">
+      <c r="J9" s="219" t="s">
         <v>107</v>
       </c>
-      <c r="K9" s="209" t="s">
+      <c r="K9" s="218" t="s">
         <v>108</v>
       </c>
-      <c r="L9" s="212" t="s">
+      <c r="L9" s="221" t="s">
         <v>109</v>
       </c>
-      <c r="M9" s="201" t="s">
+      <c r="M9" s="210" t="s">
         <v>110</v>
       </c>
-      <c r="N9" s="197" t="s">
+      <c r="N9" s="228" t="s">
         <v>111</v>
       </c>
-      <c r="O9" s="198" t="s">
+      <c r="O9" s="229" t="s">
         <v>73</v>
       </c>
-      <c r="P9" s="197" t="s">
+      <c r="P9" s="228" t="s">
         <v>112</v>
       </c>
-      <c r="Q9" s="199" t="s">
+      <c r="Q9" s="230" t="s">
         <v>113</v>
       </c>
-      <c r="R9" s="192" t="s">
+      <c r="R9" s="223" t="s">
         <v>114</v>
       </c>
-      <c r="S9" s="192" t="s">
+      <c r="S9" s="223" t="s">
         <v>115</v>
       </c>
-      <c r="T9" s="192" t="s">
+      <c r="T9" s="223" t="s">
         <v>116</v>
       </c>
-      <c r="U9" s="194" t="s">
+      <c r="U9" s="225" t="s">
         <v>117</v>
       </c>
-      <c r="V9" s="195" t="s">
+      <c r="V9" s="226" t="s">
         <v>118</v>
       </c>
-      <c r="W9" s="195"/>
-      <c r="X9" s="195"/>
-      <c r="Y9" s="195"/>
-      <c r="Z9" s="195" t="s">
+      <c r="W9" s="226"/>
+      <c r="X9" s="226"/>
+      <c r="Y9" s="226"/>
+      <c r="Z9" s="226" t="s">
         <v>119</v>
       </c>
-      <c r="AA9" s="195"/>
-      <c r="AB9" s="195"/>
-      <c r="AC9" s="196"/>
-    </row>
-    <row r="10" spans="2:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="203"/>
-      <c r="C10" s="205"/>
-      <c r="D10" s="205"/>
+      <c r="AA9" s="226"/>
+      <c r="AB9" s="226"/>
+      <c r="AC9" s="227"/>
+    </row>
+    <row r="10" spans="2:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="212"/>
+      <c r="C10" s="214"/>
+      <c r="D10" s="214"/>
       <c r="E10" s="71" t="s">
         <v>120</v>
       </c>
       <c r="F10" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="G10" s="205"/>
-      <c r="H10" s="208"/>
-      <c r="I10" s="209"/>
-      <c r="J10" s="211"/>
-      <c r="K10" s="209"/>
-      <c r="L10" s="213"/>
-      <c r="M10" s="202"/>
-      <c r="N10" s="198"/>
-      <c r="O10" s="198"/>
-      <c r="P10" s="198"/>
-      <c r="Q10" s="200"/>
-      <c r="R10" s="193"/>
-      <c r="S10" s="193"/>
-      <c r="T10" s="193"/>
-      <c r="U10" s="194"/>
+      <c r="G10" s="214"/>
+      <c r="H10" s="217"/>
+      <c r="I10" s="218"/>
+      <c r="J10" s="220"/>
+      <c r="K10" s="218"/>
+      <c r="L10" s="222"/>
+      <c r="M10" s="211"/>
+      <c r="N10" s="229"/>
+      <c r="O10" s="229"/>
+      <c r="P10" s="229"/>
+      <c r="Q10" s="231"/>
+      <c r="R10" s="224"/>
+      <c r="S10" s="224"/>
+      <c r="T10" s="224"/>
+      <c r="U10" s="225"/>
       <c r="V10" s="72" t="s">
         <v>122</v>
       </c>
@@ -8726,7 +8726,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="2:32" ht="22.2" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:32" ht="21.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="75" t="s">
         <v>129</v>
       </c>
@@ -8837,7 +8837,7 @@
       <c r="AE11" s="94"/>
       <c r="AF11" s="93"/>
     </row>
-    <row r="12" spans="2:32" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:32" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="75" t="s">
         <v>129</v>
       </c>
@@ -8946,7 +8946,7 @@
       </c>
       <c r="AF12" s="95"/>
     </row>
-    <row r="13" spans="2:32" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:32" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="96"/>
       <c r="C13" s="97"/>
       <c r="D13" s="98"/>
@@ -8977,7 +8977,7 @@
       <c r="AC13" s="107"/>
       <c r="AD13" s="115"/>
     </row>
-    <row r="14" spans="2:32" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:32" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="75" t="s">
         <v>129</v>
       </c>
@@ -9086,7 +9086,7 @@
         <v>2.9067641681901263E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:32" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:32" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="96"/>
       <c r="C15" s="97"/>
       <c r="D15" s="98"/>
@@ -9117,7 +9117,7 @@
       <c r="AC15" s="107"/>
       <c r="AD15" s="115"/>
     </row>
-    <row r="16" spans="2:32" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:32" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="75" t="s">
         <v>129</v>
       </c>
@@ -9226,7 +9226,7 @@
         <v>2.8728414442700134E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="75" t="s">
         <v>129</v>
       </c>
@@ -9335,7 +9335,7 @@
         <v>2.897727272727274E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="75" t="s">
         <v>129</v>
       </c>
@@ -9444,7 +9444,7 @@
         <v>2.8929986789960366E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="75" t="s">
         <v>129</v>
       </c>
@@ -9553,7 +9553,7 @@
         <v>2.8968466060929982E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="75" t="s">
         <v>129</v>
       </c>
@@ -9662,7 +9662,7 @@
         <v>2.8967768257853937E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="75" t="s">
         <v>129</v>
       </c>
@@ -9771,7 +9771,7 @@
         <v>2.8976266383280214E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="75" t="s">
         <v>129</v>
       </c>
@@ -9880,7 +9880,7 @@
         <v>2.8974434322656478E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:30" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:30" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="96"/>
       <c r="C23" s="97"/>
       <c r="D23" s="98"/>
@@ -9911,7 +9911,7 @@
       <c r="AC23" s="107"/>
       <c r="AD23" s="115"/>
     </row>
-    <row r="24" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="75" t="s">
         <v>129</v>
       </c>
@@ -10020,7 +10020,7 @@
         <v>2.7333333333333343</v>
       </c>
     </row>
-    <row r="25" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="75" t="s">
         <v>129</v>
       </c>
@@ -10129,7 +10129,7 @@
         <v>2.964444444444446</v>
       </c>
     </row>
-    <row r="26" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="75" t="s">
         <v>129</v>
       </c>
@@ -10238,7 +10238,7 @@
         <v>3.1433333333333309</v>
       </c>
     </row>
-    <row r="27" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="75" t="s">
         <v>129</v>
       </c>
@@ -10347,7 +10347,7 @@
         <v>3.2839999999999989</v>
       </c>
     </row>
-    <row r="28" spans="2:30" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:30" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="96"/>
       <c r="C28" s="97"/>
       <c r="D28" s="98"/>
@@ -10378,7 +10378,7 @@
       <c r="AC28" s="107"/>
       <c r="AD28" s="115"/>
     </row>
-    <row r="29" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="75" t="s">
         <v>129</v>
       </c>
@@ -10487,7 +10487,7 @@
         <v>3.1544359255202631E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="75" t="s">
         <v>129</v>
       </c>
@@ -10596,7 +10596,7 @@
         <v>3.0700549450549453E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="75" t="s">
         <v>129</v>
       </c>
@@ -10705,7 +10705,7 @@
         <v>2.7689243027888444E-2</v>
       </c>
     </row>
-    <row r="32" spans="2:30" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:30" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="96"/>
       <c r="C32" s="97"/>
       <c r="D32" s="98"/>
@@ -10736,7 +10736,7 @@
       <c r="AC32" s="107"/>
       <c r="AD32" s="115"/>
     </row>
-    <row r="33" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="75" t="s">
         <v>129</v>
       </c>
@@ -10845,7 +10845,7 @@
         <v>3.1822660098522165E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="75" t="s">
         <v>129</v>
       </c>
@@ -10952,7 +10952,7 @@
         <v>3.1381466742467307E-2</v>
       </c>
     </row>
-    <row r="35" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="75" t="s">
         <v>129</v>
       </c>
@@ -11061,7 +11061,7 @@
         <v>2.8737060041407858E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:30" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:30" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="96"/>
       <c r="C36" s="97"/>
       <c r="D36" s="98"/>
@@ -11092,7 +11092,7 @@
       <c r="AC36" s="107"/>
       <c r="AD36" s="115"/>
     </row>
-    <row r="37" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="75" t="s">
         <v>129</v>
       </c>
@@ -11201,7 +11201,7 @@
         <v>3.0645161290322576E-2</v>
       </c>
     </row>
-    <row r="38" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="75" t="s">
         <v>129</v>
       </c>
@@ -11310,7 +11310,7 @@
         <v>2.9451697127937354E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="75" t="s">
         <v>129</v>
       </c>
@@ -11419,7 +11419,7 @@
         <v>2.7912169705991807E-2</v>
       </c>
     </row>
-    <row r="40" spans="2:30" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:30" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="96"/>
       <c r="C40" s="97"/>
       <c r="D40" s="98"/>
@@ -11450,7 +11450,7 @@
       <c r="AC40" s="107"/>
       <c r="AD40" s="115"/>
     </row>
-    <row r="41" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="75" t="s">
         <v>129</v>
       </c>
@@ -11559,7 +11559,7 @@
         <v>3.212435233160621E-2</v>
       </c>
     </row>
-    <row r="42" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B42" s="75" t="s">
         <v>129</v>
       </c>
@@ -11668,7 +11668,7 @@
         <v>3.0485338725985855E-2</v>
       </c>
     </row>
-    <row r="43" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="75" t="s">
         <v>129</v>
       </c>
@@ -11777,7 +11777,7 @@
         <v>2.9142857142857137E-2</v>
       </c>
     </row>
-    <row r="44" spans="2:30" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:30" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B44" s="96"/>
       <c r="C44" s="97"/>
       <c r="D44" s="98"/>
@@ -11808,7 +11808,7 @@
       <c r="AC44" s="107"/>
       <c r="AD44" s="115"/>
     </row>
-    <row r="45" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B45" s="75" t="s">
         <v>129</v>
       </c>
@@ -11917,7 +11917,7 @@
         <v>3.1956155143338966E-2</v>
       </c>
     </row>
-    <row r="46" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B46" s="75" t="s">
         <v>129</v>
       </c>
@@ -12026,7 +12026,7 @@
         <v>3.0344827586206907E-2</v>
       </c>
     </row>
-    <row r="47" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="75" t="s">
         <v>129</v>
       </c>
@@ -12135,7 +12135,7 @@
         <v>2.9159460394327208E-2</v>
       </c>
     </row>
-    <row r="48" spans="2:30" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:30" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B48" s="96"/>
       <c r="C48" s="97"/>
       <c r="D48" s="98"/>
@@ -12166,7 +12166,7 @@
       <c r="AC48" s="107"/>
       <c r="AD48" s="115"/>
     </row>
-    <row r="49" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B49" s="75" t="s">
         <v>129</v>
       </c>
@@ -12275,7 +12275,7 @@
         <v>2.3072177668106125E-2</v>
       </c>
     </row>
-    <row r="50" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B50" s="75" t="s">
         <v>129</v>
       </c>
@@ -12384,7 +12384,7 @@
         <v>2.0939766635130863E-2</v>
       </c>
     </row>
-    <row r="51" spans="2:30" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:30" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B51" s="96"/>
       <c r="C51" s="97"/>
       <c r="D51" s="98"/>
@@ -12415,7 +12415,7 @@
       <c r="AC51" s="107"/>
       <c r="AD51" s="115"/>
     </row>
-    <row r="52" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B52" s="75" t="s">
         <v>129</v>
       </c>
@@ -12524,7 +12524,7 @@
         <v>2.1364221364221364E-2</v>
       </c>
     </row>
-    <row r="53" spans="2:30" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:30" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B53" s="75" t="s">
         <v>129</v>
       </c>
@@ -12633,18 +12633,22 @@
         <v>1.9891067538126361E-2</v>
       </c>
     </row>
-    <row r="62" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:30" x14ac:dyDescent="0.3">
       <c r="U62" s="69"/>
     </row>
   </sheetData>
   <autoFilter ref="B9:D53" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="27">
-    <mergeCell ref="B3:AC5"/>
-    <mergeCell ref="B8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:Q8"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="V8:AC8"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="S9:S10"/>
     <mergeCell ref="M9:M10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
@@ -12656,16 +12660,12 @@
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="K9:K10"/>
     <mergeCell ref="L9:L10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="B3:AC5"/>
+    <mergeCell ref="B8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="V8:AC8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="Z11:AC53">
@@ -12691,253 +12691,253 @@
       <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="13.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
     <col min="6" max="6" width="10" style="66" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="67" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.59765625" style="67" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.625" style="67" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" style="67" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.59765625" style="67" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.625" style="67" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.5" style="67" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" style="67" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.69921875" style="68" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.75" style="68" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7" style="68" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.3984375" style="68" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.3984375" style="68" customWidth="1"/>
+    <col min="15" max="15" width="6.375" style="68" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.375" style="68" customWidth="1"/>
     <col min="17" max="17" width="8.5" style="68" customWidth="1"/>
-    <col min="18" max="18" width="6.59765625" style="68" customWidth="1"/>
-    <col min="19" max="19" width="12.09765625" style="68" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="12.3984375" style="69" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="11.19921875" style="69" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="12.3984375" style="69" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.625" style="68" customWidth="1"/>
+    <col min="19" max="19" width="12.125" style="68" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="12.375" style="69" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="11.25" style="69" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="12.375" style="69" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="13.5" style="69" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="16" style="69" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:30" ht="6" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:30" ht="6" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="B3" s="214" t="s">
+    <row r="1" spans="2:30" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:30" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B3" s="195" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="214"/>
-      <c r="D3" s="214"/>
-      <c r="E3" s="214"/>
-      <c r="F3" s="214"/>
-      <c r="G3" s="214"/>
-      <c r="H3" s="214"/>
-      <c r="I3" s="214"/>
-      <c r="J3" s="214"/>
-      <c r="K3" s="214"/>
-      <c r="L3" s="214"/>
-      <c r="M3" s="214"/>
-      <c r="N3" s="214"/>
-      <c r="O3" s="214"/>
-      <c r="P3" s="214"/>
-      <c r="Q3" s="214"/>
-      <c r="R3" s="214"/>
-      <c r="S3" s="214"/>
-      <c r="T3" s="214"/>
-      <c r="U3" s="214"/>
-      <c r="V3" s="214"/>
-      <c r="W3" s="214"/>
-      <c r="X3" s="214"/>
-      <c r="Y3" s="214"/>
-      <c r="Z3" s="214"/>
-      <c r="AA3" s="214"/>
-    </row>
-    <row r="4" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="B4" s="214"/>
-      <c r="C4" s="214"/>
-      <c r="D4" s="214"/>
-      <c r="E4" s="214"/>
-      <c r="F4" s="214"/>
-      <c r="G4" s="214"/>
-      <c r="H4" s="214"/>
-      <c r="I4" s="214"/>
-      <c r="J4" s="214"/>
-      <c r="K4" s="214"/>
-      <c r="L4" s="214"/>
-      <c r="M4" s="214"/>
-      <c r="N4" s="214"/>
-      <c r="O4" s="214"/>
-      <c r="P4" s="214"/>
-      <c r="Q4" s="214"/>
-      <c r="R4" s="214"/>
-      <c r="S4" s="214"/>
-      <c r="T4" s="214"/>
-      <c r="U4" s="214"/>
-      <c r="V4" s="214"/>
-      <c r="W4" s="214"/>
-      <c r="X4" s="214"/>
-      <c r="Y4" s="214"/>
-      <c r="Z4" s="214"/>
-      <c r="AA4" s="214"/>
-    </row>
-    <row r="5" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="B5" s="214"/>
-      <c r="C5" s="214"/>
-      <c r="D5" s="214"/>
-      <c r="E5" s="214"/>
-      <c r="F5" s="214"/>
-      <c r="G5" s="214"/>
-      <c r="H5" s="214"/>
-      <c r="I5" s="214"/>
-      <c r="J5" s="214"/>
-      <c r="K5" s="214"/>
-      <c r="L5" s="214"/>
-      <c r="M5" s="214"/>
-      <c r="N5" s="214"/>
-      <c r="O5" s="214"/>
-      <c r="P5" s="214"/>
-      <c r="Q5" s="214"/>
-      <c r="R5" s="214"/>
-      <c r="S5" s="214"/>
-      <c r="T5" s="214"/>
-      <c r="U5" s="214"/>
-      <c r="V5" s="214"/>
-      <c r="W5" s="214"/>
-      <c r="X5" s="214"/>
-      <c r="Y5" s="214"/>
-      <c r="Z5" s="214"/>
-      <c r="AA5" s="214"/>
-    </row>
-    <row r="6" spans="2:30" ht="6.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="2:30" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C3" s="195"/>
+      <c r="D3" s="195"/>
+      <c r="E3" s="195"/>
+      <c r="F3" s="195"/>
+      <c r="G3" s="195"/>
+      <c r="H3" s="195"/>
+      <c r="I3" s="195"/>
+      <c r="J3" s="195"/>
+      <c r="K3" s="195"/>
+      <c r="L3" s="195"/>
+      <c r="M3" s="195"/>
+      <c r="N3" s="195"/>
+      <c r="O3" s="195"/>
+      <c r="P3" s="195"/>
+      <c r="Q3" s="195"/>
+      <c r="R3" s="195"/>
+      <c r="S3" s="195"/>
+      <c r="T3" s="195"/>
+      <c r="U3" s="195"/>
+      <c r="V3" s="195"/>
+      <c r="W3" s="195"/>
+      <c r="X3" s="195"/>
+      <c r="Y3" s="195"/>
+      <c r="Z3" s="195"/>
+      <c r="AA3" s="195"/>
+    </row>
+    <row r="4" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B4" s="195"/>
+      <c r="C4" s="195"/>
+      <c r="D4" s="195"/>
+      <c r="E4" s="195"/>
+      <c r="F4" s="195"/>
+      <c r="G4" s="195"/>
+      <c r="H4" s="195"/>
+      <c r="I4" s="195"/>
+      <c r="J4" s="195"/>
+      <c r="K4" s="195"/>
+      <c r="L4" s="195"/>
+      <c r="M4" s="195"/>
+      <c r="N4" s="195"/>
+      <c r="O4" s="195"/>
+      <c r="P4" s="195"/>
+      <c r="Q4" s="195"/>
+      <c r="R4" s="195"/>
+      <c r="S4" s="195"/>
+      <c r="T4" s="195"/>
+      <c r="U4" s="195"/>
+      <c r="V4" s="195"/>
+      <c r="W4" s="195"/>
+      <c r="X4" s="195"/>
+      <c r="Y4" s="195"/>
+      <c r="Z4" s="195"/>
+      <c r="AA4" s="195"/>
+    </row>
+    <row r="5" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B5" s="195"/>
+      <c r="C5" s="195"/>
+      <c r="D5" s="195"/>
+      <c r="E5" s="195"/>
+      <c r="F5" s="195"/>
+      <c r="G5" s="195"/>
+      <c r="H5" s="195"/>
+      <c r="I5" s="195"/>
+      <c r="J5" s="195"/>
+      <c r="K5" s="195"/>
+      <c r="L5" s="195"/>
+      <c r="M5" s="195"/>
+      <c r="N5" s="195"/>
+      <c r="O5" s="195"/>
+      <c r="P5" s="195"/>
+      <c r="Q5" s="195"/>
+      <c r="R5" s="195"/>
+      <c r="S5" s="195"/>
+      <c r="T5" s="195"/>
+      <c r="U5" s="195"/>
+      <c r="V5" s="195"/>
+      <c r="W5" s="195"/>
+      <c r="X5" s="195"/>
+      <c r="Y5" s="195"/>
+      <c r="Z5" s="195"/>
+      <c r="AA5" s="195"/>
+    </row>
+    <row r="6" spans="2:30" ht="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="2:30" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AD7">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="2:30" ht="25.8" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="215" t="s">
+    <row r="8" spans="2:30" ht="27" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="196" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="216"/>
-      <c r="D8" s="216"/>
-      <c r="E8" s="216"/>
-      <c r="F8" s="216"/>
-      <c r="G8" s="216"/>
-      <c r="H8" s="216"/>
-      <c r="I8" s="217"/>
-      <c r="J8" s="218"/>
-      <c r="K8" s="219"/>
-      <c r="L8" s="220" t="s">
+      <c r="C8" s="197"/>
+      <c r="D8" s="197"/>
+      <c r="E8" s="197"/>
+      <c r="F8" s="197"/>
+      <c r="G8" s="197"/>
+      <c r="H8" s="197"/>
+      <c r="I8" s="198"/>
+      <c r="J8" s="199"/>
+      <c r="K8" s="200"/>
+      <c r="L8" s="201" t="s">
         <v>73</v>
       </c>
-      <c r="M8" s="221"/>
-      <c r="N8" s="221"/>
-      <c r="O8" s="222"/>
-      <c r="P8" s="223" t="s">
+      <c r="M8" s="202"/>
+      <c r="N8" s="202"/>
+      <c r="O8" s="203"/>
+      <c r="P8" s="204" t="s">
         <v>103</v>
       </c>
-      <c r="Q8" s="224"/>
-      <c r="R8" s="225"/>
+      <c r="Q8" s="205"/>
+      <c r="R8" s="206"/>
       <c r="S8" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="T8" s="226" t="s">
+      <c r="T8" s="207" t="s">
         <v>0</v>
       </c>
-      <c r="U8" s="227"/>
-      <c r="V8" s="227"/>
-      <c r="W8" s="227"/>
-      <c r="X8" s="227"/>
-      <c r="Y8" s="227"/>
-      <c r="Z8" s="227"/>
-      <c r="AA8" s="228"/>
-    </row>
-    <row r="9" spans="2:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="203" t="s">
+      <c r="U8" s="208"/>
+      <c r="V8" s="208"/>
+      <c r="W8" s="208"/>
+      <c r="X8" s="208"/>
+      <c r="Y8" s="208"/>
+      <c r="Z8" s="208"/>
+      <c r="AA8" s="209"/>
+    </row>
+    <row r="9" spans="2:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="212" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="204" t="s">
+      <c r="C9" s="213" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="204" t="s">
+      <c r="D9" s="213" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="204" t="s">
+      <c r="E9" s="213" t="s">
         <v>106</v>
       </c>
-      <c r="F9" s="208" t="s">
+      <c r="F9" s="217" t="s">
         <v>102</v>
       </c>
-      <c r="G9" s="209" t="s">
+      <c r="G9" s="218" t="s">
         <v>71</v>
       </c>
-      <c r="H9" s="210" t="s">
+      <c r="H9" s="219" t="s">
         <v>107</v>
       </c>
-      <c r="I9" s="209" t="s">
+      <c r="I9" s="218" t="s">
         <v>108</v>
       </c>
-      <c r="J9" s="212" t="s">
+      <c r="J9" s="221" t="s">
         <v>109</v>
       </c>
-      <c r="K9" s="201" t="s">
+      <c r="K9" s="210" t="s">
         <v>110</v>
       </c>
-      <c r="L9" s="197" t="s">
+      <c r="L9" s="228" t="s">
         <v>111</v>
       </c>
-      <c r="M9" s="198" t="s">
+      <c r="M9" s="229" t="s">
         <v>73</v>
       </c>
-      <c r="N9" s="197" t="s">
+      <c r="N9" s="228" t="s">
         <v>112</v>
       </c>
-      <c r="O9" s="199" t="s">
+      <c r="O9" s="230" t="s">
         <v>113</v>
       </c>
-      <c r="P9" s="192" t="s">
+      <c r="P9" s="223" t="s">
         <v>114</v>
       </c>
-      <c r="Q9" s="192" t="s">
+      <c r="Q9" s="223" t="s">
         <v>115</v>
       </c>
-      <c r="R9" s="192" t="s">
+      <c r="R9" s="223" t="s">
         <v>116</v>
       </c>
-      <c r="S9" s="194" t="s">
+      <c r="S9" s="225" t="s">
         <v>117</v>
       </c>
-      <c r="T9" s="195" t="s">
+      <c r="T9" s="226" t="s">
         <v>118</v>
       </c>
-      <c r="U9" s="195"/>
-      <c r="V9" s="195"/>
-      <c r="W9" s="195"/>
-      <c r="X9" s="195" t="s">
+      <c r="U9" s="226"/>
+      <c r="V9" s="226"/>
+      <c r="W9" s="226"/>
+      <c r="X9" s="226" t="s">
         <v>119</v>
       </c>
-      <c r="Y9" s="195"/>
-      <c r="Z9" s="195"/>
-      <c r="AA9" s="196"/>
-    </row>
-    <row r="10" spans="2:30" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="203"/>
-      <c r="C10" s="205"/>
-      <c r="D10" s="205"/>
-      <c r="E10" s="205"/>
-      <c r="F10" s="208"/>
-      <c r="G10" s="209"/>
-      <c r="H10" s="211"/>
-      <c r="I10" s="209"/>
-      <c r="J10" s="213"/>
-      <c r="K10" s="202"/>
-      <c r="L10" s="198"/>
-      <c r="M10" s="198"/>
-      <c r="N10" s="198"/>
-      <c r="O10" s="200"/>
-      <c r="P10" s="193"/>
-      <c r="Q10" s="193"/>
-      <c r="R10" s="193"/>
-      <c r="S10" s="194"/>
+      <c r="Y9" s="226"/>
+      <c r="Z9" s="226"/>
+      <c r="AA9" s="227"/>
+    </row>
+    <row r="10" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="212"/>
+      <c r="C10" s="214"/>
+      <c r="D10" s="214"/>
+      <c r="E10" s="214"/>
+      <c r="F10" s="217"/>
+      <c r="G10" s="218"/>
+      <c r="H10" s="220"/>
+      <c r="I10" s="218"/>
+      <c r="J10" s="222"/>
+      <c r="K10" s="211"/>
+      <c r="L10" s="229"/>
+      <c r="M10" s="229"/>
+      <c r="N10" s="229"/>
+      <c r="O10" s="231"/>
+      <c r="P10" s="224"/>
+      <c r="Q10" s="224"/>
+      <c r="R10" s="224"/>
+      <c r="S10" s="225"/>
       <c r="T10" s="118" t="s">
         <v>122</v>
       </c>
@@ -12963,7 +12963,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="2:30" ht="22.2" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:30" ht="21.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="75" t="s">
         <v>129</v>
       </c>
@@ -13068,7 +13068,7 @@
       <c r="AC11" s="94"/>
       <c r="AD11" s="93"/>
     </row>
-    <row r="12" spans="2:30" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:30" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="75" t="s">
         <v>147</v>
       </c>
@@ -13172,7 +13172,7 @@
       </c>
       <c r="AD12" s="95"/>
     </row>
-    <row r="13" spans="2:30" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:30" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="75" t="s">
         <v>147</v>
       </c>
@@ -13214,7 +13214,7 @@
       <c r="AB13" s="93"/>
       <c r="AD13" s="95"/>
     </row>
-    <row r="14" spans="2:30" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:30" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="75" t="s">
         <v>147</v>
       </c>
@@ -13256,7 +13256,7 @@
       <c r="AB14" s="93"/>
       <c r="AD14" s="95"/>
     </row>
-    <row r="15" spans="2:30" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:30" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="75" t="s">
         <v>147</v>
       </c>
@@ -13298,7 +13298,7 @@
       <c r="AB15" s="93"/>
       <c r="AD15" s="95"/>
     </row>
-    <row r="16" spans="2:30" s="112" customFormat="1" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:30" s="112" customFormat="1" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="96"/>
       <c r="C16" s="98"/>
       <c r="D16" s="99"/>
@@ -13327,7 +13327,7 @@
       <c r="AA16" s="107"/>
       <c r="AB16" s="115"/>
     </row>
-    <row r="17" spans="2:28" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:28" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="75" t="s">
         <v>147</v>
       </c>
@@ -13430,7 +13430,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="2:28" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:28" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="75" t="s">
         <v>147</v>
       </c>
@@ -13468,7 +13468,7 @@
       <c r="AA18" s="92"/>
       <c r="AB18" s="93"/>
     </row>
-    <row r="19" spans="2:28" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:28" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="75" t="s">
         <v>147</v>
       </c>
@@ -13506,7 +13506,7 @@
       <c r="AA19" s="92"/>
       <c r="AB19" s="93"/>
     </row>
-    <row r="20" spans="2:28" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:28" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="75" t="s">
         <v>147</v>
       </c>
@@ -13544,7 +13544,7 @@
       <c r="AA20" s="92"/>
       <c r="AB20" s="93"/>
     </row>
-    <row r="21" spans="2:28" s="112" customFormat="1" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:28" s="112" customFormat="1" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="96"/>
       <c r="C21" s="98"/>
       <c r="D21" s="99"/>
@@ -13573,7 +13573,7 @@
       <c r="AA21" s="107"/>
       <c r="AB21" s="115"/>
     </row>
-    <row r="22" spans="2:28" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:28" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="75" t="s">
         <v>147</v>
       </c>
@@ -13676,7 +13676,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="2:28" s="112" customFormat="1" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:28" s="112" customFormat="1" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="96"/>
       <c r="C23" s="98"/>
       <c r="D23" s="99"/>
@@ -13705,7 +13705,7 @@
       <c r="AA23" s="107"/>
       <c r="AB23" s="115"/>
     </row>
-    <row r="24" spans="2:28" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:28" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="75" t="s">
         <v>147</v>
       </c>
@@ -13740,7 +13740,7 @@
       <c r="AA24" s="92"/>
       <c r="AB24" s="93"/>
     </row>
-    <row r="25" spans="2:28" s="112" customFormat="1" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:28" s="112" customFormat="1" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="96"/>
       <c r="C25" s="98"/>
       <c r="D25" s="99"/>
@@ -13769,7 +13769,7 @@
       <c r="AA25" s="107"/>
       <c r="AB25" s="115"/>
     </row>
-    <row r="26" spans="2:28" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:28" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="75" t="s">
         <v>147</v>
       </c>
@@ -13872,7 +13872,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="2:28" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:28" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="96"/>
       <c r="C27" s="98"/>
       <c r="D27" s="99"/>
@@ -13901,7 +13901,7 @@
       <c r="AA27" s="107"/>
       <c r="AB27" s="115"/>
     </row>
-    <row r="28" spans="2:28" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:28" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="75" t="s">
         <v>147</v>
       </c>
@@ -14004,7 +14004,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="2:28" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:28" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="96"/>
       <c r="C29" s="98"/>
       <c r="D29" s="99"/>
@@ -14033,7 +14033,7 @@
       <c r="AA29" s="107"/>
       <c r="AB29" s="115"/>
     </row>
-    <row r="30" spans="2:28" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:28" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="75" t="s">
         <v>147</v>
       </c>
@@ -14068,7 +14068,7 @@
       <c r="AA30" s="92"/>
       <c r="AB30" s="93"/>
     </row>
-    <row r="31" spans="2:28" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:28" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="96"/>
       <c r="C31" s="98"/>
       <c r="D31" s="99"/>
@@ -14097,7 +14097,7 @@
       <c r="AA31" s="107"/>
       <c r="AB31" s="115"/>
     </row>
-    <row r="32" spans="2:28" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:28" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="75" t="s">
         <v>147</v>
       </c>
@@ -14200,7 +14200,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="33" spans="2:28" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:28" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="96"/>
       <c r="C33" s="98"/>
       <c r="D33" s="99"/>
@@ -14229,7 +14229,7 @@
       <c r="AA33" s="107"/>
       <c r="AB33" s="115"/>
     </row>
-    <row r="34" spans="2:28" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:28" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="75" t="s">
         <v>147</v>
       </c>
@@ -14332,7 +14332,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="35" spans="2:28" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:28" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="96"/>
       <c r="C35" s="98"/>
       <c r="D35" s="99"/>
@@ -14361,7 +14361,7 @@
       <c r="AA35" s="107"/>
       <c r="AB35" s="115"/>
     </row>
-    <row r="36" spans="2:28" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:28" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="75" t="s">
         <v>147</v>
       </c>
@@ -14464,7 +14464,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="37" spans="2:28" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:28" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="96"/>
       <c r="C37" s="98"/>
       <c r="D37" s="99"/>
@@ -14493,7 +14493,7 @@
       <c r="AA37" s="107"/>
       <c r="AB37" s="115"/>
     </row>
-    <row r="38" spans="2:28" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:28" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="75" t="s">
         <v>147</v>
       </c>
@@ -14596,7 +14596,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="2:28" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:28" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="96"/>
       <c r="C39" s="98"/>
       <c r="D39" s="99"/>
@@ -14625,7 +14625,7 @@
       <c r="AA39" s="107"/>
       <c r="AB39" s="115"/>
     </row>
-    <row r="40" spans="2:28" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:28" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B40" s="75" t="s">
         <v>147</v>
       </c>
@@ -14728,12 +14728,22 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="49" spans="19:19" x14ac:dyDescent="0.4">
+    <row r="49" spans="19:19" x14ac:dyDescent="0.3">
       <c r="S49" s="69"/>
     </row>
   </sheetData>
   <autoFilter ref="B9:C40" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="26">
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="E9:E10"/>
@@ -14750,16 +14760,6 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="M9:M10"/>
     <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="X11:AA22 X24:AA28 X30:AA40">

--- a/document/goods_Info.xlsx
+++ b/document/goods_Info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aodrl\Desktop\Project\CMW_V2\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A10B7FA-4DA7-4830-B41A-9F7E7AB42057}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEACABB8-1855-482F-A5E3-5076EF74688B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="1170" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{2202C1BA-8378-4109-9FCC-5C7E0CDB8A0F}"/>
+    <workbookView xWindow="-21720" yWindow="915" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{2202C1BA-8378-4109-9FCC-5C7E0CDB8A0F}"/>
   </bookViews>
   <sheets>
     <sheet name="정보" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="197">
   <si>
     <t>마진</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -797,12 +797,44 @@
     <t>2개</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>점보롤 150</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>점보롤 180</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>점보롤 200</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>점보롤 300</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>꽃점보롤 150</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>꽃점보롤 180</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>꽃점보롤 200</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>꽃점보롤 300</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="#,##0_);[Red]\(#,##0\)"/>
@@ -810,6 +842,7 @@
     <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="179" formatCode="#,##0_ "/>
     <numFmt numFmtId="180" formatCode="0_ "/>
+    <numFmt numFmtId="181" formatCode="#,##0.0000_);[Red]\(#,##0.0000\)"/>
   </numFmts>
   <fonts count="24" x14ac:knownFonts="1">
     <font>
@@ -1848,7 +1881,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="232">
+  <cellXfs count="234">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2306,37 +2339,67 @@
     <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="30" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2345,10 +2408,31 @@
     <xf numFmtId="176" fontId="7" fillId="30" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2357,21 +2441,12 @@
     <xf numFmtId="176" fontId="7" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="7" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="7" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2390,47 +2465,71 @@
     <xf numFmtId="176" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="16" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="16" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="22" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="23" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="4" fillId="23" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="21" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="21" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="21" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="21" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="20" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="4" fillId="20" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="6" fillId="19" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="19" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="19" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="19" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="19" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="19" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="19" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="19" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="19" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="20" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="4" fillId="20" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="41" fontId="17" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2477,71 +2576,11 @@
     <xf numFmtId="41" fontId="18" fillId="18" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="20" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="20" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="19" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="19" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="19" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="19" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="19" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="19" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="19" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="19" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="19" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="20" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="20" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="16" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="16" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="22" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="23" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="23" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="21" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="21" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="21" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="21" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4498,10 +4537,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3104B28F-70C4-4516-B7D6-2295FDC1E0E7}">
-  <dimension ref="B2:AD35"/>
+  <dimension ref="B2:AE35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4521,26 +4560,27 @@
     <col min="14" max="14" width="9.625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.625" customWidth="1"/>
+    <col min="22" max="23" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:30" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="153" t="s">
+    <row r="2" spans="2:31" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="B2" s="163" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
       <c r="G2" s="129" t="s">
         <v>171</v>
       </c>
@@ -4574,9 +4614,9 @@
       <c r="R2" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="AA2" s="1"/>
-    </row>
-    <row r="3" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="AB2" s="1"/>
+    </row>
+    <row r="3" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B3" s="130" t="s">
         <v>60</v>
       </c>
@@ -4629,10 +4669,10 @@
         <f t="shared" ref="R3:R10" si="2">SUM(L3:Q3)</f>
         <v>1773.8834039975773</v>
       </c>
-      <c r="AA3" s="1"/>
-    </row>
-    <row r="4" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B4" s="154" t="s">
+      <c r="AB3" s="1"/>
+    </row>
+    <row r="4" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B4" s="157" t="s">
         <v>56</v>
       </c>
       <c r="C4" s="132" t="s">
@@ -4684,10 +4724,10 @@
         <f t="shared" si="2"/>
         <v>1773.8834039975773</v>
       </c>
-      <c r="AA4" s="1"/>
-    </row>
-    <row r="5" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B5" s="154"/>
+      <c r="AB4" s="1"/>
+    </row>
+    <row r="5" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B5" s="157"/>
       <c r="C5" s="132" t="s">
         <v>38</v>
       </c>
@@ -4736,13 +4776,13 @@
         <f t="shared" si="2"/>
         <v>3591.7201695941853</v>
       </c>
-      <c r="AA5" s="1"/>
-    </row>
-    <row r="6" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B6" s="154" t="s">
+      <c r="AB5" s="1"/>
+    </row>
+    <row r="6" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B6" s="157" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="155" t="s">
+      <c r="C6" s="158" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="133" t="s">
@@ -4791,11 +4831,11 @@
         <f t="shared" si="2"/>
         <v>3365.6502119927318</v>
       </c>
-      <c r="AA6" s="1"/>
-    </row>
-    <row r="7" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B7" s="154"/>
-      <c r="C7" s="156"/>
+      <c r="AB6" s="1"/>
+    </row>
+    <row r="7" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B7" s="157"/>
+      <c r="C7" s="160"/>
       <c r="D7" s="133" t="s">
         <v>50</v>
       </c>
@@ -4845,10 +4885,10 @@
         <f t="shared" si="2"/>
         <v>3623.6502119927318</v>
       </c>
-      <c r="AA7" s="1"/>
-    </row>
-    <row r="8" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B8" s="154"/>
+      <c r="AB7" s="1"/>
+    </row>
+    <row r="8" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B8" s="157"/>
       <c r="C8" s="132" t="s">
         <v>49</v>
       </c>
@@ -4897,10 +4937,14 @@
         <f t="shared" si="2"/>
         <v>4399.8502119927316</v>
       </c>
-      <c r="AA8" s="1"/>
-    </row>
-    <row r="9" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B9" s="154" t="s">
+      <c r="X8">
+        <f>30*16</f>
+        <v>480</v>
+      </c>
+      <c r="AB8" s="1"/>
+    </row>
+    <row r="9" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B9" s="157" t="s">
         <v>48</v>
       </c>
       <c r="C9" s="132" t="s">
@@ -4952,10 +4996,10 @@
         <f t="shared" si="2"/>
         <v>5050.3502119927316</v>
       </c>
-      <c r="AA9" s="1"/>
-    </row>
-    <row r="10" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B10" s="154"/>
+      <c r="AB9" s="1"/>
+    </row>
+    <row r="10" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B10" s="157"/>
       <c r="C10" s="132" t="s">
         <v>44</v>
       </c>
@@ -5005,10 +5049,10 @@
         <f t="shared" si="2"/>
         <v>5243.8502119927316</v>
       </c>
-      <c r="AA10" s="1"/>
-    </row>
-    <row r="11" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B11" s="154"/>
+      <c r="AB10" s="1"/>
+    </row>
+    <row r="11" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B11" s="157"/>
       <c r="C11" s="132" t="s">
         <v>176</v>
       </c>
@@ -5019,8 +5063,55 @@
         <f>232*1.1</f>
         <v>255.20000000000002</v>
       </c>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
+      <c r="G11" s="128">
+        <v>9</v>
+      </c>
+      <c r="H11" s="128">
+        <v>16</v>
+      </c>
+      <c r="I11" t="s">
+        <v>189</v>
+      </c>
+      <c r="J11">
+        <v>7.12</v>
+      </c>
+      <c r="L11">
+        <f>$E$4*J11</f>
+        <v>9184.7999999999993</v>
+      </c>
+      <c r="M11">
+        <f>$E$8*H11</f>
+        <v>800</v>
+      </c>
+      <c r="N11" s="3">
+        <f>$E$20*4</f>
+        <v>198.00000000000003</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="3">
+        <f>$E$18</f>
+        <v>1116.5</v>
+      </c>
+      <c r="R11" s="1">
+        <f>SUM(L11:Q11)</f>
+        <v>11299.3</v>
+      </c>
+      <c r="S11">
+        <v>14500</v>
+      </c>
+      <c r="T11" s="1">
+        <f>S11-R11</f>
+        <v>3200.7000000000007</v>
+      </c>
+      <c r="U11" s="3">
+        <f>T11/S11</f>
+        <v>0.2207379310344828</v>
+      </c>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
@@ -5030,9 +5121,10 @@
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
-    </row>
-    <row r="12" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B12" s="157" t="s">
+      <c r="AE11" s="1"/>
+    </row>
+    <row r="12" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B12" s="153" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="132" t="s">
@@ -5045,20 +5137,75 @@
         <f>30*1.1</f>
         <v>33</v>
       </c>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
+      <c r="H12" s="128">
+        <v>16</v>
+      </c>
+      <c r="I12" t="s">
+        <v>190</v>
+      </c>
+      <c r="J12">
+        <v>8.57</v>
+      </c>
+      <c r="L12">
+        <f>$E$4*J12</f>
+        <v>11055.300000000001</v>
+      </c>
+      <c r="M12">
+        <f>$E$8*H12</f>
+        <v>800</v>
+      </c>
+      <c r="N12" s="3">
+        <f>$E$20*4</f>
+        <v>198.00000000000003</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
+        <f>$E$18</f>
+        <v>1116.5</v>
+      </c>
+      <c r="R12" s="1">
+        <f>SUM(L12:Q12)</f>
+        <v>13169.800000000001</v>
+      </c>
+      <c r="S12">
+        <v>17500</v>
+      </c>
+      <c r="T12" s="1">
+        <f t="shared" ref="T12:T18" si="5">S12-R12</f>
+        <v>4330.1999999999989</v>
+      </c>
+      <c r="U12" s="3">
+        <f t="shared" ref="U12:U18" si="6">T12/S12</f>
+        <v>0.24743999999999994</v>
+      </c>
+      <c r="V12" s="1">
+        <v>150</v>
+      </c>
+      <c r="W12" s="1">
+        <v>148</v>
+      </c>
+      <c r="X12" s="233">
+        <f>$W$20*W12</f>
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="Y12" s="233">
+        <f>X12*16</f>
+        <v>7.12</v>
+      </c>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
-    </row>
-    <row r="13" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B13" s="158"/>
+      <c r="AE12" s="1"/>
+    </row>
+    <row r="13" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B13" s="154"/>
       <c r="C13" s="132" t="s">
         <v>187</v>
       </c>
@@ -5069,20 +5216,78 @@
         <f>135*1.1</f>
         <v>148.5</v>
       </c>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
+      <c r="H13" s="128">
+        <v>16</v>
+      </c>
+      <c r="I13" t="s">
+        <v>191</v>
+      </c>
+      <c r="J13">
+        <v>9.5299999999999994</v>
+      </c>
+      <c r="L13">
+        <f>$E$4*J13</f>
+        <v>12293.699999999999</v>
+      </c>
+      <c r="M13">
+        <f>$E$8*H13</f>
+        <v>800</v>
+      </c>
+      <c r="N13" s="3">
+        <f>$E$20*4</f>
+        <v>198.00000000000003</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <f>$E$18</f>
+        <v>1116.5</v>
+      </c>
+      <c r="R13" s="1">
+        <f>SUM(L13:Q13)</f>
+        <v>14408.199999999999</v>
+      </c>
+      <c r="S13">
+        <v>19000</v>
+      </c>
+      <c r="T13" s="1">
+        <f t="shared" si="5"/>
+        <v>4591.8000000000011</v>
+      </c>
+      <c r="U13" s="3">
+        <f t="shared" si="6"/>
+        <v>0.24167368421052637</v>
+      </c>
+      <c r="V13" s="1">
+        <v>180</v>
+      </c>
+      <c r="W13" s="1">
+        <v>178</v>
+      </c>
+      <c r="X13" s="233">
+        <f>$W$20*W13</f>
+        <v>0.53520270270270276</v>
+      </c>
+      <c r="Y13" s="233">
+        <f>X13*16</f>
+        <v>8.5632432432432442</v>
+      </c>
+      <c r="Z13" s="233">
+        <f>Y13*16</f>
+        <v>137.01189189189191</v>
+      </c>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
-    </row>
-    <row r="14" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B14" s="158"/>
+      <c r="AE13" s="1"/>
+    </row>
+    <row r="14" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B14" s="154"/>
       <c r="C14" s="132" t="s">
         <v>187</v>
       </c>
@@ -5093,20 +5298,75 @@
         <f>176*1.1</f>
         <v>193.60000000000002</v>
       </c>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
+      <c r="H14" s="128">
+        <v>16</v>
+      </c>
+      <c r="I14" t="s">
+        <v>192</v>
+      </c>
+      <c r="J14">
+        <v>14.34</v>
+      </c>
+      <c r="L14">
+        <f>$E$4*J14</f>
+        <v>18498.599999999999</v>
+      </c>
+      <c r="M14">
+        <f>$E$8*H14</f>
+        <v>800</v>
+      </c>
+      <c r="N14" s="3">
+        <f>$E$20*4</f>
+        <v>198.00000000000003</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <f>$E$18</f>
+        <v>1116.5</v>
+      </c>
+      <c r="R14" s="1">
+        <f>SUM(L14:Q14)</f>
+        <v>20613.099999999999</v>
+      </c>
+      <c r="S14">
+        <v>27400</v>
+      </c>
+      <c r="T14" s="1">
+        <f t="shared" si="5"/>
+        <v>6786.9000000000015</v>
+      </c>
+      <c r="U14" s="3">
+        <f t="shared" si="6"/>
+        <v>0.24769708029197085</v>
+      </c>
+      <c r="V14" s="1">
+        <v>200</v>
+      </c>
+      <c r="W14" s="1">
+        <v>198</v>
+      </c>
+      <c r="X14" s="233">
+        <f>$W$20*W14</f>
+        <v>0.59533783783783789</v>
+      </c>
+      <c r="Y14" s="233">
+        <f t="shared" ref="Y14:Y15" si="7">X14*16</f>
+        <v>9.5254054054054063</v>
+      </c>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
-    </row>
-    <row r="15" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B15" s="158"/>
+      <c r="AE14" s="1"/>
+    </row>
+    <row r="15" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B15" s="154"/>
       <c r="C15" s="133" t="s">
         <v>45</v>
       </c>
@@ -5117,21 +5377,71 @@
         <f>228*1.1</f>
         <v>250.8</v>
       </c>
-      <c r="J15" s="147">
-        <v>1</v>
-      </c>
-      <c r="K15" s="147">
-        <v>5</v>
-      </c>
-      <c r="L15" s="147">
-        <v>10</v>
-      </c>
-      <c r="R15"/>
-      <c r="Y15" s="1"/>
-      <c r="AA15" s="1"/>
-    </row>
-    <row r="16" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B16" s="158"/>
+      <c r="H15" s="128">
+        <v>16</v>
+      </c>
+      <c r="I15" t="s">
+        <v>193</v>
+      </c>
+      <c r="J15">
+        <v>7.12</v>
+      </c>
+      <c r="L15">
+        <f>$E$5*J15</f>
+        <v>9683.2000000000007</v>
+      </c>
+      <c r="M15">
+        <f t="shared" ref="M15:M18" si="8">$E$8*H15</f>
+        <v>800</v>
+      </c>
+      <c r="N15" s="3">
+        <f t="shared" ref="N15:N18" si="9">$E$20*4</f>
+        <v>198.00000000000003</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <f>$E$19</f>
+        <v>1166</v>
+      </c>
+      <c r="R15" s="1">
+        <f t="shared" ref="R15:R18" si="10">SUM(L15:Q15)</f>
+        <v>11847.2</v>
+      </c>
+      <c r="S15">
+        <v>15500</v>
+      </c>
+      <c r="T15" s="1">
+        <f t="shared" si="5"/>
+        <v>3652.7999999999993</v>
+      </c>
+      <c r="U15" s="3">
+        <f t="shared" si="6"/>
+        <v>0.23566451612903222</v>
+      </c>
+      <c r="V15" s="1">
+        <v>300</v>
+      </c>
+      <c r="W15" s="1">
+        <v>298</v>
+      </c>
+      <c r="X15" s="233">
+        <f>$W$20*W15</f>
+        <v>0.89601351351351355</v>
+      </c>
+      <c r="Y15" s="233">
+        <f t="shared" si="7"/>
+        <v>14.336216216216217</v>
+      </c>
+      <c r="Z15" s="1"/>
+      <c r="AB15" s="1"/>
+    </row>
+    <row r="16" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B16" s="154"/>
       <c r="C16" s="133" t="s">
         <v>44</v>
       </c>
@@ -5143,33 +5453,57 @@
         <v>253.00000000000003</v>
       </c>
       <c r="G16" s="145"/>
-      <c r="H16" s="144"/>
-      <c r="I16" s="148" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" s="143">
-        <f>$R3*J$15</f>
-        <v>1773.8834039975773</v>
-      </c>
-      <c r="K16" s="143">
-        <f t="shared" ref="K16:L16" si="5">$R3*K$15</f>
-        <v>8869.4170199878863</v>
-      </c>
-      <c r="L16" s="143">
+      <c r="H16" s="128">
+        <v>16</v>
+      </c>
+      <c r="I16" t="s">
+        <v>194</v>
+      </c>
+      <c r="J16">
+        <v>8.57</v>
+      </c>
+      <c r="L16">
+        <f t="shared" ref="L16:L18" si="11">$E$5*J16</f>
+        <v>11655.2</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="8"/>
+        <v>800</v>
+      </c>
+      <c r="N16" s="3">
+        <f t="shared" si="9"/>
+        <v>198.00000000000003</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="3">
+        <f t="shared" ref="Q16:Q18" si="12">$E$19</f>
+        <v>1166</v>
+      </c>
+      <c r="R16" s="1">
+        <f t="shared" si="10"/>
+        <v>13819.2</v>
+      </c>
+      <c r="S16">
+        <v>18500</v>
+      </c>
+      <c r="T16" s="1">
         <f t="shared" si="5"/>
-        <v>17738.834039975773</v>
-      </c>
-      <c r="M16" s="144"/>
-      <c r="N16" s="144"/>
-      <c r="O16" s="144"/>
-      <c r="P16" s="144"/>
-      <c r="Q16" s="144"/>
-      <c r="R16" s="144"/>
-      <c r="Y16" s="1"/>
-      <c r="AA16" s="1"/>
-    </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B17" s="159"/>
+        <v>4680.7999999999993</v>
+      </c>
+      <c r="U16" s="3">
+        <f t="shared" si="6"/>
+        <v>0.25301621621621617</v>
+      </c>
+      <c r="Z16" s="1"/>
+      <c r="AB16" s="1"/>
+    </row>
+    <row r="17" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B17" s="155"/>
       <c r="C17" s="133" t="s">
         <v>43</v>
       </c>
@@ -5181,35 +5515,57 @@
         <v>255.20000000000002</v>
       </c>
       <c r="G17" s="145"/>
-      <c r="H17" s="144"/>
-      <c r="I17" s="148" t="s">
+      <c r="H17" s="128">
         <v>16</v>
       </c>
-      <c r="J17" s="143">
-        <f>$R4*J$15</f>
-        <v>1773.8834039975773</v>
-      </c>
-      <c r="K17" s="143">
-        <f>$R4*K$15</f>
-        <v>8869.4170199878863</v>
-      </c>
-      <c r="L17" s="143">
-        <f>$R4*L$15</f>
-        <v>17738.834039975773</v>
-      </c>
-      <c r="M17" s="144">
-        <v>18070</v>
-      </c>
-      <c r="N17" s="144"/>
-      <c r="O17" s="144"/>
-      <c r="P17" s="144"/>
-      <c r="Q17" s="144"/>
-      <c r="R17" s="144"/>
-      <c r="Y17" s="1"/>
-      <c r="AA17" s="1"/>
-    </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B18" s="160" t="s">
+      <c r="I17" t="s">
+        <v>195</v>
+      </c>
+      <c r="J17">
+        <v>9.5299999999999994</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="11"/>
+        <v>12960.8</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="8"/>
+        <v>800</v>
+      </c>
+      <c r="N17" s="3">
+        <f t="shared" si="9"/>
+        <v>198.00000000000003</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
+        <f t="shared" si="12"/>
+        <v>1166</v>
+      </c>
+      <c r="R17" s="1">
+        <f t="shared" si="10"/>
+        <v>15124.8</v>
+      </c>
+      <c r="S17">
+        <v>20000</v>
+      </c>
+      <c r="T17" s="1">
+        <f t="shared" si="5"/>
+        <v>4875.2000000000007</v>
+      </c>
+      <c r="U17" s="3">
+        <f t="shared" si="6"/>
+        <v>0.24376000000000003</v>
+      </c>
+      <c r="Z17" s="1"/>
+      <c r="AB17" s="1"/>
+    </row>
+    <row r="18" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B18" s="156" t="s">
         <v>42</v>
       </c>
       <c r="C18" s="132" t="s">
@@ -5223,26 +5579,57 @@
         <v>1116.5</v>
       </c>
       <c r="G18" s="145"/>
-      <c r="H18" s="144"/>
-      <c r="I18" s="148"/>
-      <c r="J18" s="147">
-        <v>1</v>
-      </c>
-      <c r="K18" s="147">
-        <v>2</v>
-      </c>
-      <c r="L18" s="147">
-        <v>3</v>
-      </c>
-      <c r="M18" s="147">
-        <v>4</v>
-      </c>
-      <c r="N18" s="144"/>
-      <c r="Y18" s="1"/>
-      <c r="AA18" s="1"/>
-    </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B19" s="154"/>
+      <c r="H18" s="128">
+        <v>16</v>
+      </c>
+      <c r="I18" t="s">
+        <v>196</v>
+      </c>
+      <c r="J18">
+        <v>14.34</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="11"/>
+        <v>19502.400000000001</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="8"/>
+        <v>800</v>
+      </c>
+      <c r="N18" s="3">
+        <f t="shared" si="9"/>
+        <v>198.00000000000003</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
+        <f t="shared" si="12"/>
+        <v>1166</v>
+      </c>
+      <c r="R18" s="1">
+        <f t="shared" si="10"/>
+        <v>21666.400000000001</v>
+      </c>
+      <c r="S18">
+        <v>28700</v>
+      </c>
+      <c r="T18" s="1">
+        <f t="shared" si="5"/>
+        <v>7033.5999999999985</v>
+      </c>
+      <c r="U18" s="3">
+        <f t="shared" si="6"/>
+        <v>0.24507317073170726</v>
+      </c>
+      <c r="Z18" s="1"/>
+      <c r="AB18" s="1"/>
+    </row>
+    <row r="19" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B19" s="157"/>
       <c r="C19" s="132" t="s">
         <v>38</v>
       </c>
@@ -5255,31 +5642,17 @@
       </c>
       <c r="G19" s="145"/>
       <c r="H19" s="144"/>
-      <c r="I19" s="148" t="s">
-        <v>19</v>
-      </c>
-      <c r="J19" s="144">
-        <f>$R5*J$18</f>
-        <v>3591.7201695941853</v>
-      </c>
-      <c r="K19" s="144">
-        <f>$R5*K$18</f>
-        <v>7183.4403391883707</v>
-      </c>
-      <c r="L19" s="143">
-        <f>$R5*L$18</f>
-        <v>10775.160508782556</v>
-      </c>
-      <c r="M19" s="143">
-        <f>$R5*M$18</f>
-        <v>14366.880678376741</v>
-      </c>
-      <c r="N19" s="144"/>
-      <c r="O19" s="1"/>
-      <c r="Y19" s="1"/>
-      <c r="AA19" s="1"/>
-    </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="U19" s="3"/>
+      <c r="V19">
+        <v>1.94</v>
+      </c>
+      <c r="W19">
+        <v>1.78</v>
+      </c>
+      <c r="Z19" s="1"/>
+      <c r="AB19" s="1"/>
+    </row>
+    <row r="20" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B20" s="132" t="s">
         <v>37</v>
       </c>
@@ -5295,27 +5668,27 @@
       </c>
       <c r="G20" s="145"/>
       <c r="H20" s="144"/>
-      <c r="J20" s="1">
-        <f>J$19+$E13</f>
-        <v>3740.2201695941853</v>
-      </c>
-      <c r="K20" s="1">
-        <f>K$19+$E14</f>
-        <v>7377.040339188371</v>
-      </c>
-      <c r="L20" s="1">
-        <f>L$19+$E15</f>
-        <v>11025.960508782555</v>
-      </c>
-      <c r="M20" s="1">
-        <f>M$19+$E17</f>
-        <v>14622.080678376742</v>
-      </c>
-      <c r="N20" s="144"/>
-      <c r="Y20" s="1"/>
-      <c r="AA20" s="1"/>
-    </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="J20" s="147">
+        <v>1</v>
+      </c>
+      <c r="K20" s="147">
+        <v>5</v>
+      </c>
+      <c r="L20" s="147">
+        <v>10</v>
+      </c>
+      <c r="V20">
+        <f>(V19-E27)*4</f>
+        <v>7.12</v>
+      </c>
+      <c r="W20">
+        <f>V21/W12</f>
+        <v>3.0067567567567568E-3</v>
+      </c>
+      <c r="Z20" s="1"/>
+      <c r="AB20" s="1"/>
+    </row>
+    <row r="21" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B21" s="132" t="s">
         <v>35</v>
       </c>
@@ -5331,21 +5704,32 @@
       </c>
       <c r="G21" s="144"/>
       <c r="H21" s="144"/>
-      <c r="J21" s="147">
-        <v>1</v>
-      </c>
-      <c r="K21" s="147">
-        <v>2</v>
-      </c>
-      <c r="L21" s="144">
-        <v>3</v>
+      <c r="I21" s="148" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" s="143">
+        <f>$R3*J$20</f>
+        <v>1773.8834039975773</v>
+      </c>
+      <c r="K21" s="143">
+        <f>$R3*K$20</f>
+        <v>8869.4170199878863</v>
+      </c>
+      <c r="L21" s="143">
+        <f>$R3*L$20</f>
+        <v>17738.834039975773</v>
       </c>
       <c r="M21" s="144"/>
       <c r="N21" s="144"/>
-      <c r="Y21" s="1"/>
-      <c r="AA21" s="1"/>
-    </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="O21" s="144"/>
+      <c r="V21">
+        <f>V20/16</f>
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="Z21" s="1"/>
+      <c r="AB21" s="1"/>
+    </row>
+    <row r="22" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B22" s="132" t="s">
         <v>33</v>
       </c>
@@ -5363,34 +5747,27 @@
       <c r="I22" s="148" t="s">
         <v>16</v>
       </c>
-      <c r="J22" s="144">
-        <f t="shared" ref="J22:L26" si="6">$R6*J$21</f>
-        <v>3365.6502119927318</v>
+      <c r="J22" s="143">
+        <f>$R4*J$20</f>
+        <v>1773.8834039975773</v>
       </c>
       <c r="K22" s="143">
-        <f t="shared" si="6"/>
-        <v>6731.3004239854636</v>
+        <f>$R4*K$20</f>
+        <v>8869.4170199878863</v>
       </c>
       <c r="L22" s="143">
-        <f t="shared" si="6"/>
-        <v>10096.950635978195</v>
+        <f>$R4*L$20</f>
+        <v>17738.834039975773</v>
       </c>
       <c r="M22" s="144">
-        <f>$J22+$E13</f>
-        <v>3514.1502119927318</v>
-      </c>
-      <c r="N22" s="144">
-        <f>$K22+$E$14</f>
-        <v>6924.9004239854639</v>
-      </c>
-      <c r="O22" s="144">
-        <f>$L22+$E15</f>
-        <v>10347.750635978195</v>
-      </c>
-      <c r="Y22" s="1"/>
-      <c r="AA22" s="1"/>
-    </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.3">
+        <v>18070</v>
+      </c>
+      <c r="N22" s="144"/>
+      <c r="O22" s="144"/>
+      <c r="Z22" s="1"/>
+      <c r="AB22" s="1"/>
+    </row>
+    <row r="23" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B23" s="132" t="s">
         <v>30</v>
       </c>
@@ -5406,35 +5783,22 @@
       </c>
       <c r="G23" s="145"/>
       <c r="H23" s="144"/>
-      <c r="I23" s="148" t="s">
-        <v>62</v>
-      </c>
-      <c r="J23" s="144">
-        <f t="shared" si="6"/>
-        <v>3623.6502119927318</v>
-      </c>
-      <c r="K23" s="143">
-        <f t="shared" si="6"/>
-        <v>7247.3004239854636</v>
-      </c>
-      <c r="L23" s="143">
-        <f t="shared" si="6"/>
-        <v>10870.950635978195</v>
-      </c>
-      <c r="M23" s="144">
-        <f>$J23+$E13</f>
-        <v>3772.1502119927318</v>
-      </c>
-      <c r="N23" s="144">
-        <f t="shared" ref="N23:N26" si="7">$K23+$E$14</f>
-        <v>7440.9004239854639</v>
-      </c>
-      <c r="O23" s="144">
-        <f>$L23+$E15</f>
-        <v>11121.750635978195</v>
-      </c>
-    </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="I23" s="148"/>
+      <c r="J23" s="147">
+        <v>1</v>
+      </c>
+      <c r="K23" s="147">
+        <v>2</v>
+      </c>
+      <c r="L23" s="147">
+        <v>3</v>
+      </c>
+      <c r="M23" s="147">
+        <v>4</v>
+      </c>
+      <c r="N23" s="144"/>
+    </row>
+    <row r="24" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B24" s="132" t="s">
         <v>29</v>
       </c>
@@ -5451,34 +5815,28 @@
       <c r="G24" s="145"/>
       <c r="H24" s="144"/>
       <c r="I24" s="148" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="J24" s="144">
-        <f t="shared" si="6"/>
-        <v>4399.8502119927316</v>
-      </c>
-      <c r="K24" s="143">
-        <f t="shared" si="6"/>
-        <v>8799.7004239854632</v>
+        <f>$R5*J$23</f>
+        <v>3591.7201695941853</v>
+      </c>
+      <c r="K24" s="144">
+        <f>$R5*K$23</f>
+        <v>7183.4403391883707</v>
       </c>
       <c r="L24" s="143">
-        <f t="shared" si="6"/>
-        <v>13199.550635978194</v>
-      </c>
-      <c r="M24" s="144">
-        <f>$J24+$E13</f>
-        <v>4548.3502119927316</v>
-      </c>
-      <c r="N24" s="144">
-        <f t="shared" si="7"/>
-        <v>8993.3004239854636</v>
-      </c>
-      <c r="O24" s="144">
-        <f>$L24+$E16</f>
-        <v>13452.550635978194</v>
-      </c>
-    </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.3">
+        <f>$R5*L$23</f>
+        <v>10775.160508782556</v>
+      </c>
+      <c r="M24" s="143">
+        <f>$R5*M$23</f>
+        <v>14366.880678376741</v>
+      </c>
+      <c r="N24" s="144"/>
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B25" s="132" t="s">
         <v>28</v>
       </c>
@@ -5494,35 +5852,25 @@
       </c>
       <c r="G25" s="145"/>
       <c r="H25" s="144"/>
-      <c r="I25" s="148" t="s">
-        <v>32</v>
-      </c>
-      <c r="J25" s="144">
-        <f t="shared" si="6"/>
-        <v>5050.3502119927316</v>
-      </c>
-      <c r="K25" s="143">
-        <f t="shared" si="6"/>
-        <v>10100.700423985463</v>
-      </c>
-      <c r="L25" s="143">
-        <f t="shared" si="6"/>
-        <v>15151.050635978194</v>
-      </c>
-      <c r="M25" s="144">
-        <f>$J25+$E13</f>
-        <v>5198.8502119927316</v>
-      </c>
-      <c r="N25" s="144">
-        <f t="shared" si="7"/>
-        <v>10294.300423985464</v>
-      </c>
-      <c r="O25" s="144">
-        <f>$L25+$E17</f>
-        <v>15406.250635978195</v>
-      </c>
-    </row>
-    <row r="26" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="J25" s="1">
+        <f>J$24+$E13</f>
+        <v>3740.2201695941853</v>
+      </c>
+      <c r="K25" s="1">
+        <f>K$24+$E14</f>
+        <v>7377.040339188371</v>
+      </c>
+      <c r="L25" s="1">
+        <f>L$24+$E15</f>
+        <v>11025.960508782555</v>
+      </c>
+      <c r="M25" s="1">
+        <f>M$24+$E17</f>
+        <v>14622.080678376742</v>
+      </c>
+      <c r="N25" s="144"/>
+    </row>
+    <row r="26" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B26" s="132" t="s">
         <v>163</v>
       </c>
@@ -5538,81 +5886,169 @@
       </c>
       <c r="G26" s="146"/>
       <c r="H26" s="146"/>
-      <c r="I26" s="148" t="s">
-        <v>149</v>
-      </c>
-      <c r="J26" s="144">
-        <f t="shared" si="6"/>
-        <v>5243.8502119927316</v>
-      </c>
-      <c r="K26" s="143">
-        <f t="shared" si="6"/>
-        <v>10487.700423985463</v>
-      </c>
-      <c r="L26" s="143">
-        <f t="shared" si="6"/>
-        <v>15731.550635978194</v>
-      </c>
-      <c r="M26" s="144">
-        <f>$J26+$E13</f>
-        <v>5392.3502119927316</v>
-      </c>
-      <c r="N26" s="144">
-        <f t="shared" si="7"/>
-        <v>10681.300423985464</v>
-      </c>
-      <c r="O26" s="144">
-        <f>$L26+$E17</f>
-        <v>15986.750635978195</v>
-      </c>
-    </row>
-    <row r="27" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="J26" s="147">
+        <v>1</v>
+      </c>
+      <c r="K26" s="147">
+        <v>2</v>
+      </c>
+      <c r="L26" s="144">
+        <v>3</v>
+      </c>
+      <c r="M26" s="144"/>
+      <c r="N26" s="144"/>
+    </row>
+    <row r="27" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B27" s="128"/>
       <c r="C27" s="128"/>
       <c r="D27" s="135"/>
-      <c r="E27" s="138"/>
+      <c r="E27" s="138">
+        <v>0.16</v>
+      </c>
       <c r="G27" s="146"/>
       <c r="H27" s="146"/>
-      <c r="I27" s="146"/>
-      <c r="J27" s="146"/>
-      <c r="K27" s="146"/>
-      <c r="L27" s="146"/>
-      <c r="M27" s="146"/>
-      <c r="N27" s="146"/>
-    </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B28" s="155" t="s">
+      <c r="I27" s="148" t="s">
+        <v>16</v>
+      </c>
+      <c r="J27" s="144">
+        <f>$R6*J$26</f>
+        <v>3365.6502119927318</v>
+      </c>
+      <c r="K27" s="143">
+        <f>$R6*K$26</f>
+        <v>6731.3004239854636</v>
+      </c>
+      <c r="L27" s="143">
+        <f>$R6*L$26</f>
+        <v>10096.950635978195</v>
+      </c>
+      <c r="M27" s="144">
+        <f>$J27+$E13</f>
+        <v>3514.1502119927318</v>
+      </c>
+      <c r="N27" s="144">
+        <f>$K27+$E$14</f>
+        <v>6924.9004239854639</v>
+      </c>
+      <c r="O27" s="144">
+        <f>$L27+$E15</f>
+        <v>10347.750635978195</v>
+      </c>
+    </row>
+    <row r="28" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B28" s="158" t="s">
         <v>22</v>
       </c>
       <c r="C28" s="132" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="162" t="s">
+      <c r="D28" s="161" t="s">
         <v>173</v>
       </c>
-      <c r="E28" s="163"/>
-    </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B29" s="161"/>
+      <c r="E28" s="162"/>
+      <c r="I28" s="148" t="s">
+        <v>62</v>
+      </c>
+      <c r="J28" s="144">
+        <f>$R7*J$26</f>
+        <v>3623.6502119927318</v>
+      </c>
+      <c r="K28" s="143">
+        <f>$R7*K$26</f>
+        <v>7247.3004239854636</v>
+      </c>
+      <c r="L28" s="143">
+        <f>$R7*L$26</f>
+        <v>10870.950635978195</v>
+      </c>
+      <c r="M28" s="144">
+        <f>$J28+$E13</f>
+        <v>3772.1502119927318</v>
+      </c>
+      <c r="N28" s="144">
+        <f>$K28+$E$14</f>
+        <v>7440.9004239854639</v>
+      </c>
+      <c r="O28" s="144">
+        <f>$L28+$E15</f>
+        <v>11121.750635978195</v>
+      </c>
+    </row>
+    <row r="29" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B29" s="159"/>
       <c r="C29" s="132" t="s">
         <v>174</v>
       </c>
-      <c r="D29" s="162" t="s">
+      <c r="D29" s="161" t="s">
         <v>175</v>
       </c>
-      <c r="E29" s="163"/>
-    </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B30" s="156"/>
+      <c r="E29" s="162"/>
+      <c r="I29" s="148" t="s">
+        <v>82</v>
+      </c>
+      <c r="J29" s="144">
+        <f>$R8*J$26</f>
+        <v>4399.8502119927316</v>
+      </c>
+      <c r="K29" s="143">
+        <f>$R8*K$26</f>
+        <v>8799.7004239854632</v>
+      </c>
+      <c r="L29" s="143">
+        <f>$R8*L$26</f>
+        <v>13199.550635978194</v>
+      </c>
+      <c r="M29" s="144">
+        <f>$J29+$E13</f>
+        <v>4548.3502119927316</v>
+      </c>
+      <c r="N29" s="144">
+        <f>$K29+$E$14</f>
+        <v>8993.3004239854636</v>
+      </c>
+      <c r="O29" s="144">
+        <f>$L29+$E16</f>
+        <v>13452.550635978194</v>
+      </c>
+    </row>
+    <row r="30" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B30" s="160"/>
       <c r="C30" s="132" t="s">
         <v>176</v>
       </c>
-      <c r="D30" s="162" t="s">
+      <c r="D30" s="161" t="s">
         <v>177</v>
       </c>
-      <c r="E30" s="163"/>
-    </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="E30" s="162"/>
+      <c r="I30" s="148" t="s">
+        <v>32</v>
+      </c>
+      <c r="J30" s="144">
+        <f>$R9*J$26</f>
+        <v>5050.3502119927316</v>
+      </c>
+      <c r="K30" s="143">
+        <f>$R9*K$26</f>
+        <v>10100.700423985463</v>
+      </c>
+      <c r="L30" s="143">
+        <f>$R9*L$26</f>
+        <v>15151.050635978194</v>
+      </c>
+      <c r="M30" s="144">
+        <f>$J30+$E13</f>
+        <v>5198.8502119927316</v>
+      </c>
+      <c r="N30" s="144">
+        <f>$K30+$E$14</f>
+        <v>10294.300423985464</v>
+      </c>
+      <c r="O30" s="144">
+        <f>$L30+$E17</f>
+        <v>15406.250635978195</v>
+      </c>
+    </row>
+    <row r="31" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B31" s="136" t="s">
         <v>54</v>
       </c>
@@ -5624,6 +6060,47 @@
       </c>
       <c r="E31" s="139">
         <v>0.18</v>
+      </c>
+      <c r="I31" s="148" t="s">
+        <v>149</v>
+      </c>
+      <c r="J31" s="144">
+        <f>$R10*J$26</f>
+        <v>5243.8502119927316</v>
+      </c>
+      <c r="K31" s="143">
+        <f>$R10*K$26</f>
+        <v>10487.700423985463</v>
+      </c>
+      <c r="L31" s="143">
+        <f>$R10*L$26</f>
+        <v>15731.550635978194</v>
+      </c>
+      <c r="M31" s="144">
+        <f>$J31+$E13</f>
+        <v>5392.3502119927316</v>
+      </c>
+      <c r="N31" s="144">
+        <f>$K31+$E$14</f>
+        <v>10681.300423985464</v>
+      </c>
+      <c r="O31" s="144">
+        <f>$L31+$E17</f>
+        <v>15986.750635978195</v>
+      </c>
+      <c r="P31">
+        <v>0.16</v>
+      </c>
+      <c r="Q31">
+        <v>4</v>
+      </c>
+      <c r="R31" s="232">
+        <f>P31*Q31</f>
+        <v>0.64</v>
+      </c>
+      <c r="S31">
+        <f>R31*1290</f>
+        <v>825.6</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
@@ -5664,17 +6141,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B9:B11"/>
     <mergeCell ref="B12:B17"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="B9:B11"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5690,7 +6167,7 @@
   <dimension ref="B1:AY44"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28"/>
+      <selection activeCell="AE4" sqref="AE4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5728,13 +6205,13 @@
   <sheetData>
     <row r="1" spans="2:51" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:51" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="178" t="s">
+      <c r="B2" s="192" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="178"/>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
-      <c r="G2" s="168" t="s">
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="G2" s="185" t="s">
         <v>62</v>
       </c>
       <c r="H2" s="39">
@@ -5763,12 +6240,12 @@
         <v>107</v>
       </c>
       <c r="P2" s="12"/>
-      <c r="Q2" s="166" t="s">
+      <c r="Q2" s="172" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="166"/>
-      <c r="S2" s="167"/>
-      <c r="U2" s="193" t="s">
+      <c r="R2" s="172"/>
+      <c r="S2" s="173"/>
+      <c r="U2" s="167" t="s">
         <v>61</v>
       </c>
       <c r="V2" s="31">
@@ -5797,11 +6274,11 @@
         <v>176</v>
       </c>
       <c r="AD2" s="12"/>
-      <c r="AE2" s="190" t="s">
+      <c r="AE2" s="164" t="s">
         <v>17</v>
       </c>
-      <c r="AF2" s="191"/>
-      <c r="AG2" s="192"/>
+      <c r="AF2" s="165"/>
+      <c r="AG2" s="166"/>
       <c r="AU2" t="s">
         <v>163</v>
       </c>
@@ -5833,7 +6310,7 @@
       <c r="E3" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="169"/>
+      <c r="G3" s="186"/>
       <c r="H3" s="11" t="s">
         <v>10</v>
       </c>
@@ -5868,7 +6345,7 @@
       <c r="S3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="U3" s="194"/>
+      <c r="U3" s="168"/>
       <c r="V3" s="11" t="s">
         <v>10</v>
       </c>
@@ -5922,7 +6399,7 @@
       </c>
     </row>
     <row r="4" spans="2:51" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="170" t="s">
+      <c r="B4" s="184" t="s">
         <v>56</v>
       </c>
       <c r="C4" s="28" t="s">
@@ -5934,7 +6411,7 @@
       <c r="E4" s="26">
         <v>1290</v>
       </c>
-      <c r="G4" s="169"/>
+      <c r="G4" s="186"/>
       <c r="H4" s="7">
         <f>$M2*$E$4</f>
         <v>325080</v>
@@ -5980,7 +6457,7 @@
         <f>R4/$K2</f>
         <v>0.1900233986522713</v>
       </c>
-      <c r="U4" s="194"/>
+      <c r="U4" s="168"/>
       <c r="V4" s="7">
         <f>$AA2*$E$4</f>
         <v>392160</v>
@@ -6044,7 +6521,7 @@
       </c>
     </row>
     <row r="5" spans="2:51" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="170"/>
+      <c r="B5" s="184"/>
       <c r="C5" s="28" t="s">
         <v>38</v>
       </c>
@@ -6074,10 +6551,10 @@
       </c>
     </row>
     <row r="6" spans="2:51" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B6" s="170" t="s">
+      <c r="B6" s="184" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="179" t="s">
+      <c r="C6" s="193" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="28" t="s">
@@ -6087,7 +6564,7 @@
         <f>110</f>
         <v>110</v>
       </c>
-      <c r="G6" s="171" t="s">
+      <c r="G6" s="187" t="s">
         <v>52</v>
       </c>
       <c r="H6" s="35">
@@ -6116,12 +6593,12 @@
         <v>89</v>
       </c>
       <c r="P6" s="12"/>
-      <c r="Q6" s="166" t="s">
+      <c r="Q6" s="172" t="s">
         <v>11</v>
       </c>
-      <c r="R6" s="166"/>
-      <c r="S6" s="167"/>
-      <c r="U6" s="193" t="s">
+      <c r="R6" s="172"/>
+      <c r="S6" s="173"/>
+      <c r="U6" s="167" t="s">
         <v>51</v>
       </c>
       <c r="V6" s="31">
@@ -6150,11 +6627,11 @@
         <v>119</v>
       </c>
       <c r="AD6" s="12"/>
-      <c r="AE6" s="190" t="s">
+      <c r="AE6" s="164" t="s">
         <v>17</v>
       </c>
-      <c r="AF6" s="191"/>
-      <c r="AG6" s="192"/>
+      <c r="AF6" s="165"/>
+      <c r="AG6" s="166"/>
       <c r="AU6" t="s">
         <v>48</v>
       </c>
@@ -6174,8 +6651,8 @@
       </c>
     </row>
     <row r="7" spans="2:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="170"/>
-      <c r="C7" s="180"/>
+      <c r="B7" s="184"/>
+      <c r="C7" s="194"/>
       <c r="D7" s="28" t="s">
         <v>50</v>
       </c>
@@ -6183,7 +6660,7 @@
         <f>E6/12.7</f>
         <v>8.6614173228346463</v>
       </c>
-      <c r="G7" s="172"/>
+      <c r="G7" s="188"/>
       <c r="H7" s="11" t="s">
         <v>10</v>
       </c>
@@ -6218,7 +6695,7 @@
       <c r="S7" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="U7" s="194"/>
+      <c r="U7" s="168"/>
       <c r="V7" s="11" t="s">
         <v>10</v>
       </c>
@@ -6272,7 +6749,7 @@
       </c>
     </row>
     <row r="8" spans="2:51" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="170"/>
+      <c r="B8" s="184"/>
       <c r="C8" s="28" t="s">
         <v>49</v>
       </c>
@@ -6282,7 +6759,7 @@
       <c r="E8" s="26">
         <v>50</v>
       </c>
-      <c r="G8" s="172"/>
+      <c r="G8" s="188"/>
       <c r="H8" s="7">
         <f>$M6*$E$4</f>
         <v>330240</v>
@@ -6328,7 +6805,7 @@
         <f>R8/$K6</f>
         <v>0.19905280045752707</v>
       </c>
-      <c r="U8" s="194"/>
+      <c r="U8" s="168"/>
       <c r="V8" s="7">
         <f>$AA6*$E$4</f>
         <v>314760</v>
@@ -6392,7 +6869,7 @@
       </c>
     </row>
     <row r="9" spans="2:51" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="170" t="s">
+      <c r="B9" s="184" t="s">
         <v>48</v>
       </c>
       <c r="C9" s="28" t="s">
@@ -6413,11 +6890,11 @@
       </c>
     </row>
     <row r="10" spans="2:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="170"/>
+      <c r="B10" s="184"/>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
       <c r="E10" s="26"/>
-      <c r="G10" s="173" t="s">
+      <c r="G10" s="178" t="s">
         <v>47</v>
       </c>
       <c r="H10" s="23">
@@ -6446,12 +6923,12 @@
         <v>89</v>
       </c>
       <c r="P10" s="12"/>
-      <c r="Q10" s="166" t="s">
+      <c r="Q10" s="172" t="s">
         <v>11</v>
       </c>
-      <c r="R10" s="166"/>
-      <c r="S10" s="167"/>
-      <c r="U10" s="193" t="s">
+      <c r="R10" s="172"/>
+      <c r="S10" s="173"/>
+      <c r="U10" s="167" t="s">
         <v>46</v>
       </c>
       <c r="V10" s="31">
@@ -6480,14 +6957,14 @@
         <v>148</v>
       </c>
       <c r="AD10" s="12"/>
-      <c r="AE10" s="190" t="s">
+      <c r="AE10" s="164" t="s">
         <v>17</v>
       </c>
-      <c r="AF10" s="191"/>
-      <c r="AG10" s="192"/>
+      <c r="AF10" s="165"/>
+      <c r="AG10" s="166"/>
     </row>
     <row r="11" spans="2:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="170" t="s">
+      <c r="B11" s="184" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="28" t="s">
@@ -6500,7 +6977,7 @@
         <f>225*1.1</f>
         <v>247.50000000000003</v>
       </c>
-      <c r="G11" s="174"/>
+      <c r="G11" s="179"/>
       <c r="H11" s="11" t="s">
         <v>10</v>
       </c>
@@ -6535,7 +7012,7 @@
       <c r="S11" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="U11" s="194"/>
+      <c r="U11" s="168"/>
       <c r="V11" s="11" t="s">
         <v>10</v>
       </c>
@@ -6572,7 +7049,7 @@
       </c>
     </row>
     <row r="12" spans="2:51" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="170"/>
+      <c r="B12" s="184"/>
       <c r="C12" s="28" t="s">
         <v>44</v>
       </c>
@@ -6583,7 +7060,7 @@
         <f>227*1.1</f>
         <v>249.70000000000002</v>
       </c>
-      <c r="G12" s="174"/>
+      <c r="G12" s="179"/>
       <c r="H12" s="7">
         <f>$M10*$E$4</f>
         <v>330240</v>
@@ -6629,7 +7106,7 @@
         <f>R12/$K10</f>
         <v>0.19905280045752707</v>
       </c>
-      <c r="U12" s="194"/>
+      <c r="U12" s="168"/>
       <c r="V12" s="7">
         <f>$AA10*$E$4</f>
         <v>314760</v>
@@ -6677,7 +7154,7 @@
       </c>
     </row>
     <row r="13" spans="2:51" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="170"/>
+      <c r="B13" s="184"/>
       <c r="C13" s="28" t="s">
         <v>43</v>
       </c>
@@ -6692,7 +7169,7 @@
       <c r="I13" s="29"/>
     </row>
     <row r="14" spans="2:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="177" t="s">
+      <c r="B14" s="191" t="s">
         <v>42</v>
       </c>
       <c r="C14" s="28" t="s">
@@ -6705,7 +7182,7 @@
         <f>1015*1.1</f>
         <v>1116.5</v>
       </c>
-      <c r="G14" s="175" t="s">
+      <c r="G14" s="189" t="s">
         <v>40</v>
       </c>
       <c r="H14" s="33">
@@ -6734,12 +7211,12 @@
         <v>82</v>
       </c>
       <c r="P14" s="12"/>
-      <c r="Q14" s="166" t="s">
+      <c r="Q14" s="172" t="s">
         <v>11</v>
       </c>
-      <c r="R14" s="166"/>
-      <c r="S14" s="167"/>
-      <c r="U14" s="193" t="s">
+      <c r="R14" s="172"/>
+      <c r="S14" s="173"/>
+      <c r="U14" s="167" t="s">
         <v>39</v>
       </c>
       <c r="V14" s="31">
@@ -6768,14 +7245,14 @@
         <v>89</v>
       </c>
       <c r="AD14" s="12"/>
-      <c r="AE14" s="190" t="s">
+      <c r="AE14" s="164" t="s">
         <v>17</v>
       </c>
-      <c r="AF14" s="191"/>
-      <c r="AG14" s="192"/>
+      <c r="AF14" s="165"/>
+      <c r="AG14" s="166"/>
     </row>
     <row r="15" spans="2:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="170"/>
+      <c r="B15" s="184"/>
       <c r="C15" s="28" t="s">
         <v>38</v>
       </c>
@@ -6786,7 +7263,7 @@
         <f>1060*1.1</f>
         <v>1166</v>
       </c>
-      <c r="G15" s="176"/>
+      <c r="G15" s="190"/>
       <c r="H15" s="11" t="s">
         <v>10</v>
       </c>
@@ -6821,7 +7298,7 @@
       <c r="S15" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="U15" s="194"/>
+      <c r="U15" s="168"/>
       <c r="V15" s="11" t="s">
         <v>10</v>
       </c>
@@ -6871,7 +7348,7 @@
         <f>45*1.1</f>
         <v>49.500000000000007</v>
       </c>
-      <c r="G16" s="176"/>
+      <c r="G16" s="190"/>
       <c r="H16" s="7">
         <f>$M14*$E$5</f>
         <v>357680</v>
@@ -6917,7 +7394,7 @@
         <f>R16/$K14</f>
         <v>0.19895952240457485</v>
       </c>
-      <c r="U16" s="194"/>
+      <c r="U16" s="168"/>
       <c r="V16" s="7">
         <f>$AA14*$E$4</f>
         <v>412800</v>
@@ -6994,7 +7471,7 @@
       <c r="E18" s="26">
         <v>70000</v>
       </c>
-      <c r="G18" s="164" t="s">
+      <c r="G18" s="174" t="s">
         <v>32</v>
       </c>
       <c r="H18" s="108">
@@ -7023,12 +7500,12 @@
         <v>74</v>
       </c>
       <c r="P18" s="12"/>
-      <c r="Q18" s="166" t="s">
+      <c r="Q18" s="172" t="s">
         <v>11</v>
       </c>
-      <c r="R18" s="166"/>
-      <c r="S18" s="167"/>
-      <c r="U18" s="181" t="s">
+      <c r="R18" s="172"/>
+      <c r="S18" s="173"/>
+      <c r="U18" s="169" t="s">
         <v>31</v>
       </c>
       <c r="V18" s="19">
@@ -7057,11 +7534,11 @@
         <v>176</v>
       </c>
       <c r="AD18" s="12"/>
-      <c r="AE18" s="190" t="s">
+      <c r="AE18" s="164" t="s">
         <v>17</v>
       </c>
-      <c r="AF18" s="191"/>
-      <c r="AG18" s="192"/>
+      <c r="AF18" s="165"/>
+      <c r="AG18" s="166"/>
     </row>
     <row r="19" spans="2:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="28" t="s">
@@ -7077,7 +7554,7 @@
         <f>95*1.1</f>
         <v>104.50000000000001</v>
       </c>
-      <c r="G19" s="165"/>
+      <c r="G19" s="175"/>
       <c r="H19" s="11" t="s">
         <v>10</v>
       </c>
@@ -7112,7 +7589,7 @@
       <c r="S19" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="U19" s="189"/>
+      <c r="U19" s="170"/>
       <c r="V19" s="11" t="s">
         <v>10</v>
       </c>
@@ -7162,7 +7639,7 @@
         <f>200*1.1</f>
         <v>220.00000000000003</v>
       </c>
-      <c r="G20" s="165"/>
+      <c r="G20" s="175"/>
       <c r="H20" s="7">
         <f>$M18*$E$4</f>
         <v>330240</v>
@@ -7208,7 +7685,7 @@
         <f>R20/$K18</f>
         <v>0.20840821664183859</v>
       </c>
-      <c r="U20" s="189"/>
+      <c r="U20" s="170"/>
       <c r="V20" s="7">
         <f>$AA18*$E$5</f>
         <v>413440</v>
@@ -7285,7 +7762,7 @@
       <c r="E22" s="26">
         <v>200</v>
       </c>
-      <c r="G22" s="183" t="s">
+      <c r="G22" s="176" t="s">
         <v>24</v>
       </c>
       <c r="H22" s="25">
@@ -7314,12 +7791,12 @@
         <v>71</v>
       </c>
       <c r="P22" s="12"/>
-      <c r="Q22" s="166" t="s">
+      <c r="Q22" s="172" t="s">
         <v>11</v>
       </c>
-      <c r="R22" s="166"/>
-      <c r="S22" s="167"/>
-      <c r="U22" s="181" t="s">
+      <c r="R22" s="172"/>
+      <c r="S22" s="173"/>
+      <c r="U22" s="169" t="s">
         <v>23</v>
       </c>
       <c r="V22" s="19">
@@ -7348,11 +7825,11 @@
         <v>119</v>
       </c>
       <c r="AD22" s="12"/>
-      <c r="AE22" s="190" t="s">
+      <c r="AE22" s="164" t="s">
         <v>17</v>
       </c>
-      <c r="AF22" s="191"/>
-      <c r="AG22" s="192"/>
+      <c r="AF22" s="165"/>
+      <c r="AG22" s="166"/>
     </row>
     <row r="23" spans="2:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
@@ -7368,7 +7845,7 @@
         <f>240*1.1</f>
         <v>264</v>
       </c>
-      <c r="G23" s="184"/>
+      <c r="G23" s="177"/>
       <c r="H23" s="11" t="s">
         <v>10</v>
       </c>
@@ -7403,7 +7880,7 @@
       <c r="S23" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="U23" s="189"/>
+      <c r="U23" s="170"/>
       <c r="V23" s="11" t="s">
         <v>10</v>
       </c>
@@ -7440,7 +7917,7 @@
       </c>
     </row>
     <row r="24" spans="2:33" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G24" s="184"/>
+      <c r="G24" s="177"/>
       <c r="H24" s="7">
         <f>$M22*$E$4</f>
         <v>334110</v>
@@ -7486,7 +7963,7 @@
         <f>R24/$K22</f>
         <v>0.19791012122732585</v>
       </c>
-      <c r="U24" s="189"/>
+      <c r="U24" s="170"/>
       <c r="V24" s="7">
         <f>$AA22*$E$5</f>
         <v>331840</v>
@@ -7535,7 +8012,7 @@
     </row>
     <row r="25" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="26" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G26" s="173" t="s">
+      <c r="G26" s="178" t="s">
         <v>19</v>
       </c>
       <c r="H26" s="23">
@@ -7564,12 +8041,12 @@
         <v>222</v>
       </c>
       <c r="P26" s="12"/>
-      <c r="Q26" s="166" t="s">
+      <c r="Q26" s="172" t="s">
         <v>17</v>
       </c>
-      <c r="R26" s="166"/>
-      <c r="S26" s="167"/>
-      <c r="U26" s="181" t="s">
+      <c r="R26" s="172"/>
+      <c r="S26" s="173"/>
+      <c r="U26" s="169" t="s">
         <v>20</v>
       </c>
       <c r="V26" s="19">
@@ -7598,14 +8075,14 @@
         <v>148</v>
       </c>
       <c r="AD26" s="12"/>
-      <c r="AE26" s="166" t="s">
+      <c r="AE26" s="172" t="s">
         <v>17</v>
       </c>
-      <c r="AF26" s="166"/>
-      <c r="AG26" s="167"/>
+      <c r="AF26" s="172"/>
+      <c r="AG26" s="173"/>
     </row>
     <row r="27" spans="2:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="174"/>
+      <c r="G27" s="179"/>
       <c r="H27" s="11" t="s">
         <v>10</v>
       </c>
@@ -7640,7 +8117,7 @@
       <c r="S27" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="U27" s="182"/>
+      <c r="U27" s="171"/>
       <c r="V27" s="11" t="s">
         <v>10</v>
       </c>
@@ -7677,7 +8154,7 @@
       </c>
     </row>
     <row r="28" spans="2:33" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G28" s="174"/>
+      <c r="G28" s="179"/>
       <c r="H28" s="7">
         <f>$M26*$E$4</f>
         <v>328950</v>
@@ -7723,7 +8200,7 @@
         <f>$R28/$K26</f>
         <v>0.21579524783256387</v>
       </c>
-      <c r="U28" s="182"/>
+      <c r="U28" s="171"/>
       <c r="V28" s="7">
         <f>$AA26*$E$4</f>
         <v>314760</v>
@@ -7772,7 +8249,7 @@
     </row>
     <row r="29" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="30" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G30" s="185" t="s">
+      <c r="G30" s="180" t="s">
         <v>19</v>
       </c>
       <c r="H30" s="21">
@@ -7801,12 +8278,12 @@
         <v>105</v>
       </c>
       <c r="P30" s="12"/>
-      <c r="Q30" s="166" t="s">
+      <c r="Q30" s="172" t="s">
         <v>17</v>
       </c>
-      <c r="R30" s="166"/>
-      <c r="S30" s="167"/>
-      <c r="U30" s="181" t="s">
+      <c r="R30" s="172"/>
+      <c r="S30" s="173"/>
+      <c r="U30" s="169" t="s">
         <v>18</v>
       </c>
       <c r="V30" s="19">
@@ -7835,14 +8312,14 @@
         <v>148</v>
       </c>
       <c r="AD30" s="12"/>
-      <c r="AE30" s="166" t="s">
+      <c r="AE30" s="172" t="s">
         <v>17</v>
       </c>
-      <c r="AF30" s="166"/>
-      <c r="AG30" s="167"/>
+      <c r="AF30" s="172"/>
+      <c r="AG30" s="173"/>
     </row>
     <row r="31" spans="2:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G31" s="186"/>
+      <c r="G31" s="181"/>
       <c r="H31" s="11" t="s">
         <v>10</v>
       </c>
@@ -7877,7 +8354,7 @@
       <c r="S31" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="U31" s="182"/>
+      <c r="U31" s="171"/>
       <c r="V31" s="11" t="s">
         <v>10</v>
       </c>
@@ -7914,7 +8391,7 @@
       </c>
     </row>
     <row r="32" spans="2:33" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G32" s="186"/>
+      <c r="G32" s="181"/>
       <c r="H32" s="7">
         <f>$M30*$E$4</f>
         <v>348300</v>
@@ -7960,7 +8437,7 @@
         <f>$R32/$K30</f>
         <v>0.20044103577961847</v>
       </c>
-      <c r="U32" s="182"/>
+      <c r="U32" s="171"/>
       <c r="V32" s="7">
         <f>$AA30*$E$4</f>
         <v>314760</v>
@@ -8009,7 +8486,7 @@
     </row>
     <row r="33" spans="7:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="34" spans="7:19" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="G34" s="187" t="s">
+      <c r="G34" s="182" t="s">
         <v>16</v>
       </c>
       <c r="H34" s="17">
@@ -8038,14 +8515,14 @@
         <v>117</v>
       </c>
       <c r="P34" s="12"/>
-      <c r="Q34" s="166" t="s">
+      <c r="Q34" s="172" t="s">
         <v>11</v>
       </c>
-      <c r="R34" s="166"/>
-      <c r="S34" s="167"/>
+      <c r="R34" s="172"/>
+      <c r="S34" s="173"/>
     </row>
     <row r="35" spans="7:19" x14ac:dyDescent="0.3">
-      <c r="G35" s="188"/>
+      <c r="G35" s="183"/>
       <c r="H35" s="11" t="s">
         <v>10</v>
       </c>
@@ -8082,7 +8559,7 @@
       </c>
     </row>
     <row r="36" spans="7:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G36" s="188"/>
+      <c r="G36" s="183"/>
       <c r="H36" s="7">
         <f>$M34*$E$4</f>
         <v>335400</v>
@@ -8131,7 +8608,7 @@
     </row>
     <row r="37" spans="7:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="38" spans="7:19" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="G38" s="168" t="s">
+      <c r="G38" s="185" t="s">
         <v>62</v>
       </c>
       <c r="H38" s="39">
@@ -8160,14 +8637,14 @@
         <v>112</v>
       </c>
       <c r="P38" s="12"/>
-      <c r="Q38" s="166" t="s">
+      <c r="Q38" s="172" t="s">
         <v>17</v>
       </c>
-      <c r="R38" s="166"/>
-      <c r="S38" s="167"/>
+      <c r="R38" s="172"/>
+      <c r="S38" s="173"/>
     </row>
     <row r="39" spans="7:19" x14ac:dyDescent="0.3">
-      <c r="G39" s="169"/>
+      <c r="G39" s="186"/>
       <c r="H39" s="11" t="s">
         <v>10</v>
       </c>
@@ -8204,7 +8681,7 @@
       </c>
     </row>
     <row r="40" spans="7:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G40" s="169"/>
+      <c r="G40" s="186"/>
       <c r="H40" s="7">
         <f>$M38*$E$4</f>
         <v>335400</v>
@@ -8253,7 +8730,7 @@
     </row>
     <row r="41" spans="7:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="42" spans="7:19" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="G42" s="164" t="s">
+      <c r="G42" s="174" t="s">
         <v>32</v>
       </c>
       <c r="H42" s="108">
@@ -8282,14 +8759,14 @@
         <v>74</v>
       </c>
       <c r="P42" s="12"/>
-      <c r="Q42" s="166" t="s">
+      <c r="Q42" s="172" t="s">
         <v>11</v>
       </c>
-      <c r="R42" s="166"/>
-      <c r="S42" s="167"/>
+      <c r="R42" s="172"/>
+      <c r="S42" s="173"/>
     </row>
     <row r="43" spans="7:19" x14ac:dyDescent="0.3">
-      <c r="G43" s="165"/>
+      <c r="G43" s="175"/>
       <c r="H43" s="11" t="s">
         <v>10</v>
       </c>
@@ -8326,7 +8803,7 @@
       </c>
     </row>
     <row r="44" spans="7:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G44" s="165"/>
+      <c r="G44" s="175"/>
       <c r="H44" s="7">
         <f>$M42*$E$4</f>
         <v>334110</v>
@@ -8375,16 +8852,25 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="AE2:AG2"/>
-    <mergeCell ref="U2:U4"/>
-    <mergeCell ref="AE18:AG18"/>
-    <mergeCell ref="U18:U20"/>
-    <mergeCell ref="AE14:AG14"/>
-    <mergeCell ref="U14:U16"/>
-    <mergeCell ref="AE10:AG10"/>
-    <mergeCell ref="U10:U12"/>
-    <mergeCell ref="AE6:AG6"/>
-    <mergeCell ref="U6:U8"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="Q42:S42"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="Q38:S38"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B9:B10"/>
     <mergeCell ref="U30:U32"/>
     <mergeCell ref="AE30:AG30"/>
     <mergeCell ref="Q34:S34"/>
@@ -8401,25 +8887,16 @@
     <mergeCell ref="AE22:AG22"/>
     <mergeCell ref="U26:U28"/>
     <mergeCell ref="AE26:AG26"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="Q42:S42"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="Q38:S38"/>
+    <mergeCell ref="AE2:AG2"/>
+    <mergeCell ref="U2:U4"/>
+    <mergeCell ref="AE18:AG18"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="AE14:AG14"/>
+    <mergeCell ref="U14:U16"/>
+    <mergeCell ref="AE10:AG10"/>
+    <mergeCell ref="U10:U12"/>
+    <mergeCell ref="AE6:AG6"/>
+    <mergeCell ref="U6:U8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8467,96 +8944,96 @@
     <row r="1" spans="2:32" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:32" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B3" s="195" t="s">
+      <c r="B3" s="217" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="195"/>
-      <c r="D3" s="195"/>
-      <c r="E3" s="195"/>
-      <c r="F3" s="195"/>
-      <c r="G3" s="195"/>
-      <c r="H3" s="195"/>
-      <c r="I3" s="195"/>
-      <c r="J3" s="195"/>
-      <c r="K3" s="195"/>
-      <c r="L3" s="195"/>
-      <c r="M3" s="195"/>
-      <c r="N3" s="195"/>
-      <c r="O3" s="195"/>
-      <c r="P3" s="195"/>
-      <c r="Q3" s="195"/>
-      <c r="R3" s="195"/>
-      <c r="S3" s="195"/>
-      <c r="T3" s="195"/>
-      <c r="U3" s="195"/>
-      <c r="V3" s="195"/>
-      <c r="W3" s="195"/>
-      <c r="X3" s="195"/>
-      <c r="Y3" s="195"/>
-      <c r="Z3" s="195"/>
-      <c r="AA3" s="195"/>
-      <c r="AB3" s="195"/>
-      <c r="AC3" s="195"/>
+      <c r="C3" s="217"/>
+      <c r="D3" s="217"/>
+      <c r="E3" s="217"/>
+      <c r="F3" s="217"/>
+      <c r="G3" s="217"/>
+      <c r="H3" s="217"/>
+      <c r="I3" s="217"/>
+      <c r="J3" s="217"/>
+      <c r="K3" s="217"/>
+      <c r="L3" s="217"/>
+      <c r="M3" s="217"/>
+      <c r="N3" s="217"/>
+      <c r="O3" s="217"/>
+      <c r="P3" s="217"/>
+      <c r="Q3" s="217"/>
+      <c r="R3" s="217"/>
+      <c r="S3" s="217"/>
+      <c r="T3" s="217"/>
+      <c r="U3" s="217"/>
+      <c r="V3" s="217"/>
+      <c r="W3" s="217"/>
+      <c r="X3" s="217"/>
+      <c r="Y3" s="217"/>
+      <c r="Z3" s="217"/>
+      <c r="AA3" s="217"/>
+      <c r="AB3" s="217"/>
+      <c r="AC3" s="217"/>
     </row>
     <row r="4" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B4" s="195"/>
-      <c r="C4" s="195"/>
-      <c r="D4" s="195"/>
-      <c r="E4" s="195"/>
-      <c r="F4" s="195"/>
-      <c r="G4" s="195"/>
-      <c r="H4" s="195"/>
-      <c r="I4" s="195"/>
-      <c r="J4" s="195"/>
-      <c r="K4" s="195"/>
-      <c r="L4" s="195"/>
-      <c r="M4" s="195"/>
-      <c r="N4" s="195"/>
-      <c r="O4" s="195"/>
-      <c r="P4" s="195"/>
-      <c r="Q4" s="195"/>
-      <c r="R4" s="195"/>
-      <c r="S4" s="195"/>
-      <c r="T4" s="195"/>
-      <c r="U4" s="195"/>
-      <c r="V4" s="195"/>
-      <c r="W4" s="195"/>
-      <c r="X4" s="195"/>
-      <c r="Y4" s="195"/>
-      <c r="Z4" s="195"/>
-      <c r="AA4" s="195"/>
-      <c r="AB4" s="195"/>
-      <c r="AC4" s="195"/>
+      <c r="B4" s="217"/>
+      <c r="C4" s="217"/>
+      <c r="D4" s="217"/>
+      <c r="E4" s="217"/>
+      <c r="F4" s="217"/>
+      <c r="G4" s="217"/>
+      <c r="H4" s="217"/>
+      <c r="I4" s="217"/>
+      <c r="J4" s="217"/>
+      <c r="K4" s="217"/>
+      <c r="L4" s="217"/>
+      <c r="M4" s="217"/>
+      <c r="N4" s="217"/>
+      <c r="O4" s="217"/>
+      <c r="P4" s="217"/>
+      <c r="Q4" s="217"/>
+      <c r="R4" s="217"/>
+      <c r="S4" s="217"/>
+      <c r="T4" s="217"/>
+      <c r="U4" s="217"/>
+      <c r="V4" s="217"/>
+      <c r="W4" s="217"/>
+      <c r="X4" s="217"/>
+      <c r="Y4" s="217"/>
+      <c r="Z4" s="217"/>
+      <c r="AA4" s="217"/>
+      <c r="AB4" s="217"/>
+      <c r="AC4" s="217"/>
     </row>
     <row r="5" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B5" s="195"/>
-      <c r="C5" s="195"/>
-      <c r="D5" s="195"/>
-      <c r="E5" s="195"/>
-      <c r="F5" s="195"/>
-      <c r="G5" s="195"/>
-      <c r="H5" s="195"/>
-      <c r="I5" s="195"/>
-      <c r="J5" s="195"/>
-      <c r="K5" s="195"/>
-      <c r="L5" s="195"/>
-      <c r="M5" s="195"/>
-      <c r="N5" s="195"/>
-      <c r="O5" s="195"/>
-      <c r="P5" s="195"/>
-      <c r="Q5" s="195"/>
-      <c r="R5" s="195"/>
-      <c r="S5" s="195"/>
-      <c r="T5" s="195"/>
-      <c r="U5" s="195"/>
-      <c r="V5" s="195"/>
-      <c r="W5" s="195"/>
-      <c r="X5" s="195"/>
-      <c r="Y5" s="195"/>
-      <c r="Z5" s="195"/>
-      <c r="AA5" s="195"/>
-      <c r="AB5" s="195"/>
-      <c r="AC5" s="195"/>
+      <c r="B5" s="217"/>
+      <c r="C5" s="217"/>
+      <c r="D5" s="217"/>
+      <c r="E5" s="217"/>
+      <c r="F5" s="217"/>
+      <c r="G5" s="217"/>
+      <c r="H5" s="217"/>
+      <c r="I5" s="217"/>
+      <c r="J5" s="217"/>
+      <c r="K5" s="217"/>
+      <c r="L5" s="217"/>
+      <c r="M5" s="217"/>
+      <c r="N5" s="217"/>
+      <c r="O5" s="217"/>
+      <c r="P5" s="217"/>
+      <c r="Q5" s="217"/>
+      <c r="R5" s="217"/>
+      <c r="S5" s="217"/>
+      <c r="T5" s="217"/>
+      <c r="U5" s="217"/>
+      <c r="V5" s="217"/>
+      <c r="W5" s="217"/>
+      <c r="X5" s="217"/>
+      <c r="Y5" s="217"/>
+      <c r="Z5" s="217"/>
+      <c r="AA5" s="217"/>
+      <c r="AB5" s="217"/>
+      <c r="AC5" s="217"/>
     </row>
     <row r="6" spans="2:32" ht="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:32" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8565,142 +9042,142 @@
       </c>
     </row>
     <row r="8" spans="2:32" ht="27" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="196" t="s">
+      <c r="B8" s="218" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="197"/>
-      <c r="D8" s="197"/>
-      <c r="E8" s="197"/>
-      <c r="F8" s="197"/>
-      <c r="G8" s="197"/>
-      <c r="H8" s="197"/>
-      <c r="I8" s="197"/>
-      <c r="J8" s="197"/>
-      <c r="K8" s="198"/>
-      <c r="L8" s="199"/>
-      <c r="M8" s="200"/>
-      <c r="N8" s="201" t="s">
+      <c r="C8" s="219"/>
+      <c r="D8" s="219"/>
+      <c r="E8" s="219"/>
+      <c r="F8" s="219"/>
+      <c r="G8" s="219"/>
+      <c r="H8" s="219"/>
+      <c r="I8" s="219"/>
+      <c r="J8" s="219"/>
+      <c r="K8" s="220"/>
+      <c r="L8" s="221"/>
+      <c r="M8" s="222"/>
+      <c r="N8" s="223" t="s">
         <v>73</v>
       </c>
-      <c r="O8" s="202"/>
-      <c r="P8" s="202"/>
-      <c r="Q8" s="203"/>
-      <c r="R8" s="204" t="s">
+      <c r="O8" s="224"/>
+      <c r="P8" s="224"/>
+      <c r="Q8" s="225"/>
+      <c r="R8" s="226" t="s">
         <v>103</v>
       </c>
-      <c r="S8" s="205"/>
-      <c r="T8" s="206"/>
+      <c r="S8" s="227"/>
+      <c r="T8" s="228"/>
       <c r="U8" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="V8" s="207" t="s">
+      <c r="V8" s="229" t="s">
         <v>0</v>
       </c>
-      <c r="W8" s="208"/>
-      <c r="X8" s="208"/>
-      <c r="Y8" s="208"/>
-      <c r="Z8" s="208"/>
-      <c r="AA8" s="208"/>
-      <c r="AB8" s="208"/>
-      <c r="AC8" s="209"/>
+      <c r="W8" s="230"/>
+      <c r="X8" s="230"/>
+      <c r="Y8" s="230"/>
+      <c r="Z8" s="230"/>
+      <c r="AA8" s="230"/>
+      <c r="AB8" s="230"/>
+      <c r="AC8" s="231"/>
     </row>
     <row r="9" spans="2:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="212" t="s">
+      <c r="B9" s="206" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="213" t="s">
+      <c r="C9" s="207" t="s">
         <v>105</v>
       </c>
-      <c r="D9" s="213" t="s">
+      <c r="D9" s="207" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="215" t="s">
+      <c r="E9" s="209" t="s">
         <v>70</v>
       </c>
-      <c r="F9" s="216"/>
-      <c r="G9" s="213" t="s">
+      <c r="F9" s="210"/>
+      <c r="G9" s="207" t="s">
         <v>106</v>
       </c>
-      <c r="H9" s="217" t="s">
+      <c r="H9" s="211" t="s">
         <v>102</v>
       </c>
-      <c r="I9" s="218" t="s">
+      <c r="I9" s="212" t="s">
         <v>71</v>
       </c>
-      <c r="J9" s="219" t="s">
+      <c r="J9" s="213" t="s">
         <v>107</v>
       </c>
-      <c r="K9" s="218" t="s">
+      <c r="K9" s="212" t="s">
         <v>108</v>
       </c>
-      <c r="L9" s="221" t="s">
+      <c r="L9" s="215" t="s">
         <v>109</v>
       </c>
-      <c r="M9" s="210" t="s">
+      <c r="M9" s="204" t="s">
         <v>110</v>
       </c>
-      <c r="N9" s="228" t="s">
+      <c r="N9" s="200" t="s">
         <v>111</v>
       </c>
-      <c r="O9" s="229" t="s">
+      <c r="O9" s="201" t="s">
         <v>73</v>
       </c>
-      <c r="P9" s="228" t="s">
+      <c r="P9" s="200" t="s">
         <v>112</v>
       </c>
-      <c r="Q9" s="230" t="s">
+      <c r="Q9" s="202" t="s">
         <v>113</v>
       </c>
-      <c r="R9" s="223" t="s">
+      <c r="R9" s="195" t="s">
         <v>114</v>
       </c>
-      <c r="S9" s="223" t="s">
+      <c r="S9" s="195" t="s">
         <v>115</v>
       </c>
-      <c r="T9" s="223" t="s">
+      <c r="T9" s="195" t="s">
         <v>116</v>
       </c>
-      <c r="U9" s="225" t="s">
+      <c r="U9" s="197" t="s">
         <v>117</v>
       </c>
-      <c r="V9" s="226" t="s">
+      <c r="V9" s="198" t="s">
         <v>118</v>
       </c>
-      <c r="W9" s="226"/>
-      <c r="X9" s="226"/>
-      <c r="Y9" s="226"/>
-      <c r="Z9" s="226" t="s">
+      <c r="W9" s="198"/>
+      <c r="X9" s="198"/>
+      <c r="Y9" s="198"/>
+      <c r="Z9" s="198" t="s">
         <v>119</v>
       </c>
-      <c r="AA9" s="226"/>
-      <c r="AB9" s="226"/>
-      <c r="AC9" s="227"/>
+      <c r="AA9" s="198"/>
+      <c r="AB9" s="198"/>
+      <c r="AC9" s="199"/>
     </row>
     <row r="10" spans="2:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="212"/>
-      <c r="C10" s="214"/>
-      <c r="D10" s="214"/>
+      <c r="B10" s="206"/>
+      <c r="C10" s="208"/>
+      <c r="D10" s="208"/>
       <c r="E10" s="71" t="s">
         <v>120</v>
       </c>
       <c r="F10" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="G10" s="214"/>
-      <c r="H10" s="217"/>
-      <c r="I10" s="218"/>
-      <c r="J10" s="220"/>
-      <c r="K10" s="218"/>
-      <c r="L10" s="222"/>
-      <c r="M10" s="211"/>
-      <c r="N10" s="229"/>
-      <c r="O10" s="229"/>
-      <c r="P10" s="229"/>
-      <c r="Q10" s="231"/>
-      <c r="R10" s="224"/>
-      <c r="S10" s="224"/>
-      <c r="T10" s="224"/>
-      <c r="U10" s="225"/>
+      <c r="G10" s="208"/>
+      <c r="H10" s="211"/>
+      <c r="I10" s="212"/>
+      <c r="J10" s="214"/>
+      <c r="K10" s="212"/>
+      <c r="L10" s="216"/>
+      <c r="M10" s="205"/>
+      <c r="N10" s="201"/>
+      <c r="O10" s="201"/>
+      <c r="P10" s="201"/>
+      <c r="Q10" s="203"/>
+      <c r="R10" s="196"/>
+      <c r="S10" s="196"/>
+      <c r="T10" s="196"/>
+      <c r="U10" s="197"/>
       <c r="V10" s="72" t="s">
         <v>122</v>
       </c>
@@ -12639,16 +13116,12 @@
   </sheetData>
   <autoFilter ref="B9:D53" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="27">
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="B3:AC5"/>
+    <mergeCell ref="B8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="V8:AC8"/>
     <mergeCell ref="M9:M10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
@@ -12660,12 +13133,16 @@
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="K9:K10"/>
     <mergeCell ref="L9:L10"/>
-    <mergeCell ref="B3:AC5"/>
-    <mergeCell ref="B8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:Q8"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="V8:AC8"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="S9:S10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="Z11:AC53">
@@ -12722,90 +13199,90 @@
     <row r="1" spans="2:30" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:30" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B3" s="195" t="s">
+      <c r="B3" s="217" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="195"/>
-      <c r="D3" s="195"/>
-      <c r="E3" s="195"/>
-      <c r="F3" s="195"/>
-      <c r="G3" s="195"/>
-      <c r="H3" s="195"/>
-      <c r="I3" s="195"/>
-      <c r="J3" s="195"/>
-      <c r="K3" s="195"/>
-      <c r="L3" s="195"/>
-      <c r="M3" s="195"/>
-      <c r="N3" s="195"/>
-      <c r="O3" s="195"/>
-      <c r="P3" s="195"/>
-      <c r="Q3" s="195"/>
-      <c r="R3" s="195"/>
-      <c r="S3" s="195"/>
-      <c r="T3" s="195"/>
-      <c r="U3" s="195"/>
-      <c r="V3" s="195"/>
-      <c r="W3" s="195"/>
-      <c r="X3" s="195"/>
-      <c r="Y3" s="195"/>
-      <c r="Z3" s="195"/>
-      <c r="AA3" s="195"/>
+      <c r="C3" s="217"/>
+      <c r="D3" s="217"/>
+      <c r="E3" s="217"/>
+      <c r="F3" s="217"/>
+      <c r="G3" s="217"/>
+      <c r="H3" s="217"/>
+      <c r="I3" s="217"/>
+      <c r="J3" s="217"/>
+      <c r="K3" s="217"/>
+      <c r="L3" s="217"/>
+      <c r="M3" s="217"/>
+      <c r="N3" s="217"/>
+      <c r="O3" s="217"/>
+      <c r="P3" s="217"/>
+      <c r="Q3" s="217"/>
+      <c r="R3" s="217"/>
+      <c r="S3" s="217"/>
+      <c r="T3" s="217"/>
+      <c r="U3" s="217"/>
+      <c r="V3" s="217"/>
+      <c r="W3" s="217"/>
+      <c r="X3" s="217"/>
+      <c r="Y3" s="217"/>
+      <c r="Z3" s="217"/>
+      <c r="AA3" s="217"/>
     </row>
     <row r="4" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B4" s="195"/>
-      <c r="C4" s="195"/>
-      <c r="D4" s="195"/>
-      <c r="E4" s="195"/>
-      <c r="F4" s="195"/>
-      <c r="G4" s="195"/>
-      <c r="H4" s="195"/>
-      <c r="I4" s="195"/>
-      <c r="J4" s="195"/>
-      <c r="K4" s="195"/>
-      <c r="L4" s="195"/>
-      <c r="M4" s="195"/>
-      <c r="N4" s="195"/>
-      <c r="O4" s="195"/>
-      <c r="P4" s="195"/>
-      <c r="Q4" s="195"/>
-      <c r="R4" s="195"/>
-      <c r="S4" s="195"/>
-      <c r="T4" s="195"/>
-      <c r="U4" s="195"/>
-      <c r="V4" s="195"/>
-      <c r="W4" s="195"/>
-      <c r="X4" s="195"/>
-      <c r="Y4" s="195"/>
-      <c r="Z4" s="195"/>
-      <c r="AA4" s="195"/>
+      <c r="B4" s="217"/>
+      <c r="C4" s="217"/>
+      <c r="D4" s="217"/>
+      <c r="E4" s="217"/>
+      <c r="F4" s="217"/>
+      <c r="G4" s="217"/>
+      <c r="H4" s="217"/>
+      <c r="I4" s="217"/>
+      <c r="J4" s="217"/>
+      <c r="K4" s="217"/>
+      <c r="L4" s="217"/>
+      <c r="M4" s="217"/>
+      <c r="N4" s="217"/>
+      <c r="O4" s="217"/>
+      <c r="P4" s="217"/>
+      <c r="Q4" s="217"/>
+      <c r="R4" s="217"/>
+      <c r="S4" s="217"/>
+      <c r="T4" s="217"/>
+      <c r="U4" s="217"/>
+      <c r="V4" s="217"/>
+      <c r="W4" s="217"/>
+      <c r="X4" s="217"/>
+      <c r="Y4" s="217"/>
+      <c r="Z4" s="217"/>
+      <c r="AA4" s="217"/>
     </row>
     <row r="5" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B5" s="195"/>
-      <c r="C5" s="195"/>
-      <c r="D5" s="195"/>
-      <c r="E5" s="195"/>
-      <c r="F5" s="195"/>
-      <c r="G5" s="195"/>
-      <c r="H5" s="195"/>
-      <c r="I5" s="195"/>
-      <c r="J5" s="195"/>
-      <c r="K5" s="195"/>
-      <c r="L5" s="195"/>
-      <c r="M5" s="195"/>
-      <c r="N5" s="195"/>
-      <c r="O5" s="195"/>
-      <c r="P5" s="195"/>
-      <c r="Q5" s="195"/>
-      <c r="R5" s="195"/>
-      <c r="S5" s="195"/>
-      <c r="T5" s="195"/>
-      <c r="U5" s="195"/>
-      <c r="V5" s="195"/>
-      <c r="W5" s="195"/>
-      <c r="X5" s="195"/>
-      <c r="Y5" s="195"/>
-      <c r="Z5" s="195"/>
-      <c r="AA5" s="195"/>
+      <c r="B5" s="217"/>
+      <c r="C5" s="217"/>
+      <c r="D5" s="217"/>
+      <c r="E5" s="217"/>
+      <c r="F5" s="217"/>
+      <c r="G5" s="217"/>
+      <c r="H5" s="217"/>
+      <c r="I5" s="217"/>
+      <c r="J5" s="217"/>
+      <c r="K5" s="217"/>
+      <c r="L5" s="217"/>
+      <c r="M5" s="217"/>
+      <c r="N5" s="217"/>
+      <c r="O5" s="217"/>
+      <c r="P5" s="217"/>
+      <c r="Q5" s="217"/>
+      <c r="R5" s="217"/>
+      <c r="S5" s="217"/>
+      <c r="T5" s="217"/>
+      <c r="U5" s="217"/>
+      <c r="V5" s="217"/>
+      <c r="W5" s="217"/>
+      <c r="X5" s="217"/>
+      <c r="Y5" s="217"/>
+      <c r="Z5" s="217"/>
+      <c r="AA5" s="217"/>
     </row>
     <row r="6" spans="2:30" ht="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:30" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -12814,130 +13291,130 @@
       </c>
     </row>
     <row r="8" spans="2:30" ht="27" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="196" t="s">
+      <c r="B8" s="218" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="197"/>
-      <c r="D8" s="197"/>
-      <c r="E8" s="197"/>
-      <c r="F8" s="197"/>
-      <c r="G8" s="197"/>
-      <c r="H8" s="197"/>
-      <c r="I8" s="198"/>
-      <c r="J8" s="199"/>
-      <c r="K8" s="200"/>
-      <c r="L8" s="201" t="s">
+      <c r="C8" s="219"/>
+      <c r="D8" s="219"/>
+      <c r="E8" s="219"/>
+      <c r="F8" s="219"/>
+      <c r="G8" s="219"/>
+      <c r="H8" s="219"/>
+      <c r="I8" s="220"/>
+      <c r="J8" s="221"/>
+      <c r="K8" s="222"/>
+      <c r="L8" s="223" t="s">
         <v>73</v>
       </c>
-      <c r="M8" s="202"/>
-      <c r="N8" s="202"/>
-      <c r="O8" s="203"/>
-      <c r="P8" s="204" t="s">
+      <c r="M8" s="224"/>
+      <c r="N8" s="224"/>
+      <c r="O8" s="225"/>
+      <c r="P8" s="226" t="s">
         <v>103</v>
       </c>
-      <c r="Q8" s="205"/>
-      <c r="R8" s="206"/>
+      <c r="Q8" s="227"/>
+      <c r="R8" s="228"/>
       <c r="S8" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="T8" s="207" t="s">
+      <c r="T8" s="229" t="s">
         <v>0</v>
       </c>
-      <c r="U8" s="208"/>
-      <c r="V8" s="208"/>
-      <c r="W8" s="208"/>
-      <c r="X8" s="208"/>
-      <c r="Y8" s="208"/>
-      <c r="Z8" s="208"/>
-      <c r="AA8" s="209"/>
+      <c r="U8" s="230"/>
+      <c r="V8" s="230"/>
+      <c r="W8" s="230"/>
+      <c r="X8" s="230"/>
+      <c r="Y8" s="230"/>
+      <c r="Z8" s="230"/>
+      <c r="AA8" s="231"/>
     </row>
     <row r="9" spans="2:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="212" t="s">
+      <c r="B9" s="206" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="213" t="s">
+      <c r="C9" s="207" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="213" t="s">
+      <c r="D9" s="207" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="213" t="s">
+      <c r="E9" s="207" t="s">
         <v>106</v>
       </c>
-      <c r="F9" s="217" t="s">
+      <c r="F9" s="211" t="s">
         <v>102</v>
       </c>
-      <c r="G9" s="218" t="s">
+      <c r="G9" s="212" t="s">
         <v>71</v>
       </c>
-      <c r="H9" s="219" t="s">
+      <c r="H9" s="213" t="s">
         <v>107</v>
       </c>
-      <c r="I9" s="218" t="s">
+      <c r="I9" s="212" t="s">
         <v>108</v>
       </c>
-      <c r="J9" s="221" t="s">
+      <c r="J9" s="215" t="s">
         <v>109</v>
       </c>
-      <c r="K9" s="210" t="s">
+      <c r="K9" s="204" t="s">
         <v>110</v>
       </c>
-      <c r="L9" s="228" t="s">
+      <c r="L9" s="200" t="s">
         <v>111</v>
       </c>
-      <c r="M9" s="229" t="s">
+      <c r="M9" s="201" t="s">
         <v>73</v>
       </c>
-      <c r="N9" s="228" t="s">
+      <c r="N9" s="200" t="s">
         <v>112</v>
       </c>
-      <c r="O9" s="230" t="s">
+      <c r="O9" s="202" t="s">
         <v>113</v>
       </c>
-      <c r="P9" s="223" t="s">
+      <c r="P9" s="195" t="s">
         <v>114</v>
       </c>
-      <c r="Q9" s="223" t="s">
+      <c r="Q9" s="195" t="s">
         <v>115</v>
       </c>
-      <c r="R9" s="223" t="s">
+      <c r="R9" s="195" t="s">
         <v>116</v>
       </c>
-      <c r="S9" s="225" t="s">
+      <c r="S9" s="197" t="s">
         <v>117</v>
       </c>
-      <c r="T9" s="226" t="s">
+      <c r="T9" s="198" t="s">
         <v>118</v>
       </c>
-      <c r="U9" s="226"/>
-      <c r="V9" s="226"/>
-      <c r="W9" s="226"/>
-      <c r="X9" s="226" t="s">
+      <c r="U9" s="198"/>
+      <c r="V9" s="198"/>
+      <c r="W9" s="198"/>
+      <c r="X9" s="198" t="s">
         <v>119</v>
       </c>
-      <c r="Y9" s="226"/>
-      <c r="Z9" s="226"/>
-      <c r="AA9" s="227"/>
+      <c r="Y9" s="198"/>
+      <c r="Z9" s="198"/>
+      <c r="AA9" s="199"/>
     </row>
     <row r="10" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="212"/>
-      <c r="C10" s="214"/>
-      <c r="D10" s="214"/>
-      <c r="E10" s="214"/>
-      <c r="F10" s="217"/>
-      <c r="G10" s="218"/>
-      <c r="H10" s="220"/>
-      <c r="I10" s="218"/>
-      <c r="J10" s="222"/>
-      <c r="K10" s="211"/>
-      <c r="L10" s="229"/>
-      <c r="M10" s="229"/>
-      <c r="N10" s="229"/>
-      <c r="O10" s="231"/>
-      <c r="P10" s="224"/>
-      <c r="Q10" s="224"/>
-      <c r="R10" s="224"/>
-      <c r="S10" s="225"/>
+      <c r="B10" s="206"/>
+      <c r="C10" s="208"/>
+      <c r="D10" s="208"/>
+      <c r="E10" s="208"/>
+      <c r="F10" s="211"/>
+      <c r="G10" s="212"/>
+      <c r="H10" s="214"/>
+      <c r="I10" s="212"/>
+      <c r="J10" s="216"/>
+      <c r="K10" s="205"/>
+      <c r="L10" s="201"/>
+      <c r="M10" s="201"/>
+      <c r="N10" s="201"/>
+      <c r="O10" s="203"/>
+      <c r="P10" s="196"/>
+      <c r="Q10" s="196"/>
+      <c r="R10" s="196"/>
+      <c r="S10" s="197"/>
       <c r="T10" s="118" t="s">
         <v>122</v>
       </c>
@@ -14734,16 +15211,6 @@
   </sheetData>
   <autoFilter ref="B9:C40" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="26">
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="E9:E10"/>
@@ -14760,6 +15227,16 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="M9:M10"/>
     <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="X11:AA22 X24:AA28 X30:AA40">

--- a/document/goods_Info.xlsx
+++ b/document/goods_Info.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aodrl\Desktop\Project\CMW_V2\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEACABB8-1855-482F-A5E3-5076EF74688B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADC7B83-439E-490C-80C2-D1978555CDC7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="915" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{2202C1BA-8378-4109-9FCC-5C7E0CDB8A0F}"/>
+    <workbookView xWindow="28680" yWindow="2490" windowWidth="21840" windowHeight="13140" activeTab="2" xr2:uid="{2202C1BA-8378-4109-9FCC-5C7E0CDB8A0F}"/>
   </bookViews>
   <sheets>
     <sheet name="정보" sheetId="3" r:id="rId1"/>
     <sheet name="원가계산" sheetId="7" r:id="rId2"/>
-    <sheet name="상품가" sheetId="2" r:id="rId3"/>
-    <sheet name="쿠팡" sheetId="4" r:id="rId4"/>
-    <sheet name="CAFE24" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId3"/>
+    <sheet name="상품가" sheetId="2" r:id="rId4"/>
+    <sheet name="쿠팡" sheetId="4" r:id="rId5"/>
+    <sheet name="CAFE24" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">CAFE24!$B$9:$C$40</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">쿠팡!$B$9:$D$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">CAFE24!$B$9:$C$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">쿠팡!$B$9:$D$53</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -2330,6 +2331,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2339,6 +2346,18 @@
     <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2351,26 +2370,92 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="30" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="30" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2387,82 +2472,88 @@
     <xf numFmtId="176" fontId="5" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="17" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="18" fillId="5" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="18" fillId="5" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="18" fillId="5" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="18" fillId="14" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="18" fillId="14" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="18" fillId="15" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="18" fillId="15" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="18" fillId="15" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="18" fillId="16" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="18" fillId="16" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="18" fillId="16" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="18" fillId="18" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="18" fillId="18" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="18" fillId="18" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="20" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="20" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="19" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="19" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="19" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="19" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="19" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="19" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="19" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="19" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="19" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="20" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="30" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="30" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="4" fillId="20" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="16" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2491,96 +2582,6 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="21" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="20" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="20" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="19" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="19" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="19" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="19" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="19" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="19" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="19" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="19" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="19" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="20" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="20" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="17" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="18" fillId="5" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="18" fillId="5" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="18" fillId="5" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="18" fillId="14" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="18" fillId="14" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="18" fillId="15" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="18" fillId="15" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="18" fillId="15" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="18" fillId="16" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="18" fillId="16" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="18" fillId="16" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="18" fillId="18" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="18" fillId="18" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="18" fillId="18" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2959,27 +2960,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:29" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="150" t="s">
+      <c r="B2" s="152" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="150"/>
-      <c r="E2" s="150" t="s">
+      <c r="C2" s="152"/>
+      <c r="E2" s="152" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="I2" s="151" t="s">
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="I2" s="153" t="s">
         <v>66</v>
       </c>
-      <c r="J2" s="152"/>
+      <c r="J2" s="154"/>
       <c r="L2" s="40" t="s">
         <v>67</v>
       </c>
       <c r="M2" s="41"/>
-      <c r="N2" s="150" t="s">
+      <c r="N2" s="152" t="s">
         <v>68</v>
       </c>
-      <c r="O2" s="150"/>
+      <c r="O2" s="152"/>
       <c r="Q2" s="126" t="s">
         <v>162</v>
       </c>
@@ -4539,8 +4540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3104B28F-70C4-4516-B7D6-2295FDC1E0E7}">
   <dimension ref="B2:AE35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27:S31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4575,12 +4576,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:31" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="163" t="s">
+      <c r="B2" s="155" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
       <c r="G2" s="129" t="s">
         <v>171</v>
       </c>
@@ -4672,7 +4673,7 @@
       <c r="AB3" s="1"/>
     </row>
     <row r="4" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B4" s="157" t="s">
+      <c r="B4" s="156" t="s">
         <v>56</v>
       </c>
       <c r="C4" s="132" t="s">
@@ -4727,7 +4728,7 @@
       <c r="AB4" s="1"/>
     </row>
     <row r="5" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B5" s="157"/>
+      <c r="B5" s="156"/>
       <c r="C5" s="132" t="s">
         <v>38</v>
       </c>
@@ -4779,10 +4780,10 @@
       <c r="AB5" s="1"/>
     </row>
     <row r="6" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B6" s="157" t="s">
+      <c r="B6" s="156" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="158" t="s">
+      <c r="C6" s="157" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="133" t="s">
@@ -4834,8 +4835,8 @@
       <c r="AB6" s="1"/>
     </row>
     <row r="7" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B7" s="157"/>
-      <c r="C7" s="160"/>
+      <c r="B7" s="156"/>
+      <c r="C7" s="158"/>
       <c r="D7" s="133" t="s">
         <v>50</v>
       </c>
@@ -4888,7 +4889,7 @@
       <c r="AB7" s="1"/>
     </row>
     <row r="8" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B8" s="157"/>
+      <c r="B8" s="156"/>
       <c r="C8" s="132" t="s">
         <v>49</v>
       </c>
@@ -4944,7 +4945,7 @@
       <c r="AB8" s="1"/>
     </row>
     <row r="9" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B9" s="157" t="s">
+      <c r="B9" s="156" t="s">
         <v>48</v>
       </c>
       <c r="C9" s="132" t="s">
@@ -4999,7 +5000,7 @@
       <c r="AB9" s="1"/>
     </row>
     <row r="10" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B10" s="157"/>
+      <c r="B10" s="156"/>
       <c r="C10" s="132" t="s">
         <v>44</v>
       </c>
@@ -5052,7 +5053,7 @@
       <c r="AB10" s="1"/>
     </row>
     <row r="11" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B11" s="157"/>
+      <c r="B11" s="156"/>
       <c r="C11" s="132" t="s">
         <v>176</v>
       </c>
@@ -5124,7 +5125,7 @@
       <c r="AE11" s="1"/>
     </row>
     <row r="12" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B12" s="153" t="s">
+      <c r="B12" s="159" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="132" t="s">
@@ -5189,11 +5190,11 @@
       <c r="W12" s="1">
         <v>148</v>
       </c>
-      <c r="X12" s="233">
+      <c r="X12" s="151">
         <f>$W$20*W12</f>
         <v>0.44500000000000001</v>
       </c>
-      <c r="Y12" s="233">
+      <c r="Y12" s="151">
         <f>X12*16</f>
         <v>7.12</v>
       </c>
@@ -5205,7 +5206,7 @@
       <c r="AE12" s="1"/>
     </row>
     <row r="13" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B13" s="154"/>
+      <c r="B13" s="160"/>
       <c r="C13" s="132" t="s">
         <v>187</v>
       </c>
@@ -5268,15 +5269,15 @@
       <c r="W13" s="1">
         <v>178</v>
       </c>
-      <c r="X13" s="233">
+      <c r="X13" s="151">
         <f>$W$20*W13</f>
         <v>0.53520270270270276</v>
       </c>
-      <c r="Y13" s="233">
+      <c r="Y13" s="151">
         <f>X13*16</f>
         <v>8.5632432432432442</v>
       </c>
-      <c r="Z13" s="233">
+      <c r="Z13" s="151">
         <f>Y13*16</f>
         <v>137.01189189189191</v>
       </c>
@@ -5287,7 +5288,7 @@
       <c r="AE13" s="1"/>
     </row>
     <row r="14" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B14" s="154"/>
+      <c r="B14" s="160"/>
       <c r="C14" s="132" t="s">
         <v>187</v>
       </c>
@@ -5350,11 +5351,11 @@
       <c r="W14" s="1">
         <v>198</v>
       </c>
-      <c r="X14" s="233">
+      <c r="X14" s="151">
         <f>$W$20*W14</f>
         <v>0.59533783783783789</v>
       </c>
-      <c r="Y14" s="233">
+      <c r="Y14" s="151">
         <f t="shared" ref="Y14:Y15" si="7">X14*16</f>
         <v>9.5254054054054063</v>
       </c>
@@ -5366,7 +5367,7 @@
       <c r="AE14" s="1"/>
     </row>
     <row r="15" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B15" s="154"/>
+      <c r="B15" s="160"/>
       <c r="C15" s="133" t="s">
         <v>45</v>
       </c>
@@ -5429,11 +5430,11 @@
       <c r="W15" s="1">
         <v>298</v>
       </c>
-      <c r="X15" s="233">
+      <c r="X15" s="151">
         <f>$W$20*W15</f>
         <v>0.89601351351351355</v>
       </c>
-      <c r="Y15" s="233">
+      <c r="Y15" s="151">
         <f t="shared" si="7"/>
         <v>14.336216216216217</v>
       </c>
@@ -5441,7 +5442,7 @@
       <c r="AB15" s="1"/>
     </row>
     <row r="16" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B16" s="154"/>
+      <c r="B16" s="160"/>
       <c r="C16" s="133" t="s">
         <v>44</v>
       </c>
@@ -5503,7 +5504,7 @@
       <c r="AB16" s="1"/>
     </row>
     <row r="17" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B17" s="155"/>
+      <c r="B17" s="161"/>
       <c r="C17" s="133" t="s">
         <v>43</v>
       </c>
@@ -5565,7 +5566,7 @@
       <c r="AB17" s="1"/>
     </row>
     <row r="18" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B18" s="156" t="s">
+      <c r="B18" s="162" t="s">
         <v>42</v>
       </c>
       <c r="C18" s="132" t="s">
@@ -5629,7 +5630,7 @@
       <c r="AB18" s="1"/>
     </row>
     <row r="19" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B19" s="157"/>
+      <c r="B19" s="156"/>
       <c r="C19" s="132" t="s">
         <v>38</v>
       </c>
@@ -5708,15 +5709,15 @@
         <v>19</v>
       </c>
       <c r="J21" s="143">
-        <f>$R3*J$20</f>
+        <f t="shared" ref="J21:L22" si="13">$R3*J$20</f>
         <v>1773.8834039975773</v>
       </c>
       <c r="K21" s="143">
-        <f>$R3*K$20</f>
+        <f t="shared" si="13"/>
         <v>8869.4170199878863</v>
       </c>
       <c r="L21" s="143">
-        <f>$R3*L$20</f>
+        <f t="shared" si="13"/>
         <v>17738.834039975773</v>
       </c>
       <c r="M21" s="144"/>
@@ -5748,15 +5749,15 @@
         <v>16</v>
       </c>
       <c r="J22" s="143">
-        <f>$R4*J$20</f>
+        <f t="shared" si="13"/>
         <v>1773.8834039975773</v>
       </c>
       <c r="K22" s="143">
-        <f>$R4*K$20</f>
+        <f t="shared" si="13"/>
         <v>8869.4170199878863</v>
       </c>
       <c r="L22" s="143">
-        <f>$R4*L$20</f>
+        <f t="shared" si="13"/>
         <v>17738.834039975773</v>
       </c>
       <c r="M22" s="144">
@@ -5911,15 +5912,15 @@
         <v>16</v>
       </c>
       <c r="J27" s="144">
-        <f>$R6*J$26</f>
+        <f t="shared" ref="J27:L31" si="14">$R6*J$26</f>
         <v>3365.6502119927318</v>
       </c>
       <c r="K27" s="143">
-        <f>$R6*K$26</f>
+        <f t="shared" si="14"/>
         <v>6731.3004239854636</v>
       </c>
       <c r="L27" s="143">
-        <f>$R6*L$26</f>
+        <f t="shared" si="14"/>
         <v>10096.950635978195</v>
       </c>
       <c r="M27" s="144">
@@ -5936,29 +5937,29 @@
       </c>
     </row>
     <row r="28" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B28" s="158" t="s">
+      <c r="B28" s="157" t="s">
         <v>22</v>
       </c>
       <c r="C28" s="132" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="161" t="s">
+      <c r="D28" s="164" t="s">
         <v>173</v>
       </c>
-      <c r="E28" s="162"/>
+      <c r="E28" s="165"/>
       <c r="I28" s="148" t="s">
         <v>62</v>
       </c>
       <c r="J28" s="144">
-        <f>$R7*J$26</f>
+        <f t="shared" si="14"/>
         <v>3623.6502119927318</v>
       </c>
       <c r="K28" s="143">
-        <f>$R7*K$26</f>
+        <f t="shared" si="14"/>
         <v>7247.3004239854636</v>
       </c>
       <c r="L28" s="143">
-        <f>$R7*L$26</f>
+        <f t="shared" si="14"/>
         <v>10870.950635978195</v>
       </c>
       <c r="M28" s="144">
@@ -5975,27 +5976,27 @@
       </c>
     </row>
     <row r="29" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B29" s="159"/>
+      <c r="B29" s="163"/>
       <c r="C29" s="132" t="s">
         <v>174</v>
       </c>
-      <c r="D29" s="161" t="s">
+      <c r="D29" s="164" t="s">
         <v>175</v>
       </c>
-      <c r="E29" s="162"/>
+      <c r="E29" s="165"/>
       <c r="I29" s="148" t="s">
         <v>82</v>
       </c>
       <c r="J29" s="144">
-        <f>$R8*J$26</f>
+        <f t="shared" si="14"/>
         <v>4399.8502119927316</v>
       </c>
       <c r="K29" s="143">
-        <f>$R8*K$26</f>
+        <f t="shared" si="14"/>
         <v>8799.7004239854632</v>
       </c>
       <c r="L29" s="143">
-        <f>$R8*L$26</f>
+        <f t="shared" si="14"/>
         <v>13199.550635978194</v>
       </c>
       <c r="M29" s="144">
@@ -6012,27 +6013,27 @@
       </c>
     </row>
     <row r="30" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B30" s="160"/>
+      <c r="B30" s="158"/>
       <c r="C30" s="132" t="s">
         <v>176</v>
       </c>
-      <c r="D30" s="161" t="s">
+      <c r="D30" s="164" t="s">
         <v>177</v>
       </c>
-      <c r="E30" s="162"/>
+      <c r="E30" s="165"/>
       <c r="I30" s="148" t="s">
         <v>32</v>
       </c>
       <c r="J30" s="144">
-        <f>$R9*J$26</f>
+        <f t="shared" si="14"/>
         <v>5050.3502119927316</v>
       </c>
       <c r="K30" s="143">
-        <f>$R9*K$26</f>
+        <f t="shared" si="14"/>
         <v>10100.700423985463</v>
       </c>
       <c r="L30" s="143">
-        <f>$R9*L$26</f>
+        <f t="shared" si="14"/>
         <v>15151.050635978194</v>
       </c>
       <c r="M30" s="144">
@@ -6065,15 +6066,15 @@
         <v>149</v>
       </c>
       <c r="J31" s="144">
-        <f>$R10*J$26</f>
+        <f t="shared" si="14"/>
         <v>5243.8502119927316</v>
       </c>
       <c r="K31" s="143">
-        <f>$R10*K$26</f>
+        <f t="shared" si="14"/>
         <v>10487.700423985463</v>
       </c>
       <c r="L31" s="143">
-        <f>$R10*L$26</f>
+        <f t="shared" si="14"/>
         <v>15731.550635978194</v>
       </c>
       <c r="M31" s="144">
@@ -6094,7 +6095,7 @@
       <c r="Q31">
         <v>4</v>
       </c>
-      <c r="R31" s="232">
+      <c r="R31" s="150">
         <f>P31*Q31</f>
         <v>0.64</v>
       </c>
@@ -6141,17 +6142,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="B9:B11"/>
     <mergeCell ref="B12:B17"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B9:B11"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6160,6 +6161,132 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46AAEF08-3708-49D6-9F46-0E569E819530}">
+  <dimension ref="C5:K13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="5" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>15500</v>
+      </c>
+      <c r="D5">
+        <v>1330</v>
+      </c>
+      <c r="E5">
+        <v>402</v>
+      </c>
+      <c r="F5">
+        <v>161</v>
+      </c>
+      <c r="G5">
+        <v>2300</v>
+      </c>
+      <c r="H5">
+        <v>7450</v>
+      </c>
+      <c r="I5">
+        <f>C5-D5-E5-F5-G5-H5</f>
+        <v>3857</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <f>9400*0.07</f>
+        <v>658.00000000000011</v>
+      </c>
+      <c r="H9">
+        <f>10500*0.07</f>
+        <v>735.00000000000011</v>
+      </c>
+      <c r="I9">
+        <f>11500*0.07</f>
+        <v>805.00000000000011</v>
+      </c>
+      <c r="J9">
+        <f>11800*0.07</f>
+        <v>826.00000000000011</v>
+      </c>
+      <c r="K9">
+        <f>8900*0.07</f>
+        <v>623.00000000000011</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <f>15000*0.07</f>
+        <v>1050</v>
+      </c>
+      <c r="H10">
+        <f>18000*0.07</f>
+        <v>1260.0000000000002</v>
+      </c>
+      <c r="I10">
+        <f>20000*0.07</f>
+        <v>1400.0000000000002</v>
+      </c>
+      <c r="J10">
+        <f>20600*0.07</f>
+        <v>1442.0000000000002</v>
+      </c>
+      <c r="K10">
+        <f>14000*0.07</f>
+        <v>980.00000000000011</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="G11">
+        <f>20500*0.07</f>
+        <v>1435.0000000000002</v>
+      </c>
+      <c r="H11">
+        <f>24640*0.07</f>
+        <v>1724.8000000000002</v>
+      </c>
+      <c r="I11">
+        <f>27600*0.07</f>
+        <v>1932.0000000000002</v>
+      </c>
+      <c r="J11">
+        <f>28400*0.07</f>
+        <v>1988.0000000000002</v>
+      </c>
+      <c r="K11">
+        <f>19400*0.07</f>
+        <v>1358.0000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>10000</v>
+      </c>
+      <c r="D13">
+        <f>C13*0.0858</f>
+        <v>858</v>
+      </c>
+      <c r="E13">
+        <v>12100</v>
+      </c>
+      <c r="F13">
+        <f>E13-C13-D13</f>
+        <v>1242</v>
+      </c>
+      <c r="G13">
+        <f>F13/E13</f>
+        <v>0.10264462809917356</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50828D4C-5EB5-4A63-AD90-877B85A7F5ED}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -6205,13 +6332,13 @@
   <sheetData>
     <row r="1" spans="2:51" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:51" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="192" t="s">
+      <c r="B2" s="180" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="192"/>
-      <c r="D2" s="192"/>
-      <c r="E2" s="192"/>
-      <c r="G2" s="185" t="s">
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="G2" s="170" t="s">
         <v>62</v>
       </c>
       <c r="H2" s="39">
@@ -6240,12 +6367,12 @@
         <v>107</v>
       </c>
       <c r="P2" s="12"/>
-      <c r="Q2" s="172" t="s">
+      <c r="Q2" s="168" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="172"/>
-      <c r="S2" s="173"/>
-      <c r="U2" s="167" t="s">
+      <c r="R2" s="168"/>
+      <c r="S2" s="169"/>
+      <c r="U2" s="195" t="s">
         <v>61</v>
       </c>
       <c r="V2" s="31">
@@ -6274,11 +6401,11 @@
         <v>176</v>
       </c>
       <c r="AD2" s="12"/>
-      <c r="AE2" s="164" t="s">
+      <c r="AE2" s="192" t="s">
         <v>17</v>
       </c>
-      <c r="AF2" s="165"/>
-      <c r="AG2" s="166"/>
+      <c r="AF2" s="193"/>
+      <c r="AG2" s="194"/>
       <c r="AU2" t="s">
         <v>163</v>
       </c>
@@ -6310,7 +6437,7 @@
       <c r="E3" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="186"/>
+      <c r="G3" s="171"/>
       <c r="H3" s="11" t="s">
         <v>10</v>
       </c>
@@ -6345,7 +6472,7 @@
       <c r="S3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="U3" s="168"/>
+      <c r="U3" s="196"/>
       <c r="V3" s="11" t="s">
         <v>10</v>
       </c>
@@ -6399,7 +6526,7 @@
       </c>
     </row>
     <row r="4" spans="2:51" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="184" t="s">
+      <c r="B4" s="172" t="s">
         <v>56</v>
       </c>
       <c r="C4" s="28" t="s">
@@ -6411,7 +6538,7 @@
       <c r="E4" s="26">
         <v>1290</v>
       </c>
-      <c r="G4" s="186"/>
+      <c r="G4" s="171"/>
       <c r="H4" s="7">
         <f>$M2*$E$4</f>
         <v>325080</v>
@@ -6457,7 +6584,7 @@
         <f>R4/$K2</f>
         <v>0.1900233986522713</v>
       </c>
-      <c r="U4" s="168"/>
+      <c r="U4" s="196"/>
       <c r="V4" s="7">
         <f>$AA2*$E$4</f>
         <v>392160</v>
@@ -6521,7 +6648,7 @@
       </c>
     </row>
     <row r="5" spans="2:51" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="184"/>
+      <c r="B5" s="172"/>
       <c r="C5" s="28" t="s">
         <v>38</v>
       </c>
@@ -6551,10 +6678,10 @@
       </c>
     </row>
     <row r="6" spans="2:51" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B6" s="184" t="s">
+      <c r="B6" s="172" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="193" t="s">
+      <c r="C6" s="181" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="28" t="s">
@@ -6564,7 +6691,7 @@
         <f>110</f>
         <v>110</v>
       </c>
-      <c r="G6" s="187" t="s">
+      <c r="G6" s="173" t="s">
         <v>52</v>
       </c>
       <c r="H6" s="35">
@@ -6593,12 +6720,12 @@
         <v>89</v>
       </c>
       <c r="P6" s="12"/>
-      <c r="Q6" s="172" t="s">
+      <c r="Q6" s="168" t="s">
         <v>11</v>
       </c>
-      <c r="R6" s="172"/>
-      <c r="S6" s="173"/>
-      <c r="U6" s="167" t="s">
+      <c r="R6" s="168"/>
+      <c r="S6" s="169"/>
+      <c r="U6" s="195" t="s">
         <v>51</v>
       </c>
       <c r="V6" s="31">
@@ -6627,11 +6754,11 @@
         <v>119</v>
       </c>
       <c r="AD6" s="12"/>
-      <c r="AE6" s="164" t="s">
+      <c r="AE6" s="192" t="s">
         <v>17</v>
       </c>
-      <c r="AF6" s="165"/>
-      <c r="AG6" s="166"/>
+      <c r="AF6" s="193"/>
+      <c r="AG6" s="194"/>
       <c r="AU6" t="s">
         <v>48</v>
       </c>
@@ -6651,8 +6778,8 @@
       </c>
     </row>
     <row r="7" spans="2:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="184"/>
-      <c r="C7" s="194"/>
+      <c r="B7" s="172"/>
+      <c r="C7" s="182"/>
       <c r="D7" s="28" t="s">
         <v>50</v>
       </c>
@@ -6660,7 +6787,7 @@
         <f>E6/12.7</f>
         <v>8.6614173228346463</v>
       </c>
-      <c r="G7" s="188"/>
+      <c r="G7" s="174"/>
       <c r="H7" s="11" t="s">
         <v>10</v>
       </c>
@@ -6695,7 +6822,7 @@
       <c r="S7" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="U7" s="168"/>
+      <c r="U7" s="196"/>
       <c r="V7" s="11" t="s">
         <v>10</v>
       </c>
@@ -6749,7 +6876,7 @@
       </c>
     </row>
     <row r="8" spans="2:51" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="184"/>
+      <c r="B8" s="172"/>
       <c r="C8" s="28" t="s">
         <v>49</v>
       </c>
@@ -6759,7 +6886,7 @@
       <c r="E8" s="26">
         <v>50</v>
       </c>
-      <c r="G8" s="188"/>
+      <c r="G8" s="174"/>
       <c r="H8" s="7">
         <f>$M6*$E$4</f>
         <v>330240</v>
@@ -6805,7 +6932,7 @@
         <f>R8/$K6</f>
         <v>0.19905280045752707</v>
       </c>
-      <c r="U8" s="168"/>
+      <c r="U8" s="196"/>
       <c r="V8" s="7">
         <f>$AA6*$E$4</f>
         <v>314760</v>
@@ -6869,7 +6996,7 @@
       </c>
     </row>
     <row r="9" spans="2:51" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="184" t="s">
+      <c r="B9" s="172" t="s">
         <v>48</v>
       </c>
       <c r="C9" s="28" t="s">
@@ -6890,11 +7017,11 @@
       </c>
     </row>
     <row r="10" spans="2:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="184"/>
+      <c r="B10" s="172"/>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
       <c r="E10" s="26"/>
-      <c r="G10" s="178" t="s">
+      <c r="G10" s="175" t="s">
         <v>47</v>
       </c>
       <c r="H10" s="23">
@@ -6923,12 +7050,12 @@
         <v>89</v>
       </c>
       <c r="P10" s="12"/>
-      <c r="Q10" s="172" t="s">
+      <c r="Q10" s="168" t="s">
         <v>11</v>
       </c>
-      <c r="R10" s="172"/>
-      <c r="S10" s="173"/>
-      <c r="U10" s="167" t="s">
+      <c r="R10" s="168"/>
+      <c r="S10" s="169"/>
+      <c r="U10" s="195" t="s">
         <v>46</v>
       </c>
       <c r="V10" s="31">
@@ -6957,14 +7084,14 @@
         <v>148</v>
       </c>
       <c r="AD10" s="12"/>
-      <c r="AE10" s="164" t="s">
+      <c r="AE10" s="192" t="s">
         <v>17</v>
       </c>
-      <c r="AF10" s="165"/>
-      <c r="AG10" s="166"/>
+      <c r="AF10" s="193"/>
+      <c r="AG10" s="194"/>
     </row>
     <row r="11" spans="2:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="184" t="s">
+      <c r="B11" s="172" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="28" t="s">
@@ -6977,7 +7104,7 @@
         <f>225*1.1</f>
         <v>247.50000000000003</v>
       </c>
-      <c r="G11" s="179"/>
+      <c r="G11" s="176"/>
       <c r="H11" s="11" t="s">
         <v>10</v>
       </c>
@@ -7012,7 +7139,7 @@
       <c r="S11" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="U11" s="168"/>
+      <c r="U11" s="196"/>
       <c r="V11" s="11" t="s">
         <v>10</v>
       </c>
@@ -7049,7 +7176,7 @@
       </c>
     </row>
     <row r="12" spans="2:51" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="184"/>
+      <c r="B12" s="172"/>
       <c r="C12" s="28" t="s">
         <v>44</v>
       </c>
@@ -7060,7 +7187,7 @@
         <f>227*1.1</f>
         <v>249.70000000000002</v>
       </c>
-      <c r="G12" s="179"/>
+      <c r="G12" s="176"/>
       <c r="H12" s="7">
         <f>$M10*$E$4</f>
         <v>330240</v>
@@ -7106,7 +7233,7 @@
         <f>R12/$K10</f>
         <v>0.19905280045752707</v>
       </c>
-      <c r="U12" s="168"/>
+      <c r="U12" s="196"/>
       <c r="V12" s="7">
         <f>$AA10*$E$4</f>
         <v>314760</v>
@@ -7154,7 +7281,7 @@
       </c>
     </row>
     <row r="13" spans="2:51" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="184"/>
+      <c r="B13" s="172"/>
       <c r="C13" s="28" t="s">
         <v>43</v>
       </c>
@@ -7169,7 +7296,7 @@
       <c r="I13" s="29"/>
     </row>
     <row r="14" spans="2:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="191" t="s">
+      <c r="B14" s="179" t="s">
         <v>42</v>
       </c>
       <c r="C14" s="28" t="s">
@@ -7182,7 +7309,7 @@
         <f>1015*1.1</f>
         <v>1116.5</v>
       </c>
-      <c r="G14" s="189" t="s">
+      <c r="G14" s="177" t="s">
         <v>40</v>
       </c>
       <c r="H14" s="33">
@@ -7211,12 +7338,12 @@
         <v>82</v>
       </c>
       <c r="P14" s="12"/>
-      <c r="Q14" s="172" t="s">
+      <c r="Q14" s="168" t="s">
         <v>11</v>
       </c>
-      <c r="R14" s="172"/>
-      <c r="S14" s="173"/>
-      <c r="U14" s="167" t="s">
+      <c r="R14" s="168"/>
+      <c r="S14" s="169"/>
+      <c r="U14" s="195" t="s">
         <v>39</v>
       </c>
       <c r="V14" s="31">
@@ -7245,14 +7372,14 @@
         <v>89</v>
       </c>
       <c r="AD14" s="12"/>
-      <c r="AE14" s="164" t="s">
+      <c r="AE14" s="192" t="s">
         <v>17</v>
       </c>
-      <c r="AF14" s="165"/>
-      <c r="AG14" s="166"/>
+      <c r="AF14" s="193"/>
+      <c r="AG14" s="194"/>
     </row>
     <row r="15" spans="2:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="184"/>
+      <c r="B15" s="172"/>
       <c r="C15" s="28" t="s">
         <v>38</v>
       </c>
@@ -7263,7 +7390,7 @@
         <f>1060*1.1</f>
         <v>1166</v>
       </c>
-      <c r="G15" s="190"/>
+      <c r="G15" s="178"/>
       <c r="H15" s="11" t="s">
         <v>10</v>
       </c>
@@ -7298,7 +7425,7 @@
       <c r="S15" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="U15" s="168"/>
+      <c r="U15" s="196"/>
       <c r="V15" s="11" t="s">
         <v>10</v>
       </c>
@@ -7348,7 +7475,7 @@
         <f>45*1.1</f>
         <v>49.500000000000007</v>
       </c>
-      <c r="G16" s="190"/>
+      <c r="G16" s="178"/>
       <c r="H16" s="7">
         <f>$M14*$E$5</f>
         <v>357680</v>
@@ -7394,7 +7521,7 @@
         <f>R16/$K14</f>
         <v>0.19895952240457485</v>
       </c>
-      <c r="U16" s="168"/>
+      <c r="U16" s="196"/>
       <c r="V16" s="7">
         <f>$AA14*$E$4</f>
         <v>412800</v>
@@ -7471,7 +7598,7 @@
       <c r="E18" s="26">
         <v>70000</v>
       </c>
-      <c r="G18" s="174" t="s">
+      <c r="G18" s="166" t="s">
         <v>32</v>
       </c>
       <c r="H18" s="108">
@@ -7500,12 +7627,12 @@
         <v>74</v>
       </c>
       <c r="P18" s="12"/>
-      <c r="Q18" s="172" t="s">
+      <c r="Q18" s="168" t="s">
         <v>11</v>
       </c>
-      <c r="R18" s="172"/>
-      <c r="S18" s="173"/>
-      <c r="U18" s="169" t="s">
+      <c r="R18" s="168"/>
+      <c r="S18" s="169"/>
+      <c r="U18" s="183" t="s">
         <v>31</v>
       </c>
       <c r="V18" s="19">
@@ -7534,11 +7661,11 @@
         <v>176</v>
       </c>
       <c r="AD18" s="12"/>
-      <c r="AE18" s="164" t="s">
+      <c r="AE18" s="192" t="s">
         <v>17</v>
       </c>
-      <c r="AF18" s="165"/>
-      <c r="AG18" s="166"/>
+      <c r="AF18" s="193"/>
+      <c r="AG18" s="194"/>
     </row>
     <row r="19" spans="2:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="28" t="s">
@@ -7554,7 +7681,7 @@
         <f>95*1.1</f>
         <v>104.50000000000001</v>
       </c>
-      <c r="G19" s="175"/>
+      <c r="G19" s="167"/>
       <c r="H19" s="11" t="s">
         <v>10</v>
       </c>
@@ -7589,7 +7716,7 @@
       <c r="S19" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="U19" s="170"/>
+      <c r="U19" s="191"/>
       <c r="V19" s="11" t="s">
         <v>10</v>
       </c>
@@ -7639,7 +7766,7 @@
         <f>200*1.1</f>
         <v>220.00000000000003</v>
       </c>
-      <c r="G20" s="175"/>
+      <c r="G20" s="167"/>
       <c r="H20" s="7">
         <f>$M18*$E$4</f>
         <v>330240</v>
@@ -7685,7 +7812,7 @@
         <f>R20/$K18</f>
         <v>0.20840821664183859</v>
       </c>
-      <c r="U20" s="170"/>
+      <c r="U20" s="191"/>
       <c r="V20" s="7">
         <f>$AA18*$E$5</f>
         <v>413440</v>
@@ -7762,7 +7889,7 @@
       <c r="E22" s="26">
         <v>200</v>
       </c>
-      <c r="G22" s="176" t="s">
+      <c r="G22" s="185" t="s">
         <v>24</v>
       </c>
       <c r="H22" s="25">
@@ -7791,12 +7918,12 @@
         <v>71</v>
       </c>
       <c r="P22" s="12"/>
-      <c r="Q22" s="172" t="s">
+      <c r="Q22" s="168" t="s">
         <v>11</v>
       </c>
-      <c r="R22" s="172"/>
-      <c r="S22" s="173"/>
-      <c r="U22" s="169" t="s">
+      <c r="R22" s="168"/>
+      <c r="S22" s="169"/>
+      <c r="U22" s="183" t="s">
         <v>23</v>
       </c>
       <c r="V22" s="19">
@@ -7825,11 +7952,11 @@
         <v>119</v>
       </c>
       <c r="AD22" s="12"/>
-      <c r="AE22" s="164" t="s">
+      <c r="AE22" s="192" t="s">
         <v>17</v>
       </c>
-      <c r="AF22" s="165"/>
-      <c r="AG22" s="166"/>
+      <c r="AF22" s="193"/>
+      <c r="AG22" s="194"/>
     </row>
     <row r="23" spans="2:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
@@ -7845,7 +7972,7 @@
         <f>240*1.1</f>
         <v>264</v>
       </c>
-      <c r="G23" s="177"/>
+      <c r="G23" s="186"/>
       <c r="H23" s="11" t="s">
         <v>10</v>
       </c>
@@ -7880,7 +8007,7 @@
       <c r="S23" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="U23" s="170"/>
+      <c r="U23" s="191"/>
       <c r="V23" s="11" t="s">
         <v>10</v>
       </c>
@@ -7917,7 +8044,7 @@
       </c>
     </row>
     <row r="24" spans="2:33" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G24" s="177"/>
+      <c r="G24" s="186"/>
       <c r="H24" s="7">
         <f>$M22*$E$4</f>
         <v>334110</v>
@@ -7963,7 +8090,7 @@
         <f>R24/$K22</f>
         <v>0.19791012122732585</v>
       </c>
-      <c r="U24" s="170"/>
+      <c r="U24" s="191"/>
       <c r="V24" s="7">
         <f>$AA22*$E$5</f>
         <v>331840</v>
@@ -8012,7 +8139,7 @@
     </row>
     <row r="25" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="26" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G26" s="178" t="s">
+      <c r="G26" s="175" t="s">
         <v>19</v>
       </c>
       <c r="H26" s="23">
@@ -8041,12 +8168,12 @@
         <v>222</v>
       </c>
       <c r="P26" s="12"/>
-      <c r="Q26" s="172" t="s">
+      <c r="Q26" s="168" t="s">
         <v>17</v>
       </c>
-      <c r="R26" s="172"/>
-      <c r="S26" s="173"/>
-      <c r="U26" s="169" t="s">
+      <c r="R26" s="168"/>
+      <c r="S26" s="169"/>
+      <c r="U26" s="183" t="s">
         <v>20</v>
       </c>
       <c r="V26" s="19">
@@ -8075,14 +8202,14 @@
         <v>148</v>
       </c>
       <c r="AD26" s="12"/>
-      <c r="AE26" s="172" t="s">
+      <c r="AE26" s="168" t="s">
         <v>17</v>
       </c>
-      <c r="AF26" s="172"/>
-      <c r="AG26" s="173"/>
+      <c r="AF26" s="168"/>
+      <c r="AG26" s="169"/>
     </row>
     <row r="27" spans="2:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="179"/>
+      <c r="G27" s="176"/>
       <c r="H27" s="11" t="s">
         <v>10</v>
       </c>
@@ -8117,7 +8244,7 @@
       <c r="S27" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="U27" s="171"/>
+      <c r="U27" s="184"/>
       <c r="V27" s="11" t="s">
         <v>10</v>
       </c>
@@ -8154,7 +8281,7 @@
       </c>
     </row>
     <row r="28" spans="2:33" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G28" s="179"/>
+      <c r="G28" s="176"/>
       <c r="H28" s="7">
         <f>$M26*$E$4</f>
         <v>328950</v>
@@ -8200,7 +8327,7 @@
         <f>$R28/$K26</f>
         <v>0.21579524783256387</v>
       </c>
-      <c r="U28" s="171"/>
+      <c r="U28" s="184"/>
       <c r="V28" s="7">
         <f>$AA26*$E$4</f>
         <v>314760</v>
@@ -8249,7 +8376,7 @@
     </row>
     <row r="29" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="30" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G30" s="180" t="s">
+      <c r="G30" s="187" t="s">
         <v>19</v>
       </c>
       <c r="H30" s="21">
@@ -8278,12 +8405,12 @@
         <v>105</v>
       </c>
       <c r="P30" s="12"/>
-      <c r="Q30" s="172" t="s">
+      <c r="Q30" s="168" t="s">
         <v>17</v>
       </c>
-      <c r="R30" s="172"/>
-      <c r="S30" s="173"/>
-      <c r="U30" s="169" t="s">
+      <c r="R30" s="168"/>
+      <c r="S30" s="169"/>
+      <c r="U30" s="183" t="s">
         <v>18</v>
       </c>
       <c r="V30" s="19">
@@ -8312,14 +8439,14 @@
         <v>148</v>
       </c>
       <c r="AD30" s="12"/>
-      <c r="AE30" s="172" t="s">
+      <c r="AE30" s="168" t="s">
         <v>17</v>
       </c>
-      <c r="AF30" s="172"/>
-      <c r="AG30" s="173"/>
+      <c r="AF30" s="168"/>
+      <c r="AG30" s="169"/>
     </row>
     <row r="31" spans="2:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G31" s="181"/>
+      <c r="G31" s="188"/>
       <c r="H31" s="11" t="s">
         <v>10</v>
       </c>
@@ -8354,7 +8481,7 @@
       <c r="S31" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="U31" s="171"/>
+      <c r="U31" s="184"/>
       <c r="V31" s="11" t="s">
         <v>10</v>
       </c>
@@ -8391,7 +8518,7 @@
       </c>
     </row>
     <row r="32" spans="2:33" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G32" s="181"/>
+      <c r="G32" s="188"/>
       <c r="H32" s="7">
         <f>$M30*$E$4</f>
         <v>348300</v>
@@ -8437,7 +8564,7 @@
         <f>$R32/$K30</f>
         <v>0.20044103577961847</v>
       </c>
-      <c r="U32" s="171"/>
+      <c r="U32" s="184"/>
       <c r="V32" s="7">
         <f>$AA30*$E$4</f>
         <v>314760</v>
@@ -8486,7 +8613,7 @@
     </row>
     <row r="33" spans="7:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="34" spans="7:19" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="G34" s="182" t="s">
+      <c r="G34" s="189" t="s">
         <v>16</v>
       </c>
       <c r="H34" s="17">
@@ -8515,14 +8642,14 @@
         <v>117</v>
       </c>
       <c r="P34" s="12"/>
-      <c r="Q34" s="172" t="s">
+      <c r="Q34" s="168" t="s">
         <v>11</v>
       </c>
-      <c r="R34" s="172"/>
-      <c r="S34" s="173"/>
+      <c r="R34" s="168"/>
+      <c r="S34" s="169"/>
     </row>
     <row r="35" spans="7:19" x14ac:dyDescent="0.3">
-      <c r="G35" s="183"/>
+      <c r="G35" s="190"/>
       <c r="H35" s="11" t="s">
         <v>10</v>
       </c>
@@ -8559,7 +8686,7 @@
       </c>
     </row>
     <row r="36" spans="7:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G36" s="183"/>
+      <c r="G36" s="190"/>
       <c r="H36" s="7">
         <f>$M34*$E$4</f>
         <v>335400</v>
@@ -8608,7 +8735,7 @@
     </row>
     <row r="37" spans="7:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="38" spans="7:19" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="G38" s="185" t="s">
+      <c r="G38" s="170" t="s">
         <v>62</v>
       </c>
       <c r="H38" s="39">
@@ -8637,14 +8764,14 @@
         <v>112</v>
       </c>
       <c r="P38" s="12"/>
-      <c r="Q38" s="172" t="s">
+      <c r="Q38" s="168" t="s">
         <v>17</v>
       </c>
-      <c r="R38" s="172"/>
-      <c r="S38" s="173"/>
+      <c r="R38" s="168"/>
+      <c r="S38" s="169"/>
     </row>
     <row r="39" spans="7:19" x14ac:dyDescent="0.3">
-      <c r="G39" s="186"/>
+      <c r="G39" s="171"/>
       <c r="H39" s="11" t="s">
         <v>10</v>
       </c>
@@ -8681,7 +8808,7 @@
       </c>
     </row>
     <row r="40" spans="7:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G40" s="186"/>
+      <c r="G40" s="171"/>
       <c r="H40" s="7">
         <f>$M38*$E$4</f>
         <v>335400</v>
@@ -8730,7 +8857,7 @@
     </row>
     <row r="41" spans="7:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="42" spans="7:19" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="G42" s="174" t="s">
+      <c r="G42" s="166" t="s">
         <v>32</v>
       </c>
       <c r="H42" s="108">
@@ -8759,14 +8886,14 @@
         <v>74</v>
       </c>
       <c r="P42" s="12"/>
-      <c r="Q42" s="172" t="s">
+      <c r="Q42" s="168" t="s">
         <v>11</v>
       </c>
-      <c r="R42" s="172"/>
-      <c r="S42" s="173"/>
+      <c r="R42" s="168"/>
+      <c r="S42" s="169"/>
     </row>
     <row r="43" spans="7:19" x14ac:dyDescent="0.3">
-      <c r="G43" s="175"/>
+      <c r="G43" s="167"/>
       <c r="H43" s="11" t="s">
         <v>10</v>
       </c>
@@ -8803,7 +8930,7 @@
       </c>
     </row>
     <row r="44" spans="7:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G44" s="175"/>
+      <c r="G44" s="167"/>
       <c r="H44" s="7">
         <f>$M42*$E$4</f>
         <v>334110</v>
@@ -8852,25 +8979,16 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="Q42:S42"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="Q38:S38"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="AE2:AG2"/>
+    <mergeCell ref="U2:U4"/>
+    <mergeCell ref="AE18:AG18"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="AE14:AG14"/>
+    <mergeCell ref="U14:U16"/>
+    <mergeCell ref="AE10:AG10"/>
+    <mergeCell ref="U10:U12"/>
+    <mergeCell ref="AE6:AG6"/>
+    <mergeCell ref="U6:U8"/>
     <mergeCell ref="U30:U32"/>
     <mergeCell ref="AE30:AG30"/>
     <mergeCell ref="Q34:S34"/>
@@ -8887,16 +9005,25 @@
     <mergeCell ref="AE22:AG22"/>
     <mergeCell ref="U26:U28"/>
     <mergeCell ref="AE26:AG26"/>
-    <mergeCell ref="AE2:AG2"/>
-    <mergeCell ref="U2:U4"/>
-    <mergeCell ref="AE18:AG18"/>
-    <mergeCell ref="U18:U20"/>
-    <mergeCell ref="AE14:AG14"/>
-    <mergeCell ref="U14:U16"/>
-    <mergeCell ref="AE10:AG10"/>
-    <mergeCell ref="U10:U12"/>
-    <mergeCell ref="AE6:AG6"/>
-    <mergeCell ref="U6:U8"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="Q42:S42"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="Q38:S38"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8904,7 +9031,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAEBEB9E-2C50-4AA9-BC7C-3D13D5CE3266}">
   <dimension ref="B1:AF62"/>
   <sheetViews>
@@ -8944,96 +9071,96 @@
     <row r="1" spans="2:32" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:32" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B3" s="217" t="s">
+      <c r="B3" s="197" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="217"/>
-      <c r="D3" s="217"/>
-      <c r="E3" s="217"/>
-      <c r="F3" s="217"/>
-      <c r="G3" s="217"/>
-      <c r="H3" s="217"/>
-      <c r="I3" s="217"/>
-      <c r="J3" s="217"/>
-      <c r="K3" s="217"/>
-      <c r="L3" s="217"/>
-      <c r="M3" s="217"/>
-      <c r="N3" s="217"/>
-      <c r="O3" s="217"/>
-      <c r="P3" s="217"/>
-      <c r="Q3" s="217"/>
-      <c r="R3" s="217"/>
-      <c r="S3" s="217"/>
-      <c r="T3" s="217"/>
-      <c r="U3" s="217"/>
-      <c r="V3" s="217"/>
-      <c r="W3" s="217"/>
-      <c r="X3" s="217"/>
-      <c r="Y3" s="217"/>
-      <c r="Z3" s="217"/>
-      <c r="AA3" s="217"/>
-      <c r="AB3" s="217"/>
-      <c r="AC3" s="217"/>
+      <c r="C3" s="197"/>
+      <c r="D3" s="197"/>
+      <c r="E3" s="197"/>
+      <c r="F3" s="197"/>
+      <c r="G3" s="197"/>
+      <c r="H3" s="197"/>
+      <c r="I3" s="197"/>
+      <c r="J3" s="197"/>
+      <c r="K3" s="197"/>
+      <c r="L3" s="197"/>
+      <c r="M3" s="197"/>
+      <c r="N3" s="197"/>
+      <c r="O3" s="197"/>
+      <c r="P3" s="197"/>
+      <c r="Q3" s="197"/>
+      <c r="R3" s="197"/>
+      <c r="S3" s="197"/>
+      <c r="T3" s="197"/>
+      <c r="U3" s="197"/>
+      <c r="V3" s="197"/>
+      <c r="W3" s="197"/>
+      <c r="X3" s="197"/>
+      <c r="Y3" s="197"/>
+      <c r="Z3" s="197"/>
+      <c r="AA3" s="197"/>
+      <c r="AB3" s="197"/>
+      <c r="AC3" s="197"/>
     </row>
     <row r="4" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B4" s="217"/>
-      <c r="C4" s="217"/>
-      <c r="D4" s="217"/>
-      <c r="E4" s="217"/>
-      <c r="F4" s="217"/>
-      <c r="G4" s="217"/>
-      <c r="H4" s="217"/>
-      <c r="I4" s="217"/>
-      <c r="J4" s="217"/>
-      <c r="K4" s="217"/>
-      <c r="L4" s="217"/>
-      <c r="M4" s="217"/>
-      <c r="N4" s="217"/>
-      <c r="O4" s="217"/>
-      <c r="P4" s="217"/>
-      <c r="Q4" s="217"/>
-      <c r="R4" s="217"/>
-      <c r="S4" s="217"/>
-      <c r="T4" s="217"/>
-      <c r="U4" s="217"/>
-      <c r="V4" s="217"/>
-      <c r="W4" s="217"/>
-      <c r="X4" s="217"/>
-      <c r="Y4" s="217"/>
-      <c r="Z4" s="217"/>
-      <c r="AA4" s="217"/>
-      <c r="AB4" s="217"/>
-      <c r="AC4" s="217"/>
+      <c r="B4" s="197"/>
+      <c r="C4" s="197"/>
+      <c r="D4" s="197"/>
+      <c r="E4" s="197"/>
+      <c r="F4" s="197"/>
+      <c r="G4" s="197"/>
+      <c r="H4" s="197"/>
+      <c r="I4" s="197"/>
+      <c r="J4" s="197"/>
+      <c r="K4" s="197"/>
+      <c r="L4" s="197"/>
+      <c r="M4" s="197"/>
+      <c r="N4" s="197"/>
+      <c r="O4" s="197"/>
+      <c r="P4" s="197"/>
+      <c r="Q4" s="197"/>
+      <c r="R4" s="197"/>
+      <c r="S4" s="197"/>
+      <c r="T4" s="197"/>
+      <c r="U4" s="197"/>
+      <c r="V4" s="197"/>
+      <c r="W4" s="197"/>
+      <c r="X4" s="197"/>
+      <c r="Y4" s="197"/>
+      <c r="Z4" s="197"/>
+      <c r="AA4" s="197"/>
+      <c r="AB4" s="197"/>
+      <c r="AC4" s="197"/>
     </row>
     <row r="5" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B5" s="217"/>
-      <c r="C5" s="217"/>
-      <c r="D5" s="217"/>
-      <c r="E5" s="217"/>
-      <c r="F5" s="217"/>
-      <c r="G5" s="217"/>
-      <c r="H5" s="217"/>
-      <c r="I5" s="217"/>
-      <c r="J5" s="217"/>
-      <c r="K5" s="217"/>
-      <c r="L5" s="217"/>
-      <c r="M5" s="217"/>
-      <c r="N5" s="217"/>
-      <c r="O5" s="217"/>
-      <c r="P5" s="217"/>
-      <c r="Q5" s="217"/>
-      <c r="R5" s="217"/>
-      <c r="S5" s="217"/>
-      <c r="T5" s="217"/>
-      <c r="U5" s="217"/>
-      <c r="V5" s="217"/>
-      <c r="W5" s="217"/>
-      <c r="X5" s="217"/>
-      <c r="Y5" s="217"/>
-      <c r="Z5" s="217"/>
-      <c r="AA5" s="217"/>
-      <c r="AB5" s="217"/>
-      <c r="AC5" s="217"/>
+      <c r="B5" s="197"/>
+      <c r="C5" s="197"/>
+      <c r="D5" s="197"/>
+      <c r="E5" s="197"/>
+      <c r="F5" s="197"/>
+      <c r="G5" s="197"/>
+      <c r="H5" s="197"/>
+      <c r="I5" s="197"/>
+      <c r="J5" s="197"/>
+      <c r="K5" s="197"/>
+      <c r="L5" s="197"/>
+      <c r="M5" s="197"/>
+      <c r="N5" s="197"/>
+      <c r="O5" s="197"/>
+      <c r="P5" s="197"/>
+      <c r="Q5" s="197"/>
+      <c r="R5" s="197"/>
+      <c r="S5" s="197"/>
+      <c r="T5" s="197"/>
+      <c r="U5" s="197"/>
+      <c r="V5" s="197"/>
+      <c r="W5" s="197"/>
+      <c r="X5" s="197"/>
+      <c r="Y5" s="197"/>
+      <c r="Z5" s="197"/>
+      <c r="AA5" s="197"/>
+      <c r="AB5" s="197"/>
+      <c r="AC5" s="197"/>
     </row>
     <row r="6" spans="2:32" ht="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:32" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9042,142 +9169,142 @@
       </c>
     </row>
     <row r="8" spans="2:32" ht="27" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="218" t="s">
+      <c r="B8" s="198" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="219"/>
-      <c r="D8" s="219"/>
-      <c r="E8" s="219"/>
-      <c r="F8" s="219"/>
-      <c r="G8" s="219"/>
-      <c r="H8" s="219"/>
-      <c r="I8" s="219"/>
-      <c r="J8" s="219"/>
-      <c r="K8" s="220"/>
-      <c r="L8" s="221"/>
-      <c r="M8" s="222"/>
-      <c r="N8" s="223" t="s">
+      <c r="C8" s="199"/>
+      <c r="D8" s="199"/>
+      <c r="E8" s="199"/>
+      <c r="F8" s="199"/>
+      <c r="G8" s="199"/>
+      <c r="H8" s="199"/>
+      <c r="I8" s="199"/>
+      <c r="J8" s="199"/>
+      <c r="K8" s="200"/>
+      <c r="L8" s="201"/>
+      <c r="M8" s="202"/>
+      <c r="N8" s="203" t="s">
         <v>73</v>
       </c>
-      <c r="O8" s="224"/>
-      <c r="P8" s="224"/>
-      <c r="Q8" s="225"/>
-      <c r="R8" s="226" t="s">
+      <c r="O8" s="204"/>
+      <c r="P8" s="204"/>
+      <c r="Q8" s="205"/>
+      <c r="R8" s="206" t="s">
         <v>103</v>
       </c>
-      <c r="S8" s="227"/>
-      <c r="T8" s="228"/>
+      <c r="S8" s="207"/>
+      <c r="T8" s="208"/>
       <c r="U8" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="V8" s="229" t="s">
+      <c r="V8" s="209" t="s">
         <v>0</v>
       </c>
-      <c r="W8" s="230"/>
-      <c r="X8" s="230"/>
-      <c r="Y8" s="230"/>
-      <c r="Z8" s="230"/>
-      <c r="AA8" s="230"/>
-      <c r="AB8" s="230"/>
-      <c r="AC8" s="231"/>
+      <c r="W8" s="210"/>
+      <c r="X8" s="210"/>
+      <c r="Y8" s="210"/>
+      <c r="Z8" s="210"/>
+      <c r="AA8" s="210"/>
+      <c r="AB8" s="210"/>
+      <c r="AC8" s="211"/>
     </row>
     <row r="9" spans="2:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="206" t="s">
+      <c r="B9" s="214" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="207" t="s">
+      <c r="C9" s="215" t="s">
         <v>105</v>
       </c>
-      <c r="D9" s="207" t="s">
+      <c r="D9" s="215" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="209" t="s">
+      <c r="E9" s="217" t="s">
         <v>70</v>
       </c>
-      <c r="F9" s="210"/>
-      <c r="G9" s="207" t="s">
+      <c r="F9" s="218"/>
+      <c r="G9" s="215" t="s">
         <v>106</v>
       </c>
-      <c r="H9" s="211" t="s">
+      <c r="H9" s="219" t="s">
         <v>102</v>
       </c>
-      <c r="I9" s="212" t="s">
+      <c r="I9" s="220" t="s">
         <v>71</v>
       </c>
-      <c r="J9" s="213" t="s">
+      <c r="J9" s="221" t="s">
         <v>107</v>
       </c>
-      <c r="K9" s="212" t="s">
+      <c r="K9" s="220" t="s">
         <v>108</v>
       </c>
-      <c r="L9" s="215" t="s">
+      <c r="L9" s="223" t="s">
         <v>109</v>
       </c>
-      <c r="M9" s="204" t="s">
+      <c r="M9" s="212" t="s">
         <v>110</v>
       </c>
-      <c r="N9" s="200" t="s">
+      <c r="N9" s="230" t="s">
         <v>111</v>
       </c>
-      <c r="O9" s="201" t="s">
+      <c r="O9" s="231" t="s">
         <v>73</v>
       </c>
-      <c r="P9" s="200" t="s">
+      <c r="P9" s="230" t="s">
         <v>112</v>
       </c>
-      <c r="Q9" s="202" t="s">
+      <c r="Q9" s="232" t="s">
         <v>113</v>
       </c>
-      <c r="R9" s="195" t="s">
+      <c r="R9" s="225" t="s">
         <v>114</v>
       </c>
-      <c r="S9" s="195" t="s">
+      <c r="S9" s="225" t="s">
         <v>115</v>
       </c>
-      <c r="T9" s="195" t="s">
+      <c r="T9" s="225" t="s">
         <v>116</v>
       </c>
-      <c r="U9" s="197" t="s">
+      <c r="U9" s="227" t="s">
         <v>117</v>
       </c>
-      <c r="V9" s="198" t="s">
+      <c r="V9" s="228" t="s">
         <v>118</v>
       </c>
-      <c r="W9" s="198"/>
-      <c r="X9" s="198"/>
-      <c r="Y9" s="198"/>
-      <c r="Z9" s="198" t="s">
+      <c r="W9" s="228"/>
+      <c r="X9" s="228"/>
+      <c r="Y9" s="228"/>
+      <c r="Z9" s="228" t="s">
         <v>119</v>
       </c>
-      <c r="AA9" s="198"/>
-      <c r="AB9" s="198"/>
-      <c r="AC9" s="199"/>
+      <c r="AA9" s="228"/>
+      <c r="AB9" s="228"/>
+      <c r="AC9" s="229"/>
     </row>
     <row r="10" spans="2:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="206"/>
-      <c r="C10" s="208"/>
-      <c r="D10" s="208"/>
+      <c r="B10" s="214"/>
+      <c r="C10" s="216"/>
+      <c r="D10" s="216"/>
       <c r="E10" s="71" t="s">
         <v>120</v>
       </c>
       <c r="F10" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="G10" s="208"/>
-      <c r="H10" s="211"/>
-      <c r="I10" s="212"/>
-      <c r="J10" s="214"/>
-      <c r="K10" s="212"/>
-      <c r="L10" s="216"/>
-      <c r="M10" s="205"/>
-      <c r="N10" s="201"/>
-      <c r="O10" s="201"/>
-      <c r="P10" s="201"/>
-      <c r="Q10" s="203"/>
-      <c r="R10" s="196"/>
-      <c r="S10" s="196"/>
-      <c r="T10" s="196"/>
-      <c r="U10" s="197"/>
+      <c r="G10" s="216"/>
+      <c r="H10" s="219"/>
+      <c r="I10" s="220"/>
+      <c r="J10" s="222"/>
+      <c r="K10" s="220"/>
+      <c r="L10" s="224"/>
+      <c r="M10" s="213"/>
+      <c r="N10" s="231"/>
+      <c r="O10" s="231"/>
+      <c r="P10" s="231"/>
+      <c r="Q10" s="233"/>
+      <c r="R10" s="226"/>
+      <c r="S10" s="226"/>
+      <c r="T10" s="226"/>
+      <c r="U10" s="227"/>
       <c r="V10" s="72" t="s">
         <v>122</v>
       </c>
@@ -13116,12 +13243,16 @@
   </sheetData>
   <autoFilter ref="B9:D53" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="27">
-    <mergeCell ref="B3:AC5"/>
-    <mergeCell ref="B8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:Q8"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="V8:AC8"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="S9:S10"/>
     <mergeCell ref="M9:M10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
@@ -13133,16 +13264,12 @@
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="K9:K10"/>
     <mergeCell ref="L9:L10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="B3:AC5"/>
+    <mergeCell ref="B8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="V8:AC8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="Z11:AC53">
@@ -13160,7 +13287,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B34607-C76F-4575-8855-6312C5317CEF}">
   <dimension ref="B1:AD49"/>
   <sheetViews>
@@ -13199,90 +13326,90 @@
     <row r="1" spans="2:30" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:30" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B3" s="217" t="s">
+      <c r="B3" s="197" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="217"/>
-      <c r="D3" s="217"/>
-      <c r="E3" s="217"/>
-      <c r="F3" s="217"/>
-      <c r="G3" s="217"/>
-      <c r="H3" s="217"/>
-      <c r="I3" s="217"/>
-      <c r="J3" s="217"/>
-      <c r="K3" s="217"/>
-      <c r="L3" s="217"/>
-      <c r="M3" s="217"/>
-      <c r="N3" s="217"/>
-      <c r="O3" s="217"/>
-      <c r="P3" s="217"/>
-      <c r="Q3" s="217"/>
-      <c r="R3" s="217"/>
-      <c r="S3" s="217"/>
-      <c r="T3" s="217"/>
-      <c r="U3" s="217"/>
-      <c r="V3" s="217"/>
-      <c r="W3" s="217"/>
-      <c r="X3" s="217"/>
-      <c r="Y3" s="217"/>
-      <c r="Z3" s="217"/>
-      <c r="AA3" s="217"/>
+      <c r="C3" s="197"/>
+      <c r="D3" s="197"/>
+      <c r="E3" s="197"/>
+      <c r="F3" s="197"/>
+      <c r="G3" s="197"/>
+      <c r="H3" s="197"/>
+      <c r="I3" s="197"/>
+      <c r="J3" s="197"/>
+      <c r="K3" s="197"/>
+      <c r="L3" s="197"/>
+      <c r="M3" s="197"/>
+      <c r="N3" s="197"/>
+      <c r="O3" s="197"/>
+      <c r="P3" s="197"/>
+      <c r="Q3" s="197"/>
+      <c r="R3" s="197"/>
+      <c r="S3" s="197"/>
+      <c r="T3" s="197"/>
+      <c r="U3" s="197"/>
+      <c r="V3" s="197"/>
+      <c r="W3" s="197"/>
+      <c r="X3" s="197"/>
+      <c r="Y3" s="197"/>
+      <c r="Z3" s="197"/>
+      <c r="AA3" s="197"/>
     </row>
     <row r="4" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B4" s="217"/>
-      <c r="C4" s="217"/>
-      <c r="D4" s="217"/>
-      <c r="E4" s="217"/>
-      <c r="F4" s="217"/>
-      <c r="G4" s="217"/>
-      <c r="H4" s="217"/>
-      <c r="I4" s="217"/>
-      <c r="J4" s="217"/>
-      <c r="K4" s="217"/>
-      <c r="L4" s="217"/>
-      <c r="M4" s="217"/>
-      <c r="N4" s="217"/>
-      <c r="O4" s="217"/>
-      <c r="P4" s="217"/>
-      <c r="Q4" s="217"/>
-      <c r="R4" s="217"/>
-      <c r="S4" s="217"/>
-      <c r="T4" s="217"/>
-      <c r="U4" s="217"/>
-      <c r="V4" s="217"/>
-      <c r="W4" s="217"/>
-      <c r="X4" s="217"/>
-      <c r="Y4" s="217"/>
-      <c r="Z4" s="217"/>
-      <c r="AA4" s="217"/>
+      <c r="B4" s="197"/>
+      <c r="C4" s="197"/>
+      <c r="D4" s="197"/>
+      <c r="E4" s="197"/>
+      <c r="F4" s="197"/>
+      <c r="G4" s="197"/>
+      <c r="H4" s="197"/>
+      <c r="I4" s="197"/>
+      <c r="J4" s="197"/>
+      <c r="K4" s="197"/>
+      <c r="L4" s="197"/>
+      <c r="M4" s="197"/>
+      <c r="N4" s="197"/>
+      <c r="O4" s="197"/>
+      <c r="P4" s="197"/>
+      <c r="Q4" s="197"/>
+      <c r="R4" s="197"/>
+      <c r="S4" s="197"/>
+      <c r="T4" s="197"/>
+      <c r="U4" s="197"/>
+      <c r="V4" s="197"/>
+      <c r="W4" s="197"/>
+      <c r="X4" s="197"/>
+      <c r="Y4" s="197"/>
+      <c r="Z4" s="197"/>
+      <c r="AA4" s="197"/>
     </row>
     <row r="5" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B5" s="217"/>
-      <c r="C5" s="217"/>
-      <c r="D5" s="217"/>
-      <c r="E5" s="217"/>
-      <c r="F5" s="217"/>
-      <c r="G5" s="217"/>
-      <c r="H5" s="217"/>
-      <c r="I5" s="217"/>
-      <c r="J5" s="217"/>
-      <c r="K5" s="217"/>
-      <c r="L5" s="217"/>
-      <c r="M5" s="217"/>
-      <c r="N5" s="217"/>
-      <c r="O5" s="217"/>
-      <c r="P5" s="217"/>
-      <c r="Q5" s="217"/>
-      <c r="R5" s="217"/>
-      <c r="S5" s="217"/>
-      <c r="T5" s="217"/>
-      <c r="U5" s="217"/>
-      <c r="V5" s="217"/>
-      <c r="W5" s="217"/>
-      <c r="X5" s="217"/>
-      <c r="Y5" s="217"/>
-      <c r="Z5" s="217"/>
-      <c r="AA5" s="217"/>
+      <c r="B5" s="197"/>
+      <c r="C5" s="197"/>
+      <c r="D5" s="197"/>
+      <c r="E5" s="197"/>
+      <c r="F5" s="197"/>
+      <c r="G5" s="197"/>
+      <c r="H5" s="197"/>
+      <c r="I5" s="197"/>
+      <c r="J5" s="197"/>
+      <c r="K5" s="197"/>
+      <c r="L5" s="197"/>
+      <c r="M5" s="197"/>
+      <c r="N5" s="197"/>
+      <c r="O5" s="197"/>
+      <c r="P5" s="197"/>
+      <c r="Q5" s="197"/>
+      <c r="R5" s="197"/>
+      <c r="S5" s="197"/>
+      <c r="T5" s="197"/>
+      <c r="U5" s="197"/>
+      <c r="V5" s="197"/>
+      <c r="W5" s="197"/>
+      <c r="X5" s="197"/>
+      <c r="Y5" s="197"/>
+      <c r="Z5" s="197"/>
+      <c r="AA5" s="197"/>
     </row>
     <row r="6" spans="2:30" ht="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:30" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -13291,130 +13418,130 @@
       </c>
     </row>
     <row r="8" spans="2:30" ht="27" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="218" t="s">
+      <c r="B8" s="198" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="219"/>
-      <c r="D8" s="219"/>
-      <c r="E8" s="219"/>
-      <c r="F8" s="219"/>
-      <c r="G8" s="219"/>
-      <c r="H8" s="219"/>
-      <c r="I8" s="220"/>
-      <c r="J8" s="221"/>
-      <c r="K8" s="222"/>
-      <c r="L8" s="223" t="s">
+      <c r="C8" s="199"/>
+      <c r="D8" s="199"/>
+      <c r="E8" s="199"/>
+      <c r="F8" s="199"/>
+      <c r="G8" s="199"/>
+      <c r="H8" s="199"/>
+      <c r="I8" s="200"/>
+      <c r="J8" s="201"/>
+      <c r="K8" s="202"/>
+      <c r="L8" s="203" t="s">
         <v>73</v>
       </c>
-      <c r="M8" s="224"/>
-      <c r="N8" s="224"/>
-      <c r="O8" s="225"/>
-      <c r="P8" s="226" t="s">
+      <c r="M8" s="204"/>
+      <c r="N8" s="204"/>
+      <c r="O8" s="205"/>
+      <c r="P8" s="206" t="s">
         <v>103</v>
       </c>
-      <c r="Q8" s="227"/>
-      <c r="R8" s="228"/>
+      <c r="Q8" s="207"/>
+      <c r="R8" s="208"/>
       <c r="S8" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="T8" s="229" t="s">
+      <c r="T8" s="209" t="s">
         <v>0</v>
       </c>
-      <c r="U8" s="230"/>
-      <c r="V8" s="230"/>
-      <c r="W8" s="230"/>
-      <c r="X8" s="230"/>
-      <c r="Y8" s="230"/>
-      <c r="Z8" s="230"/>
-      <c r="AA8" s="231"/>
+      <c r="U8" s="210"/>
+      <c r="V8" s="210"/>
+      <c r="W8" s="210"/>
+      <c r="X8" s="210"/>
+      <c r="Y8" s="210"/>
+      <c r="Z8" s="210"/>
+      <c r="AA8" s="211"/>
     </row>
     <row r="9" spans="2:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="206" t="s">
+      <c r="B9" s="214" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="207" t="s">
+      <c r="C9" s="215" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="207" t="s">
+      <c r="D9" s="215" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="207" t="s">
+      <c r="E9" s="215" t="s">
         <v>106</v>
       </c>
-      <c r="F9" s="211" t="s">
+      <c r="F9" s="219" t="s">
         <v>102</v>
       </c>
-      <c r="G9" s="212" t="s">
+      <c r="G9" s="220" t="s">
         <v>71</v>
       </c>
-      <c r="H9" s="213" t="s">
+      <c r="H9" s="221" t="s">
         <v>107</v>
       </c>
-      <c r="I9" s="212" t="s">
+      <c r="I9" s="220" t="s">
         <v>108</v>
       </c>
-      <c r="J9" s="215" t="s">
+      <c r="J9" s="223" t="s">
         <v>109</v>
       </c>
-      <c r="K9" s="204" t="s">
+      <c r="K9" s="212" t="s">
         <v>110</v>
       </c>
-      <c r="L9" s="200" t="s">
+      <c r="L9" s="230" t="s">
         <v>111</v>
       </c>
-      <c r="M9" s="201" t="s">
+      <c r="M9" s="231" t="s">
         <v>73</v>
       </c>
-      <c r="N9" s="200" t="s">
+      <c r="N9" s="230" t="s">
         <v>112</v>
       </c>
-      <c r="O9" s="202" t="s">
+      <c r="O9" s="232" t="s">
         <v>113</v>
       </c>
-      <c r="P9" s="195" t="s">
+      <c r="P9" s="225" t="s">
         <v>114</v>
       </c>
-      <c r="Q9" s="195" t="s">
+      <c r="Q9" s="225" t="s">
         <v>115</v>
       </c>
-      <c r="R9" s="195" t="s">
+      <c r="R9" s="225" t="s">
         <v>116</v>
       </c>
-      <c r="S9" s="197" t="s">
+      <c r="S9" s="227" t="s">
         <v>117</v>
       </c>
-      <c r="T9" s="198" t="s">
+      <c r="T9" s="228" t="s">
         <v>118</v>
       </c>
-      <c r="U9" s="198"/>
-      <c r="V9" s="198"/>
-      <c r="W9" s="198"/>
-      <c r="X9" s="198" t="s">
+      <c r="U9" s="228"/>
+      <c r="V9" s="228"/>
+      <c r="W9" s="228"/>
+      <c r="X9" s="228" t="s">
         <v>119</v>
       </c>
-      <c r="Y9" s="198"/>
-      <c r="Z9" s="198"/>
-      <c r="AA9" s="199"/>
+      <c r="Y9" s="228"/>
+      <c r="Z9" s="228"/>
+      <c r="AA9" s="229"/>
     </row>
     <row r="10" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="206"/>
-      <c r="C10" s="208"/>
-      <c r="D10" s="208"/>
-      <c r="E10" s="208"/>
-      <c r="F10" s="211"/>
-      <c r="G10" s="212"/>
-      <c r="H10" s="214"/>
-      <c r="I10" s="212"/>
-      <c r="J10" s="216"/>
-      <c r="K10" s="205"/>
-      <c r="L10" s="201"/>
-      <c r="M10" s="201"/>
-      <c r="N10" s="201"/>
-      <c r="O10" s="203"/>
-      <c r="P10" s="196"/>
-      <c r="Q10" s="196"/>
-      <c r="R10" s="196"/>
-      <c r="S10" s="197"/>
+      <c r="B10" s="214"/>
+      <c r="C10" s="216"/>
+      <c r="D10" s="216"/>
+      <c r="E10" s="216"/>
+      <c r="F10" s="219"/>
+      <c r="G10" s="220"/>
+      <c r="H10" s="222"/>
+      <c r="I10" s="220"/>
+      <c r="J10" s="224"/>
+      <c r="K10" s="213"/>
+      <c r="L10" s="231"/>
+      <c r="M10" s="231"/>
+      <c r="N10" s="231"/>
+      <c r="O10" s="233"/>
+      <c r="P10" s="226"/>
+      <c r="Q10" s="226"/>
+      <c r="R10" s="226"/>
+      <c r="S10" s="227"/>
       <c r="T10" s="118" t="s">
         <v>122</v>
       </c>
@@ -15211,6 +15338,16 @@
   </sheetData>
   <autoFilter ref="B9:C40" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="26">
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="E9:E10"/>
@@ -15227,16 +15364,6 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="M9:M10"/>
     <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="X11:AA22 X24:AA28 X30:AA40">

--- a/document/goods_Info.xlsx
+++ b/document/goods_Info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aodrl\Desktop\Project\CMW_V2\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADC7B83-439E-490C-80C2-D1978555CDC7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6C018F-7B0E-49A7-A942-709A074BF83D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2490" windowWidth="21840" windowHeight="13140" activeTab="2" xr2:uid="{2202C1BA-8378-4109-9FCC-5C7E0CDB8A0F}"/>
+    <workbookView xWindow="28680" yWindow="2490" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{2202C1BA-8378-4109-9FCC-5C7E0CDB8A0F}"/>
   </bookViews>
   <sheets>
     <sheet name="정보" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="198">
   <si>
     <t>마진</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -828,6 +828,10 @@
   </si>
   <si>
     <t>꽃점보롤 300</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10롤박스</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1882,7 +1886,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="234">
+  <cellXfs count="235">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2337,6 +2341,9 @@
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2346,37 +2353,67 @@
     <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="30" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2385,10 +2422,31 @@
     <xf numFmtId="176" fontId="7" fillId="30" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2397,21 +2455,12 @@
     <xf numFmtId="176" fontId="7" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="7" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="7" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2430,47 +2479,71 @@
     <xf numFmtId="176" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="16" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="16" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="22" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="23" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="4" fillId="23" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="21" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="21" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="21" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="21" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="20" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="4" fillId="20" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="6" fillId="19" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="19" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="19" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="19" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="19" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="19" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="19" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="19" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="19" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="20" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="4" fillId="20" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="41" fontId="17" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2516,72 +2589,6 @@
     </xf>
     <xf numFmtId="41" fontId="18" fillId="18" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="20" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="20" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="19" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="19" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="19" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="19" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="19" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="19" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="19" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="19" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="19" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="20" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="20" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="16" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="16" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="22" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="23" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="23" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="21" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="21" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="21" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="21" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2960,27 +2967,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:29" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="152" t="s">
+      <c r="B2" s="153" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="152"/>
-      <c r="E2" s="152" t="s">
+      <c r="C2" s="153"/>
+      <c r="E2" s="153" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="I2" s="153" t="s">
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="I2" s="154" t="s">
         <v>66</v>
       </c>
-      <c r="J2" s="154"/>
+      <c r="J2" s="155"/>
       <c r="L2" s="40" t="s">
         <v>67</v>
       </c>
       <c r="M2" s="41"/>
-      <c r="N2" s="152" t="s">
+      <c r="N2" s="153" t="s">
         <v>68</v>
       </c>
-      <c r="O2" s="152"/>
+      <c r="O2" s="153"/>
       <c r="Q2" s="126" t="s">
         <v>162</v>
       </c>
@@ -4538,10 +4545,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3104B28F-70C4-4516-B7D6-2295FDC1E0E7}">
-  <dimension ref="B2:AE35"/>
+  <dimension ref="B2:AE37"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27:S31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4550,7 +4557,7 @@
     <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="2.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.625" bestFit="1" customWidth="1"/>
@@ -4576,12 +4583,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:31" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="155" t="s">
+      <c r="B2" s="166" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
       <c r="G2" s="129" t="s">
         <v>171</v>
       </c>
@@ -4673,7 +4680,7 @@
       <c r="AB3" s="1"/>
     </row>
     <row r="4" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B4" s="156" t="s">
+      <c r="B4" s="160" t="s">
         <v>56</v>
       </c>
       <c r="C4" s="132" t="s">
@@ -4728,7 +4735,7 @@
       <c r="AB4" s="1"/>
     </row>
     <row r="5" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B5" s="156"/>
+      <c r="B5" s="160"/>
       <c r="C5" s="132" t="s">
         <v>38</v>
       </c>
@@ -4780,10 +4787,10 @@
       <c r="AB5" s="1"/>
     </row>
     <row r="6" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B6" s="156" t="s">
+      <c r="B6" s="160" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="157" t="s">
+      <c r="C6" s="161" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="133" t="s">
@@ -4835,8 +4842,8 @@
       <c r="AB6" s="1"/>
     </row>
     <row r="7" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B7" s="156"/>
-      <c r="C7" s="158"/>
+      <c r="B7" s="160"/>
+      <c r="C7" s="163"/>
       <c r="D7" s="133" t="s">
         <v>50</v>
       </c>
@@ -4889,7 +4896,7 @@
       <c r="AB7" s="1"/>
     </row>
     <row r="8" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B8" s="156"/>
+      <c r="B8" s="160"/>
       <c r="C8" s="132" t="s">
         <v>49</v>
       </c>
@@ -4945,7 +4952,7 @@
       <c r="AB8" s="1"/>
     </row>
     <row r="9" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B9" s="156" t="s">
+      <c r="B9" s="160" t="s">
         <v>48</v>
       </c>
       <c r="C9" s="132" t="s">
@@ -5000,7 +5007,7 @@
       <c r="AB9" s="1"/>
     </row>
     <row r="10" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B10" s="156"/>
+      <c r="B10" s="160"/>
       <c r="C10" s="132" t="s">
         <v>44</v>
       </c>
@@ -5053,7 +5060,7 @@
       <c r="AB10" s="1"/>
     </row>
     <row r="11" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B11" s="156"/>
+      <c r="B11" s="160"/>
       <c r="C11" s="132" t="s">
         <v>176</v>
       </c>
@@ -5125,7 +5132,7 @@
       <c r="AE11" s="1"/>
     </row>
     <row r="12" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B12" s="159" t="s">
+      <c r="B12" s="156" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="132" t="s">
@@ -5206,7 +5213,7 @@
       <c r="AE12" s="1"/>
     </row>
     <row r="13" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B13" s="160"/>
+      <c r="B13" s="157"/>
       <c r="C13" s="132" t="s">
         <v>187</v>
       </c>
@@ -5288,7 +5295,7 @@
       <c r="AE13" s="1"/>
     </row>
     <row r="14" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B14" s="160"/>
+      <c r="B14" s="157"/>
       <c r="C14" s="132" t="s">
         <v>187</v>
       </c>
@@ -5367,7 +5374,7 @@
       <c r="AE14" s="1"/>
     </row>
     <row r="15" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B15" s="160"/>
+      <c r="B15" s="157"/>
       <c r="C15" s="133" t="s">
         <v>45</v>
       </c>
@@ -5442,7 +5449,7 @@
       <c r="AB15" s="1"/>
     </row>
     <row r="16" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B16" s="160"/>
+      <c r="B16" s="157"/>
       <c r="C16" s="133" t="s">
         <v>44</v>
       </c>
@@ -5504,7 +5511,7 @@
       <c r="AB16" s="1"/>
     </row>
     <row r="17" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B17" s="161"/>
+      <c r="B17" s="158"/>
       <c r="C17" s="133" t="s">
         <v>43</v>
       </c>
@@ -5566,7 +5573,7 @@
       <c r="AB17" s="1"/>
     </row>
     <row r="18" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B18" s="162" t="s">
+      <c r="B18" s="159" t="s">
         <v>42</v>
       </c>
       <c r="C18" s="132" t="s">
@@ -5630,7 +5637,7 @@
       <c r="AB18" s="1"/>
     </row>
     <row r="19" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B19" s="156"/>
+      <c r="B19" s="160"/>
       <c r="C19" s="132" t="s">
         <v>38</v>
       </c>
@@ -5678,6 +5685,18 @@
       <c r="L20" s="147">
         <v>10</v>
       </c>
+      <c r="N20" s="147">
+        <v>7</v>
+      </c>
+      <c r="O20" s="147">
+        <v>8</v>
+      </c>
+      <c r="P20" s="147">
+        <v>9</v>
+      </c>
+      <c r="Q20" s="147">
+        <v>10</v>
+      </c>
       <c r="V20">
         <f>(V19-E27)*4</f>
         <v>7.12</v>
@@ -5709,7 +5728,7 @@
         <v>19</v>
       </c>
       <c r="J21" s="143">
-        <f t="shared" ref="J21:L22" si="13">$R3*J$20</f>
+        <f t="shared" ref="J21:K22" si="13">$R3*J$20</f>
         <v>1773.8834039975773</v>
       </c>
       <c r="K21" s="143">
@@ -5717,12 +5736,26 @@
         <v>8869.4170199878863</v>
       </c>
       <c r="L21" s="143">
-        <f t="shared" si="13"/>
+        <f>$R3*L$20+E33</f>
+        <v>18893.834039975773</v>
+      </c>
+      <c r="M21" s="144"/>
+      <c r="N21" s="144">
+        <f t="shared" ref="N21:Q21" si="14">$R3*N$20</f>
+        <v>12417.183827983041</v>
+      </c>
+      <c r="O21" s="144">
+        <f t="shared" si="14"/>
+        <v>14191.067231980618</v>
+      </c>
+      <c r="P21" s="144">
+        <f t="shared" si="14"/>
+        <v>15964.950635978195</v>
+      </c>
+      <c r="Q21" s="144">
+        <f t="shared" si="14"/>
         <v>17738.834039975773</v>
       </c>
-      <c r="M21" s="144"/>
-      <c r="N21" s="144"/>
-      <c r="O21" s="144"/>
       <c r="V21">
         <f>V20/16</f>
         <v>0.44500000000000001</v>
@@ -5757,14 +5790,26 @@
         <v>8869.4170199878863</v>
       </c>
       <c r="L22" s="143">
-        <f t="shared" si="13"/>
-        <v>17738.834039975773</v>
-      </c>
-      <c r="M22" s="144">
-        <v>18070</v>
-      </c>
-      <c r="N22" s="144"/>
-      <c r="O22" s="144"/>
+        <f>$R4*L$20+E33</f>
+        <v>18893.834039975773</v>
+      </c>
+      <c r="M22" s="144"/>
+      <c r="N22" s="144">
+        <f>N21+$E$33</f>
+        <v>13572.183827983041</v>
+      </c>
+      <c r="O22" s="144">
+        <f t="shared" ref="O22:Q22" si="15">O21+$E$33</f>
+        <v>15346.067231980618</v>
+      </c>
+      <c r="P22" s="144">
+        <f t="shared" si="15"/>
+        <v>17119.950635978195</v>
+      </c>
+      <c r="Q22" s="144">
+        <f t="shared" si="15"/>
+        <v>18893.834039975773</v>
+      </c>
       <c r="Z22" s="1"/>
       <c r="AB22" s="1"/>
     </row>
@@ -5896,8 +5941,18 @@
       <c r="L26" s="144">
         <v>3</v>
       </c>
-      <c r="M26" s="144"/>
-      <c r="N26" s="144"/>
+      <c r="M26" s="144">
+        <v>1</v>
+      </c>
+      <c r="N26" s="144">
+        <v>2</v>
+      </c>
+      <c r="O26" s="144">
+        <v>3</v>
+      </c>
+      <c r="P26" s="144">
+        <v>4</v>
+      </c>
     </row>
     <row r="27" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B27" s="128"/>
@@ -5912,15 +5967,15 @@
         <v>16</v>
       </c>
       <c r="J27" s="144">
-        <f t="shared" ref="J27:L31" si="14">$R6*J$26</f>
+        <f t="shared" ref="J27:L31" si="16">$R6*J$26</f>
         <v>3365.6502119927318</v>
       </c>
       <c r="K27" s="143">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>6731.3004239854636</v>
       </c>
       <c r="L27" s="143">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>10096.950635978195</v>
       </c>
       <c r="M27" s="144">
@@ -5935,9 +5990,13 @@
         <f>$L27+$E15</f>
         <v>10347.750635978195</v>
       </c>
+      <c r="P27" s="122">
+        <f>N27*2</f>
+        <v>13849.800847970928</v>
+      </c>
     </row>
     <row r="28" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B28" s="157" t="s">
+      <c r="B28" s="161" t="s">
         <v>22</v>
       </c>
       <c r="C28" s="132" t="s">
@@ -5951,15 +6010,15 @@
         <v>62</v>
       </c>
       <c r="J28" s="144">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3623.6502119927318</v>
       </c>
       <c r="K28" s="143">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>7247.3004239854636</v>
       </c>
       <c r="L28" s="143">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>10870.950635978195</v>
       </c>
       <c r="M28" s="144">
@@ -5974,9 +6033,13 @@
         <f>$L28+$E15</f>
         <v>11121.750635978195</v>
       </c>
+      <c r="P28" s="122">
+        <f>N28*2</f>
+        <v>14881.800847970928</v>
+      </c>
     </row>
     <row r="29" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B29" s="163"/>
+      <c r="B29" s="162"/>
       <c r="C29" s="132" t="s">
         <v>174</v>
       </c>
@@ -5988,15 +6051,15 @@
         <v>82</v>
       </c>
       <c r="J29" s="144">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>4399.8502119927316</v>
       </c>
       <c r="K29" s="143">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>8799.7004239854632</v>
       </c>
       <c r="L29" s="143">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>13199.550635978194</v>
       </c>
       <c r="M29" s="144">
@@ -6011,9 +6074,13 @@
         <f>$L29+$E16</f>
         <v>13452.550635978194</v>
       </c>
+      <c r="P29" s="122">
+        <f t="shared" ref="P29:P31" si="17">N29*2</f>
+        <v>17986.600847970927</v>
+      </c>
     </row>
     <row r="30" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B30" s="158"/>
+      <c r="B30" s="163"/>
       <c r="C30" s="132" t="s">
         <v>176</v>
       </c>
@@ -6025,15 +6092,15 @@
         <v>32</v>
       </c>
       <c r="J30" s="144">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>5050.3502119927316</v>
       </c>
       <c r="K30" s="143">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>10100.700423985463</v>
       </c>
       <c r="L30" s="143">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>15151.050635978194</v>
       </c>
       <c r="M30" s="144">
@@ -6048,6 +6115,10 @@
         <f>$L30+$E17</f>
         <v>15406.250635978195</v>
       </c>
+      <c r="P30" s="122">
+        <f t="shared" si="17"/>
+        <v>20588.600847970927</v>
+      </c>
     </row>
     <row r="31" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B31" s="136" t="s">
@@ -6066,15 +6137,15 @@
         <v>149</v>
       </c>
       <c r="J31" s="144">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>5243.8502119927316</v>
       </c>
       <c r="K31" s="143">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>10487.700423985463</v>
       </c>
       <c r="L31" s="143">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>15731.550635978194</v>
       </c>
       <c r="M31" s="144">
@@ -6089,70 +6160,76 @@
         <f>$L31+$E17</f>
         <v>15986.750635978195</v>
       </c>
-      <c r="P31">
-        <v>0.16</v>
-      </c>
-      <c r="Q31">
-        <v>4</v>
-      </c>
-      <c r="R31" s="150">
-        <f>P31*Q31</f>
-        <v>0.64</v>
-      </c>
-      <c r="S31">
-        <f>R31*1290</f>
-        <v>825.6</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="149" t="s">
+      <c r="P31" s="122">
+        <f t="shared" si="17"/>
+        <v>21362.600847970927</v>
+      </c>
+      <c r="R31" s="150"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>197</v>
+      </c>
+      <c r="C33" s="152" t="s">
+        <v>186</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="3">
+        <f>1050*1.1</f>
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B35" s="149" t="s">
         <v>185</v>
       </c>
-      <c r="C33" s="149">
+      <c r="C35" s="149">
         <v>30</v>
-      </c>
-      <c r="D33" s="149">
-        <f>C33*1.1</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B34" s="149" t="s">
-        <v>184</v>
-      </c>
-      <c r="C34" s="149">
-        <v>135</v>
-      </c>
-      <c r="D34" s="149">
-        <f>C34*1.1</f>
-        <v>148.5</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35" s="149" t="s">
-        <v>183</v>
-      </c>
-      <c r="C35" s="149">
-        <v>176</v>
       </c>
       <c r="D35" s="149">
         <f>C35*1.1</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B36" s="149" t="s">
+        <v>184</v>
+      </c>
+      <c r="C36" s="149">
+        <v>135</v>
+      </c>
+      <c r="D36" s="149">
+        <f>C36*1.1</f>
+        <v>148.5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B37" s="149" t="s">
+        <v>183</v>
+      </c>
+      <c r="C37" s="149">
+        <v>176</v>
+      </c>
+      <c r="D37" s="149">
+        <f>C37*1.1</f>
         <v>193.60000000000002</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B9:B11"/>
     <mergeCell ref="B12:B17"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="B9:B11"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6164,7 +6241,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46AAEF08-3708-49D6-9F46-0E569E819530}">
   <dimension ref="C5:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
@@ -6332,13 +6409,13 @@
   <sheetData>
     <row r="1" spans="2:51" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:51" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="180" t="s">
+      <c r="B2" s="195" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="G2" s="170" t="s">
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="195"/>
+      <c r="G2" s="188" t="s">
         <v>62</v>
       </c>
       <c r="H2" s="39">
@@ -6367,12 +6444,12 @@
         <v>107</v>
       </c>
       <c r="P2" s="12"/>
-      <c r="Q2" s="168" t="s">
+      <c r="Q2" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="168"/>
-      <c r="S2" s="169"/>
-      <c r="U2" s="195" t="s">
+      <c r="R2" s="175"/>
+      <c r="S2" s="176"/>
+      <c r="U2" s="170" t="s">
         <v>61</v>
       </c>
       <c r="V2" s="31">
@@ -6401,11 +6478,11 @@
         <v>176</v>
       </c>
       <c r="AD2" s="12"/>
-      <c r="AE2" s="192" t="s">
+      <c r="AE2" s="167" t="s">
         <v>17</v>
       </c>
-      <c r="AF2" s="193"/>
-      <c r="AG2" s="194"/>
+      <c r="AF2" s="168"/>
+      <c r="AG2" s="169"/>
       <c r="AU2" t="s">
         <v>163</v>
       </c>
@@ -6437,7 +6514,7 @@
       <c r="E3" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="171"/>
+      <c r="G3" s="189"/>
       <c r="H3" s="11" t="s">
         <v>10</v>
       </c>
@@ -6472,7 +6549,7 @@
       <c r="S3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="U3" s="196"/>
+      <c r="U3" s="171"/>
       <c r="V3" s="11" t="s">
         <v>10</v>
       </c>
@@ -6526,7 +6603,7 @@
       </c>
     </row>
     <row r="4" spans="2:51" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="172" t="s">
+      <c r="B4" s="187" t="s">
         <v>56</v>
       </c>
       <c r="C4" s="28" t="s">
@@ -6538,7 +6615,7 @@
       <c r="E4" s="26">
         <v>1290</v>
       </c>
-      <c r="G4" s="171"/>
+      <c r="G4" s="189"/>
       <c r="H4" s="7">
         <f>$M2*$E$4</f>
         <v>325080</v>
@@ -6584,7 +6661,7 @@
         <f>R4/$K2</f>
         <v>0.1900233986522713</v>
       </c>
-      <c r="U4" s="196"/>
+      <c r="U4" s="171"/>
       <c r="V4" s="7">
         <f>$AA2*$E$4</f>
         <v>392160</v>
@@ -6648,7 +6725,7 @@
       </c>
     </row>
     <row r="5" spans="2:51" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="172"/>
+      <c r="B5" s="187"/>
       <c r="C5" s="28" t="s">
         <v>38</v>
       </c>
@@ -6678,10 +6755,10 @@
       </c>
     </row>
     <row r="6" spans="2:51" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B6" s="172" t="s">
+      <c r="B6" s="187" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="181" t="s">
+      <c r="C6" s="196" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="28" t="s">
@@ -6691,7 +6768,7 @@
         <f>110</f>
         <v>110</v>
       </c>
-      <c r="G6" s="173" t="s">
+      <c r="G6" s="190" t="s">
         <v>52</v>
       </c>
       <c r="H6" s="35">
@@ -6720,12 +6797,12 @@
         <v>89</v>
       </c>
       <c r="P6" s="12"/>
-      <c r="Q6" s="168" t="s">
+      <c r="Q6" s="175" t="s">
         <v>11</v>
       </c>
-      <c r="R6" s="168"/>
-      <c r="S6" s="169"/>
-      <c r="U6" s="195" t="s">
+      <c r="R6" s="175"/>
+      <c r="S6" s="176"/>
+      <c r="U6" s="170" t="s">
         <v>51</v>
       </c>
       <c r="V6" s="31">
@@ -6754,11 +6831,11 @@
         <v>119</v>
       </c>
       <c r="AD6" s="12"/>
-      <c r="AE6" s="192" t="s">
+      <c r="AE6" s="167" t="s">
         <v>17</v>
       </c>
-      <c r="AF6" s="193"/>
-      <c r="AG6" s="194"/>
+      <c r="AF6" s="168"/>
+      <c r="AG6" s="169"/>
       <c r="AU6" t="s">
         <v>48</v>
       </c>
@@ -6778,8 +6855,8 @@
       </c>
     </row>
     <row r="7" spans="2:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="172"/>
-      <c r="C7" s="182"/>
+      <c r="B7" s="187"/>
+      <c r="C7" s="197"/>
       <c r="D7" s="28" t="s">
         <v>50</v>
       </c>
@@ -6787,7 +6864,7 @@
         <f>E6/12.7</f>
         <v>8.6614173228346463</v>
       </c>
-      <c r="G7" s="174"/>
+      <c r="G7" s="191"/>
       <c r="H7" s="11" t="s">
         <v>10</v>
       </c>
@@ -6822,7 +6899,7 @@
       <c r="S7" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="U7" s="196"/>
+      <c r="U7" s="171"/>
       <c r="V7" s="11" t="s">
         <v>10</v>
       </c>
@@ -6876,7 +6953,7 @@
       </c>
     </row>
     <row r="8" spans="2:51" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="172"/>
+      <c r="B8" s="187"/>
       <c r="C8" s="28" t="s">
         <v>49</v>
       </c>
@@ -6886,7 +6963,7 @@
       <c r="E8" s="26">
         <v>50</v>
       </c>
-      <c r="G8" s="174"/>
+      <c r="G8" s="191"/>
       <c r="H8" s="7">
         <f>$M6*$E$4</f>
         <v>330240</v>
@@ -6932,7 +7009,7 @@
         <f>R8/$K6</f>
         <v>0.19905280045752707</v>
       </c>
-      <c r="U8" s="196"/>
+      <c r="U8" s="171"/>
       <c r="V8" s="7">
         <f>$AA6*$E$4</f>
         <v>314760</v>
@@ -6996,7 +7073,7 @@
       </c>
     </row>
     <row r="9" spans="2:51" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="172" t="s">
+      <c r="B9" s="187" t="s">
         <v>48</v>
       </c>
       <c r="C9" s="28" t="s">
@@ -7017,11 +7094,11 @@
       </c>
     </row>
     <row r="10" spans="2:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="172"/>
+      <c r="B10" s="187"/>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
       <c r="E10" s="26"/>
-      <c r="G10" s="175" t="s">
+      <c r="G10" s="181" t="s">
         <v>47</v>
       </c>
       <c r="H10" s="23">
@@ -7050,12 +7127,12 @@
         <v>89</v>
       </c>
       <c r="P10" s="12"/>
-      <c r="Q10" s="168" t="s">
+      <c r="Q10" s="175" t="s">
         <v>11</v>
       </c>
-      <c r="R10" s="168"/>
-      <c r="S10" s="169"/>
-      <c r="U10" s="195" t="s">
+      <c r="R10" s="175"/>
+      <c r="S10" s="176"/>
+      <c r="U10" s="170" t="s">
         <v>46</v>
       </c>
       <c r="V10" s="31">
@@ -7084,14 +7161,14 @@
         <v>148</v>
       </c>
       <c r="AD10" s="12"/>
-      <c r="AE10" s="192" t="s">
+      <c r="AE10" s="167" t="s">
         <v>17</v>
       </c>
-      <c r="AF10" s="193"/>
-      <c r="AG10" s="194"/>
+      <c r="AF10" s="168"/>
+      <c r="AG10" s="169"/>
     </row>
     <row r="11" spans="2:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="172" t="s">
+      <c r="B11" s="187" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="28" t="s">
@@ -7104,7 +7181,7 @@
         <f>225*1.1</f>
         <v>247.50000000000003</v>
       </c>
-      <c r="G11" s="176"/>
+      <c r="G11" s="182"/>
       <c r="H11" s="11" t="s">
         <v>10</v>
       </c>
@@ -7139,7 +7216,7 @@
       <c r="S11" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="U11" s="196"/>
+      <c r="U11" s="171"/>
       <c r="V11" s="11" t="s">
         <v>10</v>
       </c>
@@ -7176,7 +7253,7 @@
       </c>
     </row>
     <row r="12" spans="2:51" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="172"/>
+      <c r="B12" s="187"/>
       <c r="C12" s="28" t="s">
         <v>44</v>
       </c>
@@ -7187,7 +7264,7 @@
         <f>227*1.1</f>
         <v>249.70000000000002</v>
       </c>
-      <c r="G12" s="176"/>
+      <c r="G12" s="182"/>
       <c r="H12" s="7">
         <f>$M10*$E$4</f>
         <v>330240</v>
@@ -7233,7 +7310,7 @@
         <f>R12/$K10</f>
         <v>0.19905280045752707</v>
       </c>
-      <c r="U12" s="196"/>
+      <c r="U12" s="171"/>
       <c r="V12" s="7">
         <f>$AA10*$E$4</f>
         <v>314760</v>
@@ -7281,7 +7358,7 @@
       </c>
     </row>
     <row r="13" spans="2:51" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="172"/>
+      <c r="B13" s="187"/>
       <c r="C13" s="28" t="s">
         <v>43</v>
       </c>
@@ -7296,7 +7373,7 @@
       <c r="I13" s="29"/>
     </row>
     <row r="14" spans="2:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="179" t="s">
+      <c r="B14" s="194" t="s">
         <v>42</v>
       </c>
       <c r="C14" s="28" t="s">
@@ -7309,7 +7386,7 @@
         <f>1015*1.1</f>
         <v>1116.5</v>
       </c>
-      <c r="G14" s="177" t="s">
+      <c r="G14" s="192" t="s">
         <v>40</v>
       </c>
       <c r="H14" s="33">
@@ -7338,12 +7415,12 @@
         <v>82</v>
       </c>
       <c r="P14" s="12"/>
-      <c r="Q14" s="168" t="s">
+      <c r="Q14" s="175" t="s">
         <v>11</v>
       </c>
-      <c r="R14" s="168"/>
-      <c r="S14" s="169"/>
-      <c r="U14" s="195" t="s">
+      <c r="R14" s="175"/>
+      <c r="S14" s="176"/>
+      <c r="U14" s="170" t="s">
         <v>39</v>
       </c>
       <c r="V14" s="31">
@@ -7372,14 +7449,14 @@
         <v>89</v>
       </c>
       <c r="AD14" s="12"/>
-      <c r="AE14" s="192" t="s">
+      <c r="AE14" s="167" t="s">
         <v>17</v>
       </c>
-      <c r="AF14" s="193"/>
-      <c r="AG14" s="194"/>
+      <c r="AF14" s="168"/>
+      <c r="AG14" s="169"/>
     </row>
     <row r="15" spans="2:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="172"/>
+      <c r="B15" s="187"/>
       <c r="C15" s="28" t="s">
         <v>38</v>
       </c>
@@ -7390,7 +7467,7 @@
         <f>1060*1.1</f>
         <v>1166</v>
       </c>
-      <c r="G15" s="178"/>
+      <c r="G15" s="193"/>
       <c r="H15" s="11" t="s">
         <v>10</v>
       </c>
@@ -7425,7 +7502,7 @@
       <c r="S15" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="U15" s="196"/>
+      <c r="U15" s="171"/>
       <c r="V15" s="11" t="s">
         <v>10</v>
       </c>
@@ -7475,7 +7552,7 @@
         <f>45*1.1</f>
         <v>49.500000000000007</v>
       </c>
-      <c r="G16" s="178"/>
+      <c r="G16" s="193"/>
       <c r="H16" s="7">
         <f>$M14*$E$5</f>
         <v>357680</v>
@@ -7521,7 +7598,7 @@
         <f>R16/$K14</f>
         <v>0.19895952240457485</v>
       </c>
-      <c r="U16" s="196"/>
+      <c r="U16" s="171"/>
       <c r="V16" s="7">
         <f>$AA14*$E$4</f>
         <v>412800</v>
@@ -7598,7 +7675,7 @@
       <c r="E18" s="26">
         <v>70000</v>
       </c>
-      <c r="G18" s="166" t="s">
+      <c r="G18" s="177" t="s">
         <v>32</v>
       </c>
       <c r="H18" s="108">
@@ -7627,12 +7704,12 @@
         <v>74</v>
       </c>
       <c r="P18" s="12"/>
-      <c r="Q18" s="168" t="s">
+      <c r="Q18" s="175" t="s">
         <v>11</v>
       </c>
-      <c r="R18" s="168"/>
-      <c r="S18" s="169"/>
-      <c r="U18" s="183" t="s">
+      <c r="R18" s="175"/>
+      <c r="S18" s="176"/>
+      <c r="U18" s="172" t="s">
         <v>31</v>
       </c>
       <c r="V18" s="19">
@@ -7661,11 +7738,11 @@
         <v>176</v>
       </c>
       <c r="AD18" s="12"/>
-      <c r="AE18" s="192" t="s">
+      <c r="AE18" s="167" t="s">
         <v>17</v>
       </c>
-      <c r="AF18" s="193"/>
-      <c r="AG18" s="194"/>
+      <c r="AF18" s="168"/>
+      <c r="AG18" s="169"/>
     </row>
     <row r="19" spans="2:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="28" t="s">
@@ -7681,7 +7758,7 @@
         <f>95*1.1</f>
         <v>104.50000000000001</v>
       </c>
-      <c r="G19" s="167"/>
+      <c r="G19" s="178"/>
       <c r="H19" s="11" t="s">
         <v>10</v>
       </c>
@@ -7716,7 +7793,7 @@
       <c r="S19" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="U19" s="191"/>
+      <c r="U19" s="173"/>
       <c r="V19" s="11" t="s">
         <v>10</v>
       </c>
@@ -7766,7 +7843,7 @@
         <f>200*1.1</f>
         <v>220.00000000000003</v>
       </c>
-      <c r="G20" s="167"/>
+      <c r="G20" s="178"/>
       <c r="H20" s="7">
         <f>$M18*$E$4</f>
         <v>330240</v>
@@ -7812,7 +7889,7 @@
         <f>R20/$K18</f>
         <v>0.20840821664183859</v>
       </c>
-      <c r="U20" s="191"/>
+      <c r="U20" s="173"/>
       <c r="V20" s="7">
         <f>$AA18*$E$5</f>
         <v>413440</v>
@@ -7889,7 +7966,7 @@
       <c r="E22" s="26">
         <v>200</v>
       </c>
-      <c r="G22" s="185" t="s">
+      <c r="G22" s="179" t="s">
         <v>24</v>
       </c>
       <c r="H22" s="25">
@@ -7918,12 +7995,12 @@
         <v>71</v>
       </c>
       <c r="P22" s="12"/>
-      <c r="Q22" s="168" t="s">
+      <c r="Q22" s="175" t="s">
         <v>11</v>
       </c>
-      <c r="R22" s="168"/>
-      <c r="S22" s="169"/>
-      <c r="U22" s="183" t="s">
+      <c r="R22" s="175"/>
+      <c r="S22" s="176"/>
+      <c r="U22" s="172" t="s">
         <v>23</v>
       </c>
       <c r="V22" s="19">
@@ -7952,11 +8029,11 @@
         <v>119</v>
       </c>
       <c r="AD22" s="12"/>
-      <c r="AE22" s="192" t="s">
+      <c r="AE22" s="167" t="s">
         <v>17</v>
       </c>
-      <c r="AF22" s="193"/>
-      <c r="AG22" s="194"/>
+      <c r="AF22" s="168"/>
+      <c r="AG22" s="169"/>
     </row>
     <row r="23" spans="2:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
@@ -7972,7 +8049,7 @@
         <f>240*1.1</f>
         <v>264</v>
       </c>
-      <c r="G23" s="186"/>
+      <c r="G23" s="180"/>
       <c r="H23" s="11" t="s">
         <v>10</v>
       </c>
@@ -8007,7 +8084,7 @@
       <c r="S23" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="U23" s="191"/>
+      <c r="U23" s="173"/>
       <c r="V23" s="11" t="s">
         <v>10</v>
       </c>
@@ -8044,7 +8121,7 @@
       </c>
     </row>
     <row r="24" spans="2:33" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G24" s="186"/>
+      <c r="G24" s="180"/>
       <c r="H24" s="7">
         <f>$M22*$E$4</f>
         <v>334110</v>
@@ -8090,7 +8167,7 @@
         <f>R24/$K22</f>
         <v>0.19791012122732585</v>
       </c>
-      <c r="U24" s="191"/>
+      <c r="U24" s="173"/>
       <c r="V24" s="7">
         <f>$AA22*$E$5</f>
         <v>331840</v>
@@ -8139,7 +8216,7 @@
     </row>
     <row r="25" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="26" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G26" s="175" t="s">
+      <c r="G26" s="181" t="s">
         <v>19</v>
       </c>
       <c r="H26" s="23">
@@ -8168,12 +8245,12 @@
         <v>222</v>
       </c>
       <c r="P26" s="12"/>
-      <c r="Q26" s="168" t="s">
+      <c r="Q26" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="R26" s="168"/>
-      <c r="S26" s="169"/>
-      <c r="U26" s="183" t="s">
+      <c r="R26" s="175"/>
+      <c r="S26" s="176"/>
+      <c r="U26" s="172" t="s">
         <v>20</v>
       </c>
       <c r="V26" s="19">
@@ -8202,14 +8279,14 @@
         <v>148</v>
       </c>
       <c r="AD26" s="12"/>
-      <c r="AE26" s="168" t="s">
+      <c r="AE26" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="AF26" s="168"/>
-      <c r="AG26" s="169"/>
+      <c r="AF26" s="175"/>
+      <c r="AG26" s="176"/>
     </row>
     <row r="27" spans="2:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="176"/>
+      <c r="G27" s="182"/>
       <c r="H27" s="11" t="s">
         <v>10</v>
       </c>
@@ -8244,7 +8321,7 @@
       <c r="S27" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="U27" s="184"/>
+      <c r="U27" s="174"/>
       <c r="V27" s="11" t="s">
         <v>10</v>
       </c>
@@ -8281,7 +8358,7 @@
       </c>
     </row>
     <row r="28" spans="2:33" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G28" s="176"/>
+      <c r="G28" s="182"/>
       <c r="H28" s="7">
         <f>$M26*$E$4</f>
         <v>328950</v>
@@ -8327,7 +8404,7 @@
         <f>$R28/$K26</f>
         <v>0.21579524783256387</v>
       </c>
-      <c r="U28" s="184"/>
+      <c r="U28" s="174"/>
       <c r="V28" s="7">
         <f>$AA26*$E$4</f>
         <v>314760</v>
@@ -8376,7 +8453,7 @@
     </row>
     <row r="29" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="30" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G30" s="187" t="s">
+      <c r="G30" s="183" t="s">
         <v>19</v>
       </c>
       <c r="H30" s="21">
@@ -8405,12 +8482,12 @@
         <v>105</v>
       </c>
       <c r="P30" s="12"/>
-      <c r="Q30" s="168" t="s">
+      <c r="Q30" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="R30" s="168"/>
-      <c r="S30" s="169"/>
-      <c r="U30" s="183" t="s">
+      <c r="R30" s="175"/>
+      <c r="S30" s="176"/>
+      <c r="U30" s="172" t="s">
         <v>18</v>
       </c>
       <c r="V30" s="19">
@@ -8439,14 +8516,14 @@
         <v>148</v>
       </c>
       <c r="AD30" s="12"/>
-      <c r="AE30" s="168" t="s">
+      <c r="AE30" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="AF30" s="168"/>
-      <c r="AG30" s="169"/>
+      <c r="AF30" s="175"/>
+      <c r="AG30" s="176"/>
     </row>
     <row r="31" spans="2:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G31" s="188"/>
+      <c r="G31" s="184"/>
       <c r="H31" s="11" t="s">
         <v>10</v>
       </c>
@@ -8481,7 +8558,7 @@
       <c r="S31" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="U31" s="184"/>
+      <c r="U31" s="174"/>
       <c r="V31" s="11" t="s">
         <v>10</v>
       </c>
@@ -8518,7 +8595,7 @@
       </c>
     </row>
     <row r="32" spans="2:33" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G32" s="188"/>
+      <c r="G32" s="184"/>
       <c r="H32" s="7">
         <f>$M30*$E$4</f>
         <v>348300</v>
@@ -8564,7 +8641,7 @@
         <f>$R32/$K30</f>
         <v>0.20044103577961847</v>
       </c>
-      <c r="U32" s="184"/>
+      <c r="U32" s="174"/>
       <c r="V32" s="7">
         <f>$AA30*$E$4</f>
         <v>314760</v>
@@ -8613,7 +8690,7 @@
     </row>
     <row r="33" spans="7:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="34" spans="7:19" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="G34" s="189" t="s">
+      <c r="G34" s="185" t="s">
         <v>16</v>
       </c>
       <c r="H34" s="17">
@@ -8642,14 +8719,14 @@
         <v>117</v>
       </c>
       <c r="P34" s="12"/>
-      <c r="Q34" s="168" t="s">
+      <c r="Q34" s="175" t="s">
         <v>11</v>
       </c>
-      <c r="R34" s="168"/>
-      <c r="S34" s="169"/>
+      <c r="R34" s="175"/>
+      <c r="S34" s="176"/>
     </row>
     <row r="35" spans="7:19" x14ac:dyDescent="0.3">
-      <c r="G35" s="190"/>
+      <c r="G35" s="186"/>
       <c r="H35" s="11" t="s">
         <v>10</v>
       </c>
@@ -8686,7 +8763,7 @@
       </c>
     </row>
     <row r="36" spans="7:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G36" s="190"/>
+      <c r="G36" s="186"/>
       <c r="H36" s="7">
         <f>$M34*$E$4</f>
         <v>335400</v>
@@ -8735,7 +8812,7 @@
     </row>
     <row r="37" spans="7:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="38" spans="7:19" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="G38" s="170" t="s">
+      <c r="G38" s="188" t="s">
         <v>62</v>
       </c>
       <c r="H38" s="39">
@@ -8764,14 +8841,14 @@
         <v>112</v>
       </c>
       <c r="P38" s="12"/>
-      <c r="Q38" s="168" t="s">
+      <c r="Q38" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="R38" s="168"/>
-      <c r="S38" s="169"/>
+      <c r="R38" s="175"/>
+      <c r="S38" s="176"/>
     </row>
     <row r="39" spans="7:19" x14ac:dyDescent="0.3">
-      <c r="G39" s="171"/>
+      <c r="G39" s="189"/>
       <c r="H39" s="11" t="s">
         <v>10</v>
       </c>
@@ -8808,7 +8885,7 @@
       </c>
     </row>
     <row r="40" spans="7:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G40" s="171"/>
+      <c r="G40" s="189"/>
       <c r="H40" s="7">
         <f>$M38*$E$4</f>
         <v>335400</v>
@@ -8857,7 +8934,7 @@
     </row>
     <row r="41" spans="7:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="42" spans="7:19" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="G42" s="166" t="s">
+      <c r="G42" s="177" t="s">
         <v>32</v>
       </c>
       <c r="H42" s="108">
@@ -8886,14 +8963,14 @@
         <v>74</v>
       </c>
       <c r="P42" s="12"/>
-      <c r="Q42" s="168" t="s">
+      <c r="Q42" s="175" t="s">
         <v>11</v>
       </c>
-      <c r="R42" s="168"/>
-      <c r="S42" s="169"/>
+      <c r="R42" s="175"/>
+      <c r="S42" s="176"/>
     </row>
     <row r="43" spans="7:19" x14ac:dyDescent="0.3">
-      <c r="G43" s="167"/>
+      <c r="G43" s="178"/>
       <c r="H43" s="11" t="s">
         <v>10</v>
       </c>
@@ -8930,7 +9007,7 @@
       </c>
     </row>
     <row r="44" spans="7:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G44" s="167"/>
+      <c r="G44" s="178"/>
       <c r="H44" s="7">
         <f>$M42*$E$4</f>
         <v>334110</v>
@@ -8979,16 +9056,25 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="AE2:AG2"/>
-    <mergeCell ref="U2:U4"/>
-    <mergeCell ref="AE18:AG18"/>
-    <mergeCell ref="U18:U20"/>
-    <mergeCell ref="AE14:AG14"/>
-    <mergeCell ref="U14:U16"/>
-    <mergeCell ref="AE10:AG10"/>
-    <mergeCell ref="U10:U12"/>
-    <mergeCell ref="AE6:AG6"/>
-    <mergeCell ref="U6:U8"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="Q42:S42"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="Q38:S38"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B9:B10"/>
     <mergeCell ref="U30:U32"/>
     <mergeCell ref="AE30:AG30"/>
     <mergeCell ref="Q34:S34"/>
@@ -9005,25 +9091,16 @@
     <mergeCell ref="AE22:AG22"/>
     <mergeCell ref="U26:U28"/>
     <mergeCell ref="AE26:AG26"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="Q42:S42"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="Q38:S38"/>
+    <mergeCell ref="AE2:AG2"/>
+    <mergeCell ref="U2:U4"/>
+    <mergeCell ref="AE18:AG18"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="AE14:AG14"/>
+    <mergeCell ref="U14:U16"/>
+    <mergeCell ref="AE10:AG10"/>
+    <mergeCell ref="U10:U12"/>
+    <mergeCell ref="AE6:AG6"/>
+    <mergeCell ref="U6:U8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9071,96 +9148,96 @@
     <row r="1" spans="2:32" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:32" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B3" s="197" t="s">
+      <c r="B3" s="220" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="197"/>
-      <c r="D3" s="197"/>
-      <c r="E3" s="197"/>
-      <c r="F3" s="197"/>
-      <c r="G3" s="197"/>
-      <c r="H3" s="197"/>
-      <c r="I3" s="197"/>
-      <c r="J3" s="197"/>
-      <c r="K3" s="197"/>
-      <c r="L3" s="197"/>
-      <c r="M3" s="197"/>
-      <c r="N3" s="197"/>
-      <c r="O3" s="197"/>
-      <c r="P3" s="197"/>
-      <c r="Q3" s="197"/>
-      <c r="R3" s="197"/>
-      <c r="S3" s="197"/>
-      <c r="T3" s="197"/>
-      <c r="U3" s="197"/>
-      <c r="V3" s="197"/>
-      <c r="W3" s="197"/>
-      <c r="X3" s="197"/>
-      <c r="Y3" s="197"/>
-      <c r="Z3" s="197"/>
-      <c r="AA3" s="197"/>
-      <c r="AB3" s="197"/>
-      <c r="AC3" s="197"/>
+      <c r="C3" s="220"/>
+      <c r="D3" s="220"/>
+      <c r="E3" s="220"/>
+      <c r="F3" s="220"/>
+      <c r="G3" s="220"/>
+      <c r="H3" s="220"/>
+      <c r="I3" s="220"/>
+      <c r="J3" s="220"/>
+      <c r="K3" s="220"/>
+      <c r="L3" s="220"/>
+      <c r="M3" s="220"/>
+      <c r="N3" s="220"/>
+      <c r="O3" s="220"/>
+      <c r="P3" s="220"/>
+      <c r="Q3" s="220"/>
+      <c r="R3" s="220"/>
+      <c r="S3" s="220"/>
+      <c r="T3" s="220"/>
+      <c r="U3" s="220"/>
+      <c r="V3" s="220"/>
+      <c r="W3" s="220"/>
+      <c r="X3" s="220"/>
+      <c r="Y3" s="220"/>
+      <c r="Z3" s="220"/>
+      <c r="AA3" s="220"/>
+      <c r="AB3" s="220"/>
+      <c r="AC3" s="220"/>
     </row>
     <row r="4" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B4" s="197"/>
-      <c r="C4" s="197"/>
-      <c r="D4" s="197"/>
-      <c r="E4" s="197"/>
-      <c r="F4" s="197"/>
-      <c r="G4" s="197"/>
-      <c r="H4" s="197"/>
-      <c r="I4" s="197"/>
-      <c r="J4" s="197"/>
-      <c r="K4" s="197"/>
-      <c r="L4" s="197"/>
-      <c r="M4" s="197"/>
-      <c r="N4" s="197"/>
-      <c r="O4" s="197"/>
-      <c r="P4" s="197"/>
-      <c r="Q4" s="197"/>
-      <c r="R4" s="197"/>
-      <c r="S4" s="197"/>
-      <c r="T4" s="197"/>
-      <c r="U4" s="197"/>
-      <c r="V4" s="197"/>
-      <c r="W4" s="197"/>
-      <c r="X4" s="197"/>
-      <c r="Y4" s="197"/>
-      <c r="Z4" s="197"/>
-      <c r="AA4" s="197"/>
-      <c r="AB4" s="197"/>
-      <c r="AC4" s="197"/>
+      <c r="B4" s="220"/>
+      <c r="C4" s="220"/>
+      <c r="D4" s="220"/>
+      <c r="E4" s="220"/>
+      <c r="F4" s="220"/>
+      <c r="G4" s="220"/>
+      <c r="H4" s="220"/>
+      <c r="I4" s="220"/>
+      <c r="J4" s="220"/>
+      <c r="K4" s="220"/>
+      <c r="L4" s="220"/>
+      <c r="M4" s="220"/>
+      <c r="N4" s="220"/>
+      <c r="O4" s="220"/>
+      <c r="P4" s="220"/>
+      <c r="Q4" s="220"/>
+      <c r="R4" s="220"/>
+      <c r="S4" s="220"/>
+      <c r="T4" s="220"/>
+      <c r="U4" s="220"/>
+      <c r="V4" s="220"/>
+      <c r="W4" s="220"/>
+      <c r="X4" s="220"/>
+      <c r="Y4" s="220"/>
+      <c r="Z4" s="220"/>
+      <c r="AA4" s="220"/>
+      <c r="AB4" s="220"/>
+      <c r="AC4" s="220"/>
     </row>
     <row r="5" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B5" s="197"/>
-      <c r="C5" s="197"/>
-      <c r="D5" s="197"/>
-      <c r="E5" s="197"/>
-      <c r="F5" s="197"/>
-      <c r="G5" s="197"/>
-      <c r="H5" s="197"/>
-      <c r="I5" s="197"/>
-      <c r="J5" s="197"/>
-      <c r="K5" s="197"/>
-      <c r="L5" s="197"/>
-      <c r="M5" s="197"/>
-      <c r="N5" s="197"/>
-      <c r="O5" s="197"/>
-      <c r="P5" s="197"/>
-      <c r="Q5" s="197"/>
-      <c r="R5" s="197"/>
-      <c r="S5" s="197"/>
-      <c r="T5" s="197"/>
-      <c r="U5" s="197"/>
-      <c r="V5" s="197"/>
-      <c r="W5" s="197"/>
-      <c r="X5" s="197"/>
-      <c r="Y5" s="197"/>
-      <c r="Z5" s="197"/>
-      <c r="AA5" s="197"/>
-      <c r="AB5" s="197"/>
-      <c r="AC5" s="197"/>
+      <c r="B5" s="220"/>
+      <c r="C5" s="220"/>
+      <c r="D5" s="220"/>
+      <c r="E5" s="220"/>
+      <c r="F5" s="220"/>
+      <c r="G5" s="220"/>
+      <c r="H5" s="220"/>
+      <c r="I5" s="220"/>
+      <c r="J5" s="220"/>
+      <c r="K5" s="220"/>
+      <c r="L5" s="220"/>
+      <c r="M5" s="220"/>
+      <c r="N5" s="220"/>
+      <c r="O5" s="220"/>
+      <c r="P5" s="220"/>
+      <c r="Q5" s="220"/>
+      <c r="R5" s="220"/>
+      <c r="S5" s="220"/>
+      <c r="T5" s="220"/>
+      <c r="U5" s="220"/>
+      <c r="V5" s="220"/>
+      <c r="W5" s="220"/>
+      <c r="X5" s="220"/>
+      <c r="Y5" s="220"/>
+      <c r="Z5" s="220"/>
+      <c r="AA5" s="220"/>
+      <c r="AB5" s="220"/>
+      <c r="AC5" s="220"/>
     </row>
     <row r="6" spans="2:32" ht="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:32" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9169,142 +9246,142 @@
       </c>
     </row>
     <row r="8" spans="2:32" ht="27" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="198" t="s">
+      <c r="B8" s="221" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="199"/>
-      <c r="D8" s="199"/>
-      <c r="E8" s="199"/>
-      <c r="F8" s="199"/>
-      <c r="G8" s="199"/>
-      <c r="H8" s="199"/>
-      <c r="I8" s="199"/>
-      <c r="J8" s="199"/>
-      <c r="K8" s="200"/>
-      <c r="L8" s="201"/>
-      <c r="M8" s="202"/>
-      <c r="N8" s="203" t="s">
+      <c r="C8" s="222"/>
+      <c r="D8" s="222"/>
+      <c r="E8" s="222"/>
+      <c r="F8" s="222"/>
+      <c r="G8" s="222"/>
+      <c r="H8" s="222"/>
+      <c r="I8" s="222"/>
+      <c r="J8" s="222"/>
+      <c r="K8" s="223"/>
+      <c r="L8" s="224"/>
+      <c r="M8" s="225"/>
+      <c r="N8" s="226" t="s">
         <v>73</v>
       </c>
-      <c r="O8" s="204"/>
-      <c r="P8" s="204"/>
-      <c r="Q8" s="205"/>
-      <c r="R8" s="206" t="s">
+      <c r="O8" s="227"/>
+      <c r="P8" s="227"/>
+      <c r="Q8" s="228"/>
+      <c r="R8" s="229" t="s">
         <v>103</v>
       </c>
-      <c r="S8" s="207"/>
-      <c r="T8" s="208"/>
+      <c r="S8" s="230"/>
+      <c r="T8" s="231"/>
       <c r="U8" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="V8" s="209" t="s">
+      <c r="V8" s="232" t="s">
         <v>0</v>
       </c>
-      <c r="W8" s="210"/>
-      <c r="X8" s="210"/>
-      <c r="Y8" s="210"/>
-      <c r="Z8" s="210"/>
-      <c r="AA8" s="210"/>
-      <c r="AB8" s="210"/>
-      <c r="AC8" s="211"/>
+      <c r="W8" s="233"/>
+      <c r="X8" s="233"/>
+      <c r="Y8" s="233"/>
+      <c r="Z8" s="233"/>
+      <c r="AA8" s="233"/>
+      <c r="AB8" s="233"/>
+      <c r="AC8" s="234"/>
     </row>
     <row r="9" spans="2:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="214" t="s">
+      <c r="B9" s="209" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="215" t="s">
+      <c r="C9" s="210" t="s">
         <v>105</v>
       </c>
-      <c r="D9" s="215" t="s">
+      <c r="D9" s="210" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="217" t="s">
+      <c r="E9" s="212" t="s">
         <v>70</v>
       </c>
-      <c r="F9" s="218"/>
-      <c r="G9" s="215" t="s">
+      <c r="F9" s="213"/>
+      <c r="G9" s="210" t="s">
         <v>106</v>
       </c>
-      <c r="H9" s="219" t="s">
+      <c r="H9" s="214" t="s">
         <v>102</v>
       </c>
-      <c r="I9" s="220" t="s">
+      <c r="I9" s="215" t="s">
         <v>71</v>
       </c>
-      <c r="J9" s="221" t="s">
+      <c r="J9" s="216" t="s">
         <v>107</v>
       </c>
-      <c r="K9" s="220" t="s">
+      <c r="K9" s="215" t="s">
         <v>108</v>
       </c>
-      <c r="L9" s="223" t="s">
+      <c r="L9" s="218" t="s">
         <v>109</v>
       </c>
-      <c r="M9" s="212" t="s">
+      <c r="M9" s="207" t="s">
         <v>110</v>
       </c>
-      <c r="N9" s="230" t="s">
+      <c r="N9" s="203" t="s">
         <v>111</v>
       </c>
-      <c r="O9" s="231" t="s">
+      <c r="O9" s="204" t="s">
         <v>73</v>
       </c>
-      <c r="P9" s="230" t="s">
+      <c r="P9" s="203" t="s">
         <v>112</v>
       </c>
-      <c r="Q9" s="232" t="s">
+      <c r="Q9" s="205" t="s">
         <v>113</v>
       </c>
-      <c r="R9" s="225" t="s">
+      <c r="R9" s="198" t="s">
         <v>114</v>
       </c>
-      <c r="S9" s="225" t="s">
+      <c r="S9" s="198" t="s">
         <v>115</v>
       </c>
-      <c r="T9" s="225" t="s">
+      <c r="T9" s="198" t="s">
         <v>116</v>
       </c>
-      <c r="U9" s="227" t="s">
+      <c r="U9" s="200" t="s">
         <v>117</v>
       </c>
-      <c r="V9" s="228" t="s">
+      <c r="V9" s="201" t="s">
         <v>118</v>
       </c>
-      <c r="W9" s="228"/>
-      <c r="X9" s="228"/>
-      <c r="Y9" s="228"/>
-      <c r="Z9" s="228" t="s">
+      <c r="W9" s="201"/>
+      <c r="X9" s="201"/>
+      <c r="Y9" s="201"/>
+      <c r="Z9" s="201" t="s">
         <v>119</v>
       </c>
-      <c r="AA9" s="228"/>
-      <c r="AB9" s="228"/>
-      <c r="AC9" s="229"/>
+      <c r="AA9" s="201"/>
+      <c r="AB9" s="201"/>
+      <c r="AC9" s="202"/>
     </row>
     <row r="10" spans="2:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="214"/>
-      <c r="C10" s="216"/>
-      <c r="D10" s="216"/>
+      <c r="B10" s="209"/>
+      <c r="C10" s="211"/>
+      <c r="D10" s="211"/>
       <c r="E10" s="71" t="s">
         <v>120</v>
       </c>
       <c r="F10" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="G10" s="216"/>
-      <c r="H10" s="219"/>
-      <c r="I10" s="220"/>
-      <c r="J10" s="222"/>
-      <c r="K10" s="220"/>
-      <c r="L10" s="224"/>
-      <c r="M10" s="213"/>
-      <c r="N10" s="231"/>
-      <c r="O10" s="231"/>
-      <c r="P10" s="231"/>
-      <c r="Q10" s="233"/>
-      <c r="R10" s="226"/>
-      <c r="S10" s="226"/>
-      <c r="T10" s="226"/>
-      <c r="U10" s="227"/>
+      <c r="G10" s="211"/>
+      <c r="H10" s="214"/>
+      <c r="I10" s="215"/>
+      <c r="J10" s="217"/>
+      <c r="K10" s="215"/>
+      <c r="L10" s="219"/>
+      <c r="M10" s="208"/>
+      <c r="N10" s="204"/>
+      <c r="O10" s="204"/>
+      <c r="P10" s="204"/>
+      <c r="Q10" s="206"/>
+      <c r="R10" s="199"/>
+      <c r="S10" s="199"/>
+      <c r="T10" s="199"/>
+      <c r="U10" s="200"/>
       <c r="V10" s="72" t="s">
         <v>122</v>
       </c>
@@ -13243,16 +13320,12 @@
   </sheetData>
   <autoFilter ref="B9:D53" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="27">
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="B3:AC5"/>
+    <mergeCell ref="B8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="V8:AC8"/>
     <mergeCell ref="M9:M10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
@@ -13264,12 +13337,16 @@
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="K9:K10"/>
     <mergeCell ref="L9:L10"/>
-    <mergeCell ref="B3:AC5"/>
-    <mergeCell ref="B8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:Q8"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="V8:AC8"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="S9:S10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="Z11:AC53">
@@ -13326,90 +13403,90 @@
     <row r="1" spans="2:30" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:30" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B3" s="197" t="s">
+      <c r="B3" s="220" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="197"/>
-      <c r="D3" s="197"/>
-      <c r="E3" s="197"/>
-      <c r="F3" s="197"/>
-      <c r="G3" s="197"/>
-      <c r="H3" s="197"/>
-      <c r="I3" s="197"/>
-      <c r="J3" s="197"/>
-      <c r="K3" s="197"/>
-      <c r="L3" s="197"/>
-      <c r="M3" s="197"/>
-      <c r="N3" s="197"/>
-      <c r="O3" s="197"/>
-      <c r="P3" s="197"/>
-      <c r="Q3" s="197"/>
-      <c r="R3" s="197"/>
-      <c r="S3" s="197"/>
-      <c r="T3" s="197"/>
-      <c r="U3" s="197"/>
-      <c r="V3" s="197"/>
-      <c r="W3" s="197"/>
-      <c r="X3" s="197"/>
-      <c r="Y3" s="197"/>
-      <c r="Z3" s="197"/>
-      <c r="AA3" s="197"/>
+      <c r="C3" s="220"/>
+      <c r="D3" s="220"/>
+      <c r="E3" s="220"/>
+      <c r="F3" s="220"/>
+      <c r="G3" s="220"/>
+      <c r="H3" s="220"/>
+      <c r="I3" s="220"/>
+      <c r="J3" s="220"/>
+      <c r="K3" s="220"/>
+      <c r="L3" s="220"/>
+      <c r="M3" s="220"/>
+      <c r="N3" s="220"/>
+      <c r="O3" s="220"/>
+      <c r="P3" s="220"/>
+      <c r="Q3" s="220"/>
+      <c r="R3" s="220"/>
+      <c r="S3" s="220"/>
+      <c r="T3" s="220"/>
+      <c r="U3" s="220"/>
+      <c r="V3" s="220"/>
+      <c r="W3" s="220"/>
+      <c r="X3" s="220"/>
+      <c r="Y3" s="220"/>
+      <c r="Z3" s="220"/>
+      <c r="AA3" s="220"/>
     </row>
     <row r="4" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B4" s="197"/>
-      <c r="C4" s="197"/>
-      <c r="D4" s="197"/>
-      <c r="E4" s="197"/>
-      <c r="F4" s="197"/>
-      <c r="G4" s="197"/>
-      <c r="H4" s="197"/>
-      <c r="I4" s="197"/>
-      <c r="J4" s="197"/>
-      <c r="K4" s="197"/>
-      <c r="L4" s="197"/>
-      <c r="M4" s="197"/>
-      <c r="N4" s="197"/>
-      <c r="O4" s="197"/>
-      <c r="P4" s="197"/>
-      <c r="Q4" s="197"/>
-      <c r="R4" s="197"/>
-      <c r="S4" s="197"/>
-      <c r="T4" s="197"/>
-      <c r="U4" s="197"/>
-      <c r="V4" s="197"/>
-      <c r="W4" s="197"/>
-      <c r="X4" s="197"/>
-      <c r="Y4" s="197"/>
-      <c r="Z4" s="197"/>
-      <c r="AA4" s="197"/>
+      <c r="B4" s="220"/>
+      <c r="C4" s="220"/>
+      <c r="D4" s="220"/>
+      <c r="E4" s="220"/>
+      <c r="F4" s="220"/>
+      <c r="G4" s="220"/>
+      <c r="H4" s="220"/>
+      <c r="I4" s="220"/>
+      <c r="J4" s="220"/>
+      <c r="K4" s="220"/>
+      <c r="L4" s="220"/>
+      <c r="M4" s="220"/>
+      <c r="N4" s="220"/>
+      <c r="O4" s="220"/>
+      <c r="P4" s="220"/>
+      <c r="Q4" s="220"/>
+      <c r="R4" s="220"/>
+      <c r="S4" s="220"/>
+      <c r="T4" s="220"/>
+      <c r="U4" s="220"/>
+      <c r="V4" s="220"/>
+      <c r="W4" s="220"/>
+      <c r="X4" s="220"/>
+      <c r="Y4" s="220"/>
+      <c r="Z4" s="220"/>
+      <c r="AA4" s="220"/>
     </row>
     <row r="5" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B5" s="197"/>
-      <c r="C5" s="197"/>
-      <c r="D5" s="197"/>
-      <c r="E5" s="197"/>
-      <c r="F5" s="197"/>
-      <c r="G5" s="197"/>
-      <c r="H5" s="197"/>
-      <c r="I5" s="197"/>
-      <c r="J5" s="197"/>
-      <c r="K5" s="197"/>
-      <c r="L5" s="197"/>
-      <c r="M5" s="197"/>
-      <c r="N5" s="197"/>
-      <c r="O5" s="197"/>
-      <c r="P5" s="197"/>
-      <c r="Q5" s="197"/>
-      <c r="R5" s="197"/>
-      <c r="S5" s="197"/>
-      <c r="T5" s="197"/>
-      <c r="U5" s="197"/>
-      <c r="V5" s="197"/>
-      <c r="W5" s="197"/>
-      <c r="X5" s="197"/>
-      <c r="Y5" s="197"/>
-      <c r="Z5" s="197"/>
-      <c r="AA5" s="197"/>
+      <c r="B5" s="220"/>
+      <c r="C5" s="220"/>
+      <c r="D5" s="220"/>
+      <c r="E5" s="220"/>
+      <c r="F5" s="220"/>
+      <c r="G5" s="220"/>
+      <c r="H5" s="220"/>
+      <c r="I5" s="220"/>
+      <c r="J5" s="220"/>
+      <c r="K5" s="220"/>
+      <c r="L5" s="220"/>
+      <c r="M5" s="220"/>
+      <c r="N5" s="220"/>
+      <c r="O5" s="220"/>
+      <c r="P5" s="220"/>
+      <c r="Q5" s="220"/>
+      <c r="R5" s="220"/>
+      <c r="S5" s="220"/>
+      <c r="T5" s="220"/>
+      <c r="U5" s="220"/>
+      <c r="V5" s="220"/>
+      <c r="W5" s="220"/>
+      <c r="X5" s="220"/>
+      <c r="Y5" s="220"/>
+      <c r="Z5" s="220"/>
+      <c r="AA5" s="220"/>
     </row>
     <row r="6" spans="2:30" ht="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:30" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -13418,130 +13495,130 @@
       </c>
     </row>
     <row r="8" spans="2:30" ht="27" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="198" t="s">
+      <c r="B8" s="221" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="199"/>
-      <c r="D8" s="199"/>
-      <c r="E8" s="199"/>
-      <c r="F8" s="199"/>
-      <c r="G8" s="199"/>
-      <c r="H8" s="199"/>
-      <c r="I8" s="200"/>
-      <c r="J8" s="201"/>
-      <c r="K8" s="202"/>
-      <c r="L8" s="203" t="s">
+      <c r="C8" s="222"/>
+      <c r="D8" s="222"/>
+      <c r="E8" s="222"/>
+      <c r="F8" s="222"/>
+      <c r="G8" s="222"/>
+      <c r="H8" s="222"/>
+      <c r="I8" s="223"/>
+      <c r="J8" s="224"/>
+      <c r="K8" s="225"/>
+      <c r="L8" s="226" t="s">
         <v>73</v>
       </c>
-      <c r="M8" s="204"/>
-      <c r="N8" s="204"/>
-      <c r="O8" s="205"/>
-      <c r="P8" s="206" t="s">
+      <c r="M8" s="227"/>
+      <c r="N8" s="227"/>
+      <c r="O8" s="228"/>
+      <c r="P8" s="229" t="s">
         <v>103</v>
       </c>
-      <c r="Q8" s="207"/>
-      <c r="R8" s="208"/>
+      <c r="Q8" s="230"/>
+      <c r="R8" s="231"/>
       <c r="S8" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="T8" s="209" t="s">
+      <c r="T8" s="232" t="s">
         <v>0</v>
       </c>
-      <c r="U8" s="210"/>
-      <c r="V8" s="210"/>
-      <c r="W8" s="210"/>
-      <c r="X8" s="210"/>
-      <c r="Y8" s="210"/>
-      <c r="Z8" s="210"/>
-      <c r="AA8" s="211"/>
+      <c r="U8" s="233"/>
+      <c r="V8" s="233"/>
+      <c r="W8" s="233"/>
+      <c r="X8" s="233"/>
+      <c r="Y8" s="233"/>
+      <c r="Z8" s="233"/>
+      <c r="AA8" s="234"/>
     </row>
     <row r="9" spans="2:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="214" t="s">
+      <c r="B9" s="209" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="215" t="s">
+      <c r="C9" s="210" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="215" t="s">
+      <c r="D9" s="210" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="215" t="s">
+      <c r="E9" s="210" t="s">
         <v>106</v>
       </c>
-      <c r="F9" s="219" t="s">
+      <c r="F9" s="214" t="s">
         <v>102</v>
       </c>
-      <c r="G9" s="220" t="s">
+      <c r="G9" s="215" t="s">
         <v>71</v>
       </c>
-      <c r="H9" s="221" t="s">
+      <c r="H9" s="216" t="s">
         <v>107</v>
       </c>
-      <c r="I9" s="220" t="s">
+      <c r="I9" s="215" t="s">
         <v>108</v>
       </c>
-      <c r="J9" s="223" t="s">
+      <c r="J9" s="218" t="s">
         <v>109</v>
       </c>
-      <c r="K9" s="212" t="s">
+      <c r="K9" s="207" t="s">
         <v>110</v>
       </c>
-      <c r="L9" s="230" t="s">
+      <c r="L9" s="203" t="s">
         <v>111</v>
       </c>
-      <c r="M9" s="231" t="s">
+      <c r="M9" s="204" t="s">
         <v>73</v>
       </c>
-      <c r="N9" s="230" t="s">
+      <c r="N9" s="203" t="s">
         <v>112</v>
       </c>
-      <c r="O9" s="232" t="s">
+      <c r="O9" s="205" t="s">
         <v>113</v>
       </c>
-      <c r="P9" s="225" t="s">
+      <c r="P9" s="198" t="s">
         <v>114</v>
       </c>
-      <c r="Q9" s="225" t="s">
+      <c r="Q9" s="198" t="s">
         <v>115</v>
       </c>
-      <c r="R9" s="225" t="s">
+      <c r="R9" s="198" t="s">
         <v>116</v>
       </c>
-      <c r="S9" s="227" t="s">
+      <c r="S9" s="200" t="s">
         <v>117</v>
       </c>
-      <c r="T9" s="228" t="s">
+      <c r="T9" s="201" t="s">
         <v>118</v>
       </c>
-      <c r="U9" s="228"/>
-      <c r="V9" s="228"/>
-      <c r="W9" s="228"/>
-      <c r="X9" s="228" t="s">
+      <c r="U9" s="201"/>
+      <c r="V9" s="201"/>
+      <c r="W9" s="201"/>
+      <c r="X9" s="201" t="s">
         <v>119</v>
       </c>
-      <c r="Y9" s="228"/>
-      <c r="Z9" s="228"/>
-      <c r="AA9" s="229"/>
+      <c r="Y9" s="201"/>
+      <c r="Z9" s="201"/>
+      <c r="AA9" s="202"/>
     </row>
     <row r="10" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="214"/>
-      <c r="C10" s="216"/>
-      <c r="D10" s="216"/>
-      <c r="E10" s="216"/>
-      <c r="F10" s="219"/>
-      <c r="G10" s="220"/>
-      <c r="H10" s="222"/>
-      <c r="I10" s="220"/>
-      <c r="J10" s="224"/>
-      <c r="K10" s="213"/>
-      <c r="L10" s="231"/>
-      <c r="M10" s="231"/>
-      <c r="N10" s="231"/>
-      <c r="O10" s="233"/>
-      <c r="P10" s="226"/>
-      <c r="Q10" s="226"/>
-      <c r="R10" s="226"/>
-      <c r="S10" s="227"/>
+      <c r="B10" s="209"/>
+      <c r="C10" s="211"/>
+      <c r="D10" s="211"/>
+      <c r="E10" s="211"/>
+      <c r="F10" s="214"/>
+      <c r="G10" s="215"/>
+      <c r="H10" s="217"/>
+      <c r="I10" s="215"/>
+      <c r="J10" s="219"/>
+      <c r="K10" s="208"/>
+      <c r="L10" s="204"/>
+      <c r="M10" s="204"/>
+      <c r="N10" s="204"/>
+      <c r="O10" s="206"/>
+      <c r="P10" s="199"/>
+      <c r="Q10" s="199"/>
+      <c r="R10" s="199"/>
+      <c r="S10" s="200"/>
       <c r="T10" s="118" t="s">
         <v>122</v>
       </c>
@@ -15338,16 +15415,6 @@
   </sheetData>
   <autoFilter ref="B9:C40" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="26">
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="E9:E10"/>
@@ -15364,6 +15431,16 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="M9:M10"/>
     <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="X11:AA22 X24:AA28 X30:AA40">

--- a/document/goods_Info.xlsx
+++ b/document/goods_Info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aodrl\Desktop\Project\CMW_V2\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6C018F-7B0E-49A7-A942-709A074BF83D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE68D854-828E-4A4F-9D9D-873423384E34}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2490" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{2202C1BA-8378-4109-9FCC-5C7E0CDB8A0F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{2202C1BA-8378-4109-9FCC-5C7E0CDB8A0F}"/>
   </bookViews>
   <sheets>
     <sheet name="정보" sheetId="3" r:id="rId1"/>
@@ -4547,8 +4547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3104B28F-70C4-4516-B7D6-2295FDC1E0E7}">
   <dimension ref="B2:AE37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5842,7 +5842,9 @@
       <c r="M23" s="147">
         <v>4</v>
       </c>
-      <c r="N23" s="144"/>
+      <c r="N23" s="144">
+        <v>6</v>
+      </c>
     </row>
     <row r="24" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B24" s="132" t="s">
@@ -5879,7 +5881,10 @@
         <f>$R5*M$23</f>
         <v>14366.880678376741</v>
       </c>
-      <c r="N24" s="144"/>
+      <c r="N24" s="144">
+        <f>L25*2</f>
+        <v>22051.92101756511</v>
+      </c>
       <c r="O24" s="1"/>
     </row>
     <row r="25" spans="2:28" x14ac:dyDescent="0.3">
@@ -5914,7 +5919,10 @@
         <f>M$24+$E17</f>
         <v>14622.080678376742</v>
       </c>
-      <c r="N25" s="144"/>
+      <c r="N25" s="144">
+        <f>N24</f>
+        <v>22051.92101756511</v>
+      </c>
     </row>
     <row r="26" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B26" s="132" t="s">
@@ -5952,6 +5960,9 @@
       </c>
       <c r="P26" s="144">
         <v>4</v>
+      </c>
+      <c r="Q26" s="144">
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="2:28" x14ac:dyDescent="0.3">
@@ -5994,6 +6005,10 @@
         <f>N27*2</f>
         <v>13849.800847970928</v>
       </c>
+      <c r="Q27" s="122">
+        <f>N27*3</f>
+        <v>20774.701271956394</v>
+      </c>
     </row>
     <row r="28" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B28" s="161" t="s">
@@ -6036,6 +6051,10 @@
       <c r="P28" s="122">
         <f>N28*2</f>
         <v>14881.800847970928</v>
+      </c>
+      <c r="Q28" s="122">
+        <f t="shared" ref="Q28:Q31" si="17">N28*3</f>
+        <v>22322.701271956394</v>
       </c>
     </row>
     <row r="29" spans="2:28" x14ac:dyDescent="0.3">
@@ -6075,8 +6094,12 @@
         <v>13452.550635978194</v>
       </c>
       <c r="P29" s="122">
-        <f t="shared" ref="P29:P31" si="17">N29*2</f>
+        <f t="shared" ref="P29:Q31" si="18">N29*2</f>
         <v>17986.600847970927</v>
+      </c>
+      <c r="Q29" s="122">
+        <f t="shared" si="17"/>
+        <v>26979.901271956391</v>
       </c>
     </row>
     <row r="30" spans="2:28" x14ac:dyDescent="0.3">
@@ -6116,8 +6139,12 @@
         <v>15406.250635978195</v>
       </c>
       <c r="P30" s="122">
+        <f t="shared" si="18"/>
+        <v>20588.600847970927</v>
+      </c>
+      <c r="Q30" s="122">
         <f t="shared" si="17"/>
-        <v>20588.600847970927</v>
+        <v>30882.901271956391</v>
       </c>
     </row>
     <row r="31" spans="2:28" x14ac:dyDescent="0.3">
@@ -6161,12 +6188,16 @@
         <v>15986.750635978195</v>
       </c>
       <c r="P31" s="122">
+        <f t="shared" si="18"/>
+        <v>21362.600847970927</v>
+      </c>
+      <c r="Q31" s="122">
         <f t="shared" si="17"/>
-        <v>21362.600847970927</v>
+        <v>32043.901271956391</v>
       </c>
       <c r="R31" s="150"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>197</v>
       </c>
@@ -6181,7 +6212,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35" s="149" t="s">
         <v>185</v>
       </c>
@@ -6193,7 +6224,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B36" s="149" t="s">
         <v>184</v>
       </c>
@@ -6204,8 +6235,16 @@
         <f>C36*1.1</f>
         <v>148.5</v>
       </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="I36">
+        <f>1050*1.15</f>
+        <v>1207.5</v>
+      </c>
+      <c r="J36">
+        <f>I36*1.1</f>
+        <v>1328.25</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B37" s="149" t="s">
         <v>183</v>
       </c>
@@ -6215,6 +6254,10 @@
       <c r="D37" s="149">
         <f>C37*1.1</f>
         <v>193.60000000000002</v>
+      </c>
+      <c r="J37" s="3">
+        <f>J36-E33</f>
+        <v>173.25</v>
       </c>
     </row>
   </sheetData>
